--- a/temp_sections_for_generation.xlsx
+++ b/temp_sections_for_generation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,140 +458,2400 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;4.1	General&lt;/h2&gt;</t>
+          <t>&lt;h3&gt;5.16.6	Mission Critical Services&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23548-i20.docx</t>
+          <t>23501.docx</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1160387207714905</v>
+        <v>0.1341982483863831</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['', "Edge Computing enables operator and 3rd party services to be hosted close to the UE's access point of attachment, so as to achieve an efficient service delivery through the reduced end-to-end latency and load on the transport network.", '', '5GS supports Edge Hosting Environment (EHE) deployed in the DN beyond the PSA UPF. An EHE may be under the control of either the operator or 3rd parties.', '', 'The Edge Computing features defined in this specification are applicable to PLMN(s) and to SNPN(s).', '', 'The Local part of the DN in which EHE is deployed may have user plane connectivity with both a centrally deployed PSA and locally deployed PSA of same DNN. Edge Computing enablers as described in clause\xa05.13 of TS\xa023.501\xa0[2], e.g. local routing and traffic steering, session and service continuity, AF influenced traffic routing, are leveraged in this specification.', '', 'Edge Computing in the serving network (e.g. for Local Break Out roaming scenario in case of PLMN access) is supported, but for AF guidance to PCF determination of URSP rules, the Serving network (e.g. VPLMN or serving SNPN) has no control on URSP, so cannot influence UE in selecting a specific Edge Computing related DNN and S-NSSAI.', '']</t>
+          <t>['', "According to TS\xa022.280\xa0[37], a Mission Critical Service (MCX Service) is a communication service reflecting enabling capabilities Mission Critical Applications and provided to end users from Mission Critical Organizations and mission critical applications for other businesses and organizations (e.g. utilities, railways). An MCX Service is either Mission Critical Push To Talk (MCPTT) as defined in TS\xa023.379\xa0[38], Mission Critical Video (MCVideo) as defined in TS\xa023.281\xa0[39], or Mission Critical Data (MCData) as defined in TS\xa023.282\xa0[40] and represents a shared underlying set of requirements between two or more MCX Service types. MCX Services are not restricted only to the ones defined in this clause and such services can also have priority treatment, if defined via operator's policy and/or local regulation.", '', 'MCX Services are based on the ability to invoke, modify, maintain and release sessions with priority, and deliver the priority media packets under network congestion conditions. As specified in clause\xa06.8 of TS\xa022.261\xa0[2], MCX Users require 5GS functionality that allows for real-time, dynamic, secure and limited interaction with the QoS and policy framework for modification of the QoS and policy framework by authorized users. The limited interaction is based on operator policy, and provides specific limitations on what aspects of the QoS and policy framework an authorized MCX User can modify. MCX Services are supported in a roaming environment when roaming agreements are in place and where regulatory requirements apply.', '', 'An MCX-subscribed UE obtains priority access to the Radio Access Network by using the Unified Access Control mechanism according to TS\xa022.261\xa0[2]. This mechanism provides preferential access to UEs based on its assigned Access Identity. If an MCX-subscribed UE belongs to the special Access Identity as defined in TS\xa022.261\xa0[2], the UE has preferential access to the network compared to ordinary UEs in periods of congestion. MCX subscription allows users to receive priority services, if the network supports MCX. MCX subscription entitles a USIM with special Access Identity.', '', "NOTE\xa01:\tFor Mission Critical Services that require low latency and zero packet loss even for the first downlink packet(s), periodic keep-alive packets during interruptions of media transmission (e.g. Floor Idle as specified in TS\xa023.379\xa0[38], referenced by TS\xa023.289\xa0[184]), which is sent over user plane of PDU session, can be used so that the UE is kept in RRC_CONNECTED state without being paged when unicast transmission is used. It is up to the implementation, the periodicity of the keep-alive packets configured in the AF can consider NG-RAN's configuration.", '', 'NOTE\xa02:\tFor support of Mission Critical Services that require low latency and zero packet loss when using MBS, see TS\xa023.247\xa0[121].', '', 'MCX Services leverage the foundation of the 5G QoS Model as defined in clause\xa05.7, and 5G Policy Control as defined in clause\xa05.14. It requires that the necessary subscriptions are in place for both the 5G QoS Profile and the necessary Policies. In addition, MCX Services leverage priority mechanism as defined in clause\xa05.22.', '', 'The terminating network identifies the priority of the MCX Service session and applies priority treatment, including paging with priority, to ensure that the MCX Service session can be established with priority to the terminating user (either an MCX User or normal user).', '', 'Priority treatment for MCX Service includes priority message handling, including priority treatment during authentication, security, and Mobility Management procedures.', '', "Priority treatment for MCX Service sessions require appropriate ARP and 5QI (plus 5G QoS characteristics) setting for QoS Flows according to the operator's policy.", '', 'NOTE\xa03:\tUse of QoS Flows for MCX Service sessions with non-standardized 5QI values enables the flexible assignment of 5G QoS characteristics (e.g. Priority Level).', '', 'When a MCX Service session is requested by an MCX User, the following principles apply in the network:', '', '-\tQoS Flows employed in a MCX Service session shall be assigned ARP value settings appropriate for the priority of the MCX User.', '', '-\tSetting ARP pre-emption capability and vulnerability of QoS Flows related to a MCX Service session, subject to operator policies and depending on national/regional regulatory requirements.', '', '-\tPre-emption of non-MCX Users over MCX Users during network congestion situations, subject to operator policy and national/regional regulations.', '', 'Priority treatment is applicable to IMS based multimedia services and priority PDU connectivity services.', '', 'Relative PDU priority decisions for MCX Service sessions are based on real-time data of the state of the network and/or based on modification of the QoS and policy framework by authorized users as described in clause\xa06.8 of TS\xa022.261\xa0[2].', '']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>&lt;h1&gt;E.4	Session Breakout&lt;/h1&gt;</t>
+          <t>&lt;h2&gt;4.1	General&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23548-i20.docx</t>
+          <t>23548.docx</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1518914118683455</v>
+        <v>0.1160387992858887</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['', 'As traffic offload via UL CL/BP is not supported over EPC, when a PDN connection is initiated in EPS or a PDU Session is handed-over to EPS, the SMF+PGW-C can send to the EASDF DNS message handling rules requesting the EASDF to transparently forward any DNS traffic. The SMF+PGW-C can send to the EASDF new DNS message handling rules (with actual reporting and actions as defined in clause 6.2.3.2.2) when the PDU Session/PDN connection is handed-over (back) to 5GS.', '', 'When a PDN connection is initiated in EPS, the SMF+PGW-C can also select a normal DNS Server (i.e. different from an EASDF) to serve the PDN Connection, and then indicate to the UE to use the EASDF as DNS Server when the PDU Session/PDN connection is moved to 5GS.', '', '', '', '', 'Annex F (Informative):', 'EAS Relocation on Simultaneous Connectivity over Source and Target PSA', '', 'This annex describes how EAS relocation can make use of network capabilities that, at PSA change, provide simultaneous connectivity over the source and the target PSA during a transient period.', '', 'At PSA change, simultaneous connectivity to Application over former and new PSA allows the application to build its own EAS relocation solution and minimize the impact on latency:', '', '-\tIf the decision for when to start using a target EAS is taken by the application, this decision can consider application specific aspects, like for example, the time interval between packets or end of a video frame to minimize impact on latency.', '', '-\tWhen there are multiple applications on a PDU Session, if connectivity over the former PSA is maintained for some time, each application can schedule EAS relocation to suit the application specific needs without interfering with the other applications.', '', 'The procedure is shown in below Figure F-1:', '', '----media/image36.emf----', '', 'Figure F-1: EAS relocation on simultaneous connectivity over source and target PSA', '', 'The user has established a PDU Session. This PDU Session has a local PSA (source L-PSA), which could be the PSA of a PDU Session with Distributed Anchor connectivity or one additional local PSA of a PDU Session with Session Breakout. There has been an EAS Discovery procedure as described in clauses 6.2.2.2 and 6.2.3.2 (the procedure is conditioned to the connectivity model) for one or more applications. Application traffic is served by source EAS over the Local PSA.', '', '1.\tUser mobility triggers SMF to select a new Local PSA (target L-PSA) that is closer to current user location. In this scenario, the re-anchoring procedures that provide Simultaneous Connectivity over Source and Target PSA are described in TS\xa023.502\xa0[3]:', '', '-\tFor Distributed Anchor, in clause\xa04.3.5.2 for Change of SSC mode 3 PDU Session Anchor with multiple PDU Sessions and in clause\xa04.3.5.3 for Change of SSC mode 3 PDU Session Anchor with IPv6 Multi-homed PDU Session.', '', '-\tFor Session Breakout, in clause\xa04.3.5.7 for Simultaneous change of Branching Point or UL CL and additional PSA for a PDU Session.', '', '\tThe SMF may notify an AF for the early and/or late notifications on the UP-path change event as described in clause\xa04.3.6.3 in TS\xa023.502\xa0[3].', '', '2.\tWhen the connectivity is available on target L-PSA, the connectivity via source L-PSA is still available during certain time (that is provisioned and controlled as described in these TS\xa023.502\xa0[3] procedures). The application traffic can continue to run over the established UE-EAS connections.', '', '3.\tThe EAS Rediscovery Procedures described in clauses 6.2.2.3 and 6.2.3.3 allow the UE to discover a new EAS (i.e. target EAS) for the application that is closer to the UE over the new path (there could be multiple triggers as described in those respective clauses). If multiple applications are being served by this PDU Session, each of them performs rediscovery. This discovery procedure may lead to EAS reselection.', '', '4.\tNew L4 connections may now be established between the UE and the target EAS with the following considerations:', '', '-\tFor Distributed anchor or session breakout with MH, the UE uses the IP address /prefix associated with the target PSA (that is referred to as IP#2 in Figure F-1).', '', '-\tFor Session breakout with ULCL, there has not been connection/IP address change. Same IP address is still used by UE (that is referred to as IP#1 in Figure F-1).', '', 'NOTE\xa01:\tIf Session Breakout is used for connectivity and if the application wants to build service continuity on simultaneous connections, source EAS and target EAS cannot share the same IP address (e.g. by using anycast).', '', '\tEAS Relocation may involve EAS context migration in the case of stateful applications. The following examples are part of the application implementation details and fall out of 3GPP specification scope:', '', '-\tIn case that SMF notifies an AF for the early and/or late notification in Step 1, based on the notifications, the AF can interact with the source Application server, which can recreate the context to the target EAS and then provide switching instructions to the Application client.', '', '-\tThe Application server can recreate the service context when first contacted by the client using a Context Id: when suitable, the application client sets up a connection to the target EAS including a Context Id. The target EAS uses this Context Id to retrieve the latest service context available and subsequent updates, if needed.', '', '-\tThe Application server can recreate the context when first contacted by the client using a Context Id: the application client sets up a connection to the target EAS but for some time it sends traffic to both source and target EAS. In this way it triggers the context migration before the actual EAS switch.', '', '-\tThe source Application server is able to provide the client with switching instructions when a new EAS is selected: upon UE request (if UE selected) or as an EAS initiative (if server selected), the source EAS provides the Application client with switching instructions while it continues to serve traffic and drives any context migration towards the selected target EAS.', '', 'NOTE\xa02:\tThis application procedure may be designed to solve EAS relocation in all scenarios, not only when triggered by Edge Relocation, which may simplify the application design.', '', '5.\tAt some points all traffic for all applications in this session are sending traffic to their target EAS only and traffic ceases over the source L- PSA. The source L-PSA is then released. The timers should be set to allow EAS relocation.', '', '6.\tUE only maintains connection(s) to target EAS(s).', '', '', '', '', 'Annex G (Informative):', 'Change history', '', '&lt;b&gt;Change history&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Date&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Meeting&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TDoc&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New version&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SA2#143E&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;S2-2100114&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;Proposed skeleton approved at S2#143E&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;0.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SA#92E&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-210365&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC editorial update for presentation to TSG SA#92E for information&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;1.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SA#93E&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-210942&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC editorial update for presentation to TSG SA#93E for approval&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SA#93E&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC editorial update for publication after SA#93E approval&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;17.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0001&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction related to uniqueness of Update related to a buffered DNS message in EASDF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0003&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction and removal of misleading Note&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0005&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Not all EC scenarios requires EASDF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0014&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarify the local AF subscription for the QoS Monitoring during UE mobility&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0017&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Updates on EAS Discovery Procedure with EASDF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Mega CR for minor fixes to TS 23.548&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0024&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update Neasdf_DNSContext services&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0030&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;EAS rediscovery: Edge DNS Client based EAS (re-)discovery&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0031&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE authorization for 5GC assisted EAS discovery&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0034&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Updating related to EAS Discovery Procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0035&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections on enabling EAS IP Replacement procedure by AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0036&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Improvements and correction to annex C &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0038&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Change of DNS server address during EPC IWK&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0039&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment of EASDF functional description&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0040&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Added the situation of AF relocation to uplink Packet Buffer&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0042&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Local NEF selection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0043&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections on enabling EAS IP Replacement procedure by AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0046&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction related EHE in EC architecture&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0047&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update of EAS discovery procedure and BaselineDNSPattern management in EASDF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0048&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;On NAT between PSA UPF and EASDF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0050&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Removing inconsistency in the definition of ECS Address Configuration Information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0051&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections of EDC functionality description&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#96&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220398&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0052&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction related to EAS IP Address in EDI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#96&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220398&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0053&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections on enabling EAS IP Replacement procedure by AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#96&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220398&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0054&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of EAS Deployment Information Management procedures and services&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#96&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220398&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Parameter supplement of EDI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#96&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220398&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0061&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment of ECS Address Configuration Information to SA6\'s definition&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#97E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220777&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0062&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;EDNS Client Subnet option correction&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#98E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-221069&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0063&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications for local event notification control&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#98E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-221086&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Support of influencing UPF and EAS (re)location for collections of UEs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;18.0.0&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#98E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-221086&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0075&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#4 common EAS enforcement for set of UEs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#98E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-221086&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Procedure for PDU Session supporting HR-SBO in VPLMN&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#98E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-221086&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0082&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Influencing UPF and EAS (re)location for collections of UEs &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0073&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;7&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;EAS Re-discovery Procedure with EASDF in HR roaming scenario&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0083&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Edge Relocation within the same hosting PLMN\'s EHEs &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0084&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;13&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Home Routed-Session Breakout (HR-SBO) support&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0087&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#4: AF traffic influence for common EAS, DNAI selection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0088&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;The EAS discovery procedure with V-EASDF using IP replacement mechanism for supporting HR-SBO&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0089&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Handling AF traffic influence for HR-SBO PDU Sessions&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0092&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;9&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;DNAI mapping based on conclusions in TR 23.700-48&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#4 23.548 common EAS enforcement for set of UEs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0094&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#5 EDI extension for EAS discovery for GSMA OPG scenario&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0095&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Common DNAI relocation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0096&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;ECS Address Configuration Information delivery in roaming&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Information sharing between PLMN to support GSMA OPG&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Select common DNAI/EAS for a set of UEs &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0105&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;EASDF functional description update&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0109&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UL CL/BP insertion for common EAS Discovery&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-04&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;MCC correction to implementation of CR0095R1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230462&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0112&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Home Routed-Session Breakout (HR-SBO) - offload policy structure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230462&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0120&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;7&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#1 EAS Discovery: Resolve ENs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230462&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#1 EACI provisioning from VPLMN&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230462&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0123&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#1 EDI provision for HR-SBO&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230462&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0124&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="fo</t>
+          <t>['', "Edge Computing enables operator and 3rd party services to be hosted close to the UE's access point of attachment, so as to achieve an efficient service delivery through the reduced end-to-end latency and load on the transport network.", '', '5GS supports Edge Hosting Environment (EHE) deployed in the DN beyond the PSA UPF. An EHE may be under the control of either the operator or 3rd parties.', '', 'The Edge Computing features defined in this specification are applicable to PLMN(s) and to SNPN(s).', '', 'The Local part of the DN in which EHE is deployed may have user plane connectivity with both a centrally deployed PSA and locally deployed PSA of same DNN. Edge Computing enablers as described in clause\xa05.13 of TS\xa023.501\xa0[2], e.g. local routing and traffic steering, session and service continuity, AF influenced traffic routing, are leveraged in this specification.', '', 'Edge Computing in the serving network (e.g. for Local Break Out roaming scenario in case of PLMN access) is supported, but for AF guidance to PCF determination of URSP rules, the Serving network (e.g. VPLMN or serving SNPN) has no control on URSP, so cannot influence UE in selecting a specific Edge Computing related DNN and S-NSSAI.', '']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.3.1	General&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;5.13	Support for Edge Computing&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23548-i20.docx</t>
+          <t>23501.docx</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1475196877267846</v>
+        <v>0.1111093163490295</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['', 'Edge Relocation refers to the procedures supporting EAS changes and/or PSA UPF relocation.', '', 'Edge Relocation may be triggered by an AF request (e.g. due to the load balance between EAS instances in the EHE) or by the network (e.g. due to the UE mobility).', '', 'With Edge Relocation, the user plane path may be re-configured to keep it optimized. This may be done by PDU Session re-establishment using SSC mode 2/3 mechanisms or Local PSA UPF relocation using UL CL and BP mechanisms. The corresponding procedures are defined in TS\xa023.501\xa0[2] and TS\xa023.502\xa0[3].', '', 'Due to Edge Relocation, the UE may need to re-discover a new EAS and establish the connectivity to the new EAS to continue the service. The re-discovery of EAS is specified in clause\xa06.2.', '', 'Edge Relocation may result in AF relocation, for example, as part of initial PDU Session Establishment, a central AF may be involved. However, due to Edge Relocation another AF serving the Edge Applications is selected.', '', 'The trigger of Edge Relocation by the network is specified in clause\xa04.3.6.3 of TS\xa023.502\xa0[3]. Some EAS (re)Discovery procedures in clause\xa06.2 may also trigger Edge Relocation.', '', 'This clause further describes the following procedures:', '', '-\tEdge Relocation involving AF change.', '', '-\tEdge Relocation using EAS IP replacement.', '', '-\tAF request for simultaneous connectivity for source and target PSA.', '', '-\tPacket buffering for low Packet Loss.', '', '-\tEdge Relocation considering User Plane Latency Requirements.', '', '-\tEdge Relocation triggered by AF', '', '-\tEdge Relocation for a set of UEs for common DNAI.', '', 'Annex F describes example procedure for EAS Relocation on Release 16 capabilities.', '', 'For non-roaming PDU Session, the 5GC functions in the following clauses are located in the HPLMN.', '', 'For LBO roaming PDU Session, the 5GC functions in the following clauses are located in the serving VPLMN.', '', 'For HR-SBO PDU Sessions specified in clause\xa06.7, the AF may send to V-NEF an AF request to influence traffic routing as described in clause\xa04.3.6 of TS\xa023.502\xa0[3] for supporting Edge Relocation (e.g. for the purpose of subscription to UP path management events, especially for the change of local PSA UPF in VPLMN). In this case, the steps involving PCF in the following clauses are skipped.', '']</t>
+          <t>['', "Edge computing enables operator and 3rd party services to be hosted close to the UE's access point of attachment, so as to achieve an efficient service delivery through the reduced end-to-end latency and load on the transport network. Edge Computing support by 5GC is specified in this specification and in TS\xa023.548\xa0[130].", '', 'NOTE: Edge Computing typically applies to non-roaming and LBO roaming scenarios. For HR roaming scenarios, Edge Computing applies only for "Home Routed with Session Breakout in VPLMN (HR-SBO)" which is described in clause\xa06.7 of TS\xa023.548\xa0[130].', '', "The 5G Core Network selects a UPF close to the UE and forwards traffic to enable the local access to the DN via a N6 interface according to the provided traffic steering rules to the UPF. This may be based on the UE's subscription data, UE location, the information from Application Function (AF) as defined in clause\xa05.6.7, the EAS information reported from EASDF (as defined in TS\xa023.548\xa0[130]), policy or other related traffic rules.", '', 'Due to user or Application Function mobility, the service or session continuity may be required based on the requirements of the service or the 5G network.', '', 'The 5G Core Network may expose network information and capabilities to an Edge Computing Application Function.', '', 'NOTE:\tDepending on the operator deployment, certain Application Functions can be allowed to interact directly with the Control Plane Network Functions with which they need to interact, while the other Application Functions need to use the external exposure framework via the NEF (see clause\xa06.2.10 for details).', '', 'Edge computing can be supported by one or a combination of the following enablers:', '', '-\tUser plane (re)selection: the 5G Core Network (re)selects UPF to route the user traffic to the local part of the DN as described in clause\xa06.3.3;', '', '-\tLocal Routing and Traffic Steering: the 5G Core Network selects the traffic to be routed to the applications in the local part of the DN;', '', '-\tthis includes the use of a single PDU Session with multiple PDU Session Anchor(s) (UL CL / IP v6 multi-homing) as described in clause\xa05.6.4 and the use of a PDU Session with Distributed Anchor Point using SSC mode 2/3.', '', '-\tSession and service continuity to enable UE and application mobility as described in clause\xa05.6.9;', '', '-\tAn Application Function may influence UPF (re)selection and traffic routing via PCF or NEF as described in clause\xa05.6.7;', '', '-\tNetwork capability exposure: 5G Core Network and Application Function to provide information to each other via NEF as described in clause\xa05.20 or directly as described in clause\xa04.15 of TS\xa023.502\xa0[3] or from the UPF as described in clause\xa06.4 of TS\xa023.548\xa0[130];', '', '-\tQoS and Charging: PCF provides rules for QoS Control and Charging for the traffic routed to the local part of the DN;', '', '-\tSupport of Local Area Data Network: 5G Core Network provides support to connect to the LADN in a certain area where the applications are deployed as described in clause\xa05.6.5.', '', '-\tDiscovery and re-discovery of Edge Applications Servers as described in TS\xa023.548\xa0[130].', '', "-\tSupport of Edge Relocation as described in TS\xa023.548\xa0[130] and the case of involving AF change as described in clauses 4.3.6.2, 4.3.6.3 and 4.3.6.4 of TS\xa023.502\xa0[3]. Support of 5GC triggered Edge relocation within the same hosting PLMN's EHEs.", '', '-\tSupport of (I-)SMF (re)selection based on DNAI as described in clauses 4.3.5.1, 4.3.5.2 and 4.23.5.1 of TS\xa023.502\xa0[3].', '', '-\tSupport of finer sets of UEs.', '', '-\tSupport of common EAS discovery and common DNAI determination for set of UEs as described in clause\xa06.2 of TS\xa023.548\xa0[130].', '', '-\tSupport of mapping information between EAS IP/IP range and DNAI as described in clause\xa06.8 of TS\xa023.548\xa0[130].', '', '-\tSupport of AF request for DNAI as described in clause\xa06.8 of TS\xa023.548\xa0[130].', '']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.3.6	Edge Relocation Considering User Plane Latency Requirement&lt;/h3&gt;</t>
+          <t>&lt;h1&gt;M.1	Mapping of the parameters between 5GS and TSN UNI&lt;/h1&gt;</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23548-i20.docx</t>
+          <t>23501.docx</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1053281166970637</v>
+        <v>0.1335911154747009</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['', 'Edge relocation may be performed considering user plane latency requirements provided by the AF.', '', 'In a network deployment where the estimated user plane latency between the UE and the potential PSA-UPF is known to the SMF, the 5GC provides the enhancement of AF influence to consider the user plane latency requirements requested by the AF so that the SMF decides to relocate the PSA-UPF based on AF requested requirements.', '', 'The AF may provide user plane latency requirements to the network via AF traffic influence request as described in clause\xa05.2.6.7 of TS\xa023.502\xa0[3]. The user plane latency requirements may include the following information:', '', '-\tMaximum allowed user plane latency: The value of this information is the target user plane latency. The SMF may use this value to decide whether edge relocation is needed to ensure that the user plane latency does not exceed the value. The SMF may decide whether to relocate the PSA UPF to satisfy the user plane latency.', '', 'The AF request on the user plane latency requirements are authorized by PCF. The PCF checks whether the AF has an authority to make such a request.', '', 'Once the user plane latency requirements requested by AF is authorized by the PCF, the AF request including the requirements is informed to the SMF via AF influenced Traffic Steering Enforcement Control (see clause\xa06.3.1 of TS\xa023.503\xa0[4]) in PCC rules. After receiving the user plane latency requirements from AF via PCF, the SMF may take appropriate actions to meet the requirements e.g. by reconfiguring the user plane of the PDU Session as described in the step\xa06 of Figure 4.3.6.2-1 in TS\xa023.502\xa0[3] with the following considerations:', '', '-\tIn the case that the maximum allowed user plane latency is requested, the SMF decides not to perform PSA UPF relocation if the serving PSA satisfies the maximum allowed user plane latency. Otherwise, the SMF may decide to perform PSA UPF relocation if the target PSA UPF satisfies the maximum user plane latency. The SMF may select the PSA UPF with the shortest user plane latency among the PSA UPFs satisfying the maximum user plane latency requirements.', '']</t>
+          <t>['', "Editor's note:\tThe information provided here is a guidance for better understanding of the function. Content of this Annex will be updated to a functional level detail once stage 3 work is stable.", '', 'The details of the parameters in the TSN UNI are specified in IEEE\xa0Std\xa0802.1Q\xa0[98] and IEEE\xa0P802.1Qdj\xa0[146]. Stream identification is further specified in IEEE\xa0Std\xa0802.1CB\xa0[83] and IEEE\xa0Std\xa0802.1CBdb\xa0[178].', '', 'The SMF/CUC derives the End Station related information for the stream requirements towards the TN CNC for the QoS Flow as follows:', '', 'a)\tFor the Talker group:', '', '‐\tStreamID: can be generated by the SMF/CUC based on the End Station MAC address acting as Talker and a UniqueID. SUPI, PDU Session ID and QFI may be used to derive the UniqueID. The MAC address is either pre-configured at the SMF/CUC or provided by the AN-TL or CN-TL to the SMF/CUC (e.g. as part of the EndStationInterfaces information).', '', '-\tStreamRank: set to zero for ARP priority values 1-8; set to one for other ARP values.', '', '‐\tEndStationInterfaces: If the AN-TL and CN-TL are supported, the SMF/CUC receives the EndStationInterfaces (MacAddress, InterfaceName) from the AN-TL and CN-TL via TL-Container. If the AN-TL and CN-TL are not supported the SMF/CUC sets the information based on pre-configuration.', '', '-\tDataFrameSpecification (optional): When it is present it specifies how the TN can identify packets of the TN stream using Ethernet, IP and transport protocol header fields in order to apply the required TSN configuration.', '', '\tThe SMF/CUC may derive the DataFrameSpecification based on:', '', '-\tN3 tunnel end point addresses that are used for the QoS Flow. The SMF/CUC may instruct the UPF and NG-RAN to assign a separate N3 tunnel end point address for each QoS Flow that may carry TSC streams so that the TN can distinguish the QoS Flows based on the N3 tunnel destination IP addresses.', '', 'NOTE\xa01:\tIPv6 can be used in the N3 tunnel end point addresses to provide sufficient address space in case separate N3 tunnel end point addresses are used for each QoS flow that can carry time sensitive streams.', '', '-\tMask-and-match stream identification parameters (IEEE 802.1CBdb [178] clause\xa09.1.6) (optional). The SMF/CUC may indicate mask-and-match configuration based on the TEID and QFI of the given QoS flow and the destination IP address to the TN CNC, when the deployment supports mask-and-match stream identification function as defined in clause\xa06.8 in IEEE Std 802.1CBdb [178]. This functionality can be used for example to check for the TEID and QFI in the GTP header and the destination IP address to distinguish the QoS Flows. This enables the TN CNC to configure the mask-and-match stream identification function in the transport network. This is an option that allows to use a single GTP-U tunnel as defined for non-TSN Transport networks.', '', '\tThe DataFrameSpecification or mask-and-match stream identification parameters may be provided to the AN-TL and CN-TL to configure stream identification. In that case, the AN-TL and CN-TL can perform the stream identification without relying on additional information from the upper layers of the AN or CN node.', '', '\tWhen AN-TL and CN-TL are not supported the TN CNC configures the edge bridge to perform the stream transformation based on the provided the DataFrameSpecification or mask-and-match parameters when applicable.', '', '‐\tTrafficSpecification elements:', '', '‐\tInterval: derived from the Periodicity of the traffic as indicated in the TSCAI.', '', '‐\tMaxFramesPerInterval: specifies the maximum number of frames that the Talker transmits in one Interval.', '', 'NOTE\xa02:\tHow the SMF/CUC derives MaxFramesPerInterval is up to implementation.', '', '‐\tMaxFrameSize: derived from the MDBV of the QoS Flow. If the PCF determines interworking with a TSN network deployed in the transport network is supported based on the DNN/S-NSSAI of the PDU Session, the PCF generates MDBV based on the Burst Size as described in clause\xa05.27.3 and the PCF transfers the MDBV to the SMF/CUC. The SMF/CUC sets MaxFrameSize based on the following formula: MDBV of the QoS Flow - the framing bits which is not used for transferring in 5GS, (e.g. CRC + the GTP-U tunnel overhead).', '', "-\tTransmissionSelection: specifies the algorithm that the Talker uses to transmit the Stream's traffic class. If no algorithm is known, the value zero (strict priority) is used.", '', '‐\tTSpecTimeAware group (optional, present only if the traffic in the QoS Flow is time-synchronized):', '', '‐\tEarliestTransmitOffset: the earliest offset within the Interval.', '', '\tFor uplink, EarliestTransmitOffset should be set based on the following formula:', '', '\tPacket arrival time at the Talker (UL) - M x Interval, where M is the largest integer for which the relation:', '', '\tPacket arrival time at the Talker (UL) &amp;gt; M x Interval duration.', '', '\twould be true.', '', '\tPacket arrival time at the Talker (UL) should be: The corrected TSCAC BAT in UL direction (presented in TAI time) as specified in clause\xa05.27.2.4 for the QoS flow+5G-AN PDB.', '', '\tFor downlink, EarliestTransmitOffset should be set based on the following formula:', '', '\tPacket arrival time at the Talker (DL) - M x Interval, where M is the largest integer for which the relation:', '', '\tPacket arrival time at the Talker (DL) &amp;gt; M x Interval duration.', '', '\twould be true.', '', '\tPacket arrival time at the Talker (DL) should be The corrected TSCAC BAT in DL direction (presented in TAI time) as specified in clause\xa05.27.2.4.', '', '‐\tLatestTransmitOffset: the last chance within an interval should leave enough time to transfer a packet with MaxFrameSize. Derived from the end of the interval, the time to transfer a packet with MaxFrameSize. The LatestTransmitOffset shall be set to the Buffer Capability when the value of LatestTransmitOffset subtracted by the packet arrival time at the Talker (either UL or DL respectively as described in EarliestTransmitOffset) exceeds the Buffer capability. The value of LatestTransmitOffset shall be larger or equal than EarliestTransmitOffset.', '', '‐\tJitter: derived in SMF/CUC based on local information on Jitter in AN-TL and CN-TL and respective stream and traffic interference. Annex\xa0U, clauses U.1.1, U.1.2, and U.1.3 of IEEE\xa0Std\xa0802.1Q\xa0[98] provide some examples.', '', '‐\tUserToNetworkRequirements:', '', '‐\tNumSeamlessTrees: set to one (no redundancy) or other value (if redundancy is required).', '', '‐\tMaxLatency: set to CN PDB subtracted by maximum possible buffer duration in Talker. Maximum possible buffer duration is set to LatestTransmitOffset subtracted by EarliestTransmitOffset.', '', '-\tInterfaceCapabilities (optional): If the AN-TL and CN-TL are supported, the SMF/CUC collects InterfaceCapabilities from AN-TL and CN-TL via TL-Container. If the AN-TL and CN-TL are not supported, the SMF/CUC leaves the InterfaceCapabilities empty.', '', 'b)\tFor the Listener group:', '', '-\tStream ID and Stream Rank: that were generated for the Talker of the TN stream are also used by the SMF/CUC for the Listener.', '', '-\tEndStationInterfaces: derived as with the corresponding information for the Talker group.', '', '-\tUserToNetworkRequirements:', '', '‐\tNumSeamlessTrees: set to one.', '', '‐\tMaxLatency: derived as with the corresponding information for the Talker group.', '', '-\tInterfaceCapabilities: derived as with the corresponding information for the Talker group.', '', 'c)\tFor the Status group: The Status group contains the end station communication-configuration provided by TN CNC to the SMF/CUC:', '', '‐\tStream ID.', '', '‐\tStatusInfo.', '', '‐\tAccumulatedLatency: If the AccumulatedLatency is included from TN CNC to SMF/CUC for a stream in DL direction, the SMF/CUC may use the AccumulatedLatency to update the TSCAI BAT to the NG-RAN; the SMF sets the TSCAI Burst Arrival Time in downlink direction as the sum of the TSCAC BAT value in downlink direction and AccumulatedLatency and the buffer duration in Talker in CN-TL. The buffer duration in CN-TL is zero if TimeAwareOffset for the Talker group is not present, and TimeAwareOffset - EarliestTransmitOffset if the TimeAwareOffset is present for the Talker group.', '', '‐\tInterfaceConfiguration (optional):', '', '‐\tMAC Addresses (optional, present only if the respective InterfaceCapability contains a value for Active Destination MAC and VLAN Stream identification in CB-StreamIdenTypeList, and stream transformation is performed in AN-TL and CN-TL).', '', '‐\tVLAN Tag (optional, present only if VlanTagCapable is True in the respective InterfaceCapability and the stream transformation is performed in AN-TL and CN-TL).', '', '‐\tIPv4/IPv6 Tuples (optional, but not supported in this release of the specification).', '', '‐\tTimeAwareOffset (optional, present only if the traffic is time-synchronized, AN-TL and CN-TL is supported, and TSpecTimeAware elements were provided in the stream requirements).', '', '\tIf the InterfaceConfiguration is included and if the AL-TL/CN-TL acting as Talker End Station support the Stream Transformation as described in IEEE\xa0Std\xa0802.1Q\xa0[98], the SMF/CUC can instruct the UPF and NG-RAN to assign an individual TSN Transport address by providing the InterfaceConfiguration to the AN-TL/CN-TL via TL-Container. The Talker in AN-TL/CN-TL shall use the indicated InterfaceConfiguration, e.g. source MAC address, multicast destination MAC address, VLAN ID, as assigned by the TN CNC for the data stream in a QoS Flow. The TN can identify the streams based on the Stream Transformation that is applied in the AN-TL/CN-TL acting as Taker End Station. This allows to use a single GTP-U tunnel as defined for non-TSN Transport networks.', '', '\tIf the TimeAwareOffset is included from TN CNC to SMF/CUC, the SMF/CUC should send the TimeAwareOffset to the AN-TL (for streams in UL direction) or the CN-TL port (for streams in the DL direction). The AL-TL/CN-TL derive Gate Control information (i.e. AdminBaseTime, AdminCycleTime, AdminControlListLength, and AdminControlList) based on the TimeAwareOffset as defined in IEEE\xa0Std\xa0802.1Q\xa0[98] at the AN-TL (for streams in UL direction) and the CN-TL port (for streams in the DL direction). The AN-TL or CN-TL acting as Talker buffers the data burst until the time indicated in the TimeAwareOffset is reached.', '', '\tIf the SMF/CUC receives a TimeAwareOffset from TN CNC for a downlink stream (i.e. for a Talker in the UPF/CN-TL), the SMF/CUC adds the received TimeAwareOffset value to the TSCAI BAT in the DL direction in the TSCAI and updates the NG-RAN for the new TSCAI.', '', '‐\tFailedInterfaces (optional) provides a list of one or more physical ports of failed end stations or bridges to locate the interfaces in the physical topology that caused the failure. It is up to implementation how the SMF reacts when it receives FailedInterfaces.', '', 'NOTE\xa03:\tIt is assumed that the end station communication-configuration will contain at least the same information as defined for the status.', '', 'NOTE\xa04:\tIf Jitter value needs to be considered, EarliestTransmitOffset for UL and DL and LatestTransmitOffset shall be Jitter corrected. How Jitter correction is carried out is up to implementation.', '']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.2.1	General&lt;/h3&gt;</t>
+          <t>&lt;h4&gt;5.4.9.1	General&lt;/h4&gt;</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23548-i20.docx</t>
+          <t>23501.docx</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1536793440927784</v>
+        <v>0.1288204789161682</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['', 'In Edge Computing deployment, an application service may be served by multiple Edge Application Servers typically deployed in different sites. These multiple Edge Application Servers that host service may use a single IP address (anycast address) or different IP addresses. To start such a service, the UE needs to know the IP address(es) of the Application Server(s) serving the service. The UE may do a discovery to get the IP address(es) of a suitable Edge Application Server (e.g. the closest one), so that the traffic can be locally routed to the Edge Application Server and service latency, traffic routing path and user service experience can be optimized.', '', 'EAS discovery is the procedure by which a UE discovers the IP address(es) of a suitable Edge Application Server(s) using Domain Name System (DNS). EAS Re-discovery is the EAS Discovery procedure that takes place when the previously discovered Edge Application Server cannot be used or may have become non-optimal (e.g. at edge relocation).', '', 'The DNS server to be used for EAS (re-)discovery may be deployed in different locations in the network as Central DNS (C-DNS) server or as Local DNS (L-DNS) resolver/server.', '', 'NOTE\xa01:\tThe C-DNS servers and/or L-DNS resolvers/servers can use an anycast address.', '', 'NOTE\xa02:\tThe C-DNS servers or L-DNS resolvers/servers can contact any other DNS servers for recursive queries, which is out of scope of this specification.', '', "NOTE\xa03:\tThis specification describes the discovery procedure based on 5GS NFs as to ensure the UE is served by the application service closest to the UE's point of attachment. However, this does not exclude other upper layer solution that can be adopted by operator or service provider, like the EAS Discovery procedure defined in TS\xa023.558\xa0[5], or other alternatives shown in Annex A and Annex B. How those other solutions work, or whether they are able to guarantee the closest application service for the UE, is out of the scope of this specification.", '', 'In order to provide a translation of the FQDN of an EAS into the address of an EAS as topologically close as possible to the UE, the Domain Name System may use following information:', '', '-\tThe source IP address of the incoming DNS Query; and/or,', '', '-\tan EDNS Client Subnet (ECS) option (as defined in RFC 7871\xa0[6]).', '', 'NOTE\xa04:\tUE IP address can be subject to privacy restrictions, which means that it is not to be sent to Authoritative DNS / DNS Resolvers outside the network operator within EDNS Client Subnet option or as Source IP address of the DNS Query. UE source IP address can be protected by using NAT mechanism.', '', 'EAS (re-)discovery procedures described in this specification should use the top level domains (TLDs) in the public namespace by default. ', '', 'If a private namespace is used, an Edge Computing Service Provider (ECSP) can provision DNS information in the EAS Deployment information via AF request with its Application Identifier, or DNN and NSSAI. Since private namespaces do not have a common root server or naming, the DNS information for each ECSP should be stored individually to prevent any overwriting of resolution entries.', '', 'NOTE\xa05:\tThe DNS information provided by ECSP in the EAS Deployment Information can be used to select the DNS settings for a PDU Session mainly if the PDU Session is specific for the ECSP services.', '', 'If the UE applications want to discover/access EAS by using the mechanisms defined in this TS, the UE shall support receiving DNS settings in PCO during PDU Session Establishment and PDU Session Modification, and the DNS Queries generated by the UE for these applications shall be sent to the DNS server/resolver (e.g. EASDF) indicated by the SMF. To ensure this, the application in the UE either requests the EDC functionality to send a DNS Query or, alternatively, uses the EDC functionality to get the configuration of the DNS Server (IP address and, conditionally, DNS security information of the EASDF/DNS resolver; see TS\xa024.501\xa0[11] and TS\xa033.501\xa0[12]) indicated by the SMF (see clauses 5.2.1 and 6.2.4) then resolves the FQDN by its own DNS mechanism.', '', 'NOTE\xa06:\tIt is the decision of the application in the UE whether to use the EDC functionality or not to resolve the FQDN. If it does not use the EDC functionality, the usage of the EAS (re-)discovery procedures defined in clause\xa06.2 cannot be ensured.', '', 'The case of EAS (Re-)discovery over Distributed Anchor connectivity model is described in clause 6.2.2. For Multiple PDU Sessions connectivity model, the description in clause 6.2.2 also applies to the PDU Session(s) with Local PSA. The case of EAS (Re-)discovery over Session Breakout connectivity model is described in clause 6.2.3.', '']</t>
+          <t>['', "The RAN and UE may use a Wake Up Signal (WUS) to reduce the UE's idle mode power consumption. The RAN sends the WUS shortly before the UE's paging occasion. The WUS feature enables UEs to determine that in the paging occasions immediately following their WUS occasion they will not be paged if their WUS is not transmitted, or that they might be paged if their WUS is transmitted (see TS\xa036.304\xa0[52]).", '', "To avoid waking up UEs due to an AMF paging other UEs across multiple cells (e.g. due to frequent UE mobility and/or for low paging latency services such as VoLTE), the use of WUS by the ng-eNB and the UE is restricted to the last used cell, i.e. the cell in which the UE's RRC connection was last released. To support this:", '', 'a)\tng-eNBs should provide the Recommended Cells for Paging IE in the &lt;i&gt;Information on Recommended Cells and RAN Nodes for Paging IE&lt;/i&gt; (see TS\xa038.413\xa0[34]) to the AMF in the NGAP UE Context Release Complete, UE Context Suspend Request and UE Context Resume Request messages;', '', 'b)\tif received during the last NGAP UE Context Release Complete or UE Context Suspend Request message, the AMF provides (without modification) the &lt;i&gt;Recommended Cells for Paging as Assistance Data for Recommended Cells IE in the Assistance Data for Paging IE&lt;/i&gt; within the NGAP Paging message to the RAN (see also TS\xa038.413\xa0[34]); and', '', 'c)\tthe AMF shall delete (or mark as invalid) the &lt;i&gt;Information On Recommended Cells And RAND nodes For Paging&lt;/i&gt; when a new NGAP association is established for the UE.', '', 'In the NGAP Paging message, the last used cell ID is sent in the &lt;i&gt;Assistance Data for Recommended Cells IE&lt;/i&gt; in the &lt;i&gt;Assistance Data for Paging IE&lt;/i&gt; (see TS\xa038.413\xa0[34]). When receiving an NGAP Paging message for a WUS-capable UE that also includes the &lt;i&gt;Assistance Data for Recommended Cells IE&lt;/i&gt; then a WUS-capable ng-eNB shall only broadcast the WUS on the cell that matches the last used cell ID.', '']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.4.1	General&lt;/h3&gt;</t>
+          <t>&lt;h5&gt;14.3.12.4.3	Network parameter coordination procedure&lt;/h5&gt;</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23548-i20.docx</t>
+          <t>23434.docx</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1018510028783159</v>
+        <v>0.1052446365356445</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['', 'Some real time network information, e.g. user path latency, are useful for application layer. In this release, in order to expose network information timely to local AF, the L-PSA UPF may expose i.e. QoS monitoring results as defined in clause\xa05.33.3 of TS\xa023.501\xa0[2], to the local AF.', '', 'NOTE\xa01:\tLocal PSA UPF can expose the QoS monitoring results to local AF via N6. How to deliver the information on N6 is out of the scope of the present document.', '', 'NOTE\xa02:\tSending QoS monitoring information that has not been properly integrated over time, i.e. with over-high frequency, can increase risk that the application may over-react to instantaneous radio events/conditions e.g. leading to service instability.', '']</t>
+          <t>['', "The network parameter coordination  procedure uses UE unified traffic pattern information  to influence aspects of UE/network behaviour such as the UE's PSM and extended idle mode DR14. For this purpose, parameter values may be suggested for Maximum Latency and Maximum Response Time for a UE. 5GC may choose to accept, reject or modify the suggested configuration parameter value.", '', 'Pre-conditions:', '', '1.\tThe NRM Server determines to provide the service for a specific UE after receiving Network parameter coordination indications in UE unified traffic pattern and monitoring management subscription requests, subject to policy.', '', '2.\tThe NRM Server determines and manages UE unified traffic patterns as described in clause 14.3.12.4.2.', '', '----media/image159.emf----', '', 'Figure\xa014.3.12.4.3-1: Network parameter coordination procedure', '', '1.\tThe NRM Server determines to provide Network parameter configuration to 5GC. This determination can be based on updates to the UE unified traffic patterns resulting from interactions with VAL Servers (e.g. Traffic pattern configuration updates), on local policies, etc.', '', 'The NRM Server determines parameters the needed for NpConfiguration data structure as specified in 3GPP TS 29.122\xa0[54] from the UE unified traffic patterns as follows:', '', '&lt;i&gt;-&lt;/i&gt;\t&lt;i&gt;maximumLatency&lt;/i&gt; – This value tells the network how long the UE is allowed to sleep.  Setting it to 0 will disable PSM, extended idle mode DRX, and extended buffering. The NRM Server can extract the periodicity derived from the UE unified traffic pattern, which includes the schedule elements for the UEs communications with all VAL servers.&lt;i&gt; &lt;/i&gt;The NRM Server sets &lt;i&gt;Maximum Latency&lt;/i&gt; to be approximately the periodicity of the active periods derived from the schedule element&lt;i&gt; &lt;/i&gt;of the UE unified traffic pattern.', '', "&lt;i&gt;-&lt;/i&gt;\t&lt;i&gt;maximumResponseTime&lt;/i&gt; – When the UE uses PSM, Maximum Response Time tells the network how long the UE should stay reachable after a transition to idle.  When the UE uses eDRX, Maximum Response Time is used by the network to determine when to send a reachability notification before a UE's paging occasion.  The NRM Server extracts a duration of activity from the schedule element of the UE unified traffic pattern and sets &lt;i&gt;Maximum Response Time&lt;/i&gt; to reflect the duration of activity, indicating how long the UE should stay reachable for downlink communications. ", '', '2.\tThe NRM Server performs the Network Parameter Configuration procedure as described in 3GPP TS 29.122\xa0[54] clause 4.4.12.', '', 'NOTE:\tThe values provided by NRM Server to 5GC in the Network parameter configuration procedure may or may not be accepted by the network. If they are not accepted, 5GC responds accordingly and the previous values apply, or new values are provided. The new values are used by NRM Server as described in this clause when they were provided via monitoring event notifications.', '']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>&lt;h4&gt;4.15.6.6	Setting up an AF session with required QoS procedure&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>23502.docx</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1381136775016785</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['', '----media/image151.emf----', '', 'Figure 4.15.6.6-1: Setting up an AF session with required QoS procedure', '', '1.\tThe AF sends a request to reserve resources for an AF session using Nnef_AFsessionWithQoS_Create request message (UE address, AF Identifier, Flow description information or External Application Identifier, QoS Reference or individual QoS parameters, Alternative Service Requirements (as described in clause\xa06.1.3.22 of TS\xa023.503\xa0[20]), DNN, S-NSSAI) to the NEF. Optionally, QoS monitoring requirements, Indication of ECN marking for L4S, PDU Set QoS Parameters (as described in clause\xa05.7.7 of TS\xa023.501\xa0[2]) and Protocol Description (as described in clause\xa05.37.5 or 5.37.8.3 of TS\xa023.501\xa0[2]) can be included in the AF request. For a Multi-modal service, the AF may provide a Multi-modal Service ID together with Multi-modal Service Requirements information for each data flow, as described in clause\xa06.1.3.27.3 of TS\xa023.503\xa0[20]. Optionally, a period of time or a traffic volume for the requested QoS can be included in the AF request. The AF may, instead of a QoS Reference, provide one or more of the following individual QoS parameters: Requested 5GS Delay (optional), Requested Priority (optional), Requested Guaranteed Bitrate, Requested Maximum Bitrate, Maximum Burst Size and Requested Packet Error Rate. The AF may also provide an Averaging Window value for deriving such parameters for GBR QoS Flows. Regardless of whether the AF request is formulated using a QoS Reference or individual QoS parameters, the AF may also provide one or more of the following parameters that describe the traffic characteristics: flow direction, Burst Arrival Time at UE (uplink) or UPF (downlink), Periodicity, Time domain, Survival Time, Capability for BAT adaptation or BAT Window, Periodicity Range. The AF may also provide an RT Latency Indication. The optional Alternative Service Requirements provided by the AF shall either contain QoS References or Requested Alternative QoS Parameter Set(s) in a prioritized order as described in clause\xa06.1.3.22 of TS\xa023.503\xa0[20]. Optionally, Packet Delay Variation requirements can be included in the AF request as described in clause\xa06.1.3.26 of TS\xa023.503\xa0[20]. Optionally, the AF may provide QoS duration and QoS inactivity interval in order to indicate PCF the time period when the QoS should be applied.', '', 'NOTE\xa01:\tFor multi-modal flows related to multiple UEs, multiple UE-specific AF requests are used and the AF provided information to NEF is the same as single UE case (as defined in clause\xa05.37.2 of TS\xa023.501\xa0[2]).', '', '2.\tThe NEF authorizes the AF request that contains a single UE address and may apply policies to control the overall amount of QoS authorized for the AF. If the authorisation is not granted, all steps (except step\xa05) are skipped and the NEF replies to the AF with a Result value indicating that the authorisation failed. The NEF assigns a Transaction Reference ID to the Nnef_AFsessionWithQoS_Create request.', '', '\tThe NEF determines whether to invoke the TSCTSF or to directly contact the PCF based on operator configuration. This determination may use the presence of a QoS Reference or individual QoS parameters in the AF request. The determination may also use the AF identifier or the presence of AF provided parameters that describe the traffic characteristics in the AF request.', '', 'NOTE\xa02:\tThe determination can also be based on an SLA between operator and application provider, e.g. using the DNN/S-NSSAI for the AF session according to the SLA.', '', '\tIf the NEF determines not to invoke the TSCTSF, then steps 3, 4, 5, 6, 7, 8 are executed, otherwise, steps 3a, 3b, 4a, 4b, 5, 6a, 7a, 7b, 8 are executed.', '', '3.\tIf the NEF determines to contact the PCF directly without invoking the TSCTSF, the NEF uses the UE address to discover the PCF from the BSF. The NEF forwards received parameters to the PCF in the Npcf_PolicyAuthorization_Create request. Any optionally received period of time or traffic volume mapped and forwarded as sponsored data connectivity information (as defined in TS\xa023.503\xa0[20]).', '', '\tIf the AF is considered to be trusted by the operator, the AF uses the Npcf_PolicyAuthorization_Create request message to interact directly with PCF to request reserving resources for an AF session.', '', '3a.\tIf the NEF determines to invoke the TSCTSF, the NEF forwards received parameters in the Ntsctsf_QoSandTSCAssistance_Create request message to the TSCTSF. Any optionally received period of time or traffic volume is mapped and forwarded as sponsored data connectivity information (as defined in TS\xa023.503\xa0[20]).', '', '\tIf the AF is considered to be trusted by the operator, the AF uses the Ntsctsf_QoSandTSCAssistance_Create request message to interact directly with TSCTSF to request reserving resources for an AF session.', '', '\tA TSCTSF address may be locally configured (a single TSCTSF per DNN/S-NSSAI) in the NEF, PCF and trusted AF. Alternatively, the NEF uses the AF Identifier to determine the DNN/S-NSSAI and uses the DNN/S-NSSAI to discover the TSCTSF from the NRF.', '', '3b.\tThe TSCTSF determines whether it has an AF session with a PCF for the given UE address. In this case the TSCTSF sends a Npcf_PolicyAuthorization_Update request message to the PCF and forwards the received parameters after executing the adjustment and mapping actions described below.', '', '\tIf the TSCTSF does not have an AF-session for a given UE address, the TSCTSF discovers the PCF and a Npcf_PolicyAuthorization_Create request message to the PCF.', '', '\tIf the TSCTSF receives a Requested 5GS Delay, the TSCTSF calculates a Requested PDB by subtracting the UE-DS-TT Residence Time (either provided by the PCF or pre-configured at TSCTSF) from the Requested 5GS Delay and sends the Requested PDB to the PCF instead of the Requested 5GS Delay. If the TSCTSF receives any of the following parameters: flow direction, Burst Arrival Time, Periodicity, Time domain, Survival Time, Capability for BAT adaptation or BAT Window, Periodicity Range from the NEF, the TSCTSF determines the TSC Assistance Container and sends it to the PCF instead of these parameters.', '', '4.\tFor requests received from the NEF in step\xa03, the PCF determines whether the request is authorized and notifies the NEF if the request is not authorized.', '', '\tIf the request is authorized, the PCF derives the required QoS parameters of the PCC rule based on the information provided by the NEF and determines whether this QoS is allowed (according to the PCF configuration) and notifies the result to the NEF. If the AF is considered to be trusted by the operator, the PCF sends the Npcf_PolicyAuthorization_Create response message directly to AF.', '', '\tIf the PCF receives the individual QoS parameters instead of QoS Reference, the PCF determines a 5QI that matches the individual QoS parameters as described in clause\xa06.1.3.22 of TS\xa023.503\xa0[20]. It also sets the GBR and MBR for the PCC rule according to the requested values. The PCF may use the Requested Priority from the AF to determine Priority Level as defined in clause\xa05.7.3.3 of TS\xa023.501\xa0[2]. Requested individual QoS parameter values supersede default values for the 5QI.', '', '\tIf the PCF receives the RT Latency Indication described in clause\xa06.1.3.22 of TS\xa023.503\xa0[20], the PCF executes Uplink-Downlink Transmission Coordination as described in clause\xa05.37.7 of TS\xa023.501\xa0[2] and the associated QoS monitoring for the two correlated QoS Flows as described in clause\xa06.1.3.27.2 of TS\xa023.503\xa0[20].', '', '\tIf the PCF receives PDU Set QoS parameters described in clause\xa05.7.7 of TS\xa023.501\xa0[2], the PDU Set QoS parameters are applied as described in clause\xa06.1.3.22 of TS\xa023.503\xa0[20].', '', '\tIf the PCF receives an explicit indication (i.e. Indication of ECN marking for L4S) as described in clause\xa06.1.3.22 of TS\xa023.503\xa0[20], PCF decides that the service data flow supports ECN marking for L4S. PCF then indicates to the SMF to enable ECN marking for L4S for that QoS flow.', '', '\tIn addition, if the Alternative Service Requirements are provided, the PCF derives the Alternative QoS parameter set(s) in the same way from the one or more QoS Reference parameters or the Requested Alternative QoS Parameter Set(s) contained in the Alternative Service Requirements keeping the same prioritized order (as defined in clause\xa06.1.3.22 of TS\xa023.503\xa0[20]).', '', 'NOTE\xa03:\tThe PCF derived Alternative QoS parameter set(s) for the PCC rule are subsequently used to establish Alternative QoS Profile(s). The Alternative QoS Profile parameters provided to the NG-RAN are specified in clause\xa05.7.1.2a of TS\xa023.501\xa0[2].', '', '\tFor multi-modal flows, the PCF derives the required QoS parameters in the PCC rules and generates the QoS monitoring requirements policy for each media flow, based on the information provided by the NEF.', '', '\tIf the PCF determines that the SMF needs updated policy information, the PCF issues a Npcf_SMPolicyControl_UpdateNotify request with updated policy information about the PDU Session as described in the PCF initiated SM Policy Association Modification procedure in clause\xa04.16.5.2.', '', '4a.\tFor requests received from the TSCTSF in step\xa03b, the PCF determines whether the request is authorized and notifies the TSCTSF if the request is not authorized.', '', '\tIf the request is authorized, the PCF derives the required QoS parameters of the PCC rule in the same way it is described in step\xa04 based on the information provided by the TSCTSF and determines whether this QoS is allowed (according to the PCF configuration) and notifies the result to the TSCTSF.', '', '\tIf the PCF determines that the SMF needs updated policy information, the PCF issues a Npcf_SMPolicyControl_UpdateNotify request with updated policy information about the PDU Session as described in the PCF initiated SM Policy Association Modification procedure in clause\xa04.16.5.2.', '', '\tIf the PCF receives a subscription for the 5GS Bridge/Router information from the TSCTSF, if the PCF does not have the 5GS Bridge/Router information for the PDU Session, the PCF uses the PCF initiated SM Policy Association Modification procedure as described in clause\xa04.16.5.2 to subscribe for 5GS Bridge/Router information event from the SMF. Once the PCF has the 5GS Bridge/Router information, the PCF notifies the TSCTSF for the 5GS Bridge/Router information (including the UE-DS-TT Residence Time).', '', '4b.\tThe TSCTSF sends a Ntsctsf_QoSandTSCAssistance_Create response message (Transaction Reference ID, Result) to the NEF. Result indicates whether the request is granted or not.', '', '\tIf the AF is considered to be trusted by the operator, the TSCTSF sends the Ntsctsf_QoSandTSCAssistance_Create response message directly to AF.', '', '5.\tThe NEF sends a Nnef_AFsessionWithQoS_Create response message (Transaction Reference ID, Result) to the AF. Result indicates whether the request is granted or not.', '', '6.\tThe NEF shall send a Npcf_PolicyAuthorization_Subscribe message to the PCF to subscribe to notifications of Resource allocation status and may subscribe to other events described in clause\xa06.1.3.18 of TS\xa023.503\xa0[20].', '', '6a.\tThe TSCTSF shall send a Npcf_PolicyAuthorization_Subscribe message to the PCF to subscribe to notifications of Resource allocation status and may subscribe to other events described in clause\xa06.1.3.18 of TS\xa023.503\xa0[20].', '', '\tThe TSCTSF that receives Capability for BAT adaptation or BAT Window in step\xa03a shall subscribe to notification on BAT offset via sending a Npcf_PolicyAuthorization_Subscribe request message to the PCF.', '', '7.\tWhen the event condition is met, e.g. that the establishment of the transmission resources corresponding to the QoS update succeeded or failed, the PCF sends Npcf_PolicyAuthorization_Notify message to the NEF notifying about the event.', '', '\tIf the AF is considered to be trusted by the operator, the PCF sends the Npcf_PolicyAuthorization_Notify message directly to AF.', '', '7a.\tWhen the event condition is met, e.g. that the establishment of the transmission resources corresponding to the QoS update succeeded or failed, the PCF sends Npcf_PolicyAuthorization_Notify message to the TSCTSF notifying about the event.', '', '7b.\tThe TSCTSF sends Ntsctsf_QoSandTSCAssistance_Notify message with the event reported by the PCF to the NEF.', '', '\tIf the AF is considered to be trusted by the operator, the TSCTSF sends the Ntsctsf_QoSandTSCAssistance_Notify message directly to AF.', '', '8.\tThe NEF sends Nnef_AFsessionWithQoS_Notify message with the event reported by the PCF to the AF.', '', 'The AF may send Nnef_AFsessionWithQoS_Revoke request to NEF in order to revoke the AF request. The NEF authorizes the revoke request and triggers the Ntsctsf_QoSandTSCAssistance_Delete and/or Npcf_PolicyAuthorization_Delete service operations for the AF request.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;9.4.3.2.3	VAL server and SEALDD server registered to EES &lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>23433.docx</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1383822560310364</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['', '----media/image25.emf----', '', 'Figure\xa09.4.3.2.3-1: VAL server and SEALDD server registered to EES', '', '1. The VAL server (acting as an EAS) registers to the EES.', '', '2. The SEALDD server (acting as an EAS) registers to the EES.', '', '3. The EEC performs service provisioning procedure as described in clause 8.3.3.2.2 of 3GPP TS 23.558 [10]. The EEC is responded with the EES which supports the SEALDD server and the VAL server. The EEC sends the EAS discovery request for EAS bundle including VAL service and SEALDD service. The EES may collect the performance of VAL server and SEALDD server (e.g. E2E latency between the SEALDD server and client and load information of SEALDD and VAL server) from the ADAE server when receiving the EAS discovery request, as specified in clause 8.2.2 (for transmission quality, e.g. E2E latency) and 8.8.2 (for edge load) of 3GPP\xa0TS 23.436\xa0[13].', '', '4. The EES identifies the VAL server and the associated SEALDD server based on the performance of VAL server and the performance of SEALDD server (e.g. to satisfy the AC service KPI). ', '', '5. The EES sends the EAS discovery response to EEC, including the SEALDD server address, the VAL server address.', '', "Upon receiving the SEALDD server address, the VAL server address, the VAL client can initiate SEALDD service via SEALDD client with the SEALDD server's address. The data transmission between the VAL client and the VAL server can be enabled via the SEALDD connection, as specified in clause 9.2.2.", '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>&lt;h1&gt;J.1	Procedure for PIN service&lt;/h1&gt;</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>23502.docx</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1545876860618591</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['', '----media/image280.emf----', '', 'Figure J.1-1: Procedure for PIN service', '', 'PIN is a subscribed service, and a user needs to coordinate with the Mobile Network Operator to subscribe for PIN service. When a user subscribes for a PIN, the subscription data includes the (DNN, S NSSAI) combination allocated by the MNO for the PIN service. The PEGC(s) are then provisioned with appropriate URSP rules to enable the PEGC UE to route the PIN traffic using the (DNN, S NSSAI) combination allocated for the PIN. Figure J.1-1 provides a high level procedure for PIN service.', '', 'Step 1:\tStep\xa01 is performed using O&amp;amp;M.', '', '\tA user subscribes to the Mobile Network Operator (MNO) for PIN service. The user provides the list of PEGC(s) that are part of the PIN. The MNO verifies the request, performs necessary checks e.g. whether the UEs are allowed to act as PEGC, whether all the requested PEGC are part of the same UDM group etc. If the request is authorized by the MNO, the MNO:', '', '-\tallocates a dedicated (DNN, S NSSAI) combination for the PIN;', '', '-\tif the PIN has a single PEGC, then updates the PEGC subscription with the (DNN, S NSSAI) combination allocated for the PIN;', '', '-\tif the PIN has more than one PEGC and 5G VN Group is used for a PIN, then creates a group subscription following the 5G VN group management principles as specified in clause\xa05.29.2 of TS\xa023.501\xa0[2]. The information on the External Group ID and associated (DNN, S-NSSAI) combination is provided to the AF for PIN;', '', '-\tif local switching is required, configures in the SMF set and/or in the NRF that the DNN allocated for the PIN is served by a specific SMF set.', '', 'NOTE:\tIt is assumed that all PEGCs that are members of a PIN are part of the same UDM Group ID. If the PEGCs requested by the user for PIN creation are not part of the same UDM Group ID, the MNO migrates all the PEGCs into a single UDM Group ID for creating the group subscription.', '', 'Step 2:\tFor routing PIN traffic by the PEGC, the AF for PIN provides guidance for URSP generation to the 5GC. The AF for PIN uses a UE ID (i.e. GPSI) as the target UE if the PIN contains a single PEGC. If the PIN contains more than one PEGC and 5G VN Group is used for a PIN, then the AF uses External Group ID as the target UEs for providing URSP guidance to the 5GC. The AF request contains (DNN, S NSSAI) combination allocated to the user for the PIN service and the traffic descriptor components in the URSP rule request from the AF for PIN contains the PIN ID.', '', '\tThe NEF authorizes the request received from the AF for PIN and stores the information in the UDR as "Application Data".', '', '\tThe NEF can use the procedure for authorization of service specific parameter provisioning as specified in clause\xa04.15.6.7a to authorize the AF request by the UDM. In this case:', '', '-\tif the request is for an individual UE, the UDM checks if the (DNN, S NSSAI) combination in the AF request is allowed for the UE;', '', '-\tif the request is for a group of UEs and 5G VN Group is used for a PIN, the UDM checks whether the group related data (e.g. (DNN, S-NSSAI) combination group related data, see table 4.15.6.3b-1) is authorized for the group.', '', '\tIf the AF request is authorized, the NEF stores the AF requested information in the UDR as the "Application Data" (Data Subset setting to "Service specific information").', '', 'Step 3:\tThe PCF receives a Nudr_DM_Notify notification of data change from the UDR, generates the URSP rules and initiates UE Policy delivery as specified in clause\xa04.2.4.3 to provision the URSP rules in the PEGC(s). For routing of PIN traffic by the PEGC(s), the URSP policies provided to the PEGC UE(s) contain URSP rule with PIN ID as traffic descriptor.', '', 'Step 4:\tThe AF for PIN provides QoS requirements for the PIN traffic following procedures for AF requested QoS for a UE or group of UEs not identified by a UE address as specified in clause\xa04.15.6.14.', '', 'Step 5:\tWhen the PEGC(s) detect PIN traffic, it uses the provisioned URSP rules to identify PDU session to route the traffic as specified in clause\xa06.6.2.3 of TS\xa023.503\xa0[20]. The 5GC further performs session management and user plane management as described in Annex\xa0P, clause\xa0P.2 of TS\xa023.501\xa0[2].', '', 'When 5G VN Group is not used for a PIN and if the PIN contains more than one PEGCs, then the AF request for URSP guidance and QoS requirements is targeted to each individual PEGCs that are part of the PIN.', '', '', 'Annex K (informative):', 'Change history', '', 'Change history', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Date&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Meeting&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TDoc&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New version&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2017-09&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP#77&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-170735&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC Editorial Update for presentation to TSG SA#77 for information&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;1.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2017-09&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SA2#122E&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;Correcting implementation issues of S2-176821 and additional clean-up.&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;1.2.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2017-12&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-78&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-170932&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC Editorial Update for presentation to TSG SA#78 for Approval&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-78&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;MCC Editorial Update after TSG SA#78 Approval&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;15.0.0&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180092&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0001&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections on the specification of Network Exposure services&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0002&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to PDU session establishment / modification procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0003&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clean-up of the registration procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180090&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0005&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Using NRF for UPF discovery&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0006&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Allowed NSSAI and Access Type&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0008&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to the Inter-system mobility procedures&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0009&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;QoS clarifications for EPC interworking&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0010&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;EPS bearer ID allocation update&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180090&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0011&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of Npcf_BDTPolicyControl service operation (Backbround data transfer)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180095&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0012&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Multiple request of Location Reporting for Area of Interest&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0013&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SMF behaviour based on LADN notification&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0014&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on Internal Event Exposure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0015&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on 5G-GUTI in EPS to 5GS Mobility Registration Procedure using N26&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0016&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Adding missing text about UE policies related to Service Request including the List Of Allowed PDU Sessions&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0019&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update of NEF service for background data transfer&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0020&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update of NEF service for PFD management&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0021&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on handover applicability between 3GPP and non-3GPP accesses&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0022&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on paging when it is related with both 3GPP and non-3GPP PDU Session&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0023&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Sending EBI to the NG-RAN&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0024&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Indirect data forwarding in home routed roaming case&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0025&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Interaction between SMF and UPF during the inter-system change&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0026&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Direct forwarding flag for handover from EPS to 5GS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0027&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update to N2 Handover procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0029&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on keeping NAS signalling connection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0030&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on SMS related Subscription data&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0032&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification related to Subscription data type&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0033&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on PCF association&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0034&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Slicing handling for EPS to 5GS Mobility without N26&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0035&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Keeping EBI transfer alignment&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0036&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on the Emergency HO indication for EPS fallback&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0037&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment of Namf_MT_EnableUEReachability service operation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0038&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Mobility from EPC to 5GC&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180095&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0040&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on PDU Session Release timer provided to the UE for \'SSC mode 3\'&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0041&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Generalize exposure of Mobility Events from AMF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0042&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Align the UE location presence status of LADN Session into Network Triggered Service Request procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0043&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction on AF influence on traffic routing&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0044&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to RAN Initiated QoS Flow Mobility Procedure for Dual Connectivity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0045&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on UDM service consumption order of UECM and SDM&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0046&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Cleanup of the service request procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0047&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE-specific DRX parameter negotiation between UE and AMF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0048&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update of handover cancel procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0049&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Control of the Messages triggering Paging at AMF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0050&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification for Area of validity in NW triggered SR procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0051&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Revision on Service Request procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0052&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction on Notification control for GBR QoS flow&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0053&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Reflective QoS Timer transmission during PDU Session establishment&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0054&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction on Policy association procedure during AMF relocation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;PCF selection for AMF during inter NG-RAN node N2 based handover&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction on PCF selection in SMF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0057&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update Paging Policy Differentiation in Network triggered Service Request procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0058&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NEF service definitions for AF influence&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update Handover procedures in clause\xa04.11.1.2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0060&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clean up of FFSs in 4.11.1.2.2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0061&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A new annex for generating EPS PDN Connection parameters from 5G PDU Session parameters&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0062&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SMSF address deactivation and activation in AMF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0063&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction on SMSF Nsmsf_SMService_Activate service operation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0065&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Resolution of ENs in Service Request procedures&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180096&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0066&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Editorial correction to clause\xa04.12.8&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0067&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Nudm SDM service Subscription Data types updates&lt;/span&gt;', '', '&lt;span style="font-size</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.3.6.2	Processing AF requests to influence traffic routing and/or Service Function Chaining for Sessions not identified by an UE address&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>23502.docx</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1510892510414124</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['', '----media/image46.emf----', '', 'Figure 4.3.6.2-1: Processing AF requests to influence traffic routing and/or Service Function Chaining for Sessions not identified by an UE address', '', 'NOTE\xa01:\tThe 5GC functions used in this scenario are assumed to all belong to the same PLMN (HPLMN in non-roaming case or VPLMN in the case of a PDU Session in LBO mode).', '', '0.\tThe PCF(s) subscribe to modifications of AF requests (Data Set = Application Data; Data Subset = AF traffic influence request information, Data Key = S-NSSAI and/or DNN and/or Internal Group Identifier or SUPI) from the UDR.', '', '1.\tTo create a new request, the AF invokes a Nnef_TrafficInfluence_Create service operation. The content of this service operation (AF request) is defined in clause\xa05.2.6.7. The request contains also an AF Transaction Id. If it subscribes to events related with PDU Sessions the AF indicates also where it desires to receive the corresponding notifications (AF notification reporting information).', '', '\tTo update or remove an existing request, the AF invokes a Nnef_TrafficInfluence_Update or Nnef_TrafficInfluence_Delete service operation providing the corresponding AF Transaction Id.', '', '\tThe Nnef_TrafficInfluence_Create (initiated by target AF) or Nnef_TrafficInfluence_Update (initiated by source AF or target AF) service operation may be used for the case of AF instance change. If Nnef_TrafficInfluence_Update service operation is invoked, the NEF is required to update the subscription resource. The Nnef_TrafficInfluence_Update service operation may include an updated notification target address. The updated subscription resource is used by the target AF.', '', 'NOTE\xa02:\tIf the source AF transfers the application context to the target AF, then target AF may create new subscription via Nnef_TrafficInfluence_Create operation or update existing subscription via Nnef_TrafficInfluence_Update. However, whether and how the application context transfer is done is out of this specification.', '', '2.\tThe AF sends its request to the NEF. If the request is sent directly from the AF to the PCF, the AF reaches the PCF selected for the existing PDU Session by configuration or by invoking Nbsf_management_Discovery service.', '', '\tThe NEF ensures the necessary authorization control, including throttling of AF requests and as described in clause\xa04.3.6.1, mapping from the information provided by the AF into information needed by the 5GC.', '', '3.\t(in the case of Nnef_TrafficInfluence_Create or Update): The NEF stores the AF request information in the UDR (Data Set = Application Data; Data Subset, Data Key = AF Transaction Internal ID, S-NSSAI and DNN and/or Internal Group Identifier(s) and/or Subscriber Category(s) or SUPI). The Data Subset identifies whether the information relates to AF traffic influence request information for traffic routing or AF traffic influence request information for service function chaining, as described in Table 5.2.12.2.1-1.', '', 'NOTE\xa03:\tBoth the AF Transaction Internal ID and S-NSSAI and DNN and/or Internal Group Identifier(s) and/or Subscriber Category(s) or SUPI are regarded as Data Key when the AF request information are stored into the UDR, see Table 5.2.12.2.1-1. The Subscriber Category(s) is determined by NEF as described in clause\xa04.3.6.1.', '', '\t(in the case of Nnef_TrafficInfluence_delete): The NEF deletes the AF requirements in the UDR (Data Set = Application Data; Data Subset, Data Key = AF Transaction Internal ID). The Data Subset identifies whether the information relates to AF traffic influence request information for traffic routing or AF traffic influence request information for service function chaining.', '', '\tThe NEF responds to the AF.', '', '4.\tThe PCF(s) that have subscribed to modifications of AF requests receive(s) a Nudr_DM_Notify notification of data change from the UDR. The Data Subset identifies whether the information relates to AF traffic influence request information for traffic routing or AF traffic influence request information for service function chaining.', '', '5.\tThe PCF determines if existing PDU Sessions are potentially impacted by the AF request. For each of these PDU Sessions, the PCF updates the SMF with corresponding new policy information about the PDU Session by invoking Npcf_SMPolicyControl_UpdateNotify service operation as described in steps 5 and 6 in clause\xa04.16.5.', '', '\tThe PCF validates whether the SFC identifier (if available) corresponds to an authorized SFC for the AF based on local configuration. If the validation has succeeded the PCF maps the SFC identifier to the corresponding Traffic Steering Policy identifier (i.e. TSP ID).', '', '\tThe PCF includes the Traffic Steering Policy ID(s) in the AF influence on traffic routing Enforcement Control information and/or N6-LAN Traffic Steering Enforcement Control information of the relevant PCC rule as defined in clause\xa06.3.1 of TS\xa023.503\xa0[20]. The PCF also includes the Metadata in the N6-LAN Traffic Steering Enforcement Control information of the PCC rule when Metadata was provided by the AF.', '', '\tIf the AF request includes a notification reporting request for UP path change, the PCF includes in the PCC rule(s) the information required for reporting the event, including the Notification Target Address pointing to the NEF or AF and the Notification Correlation ID containing the AF Transaction Internal ID.', '', '\tIf the AF request includes an EAS Correlation indication or indication of traffic correlation, PCF includes in the PCC rule(s) an EAS Correlation indication or indication of traffic correlation and a Traffic Correlation ID corresponding to a set of UEs that AF request aims at, also if AF request includes a common EAS IP address or common DNAI for a set of UEs, PCC rule includes the common EAS IP address or common DNAI.', '', '\tIn the case of AF influence on traffic routing, the PCF may, optionally, use service experience analytics per UP path, as defined in clause\xa06.4.3 of TS\xa023.288\xa0[50], to provide an updated list of DNAI(s) to the SMF.', '', '\tThe PCF may use the "Subscriber categories" as defined in "PDU Session policy control subscription information" in table 6.2-2 of TS\xa023.503\xa0[20] to determine whether the PDU Session is impacted by the AF request.', '', '6.\tWhen the updated policy information about the PDU Session is received from the PCF, the SMF may take appropriate actions to reconfigure the User plane of the PDU Session.', '', '\tIn the case of AF influence on traffic routing, examples of actions are:', '', '-\tThe SMF may consider service experience analytics and/or DN Performance analytics per UP path (i.e. including UPF and/or DNAI and/or AS instance) as defined in clauses 6.4.3 and 6.14.3, respectively, of TS\xa023.288\xa0[50] before taking any actions.', '', '-\tDetermining a target DNAI.', '', '-\tDetermining if a common DNAI needs to be used as a target DNAI.', '', '-\tAdding, replacing or removing a UPF in the data path to e.g. act as an UL CL or a Branching Point e.g. as described in clause\xa04.3.5.', '', '-\tAllocate a new Prefix to the UE (when IPv6 multi-Homing applies).', '', '-\tUpdating the UPF in the target DNAI with AF influence on traffic routing control parameters as described in clause\xa05.6.7.1 of TS\xa023.501\xa0[2].', '', '-\tSubscribe to notifications from the AMF for an Area of Interest via Namf_EventExposure_Subscribe service operation.', '', '-\tDetermining whether to relocate PSA UPF considering the user plane latency requirements provided by the AF (see clause\xa06.3.6 of TS\xa023.548\xa0[74]).', '', '\tWhen the updated policy information about the PDU Session is received from the PCF, the SMF may take appropriate actions to assist the EAS discovery and re-discovery for PDU Session with Session Breakout connectivity model such as:', '', '-\tRetrieve the EAS deployment information as defined in clause\xa06.2.3.4.1 of TS\xa023.548\xa0[74].', '', '-\tProviding DNS message handling rule to forward DNS messages of the UE and/or report when detecting DNS messages as defined in clause\xa06.2.3.2.2 of TS\xa023.548\xa0[74].', '', '\tIn the case of AF influence on Service Function Chaining, the SMF may take appropriate actions to enforce the N6-LAN traffic steering control:', '', '-\tProvide N6-LAN traffic steering control parameters to UPF as described in clause\xa05.6.16 of TS\xa023.501\xa0[2].', '', '7.\tThe SMF may decide whether it is required to send the target DNAI to the AMF for triggering SMF/I-SMF (re)selection and then inform the target DNAI information for the current PDU session or for the next PDU session to AMF via Nsmf_PDUSession_SMContextStatusNotify service operation.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.3.6.4	Transferring an AF request targeting an individual UE address to the relevant PCF&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>23502.docx</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1520802974700928</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['', '----media/image48.emf----', '', 'Figure 4.3.6.4-1: Handling an AF request targeting an individual UE address to the relevant PCF', '', 'Depending on the AF deployment (see clause\xa06.2.10 of TS\xa023.501\xa0[2]), the AF may send the AF request to PCF directly, in which case step\xa01 is skipped, or via the NEF.', '', '1.\t[Conditional] If the AF sends the AF request via NEF, the AF sends Nnef_TrafficInfluenceCreate/Update/Delete Request targeting an individual UE address to the NEF. This request corresponds to an AF request to influence traffic routing to a local network and/or to a service function chain that targets an individual UE address.', '', '\tWhen NEF receives an AF request from AF, the NEF ensures the necessary authorization control and as described in clause\xa04.3.6.1, mapping from the information provided by the AF into information needed by the 5GC. The NEF responds to the AF.', '', '2.\t[Conditional] AF/NEF consumes Nbsf_Management_Discovery service operation (providing at least the UE address) to find out the address of the relevant PCF if the PCF address is not available on the NEF based on local configuration, otherwise step\xa01 is skipped.', '', 'NOTE\xa01:\tThe AF/NEF finds the BSF based on local configuration or using the NRF.', '', '3.\tBSF provides the PCF address in the Nbsf_Management_Discovery response to AF/NEF.', '', '4.\tIf step\xa01 was performed, NEF invokes the Npcf_PolicyAuthorization service to the PCF to transfer the AF request. If an AF sends the AF request directly to the PCF, AF invokes Npcf_PolicyAuthorization service and the PCF responds to the AF. To support the AF instance change, the Npcf_PolicyAuthorization_Create (initiated by target AF) or Npcf_PolicyAuthorization_Update (initiated by source AF or target AF) service operation may be used.', '', 'NOTE\xa02:\tIf the source AF transfers the application context to the target AF, then target AF may create new subscription via Npcf_PolicyAuthorization_Create or update existing subscription via Npcf_PolicyAuthorization_Update. However, whether and how the application context transfer is done is out of this specification.', '', "5.\tThe PCF authorizes the AF request. If the PCF determines that the requirements can't be authorized, it rejects the AF request. Once the PCF authorizes the AF request, the PCF updates the SMF with corresponding new PCC rule(s) with PCF initiated SM Policy Association Modification procedure as described in clause\xa04.16.5.2.", '', '\tThe PCF includes the Traffic Steering Policy ID(s) for AF influence on traffic routing Enforcement Control information and/or N6-LAN Traffic Steering Enforcement Control information in the relevant PCC rule as defined in clause\xa06.3.1 of TS\xa023.503\xa0[20].', '', '\tThe PCF may, optionally, use service experience analytics per UP path, as defined in clause\xa06.4.3 of TS\xa023.288\xa0[50], to provide a an updated list of DNAI(s) to the SMF.', '', '\tIf Npcf_PolicyAuthorization_Update service operation is invoked, the PCF is required to update the subscription resource. The Npcf_PolicyAuthorization_Update service operation may include an updated notification target address. The updated subscription resource is used by the target AF.', '', '\tWhen a PCC rule is received from the PCF, the SMF may take appropriate actions, when applicable, to reconfigure the User plane of the PDU Session.', '', '\tIn the case of AF influence on traffic routing, examples of actions are:', '', '-\tThe SMF may consider service experience analytics and/or DN Performance analytics per UP path (i.e. including UPF and/or DNAI and/or AS instance) as defined in clauses 6.4.3 and 6.14.3, respectively, of TS\xa023.288\xa0[50] before taking any actions.', '', '-\tDetermining a target DNAI and adding, replacing or removing UPF(s) in the data path, e.g. to act as UL CL, Branching Point and/or PDU Session Anchor e.g. as described in clause\xa04.3.5.', '', '-\tAllocate a new Prefix to the UE (when IPv6 multi-Homing applies).', '', '-\tUpdating the UPF regarding the target DNAI with AF influence on traffic routing control parameters as described in clause\xa05.6.7.1 of TS\xa023.501\xa0[2].', '', '-\tSubscribe to notifications from the AMF for an Area of Interest via Namf_EventExposure_Subscribe service operation.', '', '-\tDetermining whether to relocate PSA UPF considering the user plane latency requirements provided by the AF (see clause\xa06.3.6 of TS\xa023.548\xa0[74]).', '', '\tIn the case of AF influence on Service Function Chaining, the SMF may take appropriate actions to enforce the N6-LAN traffic steering control:', '', '-\tProvide N6-LAN traffic steering control parameters to UPF as described in clause\xa05.6.16 of TS\xa023.501\xa0[2].', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;5.2.6.9.2	Nnef_AFsessionWithQoS_Create service operation&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>23502.docx</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1344824433326721</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['', '&lt;b&gt;Service operation name:&lt;/b&gt; Nnef_AFsessionWithQoS Create', '', '&lt;b&gt;Description:&lt;/b&gt; The consumer requests the network to provide a specific QoS for an AF session for a UE or a list of UEs.', '', '&lt;b&gt;Inputs, Required:&lt;/b&gt; AF Identifier, UE address (i.e. IP address or MAC address and only applicable for a single UE AF session), a list of UE addresses (as described in clause\xa04.15.6.13, and only applicable for a Multi-member AF session). Flow description information as described in clause\xa06.1.3.6 of TS\xa023.503\xa0[20] or External Application Identifier, QoS Reference or individual QoS parameters as described in clause\xa06.1.3.22 of TS\xa023.503\xa0[20].', '', 'NOTE\xa01:\tIn this Release, when a list of UE addresses is provided, the Flow description information is common for all UE addresses in the list. Further details are described in clause\xa04.15.6.13.2.', '', '&lt;b&gt;Inputs, Optional:&lt;/b&gt; Time period, traffic volume, Alternative Service Requirements (containing one or more QoS Reference parameters or Requested Alternative QoS Parameter Sets in a prioritized order), QoS Monitoring parameter(s) as defined in clause\xa05.45 of TS\xa023.501\xa0[2], Reporting frequency, Target of reporting and optional an indication of direct event notification as described in clause\xa06.1.3.21 of TS\xa023.503\xa0[20], DNN if available, S-NSSAI if available.', '', 'Only applicable for a single UE AF session: flow direction, Burst Arrival Time at UE (uplink) or UPF (downlink), Periodicity as described in clause\xa05.27.2 or clause\xa05.37.8.2 of TS\xa023.501\xa0[2], Time domain, Survival Time, BAT Window or Capability for BAT adaptation, Packet Delay Variation requirements as described in clause\xa06.1.3.26 of TS\xa023.503\xa0[20], Periodicity Range, RT Latency Indication as described in clause\xa06.1.3.22 of TS\xa023.503\xa0[20], PDU Set QoS Parameters as described in clause\xa05.7.7 of TS\xa023.501\xa0[2], Protocol Description (as described in clause\xa05.37.5 or 5.37.8.3 of TS\xa023.501\xa0[2]), Indication of ECN marking for L4S as described in clause\xa06.1.3.22 of TS\xa023.503\xa0[20], QoS duration, QoS inactivity interval, Multi-Modal Service ID together with Multi-modal Service Requirements information for each data flow as described in clause\xa06.1.3.27.3 of TS\xa023.503\xa0[20].', '', 'Only applicable for a Multi-member AF session: Consolidated Data Rate Threshold, a list of UE addresses subject to Consolidated Data Rate monitoring.', '', 'NOTE\xa02:\tIf Consolidated Data Rate Threshold is provided, the QoS Monitoring parameter(s) indicates the Guaranteed Bitrate shall be provided.', '', 'NOTE\xa03:\tWhen the AF request is for Consolidated Data Rate monitoring is set for event reporting, the QoS Flow data rate reporting for the list of UEs provided to the AF by the NEF only when the Consolidated Data Rate threshold is exceeded.', '', 'NOTE\xa04:\tWhen the Consolidated Data Rate threshold is provided, it applies to the list of UE addresses by default. However, if the list of UE addresses subject for Consolidated Data Rate monitoring is also provided, then such list has to be the subset of the list of UE addresses.', '', '&lt;b&gt;Outputs, Required:&lt;/b&gt; Transaction Reference ID, result (result as described in clause\xa04.15.6.13 if a list of UE is targeted).', '', '&lt;b&gt;Output (optional):&lt;/b&gt; None.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;5.2.6.7.2	Nnef_TrafficInfluence_Create operation&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>23502.docx</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1594908833503723</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['', '&lt;b&gt;Service operation name:&lt;/b&gt; Nnef_TrafficInfluence_Create', '', '&lt;b&gt;Description:&lt;/b&gt; Authorize the request and forward the request for traffic influence.', '', '&lt;b&gt;Inputs, Required:&lt;/b&gt; AF Transaction Id, AF Identifier.', '', 'The AF Transaction Id refers to the request.', '', '&lt;b&gt;Inputs, Optional:&lt;/b&gt; The address (IP or Ethernet) of one or more UE(s) if available, one or more GPSIs if available, DNN if available, S-NSSAI if available, External Group Identifier(s) if available, External Application Identifier or traffic filtering information, AF-Service-Identifier, a list of DNAI(s) and corresponding routing profile ID(s) or N6 traffic routing information, Indication of traffic correlation, Indication of application relocation possibility, Indication of UE IP address preservation, Early and/or late notifications about UP path management events, Notification Target Address, immediate reporting flag, Temporal validity condition, Spatial validity condition, User Plane Latency Requirements, Information for EAS IP Replacement in 5GC, Indication for EAS Relocation and AF indication for simultaneous connectivity over source and target PSA at edge relocation, EAS Correlation indication, External Subscriber Category(s), SFC Identifier(s), Metadata, Common EAS IP address, Traffic Correlation ID, FQDN(s) as described in clause\xa05.6.7 of TS\xa023.501\xa0[2], HPLMN of the UE. If an IP address of one or more UE(s) is provided, a corresponding port number (e.g. TCP or UPDP) for each IP address.', '', 'The IP address of one or more UE(s) may be provided together with the corresponding port number allowing to support the case where the PSA UPF is carrying out NAT on the traffic exchanged with the EAS.', '', 'NOTE\xa01:\tWhen only one DNAI and corresponding routing profile ID(s) and the Indication for EAS Relocation are available, the presented DNAI is the target DNAI as defined in clause\xa06.3.7 of TS\xa023.548\xa0[74].', '', 'NOTE\xa02:\tIn this Release the following cannot be used by AFs in VPLMN influencing traffic on Home Routed PDU sessions:', '', '-\tExternal Group Identifier;', '', '-\tExternal Subscriber Category.', '', '&lt;b&gt;Outputs, Required:&lt;/b&gt; Operation execution result indication.', '', '&lt;b&gt;Outputs, Optional:&lt;/b&gt; None.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;5.2.5.3.2	Npcf_PolicyAuthorization_Create service operation&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>23502.docx</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1541516184806824</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['', '&lt;b&gt;Service operation name:&lt;/b&gt; Npcf_PolicyAuthorization_Create', '', '&lt;b&gt;Description:&lt;/b&gt; Authorize the request and optionally determines and installs SM Policy Control Data according to the information provided by the NF Consumer or provides Port Management Information Container for ports on DS-TT or NW-TT, or User plane node Management Information Container.', '', '&lt;b&gt;Inputs, Required:&lt;/b&gt; UE (IP or MAC) address, identification of the application session context.', '', '&lt;b&gt;Inputs, Optional:&lt;/b&gt; GPSI(s) or SUPI(s) if available, Internal Group Identifier, DNN if available, S-NSSAI if available, Media type, Media format, bandwidth requirements, sponsored data connectivity information if applicable, flow description information as described in clause\xa06.1.3.6 of TS\xa023.503\xa0[20], AF Application Identifier, AF Communication Service Identifier, AF Record Identifier, Flow status, Priority indicator, emergency indicator, ASP Identifier, resource allocation outcome, AF Application Event Identifier, a list of DNAI(s) and corresponding routing profile ID(s) or N6 traffic routing information, AF Transaction Id, Early and/or late notifications about UP path management events, temporal validity condition, spatial validity condition, Information for EAS IP Replacement in 5GC, Indication for EAS Relocation, AF indication for simultaneous connectivity over source and target PSA at edge relocation, EAS Correlation indication, Common EAS IP address, Traffic Correlation ID, FQDN(s) as described in clause\xa05.6.7 in 23.501\xa0[2], Background Data Transfer Reference ID, priority sharing indicator as described in clause\xa06.1.3.15 of TS\xa023.503\xa0[20], pre-emption control information as described in clause\xa06.1.3.15 of TS\xa023.503\xa0[20], Port Management Information Container and related port number, User plane node Management Information Container, TSN AF parameters provided by the TSN AF to the PCF as described in clause\xa06.1.3.23 of TS\xa023.503\xa0[20], TSCTSF parameters provided by the TSCTSF to the PCF as described in clause\xa06.1.3.23a and clause\xa06.1.3.23b of TS\xa023.503\xa0[20], QoS Monitoring parameter(s) as defined in clause\xa05.45 of TS\xa023.501\xa0[2], Reporting frequency, Target of reporting and optional an indication of direct event notification as described in clause\xa06.1.3.21 of TS\xa023.503\xa0[20], QoS Reference or individual QoS parameters as described in clause\xa06.1.3.22 of TS\xa023.503\xa0[20], RT Latency Indication as described in clause\xa06.1.3.22 of TS\xa023.503\xa0[20], Alternative Service Requirements (containing one or more QoS Reference parameters or Requested Alternative QoS Parameter Sets in a prioritized order), TSC Assistance Container, MPS for Data Transport Service indicator as described in clause\xa06.1.3.11 of TS\xa023.503\xa0[20], Packet Delay Variation requirements as described in clause\xa06.1.3.26 of TS\xa023.503\xa0[20], SFC Identifier(s), Metadata, Periodicity as described clauses 6.1.3.22 and 6.3.1 of TS\xa023.503\xa0[20], PDU Set QoS Parameters as described in clause\xa05.7.7 of TS\xa023.501\xa0[2], Protocol Description as described in clause\xa05.37.5 or 5.37.8.3 of TS\xa023.501\xa0[2], Data Burst Handing Information as described in clause\xa06.3.1of TS\xa023.503\xa0[20], Indication of ECN marking for L4S as described in clause\xa06.1.3.22 of TS\xa023.503\xa0[20], Notification Target Address for PMIC/UMIC UPF event, Correlation ID for PMIC/UMIC UPF event, Multi-Modal Service ID together with Multi-modal Service Requirements information for each data flow as described in clause\xa06.1.3.27.3 of TS\xa023.503\xa0[20], QoS duration, QoS inactivity interval as described in clause\xa06.1.3.22 of TS\xa023.503\xa0[20].', '', 'NOTE\xa01:\tWhen only one DNAI and corresponding routing profile ID(s) and the Indication for EAS Relocation are available, the presented DNAI is the target DNAI as defined in clause\xa06.3.7 of TS\xa023.548\xa0[74].', '', 'NOTE\xa02:\tA dedicated Notification Target Address for PMIC/UMIC UPF event and Correlation ID for PMIC/UMIC UPF event are provided by the event consumer over Npcf_PolicyAuthorization as the corresponding events are reported by the UPF and not by the PCF. Providing such information indicates that the consumer of the Npcf_PolicyAuthorization (TSN AF, TSCTSF) suppots PMIC/UMIC via Nupf event reporting.', '', '&lt;b&gt;Outputs, Required: &lt;/b&gt;Success or Failure (reason for failure, e.g. as defined in clauses 6.1.3.16 and clause\xa06.1.3.10 of TS\xa023.503\xa0[20]).', '', '&lt;b&gt;Outputs, Optional:&lt;/b&gt; The service information that can be accepted by the PCF.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>&lt;h1&gt;B.1	LCS privacy selection flow rule&lt;/h1&gt;</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>23273.docx</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1393527984619141</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['', 'A 5GS-MT-LR may be applied to more than one LCS privacy data in the LCS privacy profile, e.g. one or more privacy classes as defined in clause\xa05.4.2.2 and LPI as defined in clause\xa05.4.2.3. The 5GS-MT-LR may also require POI as defined in clause\xa05.4.4. The Privacy selection flow is shown in Figure B.1-1.', '', '----media/image63.emf----', '', 'Figure B.1-1: Privacy selection flow diagram', '', '', '', '', 'Annex C (informative):', 'PNI-NPN architecture to support location service with signalling optimisation', '', 'Figure C-1 shows the PNI-NPN architecture to support location services with optimisation of signalling latency and privacy, with the corresponding functional descriptions are defined in clause\xa05.13.', '', 'When UE access the NG-RAN in the local network, during the registration procedure or service request procedure, NG-RAN selects the Serving AMF in the public network. With appropriate configuration, local AMF cannot be selected as the serving AMF for the UE.', '', 'Assuming NG-RAN 1 is the serving RAN of UE. NG-RAN 2 and NG-RAN 3 illustrated in the figure below is for positioning signal measurement.', '', '----media/image64.emf----', '', 'Figure C-1 PNI-NPN architecture to support location service with signalling optimisation', '', '', 'Annex D (informative):', 'Change history', '', '&lt;b&gt;Change history&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Date&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Meeting&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TDoc&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New version&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2019-05&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP#84&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-190455&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC Editorial update for presentation to TSG SA#84 for approval&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;1.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2019-06&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP#84&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC editorial update for publication after approval at TSG SA#84&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;16.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0001 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction on UE Assisted and UE Based Positioning Procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0002&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction on LCS privacy selection flow rule&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0003&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to EPC Interconnection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0005&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to LCS Privacy feature&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0006&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Support of Concurrent Location Request&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0008&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on positioning access selection in the 5GC-MO-LR procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0010&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Broadcast of Assistance Data for NR&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0011&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction and Improvement of Low Power Periodic and Triggered Location&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0021&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Handling of NG-RAN Location Service Exposure Procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0022&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3GPP access specific aspects&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0024&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of 5GC-MT-LR procedure for the commercial location service&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0025&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Completion of 5GC-MO-LR Procedure for TS 23.273&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Completion of Unified Location Service Exposure Procedure for TS 23.273&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0030&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of CHF in eLCS architecture&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0032&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;IMS Interworking for location service&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0036&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update of location service exposure description&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0033&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Package of corrections&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0037&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Delete Editor\'s Notes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0041&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update the status of event reporting&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0045&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Add Coordinate Reference System &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0046&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to bulk operation MT-LR procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0047&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to MT-LR procedure for 3GPP and Non-3GPP access&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0048&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Removal of the EN on the location information in Clause 5.3.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0049&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction on Broadcast of Assistance Data by an LMF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Completion of Deferred 5GC-MT-LR procedure for TS 23.273&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Completion of 5GC-MT-LR Procedure for TS 23.273&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0057&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to Location Services for Miscellaneous Errors and Inconsistencies&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update of the LMF selection function&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0060&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of the procedure of obtaining Non-UE Associated Network Assistance Data&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191061&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0061&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to MO-LR procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0062&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to LCS Assistance Data Broadcast procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0074&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Completion of Cancellation of a Deferred 5GC-MT-LR procedure for TS 23.273&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0076&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Completion of Unified Location Service Exposure Procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0080&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Addition of exception support for Periodic or Triggered Location Reporting&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Package of editorial modification for procedures&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0075&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on LCS QoS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0081&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on GMLC and NEF authorization and privacy check&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0089&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Incorrect Services Operation for LMF non UE message transfer&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to LMF selection &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0092&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TS23.273 - Correction on User Location Information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0095&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on group authorization and location reporting method for bulk operation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0103&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Complementing the function of EventNotify service operation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0105&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to cancellation of reporting of location events procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0106&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Package of editorial modification&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to roaming architecture for NEF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0108&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to LMF function&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0111&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to the service operation between AF and NEF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0112&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update the functionality of GMLC&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0113&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update the Cancellation procedure of deferred MT-LR&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0114&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update the Response Method&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0115&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Location Exposure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0116&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to service exposure descriptions&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0117&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to use of NEF Service operations in procedures&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0119&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on MT-LR procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0120&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Add NEF function in location service exposure procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0121&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Location Exposure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on Information Elements in location procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0123&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Location QoS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0124&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Resolve EN for NG-RAN Location Service Exposure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0125&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of several procedures&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200422&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0126&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Removal of I-NEF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#90E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200948&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0131&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to Bulk Operation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#90E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200948&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0136&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of NAS message used for event reporting&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#91E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0140&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on UDM interaction&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#91E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0141&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction on source of Client type information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#91E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0142&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of NEF service type in bulk operation procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#91E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0143&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to conveyed area event information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#91E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0153&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of LCS client type provided by AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#91E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210063&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0144&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Location estimate in Local Coordinates&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;17.0.0&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#91E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.2.4.1	QoS handling for A2X communication over PC5 reference point&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>23256.docx</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.133953869342804</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['', 'A2X leverages what is defined for V2X in clauses 5.4.1 to 5.4.3 of TS\xa023.287\xa0[11] with the following differences:', '', '-\tV2X is replaced by A2X.', '', '-\tGroupcast mode communication is not supported.', '', '-\tDefinitions for PC5 QoS handling are described in clause\xa06.2.4.', '', '-\tPC5 QoS configuration parameters are described in clause\xa06.2.1.2.1.', '', '-\tDefinitions for A2X communication over PC5 Reference point are described in clause\xa06.2.2.1.', '', '-\tProcedures for A2X unicast mode communication over PC5 Reference point are described in clause\xa06.3.3.2.', '', '-\tProcedures for A2X Delivery of PC5 QoS parameters to NG-RAN are described in clause\xa06.3.5.7.', '', '-\tPQI values are defined for A2X communication over PC5 reference point. The one-to-one mapping of standardized PQI values that are defined to PC5 QoS characteristics is specified in table 6.2.4.1-1.', '', 'Table 6.2.4.1-1: Standardized PQI values to QoS characteristics mapping', '', 'PQI', '', 'Value', '', 'Resource Type', '', 'Default Priority Level', '', 'Packet Delay Budget', '', 'Packet Error', '', 'Rate', '', 'Default Maximum Data Burst Volume', '', 'Default', '', 'Averaging Window', '', 'Example Services', '', '40', '', '', 'GBR', '', '(NOTE\xa01)', '', '4', '', '50\xa0ms', '', '10-2', '', 'N/A', '', '2000 ms', '', 'Unicast mode Detect and Avoid with lower latency requirement', '', '41', '', '', '', '4', '', '100\xa0ms', '', '10-2', '', 'N/A', '', '2000 ms', '', 'Unicast mode Detect and Avoid', '', '42', '', '', '', '3', '', '1000 ms', '', '10-3', '', 'N/A', '', '2000 ms', '', 'C2 Communication - Steer to waypoints; ', '', 'C2 Communication - video used to aid UAV control (VLOS)', '', '43', '', '', '', '3', '', '40 ms', '', '10-3', '', 'N/A', '', '2000 ms', '', 'C2 Communication - Direct stick steering', '', '44', '', '', '', '3', '', '140 ms', '', '10-4', '', 'N/A', '', '2000 ms', '', 'C2 Communication - video used to aid UAV control (Non-VLOS)', '', '62', '', '', 'Non-GBR', '', '4', '', '100 ms ', '', '10-2', '', 'N/A', '', 'N/A', '', 'Broadcast Remote ID with lower latency requirement', '', '63', '', '', '', '4', '', '500 ms ', '', '10-2', '', 'N/A', '', 'N/A', '', 'Broadcast Remote ID', '', '64', '', '', '', '4', '', '50 ms ', '', '10-2', '', 'N/A', '', 'N/A', '', 'Broadcast mode Detect and Avoid with lower latency requirement', '', '65', '', '', '', '4', '', '100 ms ', '', '10-2', '', 'N/A', '', 'N/A', '', 'Broadcast mode Detect and Avoid', '', 'NOTE\xa01:\tGBR PQIs can only be used for unicast PC5 communications.', '', '', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>&lt;h1&gt;E.4	Session Breakout&lt;/h1&gt;</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>23548.docx</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1518913507461548</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['', 'As traffic offload via UL CL/BP is not supported over EPC, when a PDN connection is initiated in EPS or a PDU Session is handed-over to EPS, the SMF+PGW-C can send to the EASDF DNS message handling rules requesting the EASDF to transparently forward any DNS traffic. The SMF+PGW-C can send to the EASDF new DNS message handling rules (with actual reporting and actions as defined in clause 6.2.3.2.2) when the PDU Session/PDN connection is handed-over (back) to 5GS.', '', 'When a PDN connection is initiated in EPS, the SMF+PGW-C can also select a normal DNS Server (i.e. different from an EASDF) to serve the PDN Connection, and then indicate to the UE to use the EASDF as DNS Server when the PDU Session/PDN connection is moved to 5GS.', '', '', '', '', 'Annex F (Informative):', 'EAS Relocation on Simultaneous Connectivity over Source and Target PSA', '', 'This annex describes how EAS relocation can make use of network capabilities that, at PSA change, provide simultaneous connectivity over the source and the target PSA during a transient period.', '', 'At PSA change, simultaneous connectivity to Application over former and new PSA allows the application to build its own EAS relocation solution and minimize the impact on latency:', '', '-\tIf the decision for when to start using a target EAS is taken by the application, this decision can consider application specific aspects, like for example, the time interval between packets or end of a video frame to minimize impact on latency.', '', '-\tWhen there are multiple applications on a PDU Session, if connectivity over the former PSA is maintained for some time, each application can schedule EAS relocation to suit the application specific needs without interfering with the other applications.', '', 'The procedure is shown in below Figure F-1:', '', '----media/image37.emf----', '', 'Figure F-1: EAS relocation on simultaneous connectivity over source and target PSA', '', 'The user has established a PDU Session. This PDU Session has a local PSA (source L-PSA), which could be the PSA of a PDU Session with Distributed Anchor connectivity or one additional local PSA of a PDU Session with Session Breakout. There has been an EAS Discovery procedure as described in clauses 6.2.2.2 and 6.2.3.2 (the procedure is conditioned to the connectivity model) for one or more applications. Application traffic is served by source EAS over the Local PSA.', '', '1.\tUser mobility triggers SMF to select a new Local PSA (target L-PSA) that is closer to current user location. In this scenario, the re-anchoring procedures that provide Simultaneous Connectivity over Source and Target PSA are described in TS\xa023.502\xa0[3]:', '', '-\tFor Distributed Anchor, in clause\xa04.3.5.2 for Change of SSC mode 3 PDU Session Anchor with multiple PDU Sessions and in clause\xa04.3.5.3 for Change of SSC mode 3 PDU Session Anchor with IPv6 Multi-homed PDU Session.', '', '-\tFor Session Breakout, in clause\xa04.3.5.7 for Simultaneous change of Branching Point or UL CL and additional PSA for a PDU Session.', '', '\tThe SMF may notify an AF for the early and/or late notifications on the UP-path change event as described in clause\xa04.3.6.3 in TS\xa023.502\xa0[3].', '', '2.\tWhen the connectivity is available on target L-PSA, the connectivity via source L-PSA is still available during certain time (that is provisioned and controlled as described in these TS\xa023.502\xa0[3] procedures). The application traffic can continue to run over the established UE-EAS connections.', '', '3.\tThe EAS Rediscovery Procedures described in clauses 6.2.2.3 and 6.2.3.3 allow the UE to discover a new EAS (i.e. target EAS) for the application that is closer to the UE over the new path (there could be multiple triggers as described in those respective clauses). If multiple applications are being served by this PDU Session, each of them performs rediscovery. This discovery procedure may lead to EAS reselection.', '', '4.\tNew L4 connections may now be established between the UE and the target EAS with the following considerations:', '', '-\tFor Distributed anchor or session breakout with MH, the UE uses the IP address /prefix associated with the target PSA (that is referred to as IP#2 in Figure F-1).', '', '-\tFor Session breakout with ULCL, there has not been connection/IP address change. Same IP address is still used by UE (that is referred to as IP#1 in Figure F-1).', '', 'NOTE\xa01:\tIf Session Breakout is used for connectivity and if the application wants to build service continuity on simultaneous connections, source EAS and target EAS cannot share the same IP address (e.g. by using anycast).', '', '\tEAS Relocation may involve EAS context migration in the case of stateful applications. The following examples are part of the application implementation details and fall out of 3GPP specification scope:', '', '-\tIn case that SMF notifies an AF for the early and/or late notification in Step 1, based on the notifications, the AF can interact with the source Application server, which can recreate the context to the target EAS and then provide switching instructions to the Application client.', '', '-\tThe Application server can recreate the service context when first contacted by the client using a Context Id: when suitable, the application client sets up a connection to the target EAS including a Context Id. The target EAS uses this Context Id to retrieve the latest service context available and subsequent updates, if needed.', '', '-\tThe Application server can recreate the context when first contacted by the client using a Context Id: the application client sets up a connection to the target EAS but for some time it sends traffic to both source and target EAS. In this way it triggers the context migration before the actual EAS switch.', '', '-\tThe source Application server is able to provide the client with switching instructions when a new EAS is selected: upon UE request (if UE selected) or as an EAS initiative (if server selected), the source EAS provides the Application client with switching instructions while it continues to serve traffic and drives any context migration towards the selected target EAS.', '', 'NOTE\xa02:\tThis application procedure may be designed to solve EAS relocation in all scenarios, not only when triggered by Edge Relocation, which may simplify the application design.', '', '5.\tAt some points all traffic for all applications in this session are sending traffic to their target EAS only and traffic ceases over the source L- PSA. The source L-PSA is then released. The timers should be set to allow EAS relocation.', '', '6.\tUE only maintains connection(s) to target EAS(s).', '', '', '', '', 'Annex G (Informative):', 'Change history', '', '&lt;b&gt;Change history&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Date&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Meeting&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TDoc&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New version&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SA2#143E&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;S2-2100114&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;Proposed skeleton approved at S2#143E&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;0.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SA#92E&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-210365&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC editorial update for presentation to TSG SA#92E for information&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;1.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SA#93E&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-210942&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC editorial update for presentation to TSG SA#93E for approval&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SA#93E&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC editorial update for publication after SA#93E approval&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;17.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0001&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction related to uniqueness of Update related to a buffered DNS message in EASDF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0003&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction and removal of misleading Note&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0005&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Not all EC scenarios requires EASDF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0014&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarify the local AF subscription for the QoS Monitoring during UE mobility&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0017&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Updates on EAS Discovery Procedure with EASDF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Mega CR for minor fixes to TS 23.548&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0024&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update Neasdf_DNSContext services&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0030&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;EAS rediscovery: Edge DNS Client based EAS (re-)discovery&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0031&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE authorization for 5GC assisted EAS discovery&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0034&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Updating related to EAS Discovery Procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0035&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections on enabling EAS IP Replacement procedure by AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0036&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Improvements and correction to annex C &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0038&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Change of DNS server address during EPC IWK&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0039&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment of EASDF functional description&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0040&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Added the situation of AF relocation to uplink Packet Buffer&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0042&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Local NEF selection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0043&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections on enabling EAS IP Replacement procedure by AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0046&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction related EHE in EC architecture&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0047&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update of EAS discovery procedure and BaselineDNSPattern management in EASDF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0048&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;On NAT between PSA UPF and EASDF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0050&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Removing inconsistency in the definition of ECS Address Configuration Information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0051&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections of EDC functionality description&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#96&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220398&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0052&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction related to EAS IP Address in EDI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#96&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220398&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0053&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections on enabling EAS IP Replacement procedure by AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#96&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220398&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0054&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of EAS Deployment Information Management procedures and services&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#96&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220398&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Parameter supplement of EDI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#96&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220398&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0061&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment of ECS Address Configuration Information to SA6\'s definition&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#97E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220777&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0062&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;EDNS Client Subnet option correction&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#98E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-221069&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0063&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications for local event notification control&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#98E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-221086&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Support of influencing UPF and EAS (re)location for collections of UEs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;18.0.0&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#98E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-221086&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0075&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#4 common EAS enforcement for set of UEs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#98E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-221086&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Procedure for PDU Session supporting HR-SBO in VPLMN&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#98E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-221086&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0082&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Influencing UPF and EAS (re)location for collections of UEs &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0073&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;7&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;EAS Re-discovery Procedure with EASDF in HR roaming scenario&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0083&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Edge Relocation within the same hosting PLMN\'s EHEs &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0084&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;13&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Home Routed-Session Breakout (HR-SBO) support&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0087&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#4: AF traffic influence for common EAS, DNAI selection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0088&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;The EAS discovery procedure with V-EASDF using IP replacement mechanism for supporting HR-SBO&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0089&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Handling AF traffic influence for HR-SBO PDU Sessions&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0092&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;9&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;DNAI mapping based on conclusions in TR 23.700-48&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#4 23.548 common EAS enforcement for set of UEs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0094&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#5 EDI extension for EAS discovery for GSMA OPG scenario&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0095&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Common DNAI relocation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0096&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;ECS Address Configuration Information delivery in roaming&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Information sharing between PLMN to support GSMA OPG&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Select common DNAI/EAS for a set of UEs &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0105&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;EASDF functional description update&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0109&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UL CL/BP insertion for common EAS Discovery&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-04&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;MCC correction to implementation of CR0095R1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230462&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0112&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Home Routed-Session Breakout (HR-SBO) - offload policy structure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230462&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0120&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;7&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#1 EAS Discovery: Resolve ENs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230462&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#1 EACI provisioning from VPLMN&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230462&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0123&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#1 EDI provision for HR-SBO&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230462&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0124&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="fo</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.17.5.1	General&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1482824087142944</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['', 'Clause\xa04.3.5 shows the Service Exposure Network Architecture in scenarios where for EPC-5GC Interworking is required.', '', 'In scenarios where interworking between 5GS and EPC is possible, the network configuration is expected to associate UEs with SCEF+NEF node(s) for Service Capability Exposure. The SCEF+NEF hides the underlying 3GPP network topology from the AF (e.g. SCS/AS) and hides whether the UE is served by 5GC or EPC.', '', "If the service exposure function that is associated with a given service for a UE is configured in the UE's subscription information, then an SCEF+NEF identity shall be used to identify the exposure function. For example, if a UE is capable of switching between EPC and 5GC, then the SCEF ID that is associated with any of the UE's APN configurations should point to an SCEF+NEF node.", '', 'For external exposure of services related to specific UE(s), the SCEF+NEF resides in the HPLMN. Depending on operator agreements, the SCEF+NEF in the HPLMN may have interface(s) with NF(s) in the VPLMN.', '', 'The SCEF+NEF exposes over N33 the same API as the SCEF supports over T8. If CAPIF is not supported, the AF is locally configured with the API termination points for each service. If CAPIF is supported, the AF obtains the service API information from the CAPIF core function via the Availability of service APIs event notification or Service Discover Response as specified in TS\xa023.222\xa0[64].', '', 'The common state information shall be maintained by the combined SCEF+NEF node in order to meet the external interface requirements of the combined node. The common state information includes at least the following data that needs to be common for the SCEF and NEF roles of SCEF+NEF:', '', '-\tSCEF+NEF ID (must be the same towards the AF).', '', '-\tSCEF+NEF common IP address and port number.', '', '-\tMonitoring state for any ongoing monitoring request.', '', '-\tConfigured set of APIs supported by SCEF+ NEF.', '', '-\tPDN Connection/PDU Session State and NIDD Configuration Information, including Reliable Data Service state information.', '', '-\tNetwork Parameter Configuration Information (e.g. Maximum Response Time and Maximum Latency).', '', 'The SCEF+NEF need not perform the same procedures for the configuration of monitoring events towards the HSS+UDM twice. For example, if the HSS+UDM is deployed as a combined node, a monitoring event only need to be configured by the SCEF+NEF just once.', '', 'The SCEF+NEF may configure monitoring events applicable to both EPC and 5GC using only 5GC procedures towards UDM. In this case, the SCEF+NEF shall indicate that the monitoring event is also applicable to EPC (i.e. the event must be reported both by 5GC and EPC) and may include a SCEF address (i.e. if the event needs to be configured in a serving node in the EPC and the corresponding notification needs to be sent directly to the SCEF). If the HSS and UDM are deployed as separate network entities, UDM shall use HSS services to configure the monitoring event in EPC as defined in TS\xa023.632\xa0[102]. The UDM shall return an indication to SCEF+NEF of whether the configuration of the monitoring event in EPC was successful. In the case that the UDM reports that the configuration of a monitoring event was not possible in EPC, then the SCEF+NEF may configure the monitoring event using EPC procedures via the HSS as defined in TS\xa023.682\xa0[36].', '', 'NOTE\xa01:\tThe SCEF+NEF uses only 5GC procedures to configure monitoring events in EPC and 5GC.', '', 'NOTE\xa02:\tIn terms of the CAPIF, the SCEF+NEF is considered a single node.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.4.1.4	Support of Unavailability Period&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.11604243516922</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['', 'During Registration procedure, the UE supporting the Unavailability Period feature provides "Unavailability Period Support" indication as part of 5GMM Core Network Capability in Registration Request message for initial registration and for every mobility registration. The AMF indicates whether the corresponding feature is supported in the AMF by providing the "Unavailability Period Support" indication in Registration Accept message.', '', 'If the UE and network support Unavailability Period and an event is triggered in the UE that would make the UE unavailable or lose coverage (see clause\xa05.4.13.1) for a certain period of time, the UE uses Support of Unavailability Period to inform the AMF of the expected unavailability and whether it is due to NR satellite access discontinuous coverage. Use of Support of Unavailability Period for loss of coverage due to NR satellite access discontinuous coverage shall only be used if both UE and the AMF signalled "Unavailability Period Support", see clause\xa05.4.13.1.', '', 'If the use of Support of Unavailability Period procedure is not due to NR satellite access discontinuous coverage, the UE may store its MM and SM context in the USIM or Non-Volatile memory in the ME to be able to reuse it after its unavailability period. If the UE can store its contexts the UE may trigger Mobility Registration Update procedure otherwise the UE shall trigger UE-initiated Deregistration procedure.', '', 'NOTE\xa01:\tHow and where the UE stores its contexts depends upon the UE implementation and the Unavailability Type. The UE can store some or all of its contexts in the ME or USIM using existing ME or USIM functionality.', '', 'Before the start of an event that makes the UE unavailable, the UE triggers either Mobility Registration Update or UE initiated Deregistration procedure:', '', 'a)\tIf the UE initiates Mobility Registration Update procedure:', '', '0)\tThe UE includes an Unavailability Type to describe the cause of unavailability (e.g. the unavailability caused by NR satellite access discontinuous coverage), the Start of the Unavailability Period if known and the Unavailability Period Duration (if known).', '', '1)\tIf the UE did not include a Start of Unavailability Period, the AMF considers implicitly the Start of Unavailability Period to be the time at which it has received the Registration Request message from the UE. If the UE included a Start of Unavailability Period, the Start of Unavailability Period indicates the time at which the UE determines it expects to be unavailable, i.e. time until which the UE determines it is available.', '', '2)\tThe AMF may determine, if not provided by the UE, or update the Unavailability Period Duration and/or the Start of Unavailability Period.', '', '\tIf the AMF knows an Unavailability Period Duration and/or the Start of Unavailability Period (e.g. based on the Unavailability Type and other information available to the AMF as described in clause\xa05.4.13.3), and the UE did not include an Unavailability Period Duration and/or the Start of Unavailability Period or the UE included an Unavailability Period Duration and/or the Start of Unavailability Period different to the Unavailability Period Duration and/or the Start of Unavailability Period known to the AMF, the AMF may use either the Unavailability Period Duration and/or the Start of Unavailability Period known to the AMF or the Unavailability Period Duration and/or the Start of Unavailability Period from the UE as the Unavailability Period Duration and/or the Start of Unavailability Period. The AMF should include the Unavailability Period Duration and/or the Start of Unavailability Period known to the AMF in the Registration Accept. How the UE treats the AMF provided Unavailability Period Duration and/or the Start of Unavailability Period is up to UE implementation e.g. to help to determine when to return to coverage after a discontinuous coverage period, whether to listen to paging in eDRX, not to initiate any NAS signalling (including Service Request for MO data) within the discontinuous coverage period in case of any UL signalling/data request or the UE may deactivate its Access Stratum functions for NR satellite access in order to optimise power consumption until coverage returns, etc.', '', '3)\tThe AMF indicates to the UE in the Registration Accept whether the UE is not required to perform a Registration procedure when the unavailability period has ended.', '', '4)\tThe AMF may take the Unavailability Period Duration (if available) and Start of Unavailability Period into account when determining Periodic Registration Update timer value. The AMF may provide a Periodic Registration Update time longer than or equal to the combination of the Unavailability Period Duration and Start of Unavailability Period to avoid interfering with the UE dealing with the event that causes the unavailability;', '', '5)\tThe AMF stores the information that the UE is unavailable at the Start of Unavailability Period in UE context, and considers the UE is unreachable (i.e. clear the PPF in AMF) from then until the UE enters CM-CONNECTED state;', '', '6)\tWhile the UE is unreachable, all high latency communication solutions (see clause\xa05.31.8) apply if supported in the network, e.g. extended data buffering, downlink data buffering status report, etc; and', '', '7)\tIf there is "Loss of Connectivity" event subscription for the UE by AF, the AMF at the start of Unavailability Period considers the remaining time in the Unavailability Period (if available) when constructing the "Loss of Connectivity" event report towards the NEF and the remaining time in the Unavailability Period is reported to the respective subscribed AF.', '', 'b)\tIf the UE initiates UE-initiated Deregistration procedure:', '', '0)\tThe UE includes Unavailability Period Duration (if known).', '', '1)\tIf there is "Loss of Connectivity" event subscription for the UE by AF, the AMF considers the remaining time in the Unavailability Period when constructing the "Loss of Connectivity" event report towards the NEF and the Unavailability Period is reported to the respective subscribed AF;', '', 'Unless the AMF indicated that the UE is not required to perform a Registration procedure when the unavailability period has ended, then once the event which makes the UE unavailable is completed in the UE, the UE triggers a Registration procedure. If the event which makes the UE unavailable is delayed to a future time or cancelled in the UE or unavailability period deviates from negotiated value, the UE triggers Registration procedure. The UE may also trigger a Registration procedure before the Unavailability Period has started for other reasons. Depending on the UE state, the Registration procedure can be Initial Registration procedure or Mobility Registration Update procedure.', '', 'While the UE is in 5GS and if the UE determines that an upcoming loss of coverage no longer applies or determines a new Start of Unavailability Period or Unavailability Period Duration related to the upcoming loss of coverage, the UE sends a new Mobility Registration Update Request to the AMF to update the Start of Unavailability Period and/or Unavailability Period Duration.', '', 'The UE and the AMF re-negotiate unavailability at every Registration procedure, if it is required. If Start of Unavailability Period and/or Unavailability Period Duration is not included in a Registration procedure any pending unavailability configuration stored in the UE context at AMF is discarded.', '', 'If the UE moves to EPS, the UE performs Attach or Tracking Area update procedure depending on the interworking mechanisms defined in clause\xa05.17.2.', '', 'For discontinuous coverage in E-UTRAN satellite access in EPS, the "Unavailability Period" is also supported (see clause\xa04.13.8.2 of TS\xa023.401\xa0[26]).', '', 'NOTE\xa02:\tIn this release of specification there is no transfer of "unavailability period" between AMF and MME and vice versa.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.3.1	General&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>23548.docx</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1475197076797485</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['', 'Edge Relocation refers to the procedures supporting EAS changes and/or PSA UPF relocation.', '', 'Edge Relocation may be triggered by an AF request (e.g. due to the load balance between EAS instances in the EHE) or by the network (e.g. due to the UE mobility).', '', 'With Edge Relocation, the user plane path may be re-configured to keep it optimized. This may be done by PDU Session re-establishment using SSC mode 2/3 mechanisms or Local PSA UPF relocation using UL CL and BP mechanisms. The corresponding procedures are defined in TS\xa023.501\xa0[2] and TS\xa023.502\xa0[3].', '', 'Due to Edge Relocation, the UE may need to re-discover a new EAS and establish the connectivity to the new EAS to continue the service. The re-discovery of EAS is specified in clause\xa06.2.', '', 'Edge Relocation may result in AF relocation, for example, as part of initial PDU Session Establishment, a central AF may be involved. However, due to Edge Relocation another AF serving the Edge Applications is selected.', '', 'The trigger of Edge Relocation by the network is specified in clause\xa04.3.6.3 of TS\xa023.502\xa0[3]. Some EAS (re)Discovery procedures in clause\xa06.2 may also trigger Edge Relocation.', '', 'This clause further describes the following procedures:', '', '-\tEdge Relocation involving AF change.', '', '-\tEdge Relocation using EAS IP replacement.', '', '-\tAF request for simultaneous connectivity for source and target PSA.', '', '-\tPacket buffering for low Packet Loss.', '', '-\tEdge Relocation considering User Plane Latency Requirements.', '', '-\tEdge Relocation triggered by AF', '', '-\tEdge Relocation for a set of UEs for common DNAI.', '', 'Annex F describes example procedure for EAS Relocation on Release 16 capabilities.', '', 'For non-roaming PDU Session, the 5GC functions in the following clauses are located in the HPLMN.', '', 'For LBO roaming PDU Session, the 5GC functions in the following clauses are located in the serving VPLMN.', '', 'For HR-SBO PDU Sessions specified in clause\xa06.7, the AF may send to V-NEF an AF request to influence traffic routing as described in clause\xa04.3.6 of TS\xa023.502\xa0[3] for supporting Edge Relocation (e.g. for the purpose of subscription to UP path management events, especially for the change of local PSA UPF in VPLMN). In this case, the steps involving PCF in the following clauses are skipped.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.3.6	Edge Relocation Considering User Plane Latency Requirement&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>23548.docx</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1053281426429749</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['', 'Edge relocation may be performed considering user plane latency requirements provided by the AF.', '', 'In a network deployment where the estimated user plane latency between the UE and the potential PSA-UPF is known to the SMF, the 5GC provides the enhancement of AF influence to consider the user plane latency requirements requested by the AF so that the SMF decides to relocate the PSA-UPF based on AF requested requirements.', '', 'The AF may provide user plane latency requirements to the network via AF traffic influence request as described in clause\xa05.2.6.7 of TS\xa023.502\xa0[3]. The user plane latency requirements may include the following information:', '', '-\tMaximum allowed user plane latency: The value of this information is the target user plane latency. The SMF may use this value to decide whether edge relocation is needed to ensure that the user plane latency does not exceed the value. The SMF may decide whether to relocate the PSA UPF to satisfy the user plane latency.', '', 'The AF request on the user plane latency requirements are authorized by PCF. The PCF checks whether the AF has an authority to make such a request.', '', 'Once the user plane latency requirements requested by AF is authorized by the PCF, the AF request including the requirements is informed to the SMF via AF influenced Traffic Steering Enforcement Control (see clause\xa06.3.1 of TS\xa023.503\xa0[4]) in PCC rules. After receiving the user plane latency requirements from AF via PCF, the SMF may take appropriate actions to meet the requirements e.g. by reconfiguring the user plane of the PDU Session as described in the step\xa06 of Figure 4.3.6.2-1 in TS\xa023.502\xa0[3] with the following considerations:', '', '-\tIn the case that the maximum allowed user plane latency is requested, the SMF decides not to perform PSA UPF relocation if the serving PSA satisfies the maximum allowed user plane latency. Otherwise, the SMF may decide to perform PSA UPF relocation if the target PSA UPF satisfies the maximum user plane latency. The SMF may select the PSA UPF with the shortest user plane latency among the PSA UPFs satisfying the maximum user plane latency requirements.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.1.3.23b	Support of IETF Deterministic Networking&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>23503.docx</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1350979208946228</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['', 'Enablers for the support of IETF Deterministic Networking are defined in clauses 4.4.8.4 and 5.28.5 of TS\xa023.501\xa0[2].', '', 'When the PCF has received the 5GS Bridge/Router information for the PDU Session from SMF and has a subscription for the 5GS Bridge/Router information Notification from the TSCTSF or based on a local policy, if integration with IETF Deterministic Networking applies, the PCF provides the following information to the TSCTSF for device side ports:', '', '-\tuser-plane node ID;', '', '-\tport number;', '', '-\tIP address or IPv6 prefix allocated to the PDU Session;', '', '-\tMTU size for IPv4 or MTU size for IPv6 (optional).', '', 'Upon reception of the above information, if the TSCTSF does not have a corresponding AF session, the TSCTSF shall create an AF session with the PCF.', '', 'The TSCTSF shall subscribe for notifications from the PCF for reporting of extra UE addresses for the same PDU Session. As a result, the TSCTSF shall be notified of any extra address or address range that is allocated for the given PDU Session as a result of Framed Routes or IPv6 Prefix delegation.', '', 'When the TSCTSF is first notified about a 5GS DetNet router identified by the user-plane node ID, the TSCTSF may subscribe with the NW-TT for receiving user plane node management information changes for the 5GS router, as described in clause\xa05.28.3.1 of TS\xa023.501\xa0[2].', '', 'After receiving a User plane node Management Information Container (UMIC) containing the NW-TT port numbers, the TSCTSF may subscribe with the NW-TT for receiving NW-TT port management information changes for the NW-TT port indicated by each of the NW-TT port numbers as described in clause\xa05.28.3.1 of TS\xa023.501\xa0[2]. For network side ports, the Port Management Information Container may contain information to be exposed to the DetNet controller (see Information for deterministic networking in Table K.1-1 of TS\xa023.501\xa0[2]).', '', 'The TSCTSF may receive DetNet YANG configuration as described in IETF draft-ietf-detnet-yang\xa0[37] from a DetNet Controller that describe the traffic characteristics and requirements.', '', 'When both the TSCTSF and the DetNet controller support 3GPP extensions to the IETF draft-ietf-detnet-yang\xa0[37], the DetNet controller may provide the 5GS-node-max-latency and 5GS-node-max-loss specific to the 5GS system.', '', 'NOTE\xa01:\tThe 3GPP extension to the IETF draft-ietf-detnet-yang\xa0[37] is defined in 3GPP as a YANG model which imports draft-ietf-detnet-yang\xa0[37] and adds the 3GPP specific parameters. The 3GPP defined YANG model uses the 3GPP namespace as defined in RFC\xa05279\xa0[38].', '', 'NOTE\xa02:\tIf the DetNet YANG configuration neither includes 5GS specific 5GS-node-max-latency nor the end-to-end Max-latency, the TSCTSF can derive the Requested 5GS Delay or the PCF can derive the PDB. Similarly, if the DetNet YANG configuration neither includes 5GS specific 5GS-node-max-loss nor the end-to-end Max-loss, the TSCTSF can derive the Requested Packet Error Rate or the PCF can derive the PER. This derivation is not further specified.', '', 'The TSCTSF provides the Flow Descriptions, the TSC Assistance Container (as described in clause\xa05.27.2.3 of TS\xa023.501\xa0[2]), and the related QoS information to the PCF as specified in the AF session with required QoS procedure for the signalling between the TSCTSF and the PCF described in clause\xa04.15.6.6 of TS\xa023.502\xa0[3]. The TSCTSF can set up an AF session on behalf of DetNet controller with required QoS as described in clause\xa06.1.3.22. The TSCTSF maps the DetNet configuration as follows before interacting with the PCF.', '', '-\t5GS-node-max-latency to Requested 5GS Delay.', '', '-\tMin-bandwidth to Requested Guaranteed Bitrate.', '', '-\t5GS-node-max-loss to Requested Packet Error Rate.', '', '-\tMax-consecutive-loss-tolerance to Survival time (see clause\xa05.27.2.1 of TS\xa023.501\xa0[2]) - when such mapping is possible, such as when there is only a single packet per interval.', '', '-\tInterval to Periodicity.', '', '-\tmax-pkts-per-interval * (max-payload-size + protocol header size) to Maximum Burst Size.', '', '-\tmax-pkts-per-interval * (max-payload-size + protocol header size)/ Interval to Requested Maximum Bitrate.', '', '-\tDetNet flow specification is mapped to the Flow Description information. The DetNet flow specification is based on the following header fields: IP source and destination address, IPv4 protocol or IPv6 next header, IPv4 type of service or IPv6 traffic class, IPv6 flow label, TCP or UDP source or destination ports, IPsec SPI as defined in clause\xa05.1 of IETF\xa0RFC\xa08939\xa0[42], which are mapped to the corresponding fields in the Flow Description information.', '', 'If the DetNet YANG configuration includes the Max-latency and Max-loss only for the end-to-end flow and not the 5GS specific requirement, the TSCTSF determines the requirements applicable to 5GS (5GS-node-max-latency and 5GS-node-max-loss) based on a pre-configured mapping for the given deployment.', '', 'Based on the mapping, the TSCTSF provides the Flow Descriptions, the TSC Assistance Container (as described in clause\xa05.27.2.3 of TS\xa023.501\xa0[2]), and the related QoS information to the PCF by setting up an AF session with required QoS as described in clause\xa06.1.3.22.', '', 'The TSCTSF shall subscribe to the Resource allocation outcome and Service Data Flow deactivation events at the PCF, so that TSCTSF gets notified when the DetNet requirements are not satisfied. In that case, the DetNet controller shall be notified.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;6.1.3.27.3	Support for delivery of multi-modal services&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>23503.docx</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1284391283988953</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['', 'Enablers to support interactive media services that require high data rate and low latency communication, e.g. cloud gaming, AR/VR/XR services and tactile/multi-modal communication services are defined in TS\xa023.501\xa0[2] clause\xa05.37.2.', '', 'For the delivery of multi-modal services, the AF may request to the NEF multiple data flows for a single UE or for multiple UEs via multiple PDU Sessions and separate request(s) per PDU Session, to be setup with specific QoS requirements, as described in clause\xa06.1.3.22. Following additional attributes are supported where the AF provides specific information for multi-modal service:', '', '-\tMulti-modal Service ID: an identifier that refers to the multi-modal communication service. Data flows belonging to the same multi-modal service share the same Multi-modal Service ID.', '', 'Multi-modal Service Requirements consisting of the following existing attributes are supported for the AF to provide specific information for a data flow of the multi-modal service and the AF can provide them multiple times, i.e. once per data flow:', '', '-\tQoS monitoring requirements for each data flow.', '', '-\tQoS information and service requirements for each data flow, that consist of: Flow description information of the data flow and QoS parameters/QoS Reference as described in clause\xa06.1.3.22.', '', 'NOTE:\tThe attributes for multiple data flows can be provided via a single or multiple AF requests.', '', 'The request to the PCF includes Multi-modal Service ID as well as service requirements for each data flow that belongs to the multi-modal service. The PCF determines whether the request from the NEF or AF is authorized, derives the required QoS parameters based on the information provided and provisions in the SMF the PCC rules with updated policy control information for the affected PDU session.', '', 'The AF may provide QoS monitoring requirements for each data flow associated with the same Multi-modal Service ID. If the PCF has received the QoS monitoring requirements from the AF, the PCF generates the QoS monitoring policy for the PCC rule corresponding to the data flow.', '', 'When PCF receives further AF request with the same Multi-modal Service ID and PCF authorization fails, the PCF rejects the AF rejects. Application may decide how to deal with the data `flows with already authorized AF request with the same Multi-modal Service ID (e.g. stop them, adjust the AF request).', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;8.7.1.2	From MSGin5G UE to Legacy 3GPP UE&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>23554.docx</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1349446773529053</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['', 'Figure 8.7.1.2-1 shows the message delivery procedure from MSGin5G UE to Legacy 3GPP UE.', '', 'Pre-conditions:', '', '1.\tMSGin5G Client in MSGin5G UE has registered with the MSGin5G Server and the Message Gateway has registered with the MSGin5G Server on behalf of the Legacy 3GPP UE.', '', '2.\tLegacy 3GPP Message Gateway is aware of the UE Service ID of Legacy 3GPP UE and maintains the mapping to IDs used in the legacy network.', '', '', '', '----media/image54.emf----', '', 'Figure 8.7.1.2-1: Message delivery from MSGin5G UE to Legacy 3GPP UE ', '', '1.\tThe MSGin5G Client sends an MSGin5G message request to the MSGin5G Server as specified in clause\xa08.3.2 with following clarifications:', '', 'a)\tThe MSGin5G message request includes Originating UE Service ID, Recipient UE Service ID and Message ID information elements in Table\xa08.3.2-1, and may include Delivery status required, Application ID, Payload, Priority type information elements from Table\xa08.3.2-1.', '', '2.\tUpon receiving the MSGin5G message request, the MSGin5G Server determines if the MSGin5G Client is authorized to send a message to the recipient UE.', '', '3.\tThe MSGin5G Server forwards the MSGin5G message request to the recipient based on the UE Service ID. The Legacy 3GPP Gateway receives the MSGin5G message request on behalf of the Legacy 3GPP UE as specified in 8.3.3.', '', '4.\tThe Legacy 3GPP Message Gateway determines which legacy 3GPP message delivery mechanism (e.g. SMS, NIDD, Device triggering) will be used based on Legacy 3GPP UE capability, the UE communication status, and the MSGin5G Service configuration. When selected, the Legacy 3GPP Message Gateway maps the UE Service ID to the corresponding identifier. For example (not an exhaustive list):', '', 'a)\tif the Legacy 3GPP Message Gateway selected the device triggering delivery mechanism, it maps the UE Service ID to MSISDN and Application port ID ', '', 'b)\tif the Legacy 3GPP Message Gateway selected the NIDD delivery mechanism, it maps the UE Service ID to External Identifier or MSISDN.', '', 'c)\tif the Legacy 3GPP Message Gateway selected the SMS delivery mechanism, it maps the UE Service ID to MSISDN.', '', '\t5-7. The Legacy 3GPP Message Gateway sends the payload of the MSGin5G message to the terminating Legacy 3GPP UE using the determined delivery mechanism. For example:', '', 'a)\tFor Device triggering delivery mechanism, the Legacy 3GPP Message Gateway interacts with the MTC-IWF/SCEF/NEF and maps the payload of the MSGin5G message to one or more Device Triggering requests. The MTC-IWF/SCEF/NEF interacts with SMS-SC for delivery to the UE and to receive the message delivery status report (see TS\xa023.682 [8] clause 5.2, TS\xa029.122 [9] clause 4.4.6 and TS\xa029.522 [10] clause 4.4.3)', '', 'b)\tFor NIDD delivery mechanism, the Legacy 3GPP Message Gateway may interact with the SCEF/NEF and maps the payload of the MSGin5G message to one or more NIDD submit request messages. The Reliable Data Service Configuration, Maximum Latency, Priority, PDN Connection Establishment Option settings are based on pre-configurations (see TS\xa023.682 [8] clause 5.13, TS\xa029.122 [9] clause 4.4.5.3 and TS 29.522 [10] clause 4.4.12.3). Alternatively, if tunnel parameters are provisioned in the Legacy 3GPP Message Gateway and UPF/P-GW the payload could be tunnelled via the UPF/P-GW (see TS\xa023.401 [11] (clause 4.3.17.8.3.3), TS\xa023.501[12] clause 5.6.10.3, TS\xa023.502 [7] clause 4.24);', '', 'c)\tFor SMS delivery mechanism, the Legacy 3GPP Message Gateway sends SMS to the Legacy 3GPP UE through the SMSC according to the procedure in TS\xa023.204 [13] or the procedure in clause 4.13.3 of TS\xa023.502 [7].', '', '\t8.\tIf Delivery status required is included in the MSGin5G message request, the Legacy 3GPP Message Gateway sends the MSGin5G message delivery status report to the MSGin5G Server as specified in clause 8.3.4 and then the MSGin5G Server sends the message delivery status report to the MSGin5G Client as specified in clause 8.3.5.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.11.2.1	Procedure for VAL server-triggered and network-based network slice adaptation for VAL application - request and response model&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>23435.docx</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1454053521156311</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>['', 'Figure 9.11.2.1-1 illustrates the VAL server-triggered and network-based procedure where the NSCE server supports the network slice adaptation with the underlying 3GPP system for the VAL UEs of the VAL application.', '', '----media/image27.emf----', '', 'Figure 9.11.2.1-1: Network slice adaptation for VAL application', '', '1.\tThe VAL server sends a network slice adaptation request to the NSCE server for the VAL application (and the VAL UEs within the VAL application). This request may be in the form of exact requested network slice (and optionally DNN) for all the VAL UEs of the VAL application; or indication that the VAL application needs to be remapped to a different network slice (and optionally DNN). The request optionally includes the adaptation threshold of network slice adaptation as defined in Table 9.11.3.1-1.', '', '2.\t[Optional]NSCE server collects the network slice status information, including network slice performance measurements in clause 5.1.1.1, clause 5.1.1.2, clause 5.1.1.3, in 3GPP TS 28.552 [19] and key performance indicators in clause 6.3, in 3GPP TS 28.554 [20], and network slice related E2E latency analytics report in clause 8.4.2.4.3, in 3GPP TS 28.104 [21] from network slice management functions by utilizing MnS of create MOI operation defined in clause 11.1 and MnS of streaming data reporting service or file data reporting service defined in clause 11.5 and 11.6, 3GPP TS 28.532 [7].', '', '3.\tThe NSCE server processes the request and triggers the network slice configuration per VAL UE within the VAL Application. If network slice status from step 2 is considered, the NSCE server analyses the network slice status information before triggering the network slice configuration. If the threshold is crossed for the current network slice of adaptation and the objective network slice satisfy the requests, NSCE server triggers the network slice configuration per VAL UE within the VAL Application.', '', '4.\tThe NSCE server acting as AF provides the updated S-NSSAI and DNN per VAL UE. In particular, NSCE server sends this information to the PCF via NEF as part of the AF-driven guidance for URSP determination to 5G system (as specified in 3GPP TS 23.502 [12] clause 4.15.6.10, 3GPP TS 23.503 [17] clause 6.6.2.2, 3GPP TS 23.548 [18] clause 6.2.4). This guidance may update the route selection parameters to indicate different sets of PDU Session information (DNN, S-NSSAI) that can be associated with applications matching the application traffic.', '', 'NOTE:\tNSCE server provides the updated S-NSSAI/DNN as a suggestion/guidance to PCF; however it is up to PCF to decide whether to perform the slice/DNN re-mapping ', '', '5.\tUpon successful adaptation of the route selection parameters, the NSCE server provides a network slice adaptation response to the VAL server, providing information on the fulfilment of the network slice adaptation request per VAL application.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.11.2.1	SEALDD Background data transfer&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>23433.docx</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1567970514297485</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['', 'Figure 9.11.2.1-1 illustrates the procedure for SEALDD Background data transfer.', '', '----media/image44.emf----', '', 'Figure 9.11.2.1-1: SEALDD Background data transfer', '', '1.\tThe VAL server sends a SEALDD Background data transfer subscription request to the SEALDD server. The request includes the VAL service ID and list of VAL UE IDs or VAL group ID and may also include desired time window, desired area information (e.g., when a UE enters a geographical area), Policy Selection Guidance, data volume.', '', '2.\tThe SEALDD server authorizes the request from the VAL server.', '', '3.\tThe SEALDD server starts the BDT configuration negotiation with the SEAL NRM server as described in clause\xa014.3.13 of TS\xa023.434\xa0[4]. The SEALDD server performs Network resource adaptation negotiation with the SEAL NRM server as described in clause\xa014.3.3.3 of TS\xa023.434\xa0[4]. Policies are set for the BDT data transfer using the previously negotiated BDT Reference ID.', '', 'NOTE\xa01:\tThe BDT policy can also be set for a future session via NEF_ApplyPolicy by SEALDD server at the end of the BDT negotiation. ', '', 'NOTE\xa02:\tIf there is any change in the network impacting the current BDT policy (i.e. BDT warning notification from CN or trigger from the VAL server), SEALDD server attempts to perform BDT re-selection with the SEAL NRM server using the procedure described in cl 14.3.13.3 of TS\xa023.434\xa0[4]. ', '', 'NOTE\xa03:\tIf the NRM server is a external control plane functionality for the SEALDD server, then the SEALDD server uses step 3 otherwise SEALDD server can use procedure defined in 3GPP TS\xa023.502\xa0[6] clause\xa04.16.7.2.', '', '4.\tThe SEALDD server sends the SEALDD Background data transfer subscription response, containing the result of the operation which includes the result and may include the BDT subscription identifier.', '', '5.\tThe VAL server uses clause 9.5.2 procedure to sends the BDT data to the SEALDD server. During the transmission time window, the SEALDD server sends the BDT data to SEALDD client(s) and monitors the quality, e.g., latency, jitter, bitrate, packet loss rate, of the transmission. The SEALDD client forwards the BDT data received to the VAL client.', '', '6.\tThe SEALDD server notifies the VAL server about the delivery result by sending the SEALDD Background data transfer notification including the BDT subscription identifier and optionally the list of VAL UEs which received the BDT data, the executed time window and quality of the BDT data transmission based on the measurements in step\xa05.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;9.12.2.1.1	Slice related Communication Service Creation&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>23435.docx</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1419013142585754</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>['', 'Figure 9.12.2.1.1-1 illustrates the procedure of slice related communication service creation. The NSCE helps to allocate network slice resources to support the application service required by the verticals.', '', 'Pre-conditions:', '', '1.\tThe VAL server has registered to receive NSCE services. ', '', ' ', '', '----media/image31.emf----', '', 'Figure 9.12.2.1.1-1: Slice related communication service creation', '', '1.\tThe VAL server sends a request to NSCE server to create a slice related communication service to support a specific application service, e.g., the VAL server wants to create a video streaming service in a future factory, the slice related communication service creation request carries the identifier of the video streaming service and the corresponding service attributes.', '', '2.\tNSCE server translates the application service requirements (e.g., for a video streaming service, the service location and the resolution of the video) and then perform slice determination (e.g., dLtThptPerSlice, uLtThptPerSlice, latency as defined in serviceProfile TS 28.541[14]). The NSCE may perform the translation by pre-configured industry profiles or by KQI-KPI translation algorithms which are out scope of standard. The procedures of APIs translation defined in clause 9.3 are referred to.', '', '3.\tNSCE server initiates the Slice Service subscription procedures by utilizing the management service of network slice creation as defined in clause 6.1, TS 28.531[5] exposed by EGMF defined in SA5. The slice creation request may fail due to the shortage of network resources or other causes.', '', '4.\tNCSE server sends the slice related communication service creation response to VAL server. If the slice creation is succeeded in step3, then the response from NSCE server should include the attributes and the values of network slice determined by NSCE server. If the slice creation failed in step3, the NSCE server shall indicate the cause of the creation failure, e.g. the shortage of network slice resources.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;9.5.2.1.1	VAL server policy provisioning &lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>23435.docx</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1630705595016479</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>['', 'Figure 9.5.2.1.1 illustrates the procedure of&lt;span style="font-size:24pt"&gt; &lt;/span&gt;VAL server policy provisioning from the VAL server to the NSCE server.', '', 'Pre-conditions:', '', '1.\tThe NSCE server&lt;span style="font-size:22pt"&gt; &lt;/span&gt;has information about the existing slice/slice profile/slice services which VAL server is using.', '', '----media/image11.emf----', '', 'Figure 9.5.2.1.1: VAL server policy provisioning', '', '1.\tVAL server sends VAL server policy provisioning request to NSCE server. The request contains the policy, VAL server ID, Default policy indication, and S-NSSAI. Optionally, the request contains the indicator of policy harmonization.', '', '\tThe VAL server can request the NSCE server to mark the provisioned policy as the default policy using the Default policy indication. The default policy should serve as a VAL server policy for the slices provisioned without any policy. Either the policy or default policy indication can be provided by the VAL server.', '', 'The VAL server policy is in form of a policy profile which contains list of trigger events associated with the parameters and expected actions. It contains priority and scheduling information with pre-emption capability for the policies. The scheduling information schedules the policy by defining the schedule (start and end time) for the policy. The pre-emption capability provides another, already successfully provisioned policy to pre-empt the scheduled policy in the scheduled period.', '', 'The supported policies are: ', '', '-\tBased on monitored performance metric from OAM, when the max number of PDU sessions or max number of UE is reached, trigger the slice modification with expected parameters.', '', '-\tBased on monitored Network Slice load from NSACF, when the number of PDU sessions or number of UE exceeds the threshold, trigger the slice modification with expected parameters.', '', '-\tBased on monitored Network Slice load predictions from NWDAF, when Network Slice load predictions (Predicted Number of PDU Session establishments at the Network Slice) exceeds the threshold with high confidence, trigger the slice modification with expected parameters.', '', '-\tBased on the monitored the time period, when getting to a certain time period (e.g. summer vacation, spring festival etc.), trigger the slice modification with expected parameters.', '', '-\tBased on the monitored time period, when getting to a certain time period, trigger the slice modification based on the expected QoS per UE. QoS is mapped/calculated by NSCE to specific parameters of the slice such as the dLThptPerUE, uLThptPerUE, dLThptPerSliceSubnet, uLThptPerSliceSubnet, delayTolerance, dLLatency, uLLatency.', '', '2.\tThe NSCE server checks whether the policy is conflict with the MNO policies or NSPP. One criterion is to translate the network slice parameters in the service profile to see whether it is conflict with that in the VAL provided policy. If policy harmonization is not requested and policies conflict then the request could be rejected. The NSCE server also checks the validity of the policy (policy is valid for the specified time period or until the specified threshold count of trigger events is achieved) to avoid a ping-pong effect of slice modification. If the policy is invalid, the request could be rejected.', '', '3.\tIf the policy harmonization is requested, the NSCE server can harmonize the policy as per clause 9.5.2.1.4 and this may result in the changes to the current VAL server policy under provisioning.', '', '4.\tNSCE server sends the VAL server policy provisioning response to the VAL server to indicate whether the request is successful or not. If it is successful, policy ID is provided to VAL server.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.5.2.2	Network slice optimization based on VAL server policy&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>23435.docx</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.146159291267395</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>['', 'Figure 9.5.2.2-1 illustrates the procedure of network slice optimization based on VAL server policy. ', '', 'Pre-conditions:', '', '1.\tThe NSCE server is authorized to get network slice management data notification from OAM, and/or NWDAF via NEF.', '', '2.\tThe VAL server is authorized to the NSCE server for network slice optimization.', '', '3.\tThere is enough network capacity when the expected action is to expand the network slice.', '', '4.\tThe VAL server policy has been pre-configured on the VAL server.', '', '5.\tThe VAL server policy has been provided to the NSCE server as specified in clause 9.5.2.1.', '', '----media/image16.emf----', '', 'Figure 9.5.2.2-1: Network slice optimization based on VAL server policy', '', '1.\tVAL server sends network slice optimization subscription request to NSCE server. The request contains the policy ID indicating the different policies. Optionally the request contains the Secondary policy ID indicating the fallback policy to be used for the failed network slice optimization. The NSCE server retries the network slice optimization using a Secondary policy in the case of a failed optimization.', '', '2.\tThe NSCE server translates the trigger event to service API(s) with necessary parameters, and subscribe to the related service if needed.', '', '-\tTo get the monitored performance metric from OAM, the notifyThresholdCrossing as defined in TS 28.532[7] clause 11.3.1.3 which is filled in with corresponding S-NSSAI in objectInstance could be used. ', '', '-\tTo obtain the Network Slice load predictions from NWDAF, the NSCE server subscribes to the NWDAF prediction by invoking Nnef_AnalyticsExposure_Subscribe or Nnef_AnalyticsExposure_Fetch  as defined in TS 23.288[4] clauses 6.1.1.2, and 6.1.1.2.', '', '-\tTo monitor the Network Slice load (e.g. the number of UEs or the number of PDU Sessions) from NSACF, the NSCE server subscribes to the NSACF by using the Nnef_EventExposure_Subscribe Request or Nnsacf_SliceEventExposure_Subscribe_Request as defined in clause 4.15.3.2.10 of TS 23.502 [12], and the APIs defined in clause 6.2 of TS 29.536 [13] can be utilized.', '', '-\tTo monitor the time period, the NSCE server setup the timer.', '', '3.\tNSCE server sends the network slice optimization subscription response to the VAL server to confirm the subscription of network slice optimization.', '', '4.\tUpon receiving the notification which indicating the trigger event is met, i.e., the monitored information reaches the threshold or specific time period is arrived, the NSCE server performs the expected action by triggering the slice modification as specified in the VAL server policy. The network slice modification could be triggered by consuming the Network Slice Provisioning service with the modifyMOIAttributes operation as specified in TS 28.531 [8]. The OAM responds back to NSCE server that the requested slice modification was successful or not. The slice modification requests contain the parameters need to be updated to fit the requirement of network slice (e.g., scale in or scale out the network slice capability), including at least one of the following, uLThptPerSlice, dLThptPerSlice, dLThptPerUE, uLThptPerUE, dLThptPerSliceSubnet, uLThptPerSliceSubnet, delayTolerance, dLLatency, uLLatency, maximum number of UEs, maximum number of PDU session as specified in TS 28.541 [10].', '', 'NOTE 1:\tThe slice modification could be done by application layer network slice lifecycle management as defined in clause 9.4.', '', '5.\tThe NSCE server provides a network slice optimization notification to the VAL server. The successful response optionally includes the Optimization time and the Enforced policy ID. The optimization time indicates the time the NSCE server has taken to optimize the slice. The Enforced policy ID indicates which secondary policy is used by the NSCE server for slice optimization in the case of a failed attempt for network slice optimization.', '', 'NOTE 2:\tThere is no expectation to have constant and exact mapping between slice configuration parameters and actual traffic load of the same slice.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.7.2.1	Data transmission quality measurement &lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>23433.docx</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1226075887680054</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>['', 'Figure 9.7.2-1 illustrate the procedure for SEALDD enabled data transmission quality measurement. The SEALDD client and SEALDD server is enhanced to carry out the data transmission quality measurement.', '', 'Pre-conditions:', '', '1.\tThe SEALDD server and SEALDD client are synchronized to the time source provided by 5GS as specified in 3GPP\xa0TS\xa023.501\xa0[5].', '', '2.\tThe VAL server discovers and selects the SEALDD server by CAPIF functions.', '', '----media/image33.emf----', '', 'Figure 9.7.2.1-1: SEALDD enabled data transmission quality measurement procedure', '', '1.\tAn on-going regular data transmission connection is established according to clause 9.2.2.2.', '', '2.\tThe VAL server sends a SEALDD transmission quality measurement subscription request to the SEALDD server. The request includes the identifiers of the application traffic (e.g. VAL service ID, VAL server ID), requirement of transmission quality measurement (e.g. latency, jitter, bitrate, packet loss rate) and measurement target UE (e.g. a single UE, a group of UEs or all UEs), and may also include reporting criteria, reporting frequency, spatial condition and temporal condition.', '', 'NOTE:\tThe spatial and/or temporal condition can be used by SEALDD server to apply when and where the measurement is performed. For instance, the measurement is expected to be done for a group of VAL UEs with a scheduled route (from city A to city B via highway A2 and A3), from 9:00 a.m. to 11:00 a.m. on Tuesday and from 1:00 p.m. to 5:00 p.m. on Thursday.', '', '3.\tUpon receiving the request, the SEALDD server performs an authorization check. If authorization is successful, the SEALDD server sends a response to the VAL server with the subscription ID, expiration time.', '', '4.\tIf the transmission quality measurement requirement list provided by VAL server in step 2, indicates that the latency is needed to be measured, the SEALDD server initiates the DL packet delay measurement. The SEALDD server encapsulates the DL monitoring packet (i.e. DL SEALDD packet with SEALDD DL monitoring header and VAL traffic as payload, or dummy DL SEALDD packet generated for data transmission quality monitoring) with local time T1 when the SEALDD server sends out the DL monitoring packets. The SEALDD server considers the spatial and/or temporal conditions when starting/resuming the transmission quality measurement. If the conditions are not satisfied, the SEALDD server stops/suspends the transmission quality measurement.', '', 'NOTE:\tFor other metrics in transmission quality measurement requirement list (e.g. bitrate), the transmission quality result can be obtained by performance detection on the SEALDD server within a period of time.', '', '5.\tThe SEALDD client receives the DL monitoring packet, and records the local time T2.', '', '6.\tSimilarly, the SEALDD client encapsulates the UL monitoring packet (i.e. UL SEALDD packet with SEALDD UL monitoring header and VAL traffic as payload, or dummy UL SEALDD packet generated for data transmission quality monitoring) with local time T2 recorded in step 5 and local time T3 when the SEALDD client sends out the UL monitoring packet.', '', '7.\tThe SEALDD server records the local time T4 when the SEALDD server receives the UL monitoring packet and calculates the latency with T1, T2, T3, T4. The SEALDD server can also calculate the bitrate, jitter and packet loss rate over a certain period over a specific SEALDD connection by recording the status of the SEALDD packets carrying VAL traffic or dummy SEALDD packets generated for transmission quality measurement reports. The SEAL DD server also evaluates the reporting criteria if present in the SEALDD transmission quality measurement subscription request in order to generate the transmission quality measurement report.', '', '8.\tThe SEALDD server reports the data transmission quality measurement results (e.g. latency, jitter, bitrate, packet loss rate) to the VAL server via the notification message.', '', 'When a VAL group ID or a list of VAL UE IDs or all VAL UEs indication is received in step 2, step 4 to step 7 is repeated for VAL UEs in the group/list or for all VAL UEs. The SEALDD server maps the VAL UE group ID to a list of VAL UE IDs if a VAL group ID is received. The SEALDD server identifies SEALDD connections corresponding to the desired VAL UE(s) to trigger measurement. And depending on the reporting requirement for multiple UEs, the SEALDD server calculates the needed report for the VAL server. When the VAL server decides to update or unsubscribe transmission quality measurement subscription after performing step 2 and step 3, the VAL server can send data transmission quality measurement subscription update request and data transmission quality measurement unsubscribe request to SEALDD server, as specified in Table 9.7.3.9-1 and Table 9.7.3.11-1, respectively.  ', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.7.2.3	Data transmission quality measurement reported by SEALDD client&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>23433.docx</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.1353791952133179</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>['', 'Figure 9.7.2.3-1 illustrate the procedure for SEALDD enabled data transmission quality measurement for VAL traffic. The SEALDD client receives transmission quality measurement requirement, decides to start VAL data transmission monitoring and generates measurement reports.', '', '----media/image35.emf----', '', 'Figure 9.7.2.3-1: VAL data transmission quality measurement reported by SEALDD client', '', '1.\tAn on-going regular data transmission connection is established according to clause 9.2.2.2.', '', '\tThe transmission quality measurement can be triggered by VAL server or VAL client, which is described in step 2 to step 5 and step 6, correspondingly.', '', '2.\tThe VAL server sends a SEALDD transmission quality measurement subscription request to the SEALDD server. The request includes the identifiers of the application traffic (e.g. VAL service ID, VAL server ID), requirement of transmission quality measurement (e.g. latency, jitter, bitrate) and measurement target UE (e.g. a single UE, a group of UEs or all UEs), and may also include reporting criteria, reporting frequency, spatial condition and temporal condition.', '', 'NOTE\xa01:\tThe spatial and/or temporal condition can be used by SEALDD client to apply when and where the measurement is performed. For instance, the measurement is expected to be done for a group of VAL UEs with a scheduled route (from city A to city B via highway A2 and A3), from 9:00 a.m. to 11:00 a.m. on Tuesday and from 1:00 p.m. to 5:00 p.m. on Thursday.', '', '3.\tUpon receiving the request, the SEALDD server performs an authorization check. If authorization is successful, the SEALDD server responds to the VAL server.', '', '4-5.\tThe SEALDD server sends a SEALDD transmission quality measurement subscription request to the SEALDD client and the SEALDD client responds to the SEALDD server. The SEALDD client, based on the received service quality guarantee policy including thresholds and action, can take corrective action as described in clause 9.7.2.3.', '', '6.\tThe VAL client triggers the SEALDD transmission quality measurement procedure to the SEALDD client, in order to collect the measurement report information.', '', '7.\tAfter SEALDD client determines to start measurement process, upon UL packet arrival, the SEALDD client initiates the UL packet delay measurement. The SEALDD client encapsulates the UL monitoring packet (i.e. UL SEALDD packet with SEALDD UL monitoring header and VAL traffic as payload for VAL data transmission quality monitoring) with local time T1 when the SEALDD client sends out the UL monitoring packet. The SEALDD client considers the spatial and/or temporal conditions when starting/resuming the transmission quality measurement. If the conditions are not satisfied, the SEALDD client stops/suspends the transmission quality measurement.', '', '8.\tThe SEALDD server receives the UL monitoring packet, and records the local time T2.', '', '9.\tSimilarly, the SEALDD server encapsulates the DL monitoring packet (i.e. DL SEALDD packet with SEALDD DL monitoring header and VAL traffic as payload, or dummy UL SEALDD packet generated for data transmission quality monitoring in case there is no DL VAL traffic for DL packet delay monitoring) with local time T2 recorded in step 8 and local time T3 when the SEALDD server sends out the DL monitoring packet.', '', 'NOTE\xa02:\tWhen the SEALDD server sends the dummy UL packet as monitoring response to the SEALDD client depends on SEALDD server implementation.', '', '10.\tThe SEALDD client records the local time T4 when the SEALDD client receives the DL monitoring packet and calculates the latency with T1, T2, T3, T4. The SEALDD client can also calculate the bitrate and jitter over a certain period over a specific SEALDD connection by recording the status of the SEALDD monitoring packets. The SEALDD client also evaluates the reporting criteria if present in the SEALDD transmission quality measurement subscription request in order to generate the transmission quality measurement report.', '', '\tDepending on which entity triggers the data transmission quality measurement, step 11 and step 12 corresponds to step 2 to step 5, step 13 corresponds to step 6.', '', '11-12.\tThe SEALDD client reports the data transmission quality measurement results (e.g. latency, jitter, bitrate) to the VAL server via the SEALDD server.', '', '13.\tThe SEALDD client reports the data transmission quality measurement results to the VAL client. ', '', 'When a VAL group ID or a list of VAL UE IDs or all VAL UEs indication is received in step 2, step 4 to step 11 is repeated for VAL UEs in the group/list or for all VAL UEs. The SEALDD server maps the VAL UE group ID to a list of VAL UE IDs if a VAL group ID is received. The SEALDD server identifies SEALDD connections corresponding to the desired VAL UE(s) to trigger measurement. And depending on the reporting requirement for multiple UEs, the SEALDD server collects and aggregates the needed report for the VAL server.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.9.2.2	SEALDD enabled data transmission quality guarantee with redundant transport&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>23433.docx</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1536208987236023</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>['', 'Figure 9.9.2.2-1 illustrates the procedure of using redundant transmission as the action to meet connection reliability requirements specified by a SEALDD service policy.', '', 'Pre-conditions:', '', '1.\tA SEALDD service policy, which includes data transmission quality guarantees, is available to SEALDD server. The policy can be used to configure measurements and determine the necessary SEALDD layer actions for meeting the service policy requirements.', '', '2. The SEALDD Client is authorized to request redundant transport services on behalf of the VAL client.', '', '----media/image39.emf----', '', 'Figure 9.9.2.2-1: SEALDD data transmission quality guarantee with redundant transmission', '', '1.\tA VAL client and server establish a SEALDD connection to transport the application data. As part of the connection establishment, the SEALDD service policy in precondition 1 is shared so that it is available to both the SEALDD client and the SEALDD Server. The SEALDD Server may use the data transmission quality requirements of this policy in conjunction with other local policies pre-provisioned at the SEALDD server. The SEALDD server determines whether to start data transmission quality measurement by itself or by the SEALDD client. As a result, SEALDD measurements (e.g. packet loss rate, latency) are configured either at the SEALDD client as described in clause 9.7.2.3 or at the SEALDD server as described in clause\xa09.7.2.1 and started accordingly. Then either the SEALDD client or server receives measurement reports.', '', '2.\tBased on measurement reports and the SEALDD service policy, depending on the which entity started the measurement, either the SEALDD client or server determines to perform an action so that the data transmission quality requirements of the policy are met. ', '', '3.\tSpecifically, if the measurement was started by the SEALDD client, the SEALDD client triggers the establishment of redundant transmission services. If the measurement was started by the SEALDD server, the SEALDD server triggers the establishment of redundant transmission services by sending a Transmission quality management request to the SEALDD client requesting to establish redundant transmission path.', '', 'NOTE:\tThe request can be sent to SEALDD client via Application Triggering (specified in clause\xa04.13.2 of 3GPP\xa0TS\xa023.502\xa0[6]) with payload indicating a trigger of a redundant connection setup for SEALDD packet transmission.', '', '4.\tThe SEALDD client uses steps 6 to 9 of the procedure in clause\xa09.3.2.1 to request the use of redundant transmission service from the SEALDD server. As part of this step, the UE may end the initial PDU session and establish redundant PDU sessions.', '', '5.\tThe SEALDD client updates the SEALDD connection with the redundant transmission information, i.e., the UE addresses and ports for the redundant PDU sessions, the SEALDD flow identifier, and the application traffic descriptors. The SEALDD client or server also configures the parameters for enabling any necessary SEALDD measurements for the new SEALDD flow.', '', '6.\tThe SEALDD server may subscribe to receive notifications from the 5G network for user plane measurements (e.g., the network latency requirements specified in 3GPP\xa0TS\xa028.541\xa0[12]), network analytics (as specified in 3GPP\xa0TS\xa028.104\xa0[11], etc.).', '', '7.\tThe SEALDD client and server handle data duplication and elimination of application traffic on the redundant SEALDD flows and the necessary measurements are collected by the SEALDD client or server.', '', 'When the SEALDD measurement results indicating that the SEALDD data transmission has good performance according to policy guarantee threshold, if the measurement was started by the SEALDD client, the SEALDD client may release one transmission path and return back to single SEALDD connection mode, otherwise the SEALDD server may send a Transmission quality management request to the SEALDD client requesting to use single transmission, then the SEALDD client releases one transmission path and returns to single SEALDD connection mode.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;14.3.5.2.2	Procedure for a group of UEs&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>23434.docx</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1379168629646301</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>['', 'Figure\xa014.3.5.2.2 illustrates the procedure where the NRM server is initiating the end-to-end QoS/resource management capability for network-assisted UE-to-UE communications for a group of UEs.', '', 'Pre-conditions: ', '', '1.\tThe NRM client is connected to the NRM server.', '', '2.\tThe VAL UEs involved in the end-to-end session (VAL UE 1 and a group of VAL UEs) are connected to one or more PLMNs and have ongoing PDU sessions.', '', 'Note :\tThe NRM client2 (of VAL UE 2) can be any VAL UEs in the group of VAL UEs.', '', '----media/image143.emf----', '', 'Figure\xa014.3.5.2.2 end-to-end QoS management request / response for a group of UEs', '', '1.\tThe NRM server receives from the AF on NRM client 1 (of VAL UE 1) the end-to-end QoS management request for managing the QoS on UE-to-UE traffic for a group of UEs. ', '', '2. The NRM server retrieves from 5GC or subscribe to 5GC to obtain additional VAL-UE associated information for each member in the group identified by the VAL group ID, which is account for decomposition. The VAL-UE associated information could be from the 5GC (NEF Monitoring Events as in 3GPP\xa0TS\xa023.502\xa0[11], QoS sustainability analytics as in 3GPP\xa0TS\xa023.288\xa0[34]) or SEAL LMS (on demand location reporting). ', '', '3.\tThe NRM server configures the application QoS parameters by decomposing the end-to-end QoS requirements (UE-to-UE traffic for any two UEs in a group) to application QoS parameters for each individual session (uplink network session for ingress group member and downlink network session for egress group member). The NRM server needs to take the additional VAL-UE associated information into account for evaluation during such decomposition.', '', '4. The NRM/SEAL server, acting as AF, sends to the 5GC a "Procedures for AF requested QoS for a UE or group of UEs not identified by a UE address" to set the application QoS parameters respectively for uplink network session for each ingress group member in the group and for downlink network session for egress group member.', '', 'Additionally, the NRM/SEAL server may activate monitoring of the performance to receive QoS monitoring event notifications from 5GC by setting the (optionally with Alternative QoS Profiles) in the request, in this case the AF may receive the QoS downgrade notification for e.g. latency thus to initiate the NRM-assisted coordinated QoS provisioning for 5G LAN-Type  communication in clause 14.3.5.3.x', '', '5.\tThe NRM server sends to the NRM client 1an end-to-end QoS management response with a positive or negative acknowledgement of the request. ', '', '6.\tIf the NRF server receives the end-to-end QoS management request including VAL UE2 as any of the List of VAL UEs, then the NRM server may also send a notification to NRM client 2 (of VAL UE 2) to inform about the end-to-end QoS management initiation by the NRM server. ', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;8&lt;span style="font-size:20pt"&gt;.&lt;/span&gt;3.2	Procedure&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>23436.docx</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.1522231698036194</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>['', 'Figure\xa08.3.2-1 illustrates the procedure where the VAL server performance analytics are performed based on data collected from the ongoing VAL sessions as well as data from the DN (VAL server, DN database or networking stack at DN) for a specific slice. ', '', 'Pre-conditions:', '', '1.\tADAEC is connected to ADAES.', '', '----media/image11.emf----', '', 'Figure\xa08.3.2-1: ADAES support for slice-related performance analytics', '', '1.\tThe consumer of the ADAES analytics service sends a subscription request to ADAES and provides the analytics event ID e.g. "slice perf prediction", the target S-NSSAI, DNN, NSI ID, the time validity of the request, the required confidence level, whether offline and/or online analytics are needed, area and time horizon, etc.', '', '2.\tThe ADAES sends a subscription response as an ACK to the consumer.', '', '3.\tThe ADAES subscribes to the Data Sources with the respective Data Collection Event ID and the requirement for data collection related to the request slice(s). Such requests may be towards:', '', '-\tOAM for providing PM data related to the requested slice / NSI. Alternatively, if the interaction to OAM happens via NSCE layer (see TS 23.435 [6]), such subscription can be performed to NSCE (where ADAES is acting as VAL server).', '', '-\tNWDAF for providing slice related analytics for the given area and time horizon (indicated in step 1). Such analytics can be the slice load level related network data analytics, or the service experience related network data analytics for a given slice', '', '4.\tThe ADAES based on subscription, receives PM data notification from OAM or from NSCE server (via OAM APIs or NSCE-S APIs)', '', '5.\tThe ADAES based on subscription, receives the requested NWDAF analytics outputs. Such analytics can be:', '', '-\tnetwork slice or NSI statistics or predictions (clause 6.3.3A of TS 23.288 [4]) ', '', '-\tper slice instance service experience stats or predictions (clause 6.4.3 of TS 23.288 [4])', '', '6.\tThe ADAES can also provide analytics on the VAL session performance (based on the procedure of clause 8.2.2 step 11 or clause 8.2.3 step 12) and filters the analytics only for the sessions which are connected to that requested slice for the area of interest.', '', '7.\tThe ADAES abstracts or correlates the data/analytics from steps 4-6 and provides analytics on the slice or NSI performance for the target VAL application/server. For example, such analytics can be about the min/average/max predicted RTT / end to end latency for the VAL application/server if this server uses a given slice/NSI (or for a list of given slices) within an area of interest.', '', '8&lt;b&gt;.&lt;/b&gt;\tThe ADAES sends the analytics to the consumer, as a slice-specific performance analytics notification message.', '', '', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;8&lt;span style="font-size:20pt"&gt;.&lt;/span&gt;4.2	Procedure&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>23436.docx</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.1466883420944214</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>['', 'Figure\xa08.4.2-1 illustrates the procedure where the VAL session performance analytics are performed based on data collected from the ongoing VAL UE-to-UE sessions.', '', 'Pre-conditions:', '', '1.\tADAECs are connected to ADAES.', '', '', '', '----media/image12.emf----', '', 'Figure\xa08.4.2-1: ADAES support for UE-to-UE application performance analytics', '', '1. The consumer of the ADAES analytics service sends a subscription request to ADAES and provides the analytics event ID e.g. "VAL UE to UE session prediction", the target VAL UE ID or group of UE IDs, the VAL session / service ID, the time validity and area of the request, the required confidence level, exposure level for providing UE to UE analytics. Such request can also include whether the analytics notification shall be periodic or based on an expected application QoS change (in that case also the thresholds can be provided at the request)', '', '2.\tThe ADAES sends a subscription response as an ACK to the consumer.', '', '3.\tThe ADAES selects the corresponding ADAEC #1 of the VAL UE 1 where the session performance analytics need to be performed. Such UE can be for example a capable and authorized UE from the involved VAL UEs within the service or group, e.g. a group lead.', '', '4.\tThe ADAES sends a UE to UE analytics request to the ADAEC #1 with the analytics event ID and the configuration of the reporting required (e.g., periodic, based on threshold(s) or event). Such request also includes the application QoS attributes to be analyzed (latency, bitrate, jitter, application layer PER)A session starts between the VAL UE #1 and a VAL UE #2 (or more VAL UEs). ', '', '5.\tThe ADAEC #1 starts collecting data from the corresponding VAL UE(s) based on the request.&lt;span style="color:FF0000"&gt; &lt;/span&gt;Such data can be about the latency, throughput, jitter, QoE measurements, PQI load, etc.  The data can be collected by ADAEC #1 from other ADAECs via ADAE-C interface, or from the VAL clients (VAL client to VAL client interaction is out of scope).', '', '6.\tThe ADAEC either detects or predicts an application QoS change (depending on the authorization of ADAEC to perform analytics). Such change can be for example an application QoS downgrade related to the UE-to-UE session latency, or the application layer PER/channel losses higher than a predefined threshold, for a given time horizon with a certain confidence level.', '', '7.\tThe ADAEC sends the analytics to the ADAES in a UE-to-UE analytics response message.', '', '8.\tThe ADAES based on the received response, confirms/verifies the analytics received or provides analytics (in case that data were reported) for the UE-to-UE session. Such analytics can be about predicting the application QoS change for the UE-to-UE session. ', '', '9&lt;b&gt;.&lt;/b&gt;\tThe ADAES sends the derived analytics notification to the consumer.', '', 'NOTE:\tThe mechanism for analytics collection from the UE side (steps 4, 7) shall align with the SA4 mechanism for generic data collection from the UE (TS 26.531 [3]).', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;8.5.2.3.3	Notify&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>23558.docx</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.1403617858886719</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>['', 'Figure\xa08.5.2.3.3-1 illustrates the EAS discovery notification procedure between the EEC and the EES.', '', 'Pre-conditions:', '', '1.\tThe EEC has subscribed with the EES for the EAS discovery information as specified in clause\xa08.5.2.3.2.', '', '----media/image33.emf----', '', 'Figure\xa08.5.2.3.3-1: EAS discovery notification', '', "1.\tAn event occurs at the EES that satisfies trigger conditions for notifying (e.g. to provide EAS discovery information or EAS dynamic information) a subscribed EEC. If UE's location information is not already available, the EES obtains the UE location by utilizing the capabilities of the 3GPP core network as specified in clause\xa08.10.3. If EAS discovery filters were provided by the EEC during subscription creation, the EES identifies the EAS(s) based on the provided EAS discovery filters and the UE location. ", '', 'For EAS dynamic information change event, the EES, based on local policy, may use received EAS endpoints from EEC or all registered EAS endpoints to get edge load analytics information from ADAES services (e.g. as specified in clause 8.8 of TS 23.436 [27]) to monitor EAS service status like EAS status and EAS schedule.', '', 'When the bundle EAS information is provided, then;', '', '-\tIf EAS bundle identifier was provided, the EES identifies all or part of the EAS(s) associated with the same EAS bundle identifier. ', '', '-\tIf a list of EASIDs is provided, the EES identifies the EASs which are all or part of the EAS bundle.', '', 'If the EEC indicates that service continuity support is required, the EES shall take the indication which ACR scenarios are supported by the AC and the EEC and which of these are preferred by the AC into consideration.', '', '\tIf EAS discovery filters were not provided, then:', '', '-\tif available, the EES identifies the EAS(s) based on the UE-specific service information at the EES and the UE location;', '', '-\tEES identifies the EAS(s) by applying the ECSP policy (e.g. based only on the UE location);', '', 'If EAS discovery filters contain Application group profile, the EES checks whether information about common EAS and related Application Group ID is available or not. If the common EAS information related to the Application Group ID is available at the EES, then the EES provides information of that EAS as result for EAS discovery. ', '', 'NOTE 1:\tThe EES may have previously determined and stored the common EAS for Application group ID, or the EES may have received the common EAS selection information for Application group ID during the common EAS announcement procedure. ', '', 'NOTE 2:\tDetails of the UE-specific service information and how it is available at the EES is out of scope.', '', 'NOTE 3:\tBoth steps are evaluated prior to sending a response.', '', 'If the UE is located outside the Geographical or Topological Service Area of an EAS, then the EES shall not include this EAS in the EAS discovery notification.', '', 'If the application triggering is supported and required by the EEC as indicated in EEC Triggering Request IE of the EAS Discovery Subscription Request, then the EES performs the EEC triggering service as described in the clause\xa08.16.1 and skips the step\xa02.', '', '2.\tThe EES sends an EAS discovery notification to the EEC with the EAS information determined in step 1, which includes information about the discovered EASs and Instantiable EAS Information. For discovered EASs, this includes endpoint information. Depending on the event type and EAS discovery filters received in the EAS discovery subscription request, the notification may include additional information regarding matched capabilities, e.g. service permissions levels, KPIs, AC locations(s) that the EASs can support, ACR scenarios supported by the EAS, etc. The EAS discovery notification may contain a list of EASs and Instantiable EAS Information. This list may be based on EAS discovery filters containing a Geographical or Topological Service Area, e.g. a route, included in the EAS discovery subscription request by the EEC. When the discovered EAS is for a certain application group, then the Application Group ID is also included in the notification message. If the discovered EAS is registered to another EES, then the EES endpoint of the EES where the discovered EAS is registered is also included in the notification message.', '', 'Upon receiving the EAS discovery notification, if the EEC selects an EAS which is instantiated (i.e., an EAS profile was provided), the EEC uses the endpoint information for routing of the outgoing application data traffic to EAS(s), as needed, and may provide necessary notifications to the AC(s). The EEC may use the border or overlap between EAS Geographical Service Areas for service continuity purposes. The EEC may cache the EAS information (e.g. EAS endpoint) for subsequent use. If the Lifetime IE is included in the notification, the EEC may cache the EAS information only for the duration specified by the Lifetime IE.', '', 'NOTE 4:\tWithin the duration specified by the Lifetime IE, the cached EAS Profile can be updated (e.g. according to notifications from the EES for changes of EAS information due to EAS status change) or the cached EAS Profile can be invalidated due to new EAS information discovery (e.g. due to UE mobility). The EEC can update or invalidate the cached EAS information (e.g. on PDU Session Release or Modification Command).', '', 'NOTE 5:\tThe AC can cache the EAS information (e.g. EAS endpoint) for subsequent use. In the case of the cached information needing to be updated or invalidated, the mechanisms for the EEC to notify the AC is up to implementation and is not specified in the current release of the present document.', '', 'NOTE 6:\tThe EEC can use the EAS information provided by the discovery procedure to perform service continuity planning, for example when ultra-low latency ACR is required.', '', 'Upon receiving the EAS discovery notification, if the EEC selects an EAS which is instantiable but not yet instantiated (i.e. an EAS profile is not provided), the EEC may send the EAS information provisioning request indicating the selected EASID as in clause 8.15.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>&lt;h1&gt;F.4	5GS interworking with TSN deployed in the transport network&lt;/h1&gt;</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>23502.docx</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.1431270241737366</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>['', 'For 5GS to control the IEEE TSN features deployed in the transport network, the SMF/CUC interacts with the CNC in the transport network (TN CNC).', '', '----media/image275.emf----', '', 'Figure F.4-1: 5GS Bridge information configuration', '', '1.\tThe UE establishes a PDU Session as described in clause\xa04.3.2.2.1.', '', '2.\tDuring the PDU Session Establishment procedure, the SMF/CUC requests the UPF to assign the N3 tunnel information via N4 Session Establishment or Modification procedure. If interworking with TSN deployed in the transport network is supported (see clause\xa04.4.8 of TS\xa023.501\xa0[2]), and the UPF supports CN-TL, the SMF/CUC includes a TL-Container to the N4 Session Establishment or Modification request including a get-request to the TL-Container, as described in clause\xa05.28a.2 of TS\xa023.501\xa0[2].', '', '\tThe UPF responds with a N4 Session Establishment or Modification response. If the UPF supports CN-TL, the UPF includes a TL-Container to the response. The TL-Container includes a get-response as described in clause\xa05.28a.2 of TS\xa023.501\xa0[2]. The SMF/CUC stores the information provided in the get-response.', '', '3.\tDuring the PDU Session Establishment procedure, the SMF/CUC requests the NG-RAN to assign the N3 tunnel information by invoking the Namf_Communication_N1N2MessageTransfer request. The SMF/CUC includes a TL-Container to the N2 SM information in the request, the TL-Container contains a get-request as described in clause\xa05.28a.2 of TS\xa023.501\xa0[2].', '', '\tThe NG-RAN responds with a N2 SM information. If the NG-RAN supports AN-TL, the NG-RAN includes a TL-Container to the N2 SM information. The TL-Container includes a get-response as described in clause\xa05.28a.2 of TS\xa023.501\xa0[2]. The SMF/CUC stores the information provided in the get-response.', '', '4.\tThe AF (TSCTSF, AF, NEF or TSN AF) invokes the Npcf_PolicyAuthorization_Create/Update request. This may be due to reception of Ntsctsf_QoSandTSCAssistance_Create/Update request by the TSCTSF as described in clause\xa04.15.6.6 or clause\xa04.15.6.6.a, or due to reception of 5GS Bridge configuration by the TSN AF as described in clause\xa0F.2. The TSN AF or TSCTSF determines the TSC Assistance Container for one or more TSC streams and sends them to the PCF.', '', '5-6.When PCF receives the request, the PCF initiates an SM Policy Association Modification procedure. The PCF notifies the corresponding SMF/CUC via Npcf_SMPolicyControl_UpdateNotify message as described in clause\xa04.16.5.2. The PCF updates the PCC rule to the SMF/CUC. The PCC rule includes the 5GS QoS profile along with TSC Assistance Container.', '', '\tSMF/CUC triggers the PDU Session Modification procedure as described in clause\xa04.3.3.2 to establish a QoS Flow to transfer the TSC streams.', '', '7.\tDuring the PDU Session Modification procedure, the SMF/CUC provides the information received in PCC rules to the UPF via N4 Session Modification procedure. The SMF/CUC may instruct the UPF to assign a distinct N3 tunnel end point address for the QoS Flow as described in clause\xa0M.1 of TS\xa023.501\xa0[2].', '', '\tThe UPF responds with a N4 Session Modification response.', '', '8.\tDuring the PDU Session Modification procedure, the SMF/CUC provides the information received in PCC rules to the NG-RAN by invoking the Namf_Communication_N1N2MessageTransfer request. The SMF also determines the TSCAI for the QoS Flow(s) and sends the TSCAI along with the QoS profile(s) to the NG-RAN. The SMF/CUC may instruct the NG-RAN to assign a distinct N3 tunnel end point address for the QoS Flow as described in clause\xa0M.1 of TS\xa023.501\xa0[2].', '', '\tThe NG-RAN responds with a N2 SM information.', '', '9.\tThe SMF/CUC determines the merged stream requirements in the TSN UNI towards the TN CNC as described in Annex\xa0M of TS\xa023.501\xa0[2]. The TN CNC uses the merged stream requirements as input to select respective path(s) and calculate schedules in TN.', '', '10.\tBased on the results, the TN CNC provides a Status group that contains the merged end station communication-configuration back to the SMF/CUC.', '', '11.\t[Conditional] If the response from TN CNC includes InterfaceConfiguration, the SMF/CUC triggers the PDU Session Modification procedure as described in clause\xa04.3.3.2 to modify the QoS Flow to transfer the TSC streams.', '', '12.\t[Conditional] During the PDU Session Modification procedure, if the UPF supports CN-TL, the SMF/CUC invokes N4 Session Modification procedure and includes TL-Container(s) to the N4 Session Modification request including a set-request to the TL-Container as described in clause\xa05.28a.2 of TS\xa023.501\xa0[2].', '', '\tThe UPF responds with a N4 Session Modification response. If the UPF supports CN-TL, the UPF includes a TL-Container to the response. The TL-Container includes a set-response as described in clause\xa05.28a.2 of TS\xa023.501\xa0[2].', '', '13. [Conditional] During the PDU Session Modification procedure, if the NG-RAN supports AN-TL, the SMF/CUC invokes the Namf_Communication_N1N2MessageTransfer request. The SMF/CUC includes TL-Container(s) to the N2 SM information in the request, the TL-Container contains a set-request as described in clause\xa05.28a.2 of TS\xa023.501\xa0[2]. The SMF/CUC may also update the TSCAI in the NG-RAN for the BAT in DL direction as described in Annex\xa0M, clause\xa0M.1 of TS\xa023.501\xa0[2], if the SMF/CUC received a TimeAwareOffset or AccumulatedLatency from TN CNC for a downlink stream (i.e. for a Talker in the UPF/CN-TL) in step\xa07.', '', '\tThe NG-RAN responds with a N2 SM information. If the NG-RAN supports AN-TL, the NG-RAN includes TL-Container(s) to the N2 SM information. The TL-Container includes a set-response as described in clause\xa05.28a.2 of TS\xa023.501\xa0[2].', '', 'NOTE:\tTL-Containers and related Gate Control information as described in clause\xa0M.1 of TS\xa023.501\xa0[2] are removed during PDU Session Release or QoS Flow(s) Release.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.4.13.1	Mobility Management and Power Saving Optimization&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.1202709078788757</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>['', 'For NR satellite access that provides discontinuous network coverage the Mobility Management and Power Saving Optimization functionality may be used.', '', 'If both the UE and the network support "Unavailability Period Support", and if the UE determines it will lose coverage and will become unavailable, and the UE decides to remain in no service during that time, then:', '', '-\tthe UE triggers the Mobility Registration Update procedure to inform the network of its unavailability, as described in clause\xa05.4.1.4.', '', '-\tThe UE may be able to determine, including considering current and expected future locations of the UE, a Start of Unavailability Period and/or Unavailability Period Duration for when it expects to be out of coverage and include them in the Mobility Registration Update procedure, as described in clause\xa05.4.1.4.', '', '-\tThe UE should trigger the Mobility Registration Update procedure early enough such that the procedure, under normal conditions, is able to complete before the start of the unreachability period.', '', 'NOTE\xa01:\tA UE based on implementation can combine successive periods of no satellite coverage into a single continuous period that is notified to the network if the UE does not require network access during this period.', '', "NOTE\xa02:\tUE informing the network of coverage gaps would increase signalling and UE power consumption if coverage gaps are more frequent than UE's communication period.", '', 'In case the UE requests power saving features the AMF uses the procedures defined in other clauses to provide the UE with timers (e.g. Periodic Registration Update timer), extended DRX in CM-IDLE configuration (see clause\xa05.31.7.2), and MICO mode configuration (see clause\xa05.4.1.3), and to provide the NG-RAN with Extended Connected Time (see clause\xa05.31.7.3) and may also consider the Unavailability Period Duration and Start of Unavailability Period (if available). This is to keep UE in power saving mode and avoid the network attempting to page the UE if it is out of satellite network coverage.', '', 'The AMF should adjust the mobile reachable timer or Implicit Deregistration timer or both such that the AMF does not implicitly deregister the UE while the UE is unavailable, see clause\xa05.4.1. Features described for High latency communication in clause\xa05.31.8 may be used to handle mobile terminated (MT) communication with UEs being unreachable due to NR satellite access discontinuous coverage and the Unavailability Period Duration (if available) and Start of Unavailability Period (if available) may be used when determining the Estimated Maximum Wait Time.', '', 'Tracking Area or RAT specific configuration in the AMF may be used to set timer values based on typical coverage periods of a satellite system.', '', 'NOTE\xa03:\tFor example, if a satellite system only provides coverage to a UE for 20 minutes when a satellite passes, and the maximum time before a satellite passes any point on the earth is 10 hours, the AMF could configure the periodic registration timer and Mobile Reachable timer to be just greater than 20 minutes and the Implicit Deregistration timer to be greater than 10 hours to avoid unintended implicit detach due to coverage gap. Such configuration does not require AMF to be aware of detailed coverage times for each UE or for different locations.', '', 'The UE may send Mobility Registration Update procedure to inform the network of its UE unavailability period (see clause\xa05.4.1.4) even if Mobility Management back-off timer is running.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;5.31.7.2.4	Paging for extended DRX for RRC_INACTIVE in NR connected to 5GC&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.09989714622497559</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>['', 'For NR, the NG-RAN may request the CN to handle mobile terminated (MT) communication for the UE configured with eDRX for RRC_INACTIVE state by means of the Connection Inactive procedure with CN based MT communication handling Procedure (see clause\xa04.8.1.1a of TS\xa023.502\xa0[3]). This allows the CN to apply high latency communication functions as specified in clause\xa05.31.8. The NG-RAN provides the determined eDRX values (i.e. the eDRX cycle length and the Paging Time Window length) for RRC_INACTIVE to AMF (i.e. &amp;gt;10.24s). Based on the request from NG-RAN, the AMF responds to NG-RAN and informs other NFs (e.g. SMF and UPF) involved in downlink data or signalling handling and trigger the data buffering as specified in clause\xa04.8.1.1a of TS\xa023.502\xa0[3].', '', 'When MT data or signalling arrives for a UE in RRC_INACTIVE state, the other NFs communicate with the AMF for delivery of MT data or signalling. The AMF calculates the UE reachability based on the eDRX values for RRC_INACTIVE state provided by NG-RAN and triggers NG-RAN paging via an N2 RAN Paging Request message if the UE is considered reachable as specified in clause\xa04.8.2.2b of TS\xa023.502\xa0[3]. Otherwise, the AMF stores the information received in the NF request and replies to the requesting NF to apply high latency communication functions as specified in clause\xa05.31.8 based on eDRX values for RRC_INACTIVE (e.g. an Estimated Maximum Wait Time is calculated based on eDRX values for RRC_INACTIVE). When the AMF determines that the UE has become reachable for paging, the AMF uses the stored information to send an N2 RAN Paging Request message. If UPF/SMF provides the downlink data size information, the AMF provides the information to NG-RAN as described in clause\xa04.8.2.2b of TS\xa023.502\xa0[3].', '', 'When the UE resumes the RRC connection as specified in TS\xa038.300\xa0[27] (e.g. including mobile originated small data transmission procedure), if the NG-RAN had sent the indication for the CN to handle mobile terminated (MT) communication, NG-RAN proceeds as specified in clause\xa04.8.2.2 of TS\xa023.502\xa0[3], which indicates to the AMF that the UE is now reachable for downlink data and/or signalling. The AMF then informs other NFs that the UE is now reachable using the high latency communication functions as specified in clause\xa05.31.8 and MT data and signalling can be delivered to the UE.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.37.6	UL/DL policy control based on round-trip latency requirement&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.08339542150497437</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>['', 'For XR and other interactive media services that require very low Round-Trip (RT) latency, Uplink-Downlink policy control may be supported to meet the RT latency requirement. RT latency requirement is the upper bound for the sum of UL delay and DL delay of a single data flow or two different data flows between UE and N6 termination point at the UPF. PCF may support Uplink-Downlink policy control based on RT latency requirement based on an RT latency indication from AF (as defined in clause\xa06.1.3.27.2 of TS\xa023.503\xa0[45]) during the AF session with the required QoS procedure as defined in clause\xa04.15.6.6 of TS\xa023.502\xa0[3].', '', 'The AF can provide an RT latency indication with a single direction delay requirement between the UE and the PSA UPF expressed as the QoS Reference parameter or individual QoS parameters (as defined in clause\xa06.1.3.22 of TS\xa023.503\xa0[45]). The RT latency indication indicates the need to meet the RT latency requirement for data flow, i.e. doubling of the single direction delay requirement between the UE and the PSA UPF expressed by the QoS Reference parameter or individual QoS parameter.', '', "PCF determines the data flow's UL PDB and DL PDB based on the RT latency requirement. The UL PDB and DL PDB can be unequal, but their sum shall not exceed the RT latency requirement. The PCF shall generate two PCC rules, one for UL QoS flow for UL traffic of the data flow and one for DL QoS flow for DL traffic of the data flow, respectively. PCF shall assign the 5QIs for each of these two PCC rules according to the derived UL PDB and DL PDB.", '', 'To support UL and DL delay tracking, the QoS monitoring for UL packet delay and the DL packet delay (as defined in clause\xa06.1.3.21 of TS\xa023.503\xa0[45]) shall be triggered respectively to request tracking the UL packet delay of the QoS flow used in UL and DL packet delay of the QoS flow used in DL independently. Based on the QoS monitoring results, the PCF may readjust the UL PDB and/or DL PDB under the consideration of the RT latency requirement to better fit the new situation.', '', 'The Uplink-Downlink policy control based on round-trip latency requirement for two unidirectional service data flows is described in clause\xa06.1.3.27.2 of TS\xa023.503\xa0[45].', '', 'NOTE:\tHow the PCF derives the round-trip latency and takes policy decisions is up to the implementation.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;3.2	Abbreviations&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.1306221485137939</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>['', 'For the purposes of the present document, the abbreviations given in TR\xa021.905\xa0[1] and the following apply. An abbreviation defined in the present document takes precedence over the definition of the same abbreviation, if any, in TR\xa021.905\xa0[1].', '', '5GC\t5G Core Network', '', '5G DDNMF\t5G Direct Discovery Name Management Function', '', '5G LAN\t5G Local Area Network', '', '5GS\t5G System', '', '5G-AN\t5G Access Network', '', '5G-AN PDB\t5G Access Network Packet Delay Budget', '', '5G-EIR\t5G-Equipment Identity Register', '', '5G-GUTI\t5G Globally Unique Temporary Identifier', '', '5G-BRG\t5G Broadband Residential Gateway', '', '5G-CRG\t5G Cable Residential Gateway', '', '5G GM\t5G Grand Master', '', '5G NSWO\t5G Non-Seamless WLAN offload', '', '5G-RG\t5G Residential Gateway', '', '5G-S-TMSI\t5G S-Temporary Mobile Subscription Identifier', '', '5G VN\t5G Virtual Network', '', '5QI\t5G QoS Identifier', '', 'ADRF\tAnalytics Data Repository Function', '', 'AF\tApplication Function', '', 'AI/ML\tArtificial Intelligence/Machine Learning', '', 'AKMA\tAuthentication and Key Management for Applications', '', 'AnLF\tAnalytics Logical Function', '', 'AMF\tAccess and Mobility Management Function', '', 'AoI\tArea of Interest', '', 'AS\tAccess Stratum', '', 'ATSSS\tAccess Traffic Steering, Switching, Splitting', '', 'ATSSS-LL\tATSSS Low-Layer', '', 'AUSF\tAuthentication Server Function', '', 'BMCA\tBest Master Clock Algorithm', '', 'BSF\tBinding Support Function', '', 'CAG\tClosed Access Group', '', 'CAPIF\tCommon API Framework for 3GPP northbound APIs', '', 'CH\tCredentials Holder', '', 'CHF\tCharging Function', '', 'CN PDB\tCore Network Packet Delay Budget', '', 'CP\tControl Plane', '', 'CQRCI\tClock Quality Reporting Control Information', '', 'DAPS\tDual Active Protocol Stacks', '', 'DCCF\tData Collection Coordination Function', '', 'DCS\tDefault Credentials Server', '', 'DetNet\tDeterministic Networking', '', 'DL\tDownlink', '', 'DN\tData Network', '', 'DNAI\tDN Access Identifier', '', 'DNN\tData Network Name', '', 'DRX\tDiscontinuous Reception', '', 'DS-TT\tDevice-side TSN translator', '', 'EAC\tEarly Admission Control', '', 'ePDG\tevolved Packet Data Gateway', '', 'EBI\tEPS Bearer Identity', '', 'EUI\tExtended Unique Identifier', '', 'FAR\tForwarding Action Rule', '', 'FL\tFederated Learning', '', 'FN-BRG\tFixed Network Broadband RG', '', 'FN-CRG\tFixed Network Cable RG', '', 'FN-RG\tFixed Network RG', '', 'FQDN\tFully Qualified Domain Name', '', 'GBA\tGeneric Bootstrapping Architecture', '', 'GEO\tGeostationary Orbit', '', 'GFBR\tGuaranteed Flow Bit Rate', '', 'GIN\tGroup ID for Network Selection', '', 'GMLC\tGateway Mobile Location Centre', '', 'GPSI\tGeneric Public Subscription Identifier', '', 'GUAMI\tGlobally Unique AMF Identifier', '', 'HMTC\tHigh-Performance Machine-Type Communications', '', 'HR\tHome Routed (roaming)', '', 'IAB\tIntegrated access and backhaul', '', 'IMEI/TAC\tIMEI Type Allocation Code', '', 'IPUPS\tInter PLMN UP Security', '', 'I-SMF\tIntermediate SMF', '', 'I-UPF\tIntermediate UPF', '', 'LADN\tLocal Area Data Network', '', 'LBO\tLocal Break Out (roaming)', '', 'LEO\tLow Earth Orbit', '', 'LMF\tLocation Management Function', '', 'LoA\tLevel of Automation', '', 'LPP\tLTE Positioning Protocol', '', 'LRF\tLocation Retrieval Function', '', 'L4S\tLow Latency, Low Loss and Scalable Throughput', '', 'MBS\tMulticast/Broadcast Service', '', 'MBSF\tMulticast/Broadcast Service Function', '', 'MBSR\tMobile Base Station Relay', '', 'MBSTF\tMulticast/Broadcast Service Transport Function', '', 'MB-SMF\tMulticast/Broadcast Session Management Function', '', 'MB-UPF\tMulticast/Broadcast User Plane Function', '', 'MEO\tMedium Earth Orbit', '', 'MFAF\tMessaging Framework Adaptor Function', '', 'MCX\tMission Critical Service', '', 'MDBV\tMaximum Data Burst Volume', '', 'MFBR\tMaximum Flow Bit Rate', '', 'MICO\tMobile Initiated Connection Only', '', 'MINT\tMinimization of Service Interruption', '', 'ML\tMachine Learning', '', 'MPQUIC\tMulti-Path QUIC', '', 'MPS\tMultimedia Priority Service', '', 'MPTCP\tMulti-Path TCP Protocol', '', 'MTLF\tModel Training Logical Function', '', 'N3IWF\tNon-3GPP InterWorking Function', '', 'N3QAI\t\tNon-3GPP QoS Assistance Information', '', 'N5CW\tNon-5G-Capable over WLAN', '', 'NAI\tNetwork Access Identifier', '', 'NCR\tNetwork Controlled Repeater', '', 'NCR-MT\tNCR Mobile Termination', '', 'NEF\tNetwork Exposure Function', '', 'NF\tNetwork Function', '', 'NGAP\tNext Generation Application Protocol', '', 'NID\tNetwork identifier', '', 'NPN\tNon-Public Network', '', 'NR\tNew Radio', '', 'NRF\tNetwork Repository Function', '', 'NS-AoS\tNetwork Slice Area of Service', '', 'NSAC\tNetwork Slice Admission Control', '', 'NSACF\tNetwork Slice Admission Control Function', '', 'NSAG\tNetwork Slice AS Group', '', 'NSI ID\tNetwork Slice Instance Identifier', '', 'NSSAA\tNetwork Slice-Specific Authentication and Authorization', '', 'NSSAAF\tNetwork Slice-specific and SNPN Authentication and Authorization Function', '', 'NSSAI\tNetwork Slice Selection Assistance Information', '', 'NSSF\tNetwork Slice Selection Function', '', 'NSSP\tNetwork Slice Selection Policy', '', 'NSSRG\tNetwork Slice Simultaneous Registration Group', '', 'NSWO\tNon-Seamless WLAN offload', '', 'NSWOF\tNon-Seamless WLAN offload Function', '', 'NW-TT\tNetwork-side TSN translator', '', 'NWDAF\tNetwork Data Analytics Function', '', 'ONN\tOnboarding Network', '', 'ON-SNPN\tOnboarding Standalone Non-Public Network', '', 'PCF\tPolicy Control Function', '', 'PDB\tPacket Delay Budget', '', 'PDR\tPacket Detection Rule', '', 'PDU\tProtocol Data Unit', '', 'PDV\tPacket Delay Variation', '', 'PEGC\tPIN Element with Gateway Capability', '', 'PEI\tPermanent Equipment Identifier', '', 'PEMC\tPIN Element with Management Capability', '', 'PER\tPacket Error Rate', '', 'PFD\tPacket Flow Description', '', 'PIN\tPersonal IoT Network', '', 'PINE\tPIN Element', '', 'PLR\tPacket Loss Rate', '', 'PNI-NPN\tPublic Network Integrated Non-Public Network', '', 'PPD\tPaging Policy Differentiation', '', 'PPF\tPaging Proceed Flag', '', 'PPI\tPaging Policy Indicator', '', 'PSA\tPDU Session Anchor', '', 'PSDB\tPDU Set Delay Budget', '', 'PSER\tPDU Set Error Rate', '', 'PSIHI\tPDU Set Integrated Handling Information', '', 'PTP\tPrecision Time Protocol', '', 'PVS\tProvisioning Server', '', 'QFI\tQoS Flow Identifier', '', 'QMC\tQoE Measurement Collection', '', 'QoE\tQuality of Experience', '', 'RACS\tRadio Capabilities Signalling optimisation', '', '(R)AN\t(Radio) Access Network', '', 'RG\tResidential Gateway', '', 'RIM\tRemote Interference Management', '', 'RQA\tReflective QoS Attribute', '', 'RQI\tReflective QoS Indication', '', 'RSN\tRedundancy Sequence Number', '', 'RTT\tRound Trip Time', '', 'SA NR\tStandalone New Radio', '', 'SBA\tService Based Architecture', '', 'SBI\tService Based Interface', '', 'SCP\tService Communication Proxy', '', 'SD\tSlice Differentiator', '', 'SEAF\tSecurity Anchor Functionality', '', 'SEPP\tSecurity Edge Protection Proxy', '', 'SF\tService Function', '', 'SFC\tService Function Chain', '', 'SMF\tSession Management Function', '', 'SMSF\tShort Message Service Function', '', 'SN\tSequence Number', '', 'SNPN\tStand-alone Non-Public Network', '', 'S-NSSAI\tSingle Network Slice Selection Assistance Information', '', 'SO-SNPN\tSubscription Owner Standalone Non-Public Network', '', 'SSC\tSession and Service Continuity', '', 'SSCMSP\tSession and Service Continuity Mode Selection Policy', '', 'SST\tSlice/Service Type', '', 'SUCI\tSubscription Concealed Identifier', '', 'SUPI\tSubscription Permanent Identifier', '', 'SV\tSoftware Version', '', 'TA\tTracking Area', '', 'TAI\tTracking Area Identity', '', 'TNAN\tTrusted Non-3GPP Access Network', '', 'TNAP\tTrusted Non-3GPP Access Point', '', 'TNGF\tTrusted Non-3GPP Gateway Function', '', 'TNL\tTransport Network Layer', '', 'TNLA\tTransport Network Layer Association', '', 'TSC\tTime Sensitive Communication', '', 'TSCAC\tTSC Assistance Container', '', 'TSCAI\tTraffic Assistance Information', '', 'TSCTSF\tTime Sensitive Communication and Time Synchronization Function', '', 'TSN\tTime Sensitive Networking', '', 'TSN GM\tTSN Grand Master', '', 'TSP\tTraffic Steering Policy', '', 'TSS\tTiming Synchronization Status', '', 'TT\tTSN Translator', '', 'TWIF\tTrusted WLAN Interworking Function', '', 'UAS NF\tUncrewed Aerial System Network Function', '', 'UCMF\tUE radio Capability Management Function', '', 'UDM\tUnified Data Management', '', 'UDR\tUnified Data Repository', '', 'UDSF\tUnstructured Data Storage Function', '', 'UL\tUplink', '', 'UL CL\tUplink Classifier', '', 'UPF\tUser Plane Function', '', 'URLLC\tUltra Reliable Low Latency Communication', '', 'URRP-AMF\tUE Reachability Request Parameter for AMF', '', 'URSP\tUE Route Selection Policy', '', 'VID\tVLAN Identifier', '', 'VLAN\tVirtual Local Area Network', '', 'W-5GAN\tWireline 5G Access Network', '', 'W-5GBAN\tWireline BBF Access Network', '', 'W-5GCAN\tWireline 5G Cable Access Network', '', 'W-AGF\tWireline Access Gateway Function', '', '', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;3.1	Terms&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>23558.docx</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.1568222641944885</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>['', 'For the purposes of the present document, the terms given in 3GPP TR\xa021.905\xa0[1] and the following apply. A term defined in the present document takes precedence over the definition of the same term, if any, in 3GPP TR\xa021.905\xa0[1].', '', '&lt;b&gt;Application Context:&lt;/b&gt; A set of data about the Application Client that resides in the Edge Application Server.', '', '&lt;b&gt;Application Context Relocation&lt;/b&gt;: Refers to the end-to-end service continuity procedure described in clause\xa08.8.', '', '&lt;b&gt;Application Context Transfer&lt;/b&gt;: Refers to the transfer of the Application Context between the source Edge Application Server and the target Edge Application Server, which is a part of the service continuity procedure described in clause\xa08.8.', '', '&lt;b&gt;Application Server&lt;/b&gt;: Application software resident in the cloud performing the server function.', '', '&lt;b&gt;Associated EES&lt;/b&gt;: One or multiple EES(s) which support all bundled EAS within the same EDN, and each EES of the associated EES(s) serving all or part of EAS list of the bundle EAS.', '', '&lt;b&gt;Common EAS&lt;/b&gt;: An EAS which can serve a group of UEs using the same application.', '', '&lt;b&gt;Common EES: An EES which has a Common EAS registered with it.&lt;/b&gt;', '', "&lt;b&gt;Edge Computing: &lt;/b&gt;A concept, as described in 3GPP\xa0TS\xa023.501\xa0[2], that enables operator and 3&lt;sup&gt;rd&lt;/sup&gt; party services to be hosted close to the UE's access point of attachment, to achieve an efficient service delivery through the reduced end-to-end latency and load on the transport network.", '', '&lt;b&gt;Edge Computing Service Provider&lt;/b&gt;: A mobile network operator or a 3&lt;sup&gt;rd&lt;/sup&gt; party service provider offering Edge Computing service.', '', '&lt;b&gt;Edge Data Network:&lt;/b&gt; A local Data Network that supports the architecture for enabling edge applications.', '', '&lt;b&gt;EEC Context:&lt;/b&gt; A set of data about the Edge Enabler Client that resides in the Edge Enabler Server.', '', '&lt;b&gt;Edge Enabler Layer: &lt;/b&gt;Refers to the overall functionality provided by the entities such as Edge Enabler Client, Edge Enabler Server, Edge Configuration Server and Cloud Enabler Server, in support of applications as per the architecture defined in clause\xa06.', '', "&lt;b&gt;Edge Hosting Environment: &lt;/b&gt;An environment providing support required for Edge Application Server's execution.", '', '&lt;b&gt;Instantiable EAS: &lt;/b&gt;EAS type for which the instantiation trigger from the Edge Enabler Layer is considered by the ECSP management system for instantiating EAS.', '', '&lt;b&gt;Main EAS:&lt;/b&gt; An EAS in EAS bundle taking the role of controlling the ACR for EAS bundle in network side decided ACR scenario.', '', '&lt;b&gt;Partner ECS: &lt;/b&gt;Refers to an ECS deployed by a partner ECSP.', '', '&lt;b&gt;Partner ECSP: &lt;/b&gt;An ECSP with whom there is a service level agreement for resource sharing for roaming or federation or both.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.31.8	High latency communication&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.0854230523109436</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>['', 'Functions for High latency communication may be used to handle mobile terminated (MT) communication with UEs being unreachable while using power saving functions as specified in clause\xa05.31.7 or due to discontinuous coverage as described in clause\xa05.4.13. "High latency" refers to the initial response time before normal exchange of packets is established. That is, the time it takes before a UE has woken up from its power saving state and responded to an initial downlink packet or signal.', '', 'When a NR RedCap UE requests to use the power saving functions as specified in clause\xa05.31.7, then the AMF may, based on local policy, reroute the Registration Request to another AMF that supports High latency communication as specified in clause\xa06.3.5.', '', 'High latency communication is supported by extended buffering of downlink data in the UPF, SMF or NEF when a UE is using power saving functions in CM-IDLE state or in RRC_INACTIVE state, or when the UE is using a satellite access with discontinuous coverage and the UE is not reachable. For UPF anchored PDU sessions the SMF configures during AN release or when NG-RAN indicates via the AMF the UE is in extended DRX for RRC_INACTIVE, the UPF with user data Forwarding Action Rule and user data Buffering Action Rule according to TS\xa029.244\xa0[65]. The rules include instructions whether UPF buffering applies or the user data shall be forwarded to the SMF for buffering in the SMF. For NEF anchored PDU sessions only extended buffering in the NEF is supported in this release of the specification. During the Network Triggered Service Request procedure or Mobile Terminated Data Transport procedures when using Control Plane CIoT 5GS Optimisation, the AMF provides an Estimated Maximum Wait Time to the SMF if the SMF indicates the support of extended buffering. The SMF determines the Extended Buffering Time based on the received Estimated Maximum Wait Time or local configuration. The handling is e.g. specified in the Network Triggered Service Request procedure, clauses\xa04.2.3.3, 4.2.6, 4.24.2 and 4.25.5 of TS\xa023.502\xa0[3].', '', 'High latency communication is also supported through notification procedures. The following procedures are available based on different monitoring events:', '', '-\tUE Reachability;', '', '-\tAvailability after DDN failure;', '', '-\tDownlink Data Delivery Status.', '', 'An AF may request a one-time "UE Reachability" notification when it wants to send data to a UE which is using a power saving function (see event subscription procedure in clause\xa04.15.3.2 of TS\xa023.502\xa0[3]). The SCS/AS/AF then waits with sending the data until it gets a notification that the UE is reachable (see notification procedures in TS\xa023.502\xa0[3]).', '', 'An AF may request repeated "Availability after DDN failure" notifications where each UE reachability notification is triggered by a preceding DDN failure, i.e. the AF sends a downlink packet to request a UE reachability notification when the UE becomes reachable. That downlink packet is discarded by the UPF or SMF or NEF (see notification procedures in TS\xa023.502\xa0[3]).', '', 'An AF may request repeated "Downlink Data Delivery Status" notifications when it wants indications that DL data has been buffered or when buffered DL data has been delivered to the UE.', '', 'If MICO mode or extended idle mode DRX is enabled, Idle Status Indication allows the AF to determine when the UE transitions into idle mode. When requesting to be informed of either "UE Reachability" or "Availability after DDN failure" notification, the AF may also request Idle Status Indication. If the UDM and the AMF support Idle Status Indication, then when the UE for which MICO mode or extended idle mode DRX is enabled transitions into idle mode, the AMF includes in the notification towards the NEF the time at which the UE transitioned into idle mode, the active time and the periodic registration update timer granted to the UE by the AMF, the eDRX cycle length and the Suggested number of downlink packets if a value was provided to the SMF.', '', 'An AF may provide parameters related to High latency communication for different methods to UDM, via NEF, as part of provisioning capability as specified in clause\xa05.20. The UDM can further deliver the parameters to other NFs (e.g. AMF or SMF) as specified in clause\xa04.15.6 of TS\xa023.502\xa0[3].', '', "If the AMF is aware that some signalling or data is pending in the network for an UE that is known as being unreachable for a long duration, e.g. for UE's having extended idle mode DRX, extended DRX for RRC_INACTIVE or MICO enabled, the AMF maintains the N2 connection for at least the Extended Connected Time and provides the Extended Connected Time value in a NG-AP message to the RAN. The Extended Connected Time value indicates the minimum time the RAN should keep the UE in RRC_CONNECTED state regardless of inactivity. At inter-RAN node handovers, if some signalling or data are still pending, the target AMF may send the Extended Connected Time value to the target RAN node.", '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.43.4	Reporting of satellite backhaul to SMF&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.1320663094520569</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>['', 'If the AMF is aware that a satellite backhaul is used towards 5G AN, the AMF may report this to SMF as part of the PDU Session establishment procedure as described in clause\xa04.3.2 of TS\xa023.502\xa0[3]. If AMF is aware that satellite backhaul category changes (e.g. at handover), the AMF reports the current Satellite backhaul category to SMF. The SMF reports it to the PCF when the "Satellite backhaul category change" PCRT was armed as specified in TS\xa023.503\xa0[45], or notifies it to other NFs if requested as described in clause\xa05.2.8.3 of TS\xa023.502\xa0[3]. When the backhaul network changes from a type of satellite to terrestrial network, the AMF reports that non-satellite backhaul network is used with the Satellite backhaul category.', '', 'Satellite backhaul category refers to the type of the satellite (i.e. GEO, MEO, LEO or OTHERSAT, DYNAMIC_GEO, DYNAMIC_MEO, DYNAMIC_LEO, and DYNAMIC_OTHERSAT) used in the backhaul as specified in clause\xa05.4.3.39 of TS\xa029.571\xa0[183]. The dynamic satellite backhaul category (i.e. DYNAMIC_GEO, DYNAMIC_MEO, DYNAMIC_LEO, and DYNAMIC_OTHERSAT) refers that i.e. capabilities (latency and/or bandwidth) of the satellite backhaul change over time due to e.g. use of varying inter-satellite links as part of backhaul. Only a single backhaul category can be indicated.', '', 'NOTE:\tIt is assumed that the AMF can determine the Satellite backhaul category for the notification to the SMF based on local configuration, e.g. based on Global RAN Node IDs associated with satellite backhaul.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.31.7.5	MICO mode and Periodic Registration Timer Control&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.1159537434577942</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>['', 'If the Expected UE Behaviour indicates the absence of DL communication, the AMF may allow MICO mode for the UE and allocate a large periodic registration timer value based on e.g. Network Configuration parameters to the UE so that the UE can maximise power saving between Periodic Registration Updates.', '', 'If the Expected UE Behaviour indicates scheduled DL communication the AMF should allow MICO mode for the UE and allocate a periodic registration timer value such that the UE performs Periodic Registration Update to renegotiate MICO mode before or at the scheduled DL communication time, if the AMF decides to allow MICO mode for the UE. When UE requests the MICO mode with active time, the UE may also request a periodic registration timer value suitable for the latency/responsiveness of the DL communication service known to UE. If the UE wants to change the periodic registration timer value, e.g. when the conditions are changed in the UE, the UE consequently requests the value it wants in the registration procedure. The AMF takes the UE requested periodic registration time value into consideration when providing the periodic registration timer to UE during Registration procedure as specified in clause\xa04.2.2.2.2 of TS\xa023.502\xa0[3].', '', "If the UE supports 'Strictly Periodic Registration Timer Indication', the UE indicates its capability of supporting 'Strictly Periodic Registration Timer Indication' in the Registration Request message. If the UE indicates its support of 'Strictly Periodic Registration Timer Indication' in the Registration Request message, the AMF may provide a Strictly Periodic Registration Timer Indication to the UE together with the periodic registration timer value, e.g. based on Expected UE Behaviour. If the indication is provided by the AMF, the UE and the AMF shall start the periodic registration timer after completion of the Registration procedure. The UE and the AMF shall neither stop nor restart the periodic registration timer when the UE enters CM-CONNECTED, and shall keep it running while in CM-CONNECTED state and after returning to CM-IDLE state. If and only when the timer expires and the UE is in CM-IDLE, the UE shall perform a Periodic Registration Update. If the timer expires and the UE is in CM-CONNECTED state, the AMF and the UE restart the periodic registration timer while still applying 'Strictly Periodic Registration Timer Indication'. The AMF may use the UE Configuration Update procedure to trigger the UE to perform Registration procedure, in which the periodic registration timer value and 'Strictly Periodic Registration Timer Indication' can be renegotiated.", '', "When the UE and the AMF locally disable MICO mode (e.g. when an emergency service is initiated), the UE and the AMF shall not apply 'Strictly Periodic Registration Timer Indication'.", '', 'If the periodic registration timer is renegotiated during a Registration procedure, e.g. triggered by UE Configuration Update, and if the periodic registration timer is running, then the periodic registration timer is stopped and restarted using the renegotiated value even when the Strictly Periodic Registration Timer Indication was provided to the UE.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.3.3.3	Selection of an UPF for a particular PDU Session&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.1566596627235413</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>['', 'If there is an existing PDU Session, and the SMF receives another PDU Session request to the same DNN and S-NSSAI, and if the SMF determines that interworking with EPC is supported for this PDU Session as specified in clause\xa04.11.5 of TS\xa023.502\xa0[3], the SMF should select the same UPF, otherwise, if the SMF determines that interworking with EPC is not supported for the new PDU Session, a different UPF may be selected.', '', 'For the same DNN and S-NSSAI if different UPF are selected at 5GC, when the UE is moved to EPC network, there is no requirement to enforce APN-AMBR. Whether and how to apply APN-AMBR for the PDN Connection associated with this DNN/APN is implementation dependent, e.g. possibly only AMBR enforcement per PDU Session applies.', '', 'The following parameter(s) and information may be considered by the SMF for UPF selection and re-selection:', '', "-\tUPF's dynamic load.", '', '-\tAnalytics (i.e. statistics or predictions) for UPF load, Service Experience analytics and/or DN Performance analytics per UP path (including UPF and/or DNAI and/or AS instance) and UE related analytics (UE mobility, UE communication, and expected UE behavioural parameters) as received from NWDAF (see TS\xa023.288\xa0[86]), if NWDAF is deployed.', '', "-\tUPF's relative static capacity among UPFs supporting the same DNN.", '', '-\tUPF location available at the SMF.', '', '-\tUE location information.', '', '-\tCapability of the UPF and the functionality required for the particular UE session: An appropriate UPF can be selected by matching the functionality and features required for an UE.', '', '-\tData Network Name (DNN).', '', '-\tPDU Session Type (i.e. IPv4, IPv6, IPv4v6, Ethernet Type or Unstructured Type) and if applicable, the static IP address/prefix.', '', '-\tSSC mode selected for the PDU Session.', '', '-\tUE subscription profile in UDM.', '', '-\tDNAI as included in the PCC Rules and described in clause\xa05.6.7.', '', '-\tLocal operator policies.', '', '-\tS-NSSAI.', '', '-\tAccess technology being used by the UE.', '', '-\tInformation related to user plane topology and user plane terminations, that may be deduced from:', '', '-\t5G-AN-provided identities (e.g. CellID, TAI), available UPF(s) and DNAI(s);', '', '-\tIdentifiers (i.e. a FQDN and/or IP address(es)) of N3 terminations provided by a W-AGF or a TNGF or a TWIF;', '', '-\tInformation regarding the user plane interfaces of UPF(s). This information may be acquired by the SMF using N4;', '', '-\tInformation regarding the N3 User Plane termination(s) of the AN serving the UE. This may be deduced from 5G-AN-provided identities (e.g. CellID, TAI);', '', '-\tInformation regarding the N9 User Plane termination(s) of UPF(s) if needed;', '', '-\tInformation regarding the User plane termination(s) corresponding to DNAI(s).', '', '-\tRSN, support for redundant GTP-U path or support for redundant transport path in the transport layer (as in clause\xa05.33.2) when redundant UP handling is applicable.', '', '-\tInformation regarding the ATSSS Steering Capability of the UE session (e.g. any combination of ATSSS-LL capability, MPTCP capability, MPQUIC capability) and information on the UPF support of RTT measurements without PMF.', '', '-\tSupport for UPF allocation of IP address/prefix.', '', '-\tSupport of the IPUPS functionality, specified in clause\xa05.8.2.14.', '', '-\tSupport for High latency communication (see clause\xa05.31.8).', '', '-\tSupport for functionality associated with high data rate low latency services, eXtended Reality (XR) and interactive media services, specified in clause\xa05.37 (for example, ECN marking for L4S, specified in clause\xa05.37.3, PDU Set Marking, specified in clause\xa05.37.5, UE power saving management, specified in clause\xa05.37.8).', '', '-\tUser Plane Latency Requirements within AF request (see clause\xa05.6.7.1 and clause\xa06.3.6 of TS\xa023.548\xa0[130]).', '', '-\tList of supported Event ID(s) for exposure of UPF-related information via service based interface (see clause\xa07.2.29 and clause\xa05.2.26.2 of TS\xa023.502\xa0[3]).', '', 'NOTE\xa01:\tHow the SMF determines information about the user plane network topology from information listed above, and what information is considered by the SMF, is based on operator configuration.', '', 'NOTE\xa02:\tIn this release the SMF uses no additional parameters for UPF selection for a PDU Session serving TSC or Deterministic Networking. If a PDU Session needs to connect to a specific UPF hosting a specific TSN 5GS bridge or 5GS router, this can be achieved e.g. by using a dedicated DNN/S-NSSAI combination.', '', 'A W-AGF or a TNGF may provide Identifiers of its N3 terminations when forwarding over N2 uplink NAS signalling to the 5GC. The AMF may relay this information to the SMF, as part of session management signalling for a new PDU Session.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.2.1	General&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>23548.docx</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.1536793112754822</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>['', 'In Edge Computing deployment, an application service may be served by multiple Edge Application Servers typically deployed in different sites. These multiple Edge Application Servers that host service may use a single IP address (anycast address) or different IP addresses. To start such a service, the UE needs to know the IP address(es) of the Application Server(s) serving the service. The UE may do a discovery to get the IP address(es) of a suitable Edge Application Server (e.g. the closest one), so that the traffic can be locally routed to the Edge Application Server and service latency, traffic routing path and user service experience can be optimized.', '', 'EAS discovery is the procedure by which a UE discovers the IP address(es) of a suitable Edge Application Server(s) using Domain Name System (DNS). EAS Re-discovery is the EAS Discovery procedure that takes place when the previously discovered Edge Application Server cannot be used or may have become non-optimal (e.g. at edge relocation).', '', 'The DNS server to be used for EAS (re-)discovery may be deployed in different locations in the network as Central DNS (C-DNS) server or as Local DNS (L-DNS) resolver/server.', '', 'NOTE\xa01:\tThe C-DNS servers and/or L-DNS resolvers/servers can use an anycast address.', '', 'NOTE\xa02:\tThe C-DNS servers or L-DNS resolvers/servers can contact any other DNS servers for recursive queries, which is out of scope of this specification.', '', "NOTE\xa03:\tThis specification describes the discovery procedure based on 5GS NFs as to ensure the UE is served by the application service closest to the UE's point of attachment. However, this does not exclude other upper layer solution that can be adopted by operator or service provider, like the EAS Discovery procedure defined in TS\xa023.558\xa0[5], or other alternatives shown in Annex A and Annex B. How those other solutions work, or whether they are able to guarantee the closest application service for the UE, is out of the scope of this specification.", '', 'In order to provide a translation of the FQDN of an EAS into the address of an EAS as topologically close as possible to the UE, the Domain Name System may use following information:', '', '-\tThe source IP address of the incoming DNS Query; and/or,', '', '-\tan EDNS Client Subnet (ECS) option (as defined in RFC 7871\xa0[6]).', '', 'NOTE\xa04:\tUE IP address can be subject to privacy restrictions, which means that it is not to be sent to Authoritative DNS / DNS Resolvers outside the network operator within EDNS Client Subnet option or as Source IP address of the DNS Query. UE source IP address can be protected by using NAT mechanism.', '', 'EAS (re-)discovery procedures described in this specification should use the top level domains (TLDs) in the public namespace by default. ', '', 'If a private namespace is used, an Edge Computing Service Provider (ECSP) can provision DNS information in the EAS Deployment information via AF request with its Application Identifier, or DNN and NSSAI. Since private namespaces do not have a common root server or naming, the DNS information for each ECSP should be stored individually to prevent any overwriting of resolution entries.', '', 'NOTE\xa05:\tThe DNS information provided by ECSP in the EAS Deployment Information can be used to select the DNS settings for a PDU Session mainly if the PDU Session is specific for the ECSP services.', '', 'If the UE applications want to discover/access EAS by using the mechanisms defined in this TS, the UE shall support receiving DNS settings in PCO during PDU Session Establishment and PDU Session Modification, and the DNS Queries generated by the UE for these applications shall be sent to the DNS server/resolver (e.g. EASDF) indicated by the SMF. To ensure this, the application in the UE either requests the EDC functionality to send a DNS Query or, alternatively, uses the EDC functionality to get the configuration of the DNS Server (IP address and, conditionally, DNS security information of the EASDF/DNS resolver; see TS\xa024.501\xa0[11] and TS\xa033.501\xa0[12]) indicated by the SMF (see clauses 5.2.1 and 6.2.4) then resolves the FQDN by its own DNS mechanism.', '', 'NOTE\xa06:\tIt is the decision of the application in the UE whether to use the EDC functionality or not to resolve the FQDN. If it does not use the EDC functionality, the usage of the EAS (re-)discovery procedures defined in clause\xa06.2 cannot be ensured.', '', 'The case of EAS (Re-)discovery over Distributed Anchor connectivity model is described in clause 6.2.2. For Multiple PDU Sessions connectivity model, the description in clause 6.2.2 also applies to the PDU Session(s) with Local PSA. The case of EAS (Re-)discovery over Session Breakout connectivity model is described in clause 6.2.3.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.6.1	QoS handling for 5G ProSe Direct Communication&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>23304.docx</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.1274756789207458</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>['', 'In order to support QoS handling for 5G ProSe Direct Communication, the mechanism defined in clause\xa05.4 of TS\xa023.287\xa0[2] is reused with the following differences:', '', '-\tOnly NR PC5 QoS model is used.', '', '-\tPC5 Packet Filter Set supports three types of packet filters, i.e. the Prose IP Packet Filter Set, ProSe Ethernet Packet Filter Set and the Prose Packet Filter Set. Each PC5 QoS Rule additionally contains the ProSe identifier when the ProSe identifier is not included in the PC5 Packet Filter Set.', '', '-\tV2X IP Packet Filter Set is replaced by ProSe IP Packet Filter Set.', '', '-\tV2X Packet Filter Set is replaced by ProSe Packet Filter Set. ProSe Packet Filter Set shall support Packet Filters based on at least any combination of:', '', '-\tProSe identifier;', '', '-\tSource/Destination Layer-2 ID;', '', '-\tApplication Layer ID.', '', '-\tProSe Ethernet Packet Filter Set that has the same format as the Ethernet Packet Filter Set defined in clause\xa05.7.6.3 of TS\xa023.501\xa0[4] is additionally defined.', '', '-\tV2X application layer is replaced by ProSe application layer.', '', '-\tV2X layer is replaced by ProSe layer.', '', '-\tV2X service type is replaced by ProSe identifier.', '', '-\tUE-PC5-AMBR is only applied for NR PC5.', '', '-\tThe PQI values are additionally defined. The one-to-one mapping of standardized PQI values that are additionally defined to PC5 QoS characteristics is specified in table\xa05.6.1-1.', '', 'Table 5.6.1-1: Standardized PQI values that are additionally defined to QoS characteristics mapping', '', 'PQI', '', 'Value', '', 'Resource Type', '', 'Default Priority Level', '', 'Packet Delay Budget', '', 'Packet Error', '', 'Rate ', '', 'Default Maximum Data Burst Volume', '', 'Default', '', 'Averaging Window', '', 'Example Services', '', '24', '', 'GBR', '', '(NOTE\xa01)', '', '1', '', '150 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-2&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Mission Critical user plane Push To Talk voice (e.g. MCPTT)', '', '25', '', '', '', '2', '', '200 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-2&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Non-Mission-Critical user plane Push To Talk voice, Conversational Voice', '', '26', '', '', '', '2', '', '200 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-3&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Mission Critical Video user plane', '', '32', '', '', '', '4', '', '300 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-3&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Conversational Video (Live Streaming)', '', '33', '', '', '', '3', '', '100 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-3&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Real Time Gaming, Process automation monitoring', '', '34', '', '', '', '5', '', '600 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Non-Conversational Video (Buffered Streaming)', '', '60', '', 'Non-GBR', '', '1', '', '120 ms', '', '', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Mission Critical delay sensitive signalling (e.g. MC-PTT signalling)', '', '61', '', '', '', '6', '', '400 ms', '', '', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Mission Critical Data (e.g. example services are the same as 5QI 6/8/9 as specified in TS\xa023.501\xa0[4])', '', '70', '', '', '', '7', '', '200 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-3&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Voice,', '', 'Video (Live Streaming)', '', 'Interactive Gaming', '', '71', '', '', '', '7', '', '20 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Low Latency eMBB applications Augmented Reality', '', '92', '', 'Delay Critical GBR', '', '(NOTE\xa01)', '', '5', '', '5ms', '', '', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-4&lt;/sup&gt;&lt;/span&gt;', '', '20000 bytes', '', '2000 ms', '', 'Interactive service - consume VR content with high compression rate via tethered VR headset (See TS\xa022.261\xa0[6])', '', '93', '', '', '', '6', '', '10ms', '', '', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-4&lt;/sup&gt;&lt;/span&gt;', '', '20000 bytes', '', '2000 ms', '', 'interactive service - consume VR content with low compression rate via tethered VR headset;', '', 'Gaming or Interactive Data Exchanging (See TS\xa022.261\xa0[6])', '', 'NOTE\xa01:\tGBR and Delay Critical GBR PQIs can only be used for unicast PC5 communications.', '', '', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;7.3.3.13.2	FEC encoding by the MBSTF&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>23289.docx</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.1381157040596008</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>['', 'In this procedure, depicted in figure\xa07.3.3.13.2-1, the MC service server asks the MBSF/MBSTF to apply FEC to a set of media, transported by a 5G MBS session, using the Setup FEC request.', '', 'This procedure can be applied when using pre-created MBS session and session announcement (as specified in clause\xa07.3.3.1.2) or using MBS session and session announcement (as specified in clause\xa07.3.3.1.3).', '', 'Pre-condition:', '', '1.\tThe MC service server has already configured and activated a 5G MBS session.', '', '----media/image57.emf----', '', 'Figure\xa07.3.3.13.2-1: Application of FEC by the MBSF-MBSTF', '', '1.\tThe MC service server decides to set up FEC for a set of MC service media flows. It will send the FEC request to MBSF/MBSTF.', '', 'It includes the following elements: the MBS session ID of the MBS session transporting those media, the media descriptions (codecs, transport protocols, bitrates, destination IP addresses and ports), the identification of the FEC repair packet flow (IP destination and port), and an upper bound to the additional latency resulting due to FEC application. The MC Service server may perform this request several times to protect separately different sets of media transported within the same 5G MBS session.', '', '2.\tIf the MBSF can satisfy the request, the Setup FEC response includes a modified list of media information and FEC information. The response also includes an identifier of the corresponding FEC process instance, which can be used to release the application of FEC for these media flows.', '', 'NOTE\xa01:\tSource media packets may be modified by the application of FEC (e.g., addition of a footer or header), leading to a modification of the delivery protocol to be announced within the media information.', '', 'NOTE\xa02:\tThe Release FEC request is not shown in the figure.', '', '3.\tThe MC service server announces the 5G MBS session to the MC service client with the MBS session announcement procedure, including the modified list of media information and FEC information within the SDP information.', '', '4.\tWhen the MC service server decides to transmit the MC service media flow for a group communication, the MC service server sends to the group a message identifying the MC service media flow and the MBS session ID, such as the MapGroupToSessionStream message for MCPTT or MCVideo.', '', '5.\tThe MC service server sends the downlink media to the MBSTF over Nmb8.', '', '6.\tThe MBSTF performs FEC encoding of the downlink media in accordance with the announced FEC algorithm and parameters and delivers it over 5G MBS.', '', '7.\tThe MC service client performs FEC decoding of the encoded media flows in accordance with the announced FEC information and delivers the decoded flows to the media player.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.37.3.1	General&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.1034114956855774</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>['', 'L4S (Low Latency, Low Loss and Scalable Throughput) is described in IETF\xa0RFC\xa09330\xa0[159], IETF\xa0RFC\xa09331\xa0[160] and IETF\xa0RFC\xa09332\xa0[161]. It exposes congestion information by marking ECN bits in the IP header of the user IP packets between the UE and the application server to trigger application layer rate adaptation.', '', 'In 5G System, ECN marking for L4S may be supported. ECN marking for L4S is enabled on a per QoS Flow basis in the uplink and/or downlink direction and may be used for GBR and non-GBR QoS Flows. ECN marking for the L4S in the IP header is supported in either the NG-RAN (see clause\xa05.37.3.2 and TS\xa038.300\xa0[27]), or in the PSA UPF (see clause\xa05.37.3.3).', '', "NOTE\xa01:\tBased on operator's network configuration and policies, SMF decides whether NG-RAN or PSA UPF based ECN marking for L4S is used.", '', 'In the case of ECN marking for L4S by PSA UPF, the NG-RAN is instructed to perform congestion information monitoring and report to the PSA UPF the congestion information (i.e. a percentage of packets that UPF uses for ECN marking for L4S) of the QoS Flow on UL and/or DL directions via GTP-U header extension to PSA UPF and accordingly, the PSA UPF may mark the UL and/or DL direction packets of the QoS Flow.', '', 'NOTE\xa02:\tAs for any QoS Flow, QoS rules in the UE and PDRs in the PSA UPF control which packets are bound to the L4S enabled QoS flow. The Packet Filter Set in the QoS rule or PDR can use packet filter(s) in clause\xa05.7.6.2 (e.g. match packets with ECT(1) or CE (See RFC\xa09331\xa0[160]) together with IP 5 tuple) to steer traffic to an L4S enabled QoS Flow.', '', 'NOTE\xa03:\tA QoS Flow may be enabled with ECN marking for L4S requirement e.g. statically when a PDU session is established based on configuration in SMF or PCF, or dynamically based on detection of the L4S traffic (e.g. match packets with ECT(1) or CE (See RFC\xa09331\xa0[160]) together with IP 5 tuple) in the IP header whereby SMF or PCF triggers a setup of a QoS Flow enabled for L4S, or by requests by an AF.', '', 'NOTE\xa04:\tTo support this functionality, the UE needs to support L4S feedback as described in IETF\xa0RFC\xa09330\xa0[159], which is not in the scope of 3GPP.', '', 'When serving PSA UPF or NG-RAN is changed e.g. due to inter-NG-RAN handover or PSA UPF relocation, target NG-RAN and target PSA UPF, if supported, should continue to perform ECN marking for L4S for the QoS Flow. However, if not available (i.e. ECN marking for L4S is not supported in both, target NG-RAN and target PSA UPF), AF should be notified that ECN marking for L4S can no longer be performed if ECN marking for L4S had been enabled for the QoS Flow based on AF request. When ECN marking for L4S is supported again either in target NG-RAN or in target PSA UPF, AF should be notified that ECN marking for L4S can be performed again if ECN marking for L4S had been enabled for the QoS Flow based on AF request.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;5.1	LMF Discovery and Selection&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>23273.docx</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.1344116926193237</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>['', 'LMF selection functionality is supported by the AMF to determine an LMF for location estimation of the target UE or Ranging/Sidelink Positioning between Target UE and SL Reference UE. The LMF selection functionality is also supported by the LMF if it determines that it is unsuitable or unable to support location for the current UE access network or serving cell for the deferred 5GC-MT-LR procedure for periodic, triggered location events, or Modification of User Plane Connection. The LMF selection functionality may also be supported by the GMLC and the GMLC provides the selected LMF ID to AMF.', '', 'LMF reselection is a functionality supported by AMF when necessary, e.g. due to UE mobility.', '', 'The LMF selection/reselection may be performed at the AMF or LMF or GMLC based on the locally available information i.e. LMF profiles are configured locally at AMF or LMF or GMLC, or by querying NRF.', '', 'The following factors may be considered during the LMF selection:', '', '-\tLCS client type.', '', '-\tRequested Quality of Service information, e.g.:', '', '-\tLCS accuracy,', '', '-\tResponse time (latency),', '', '-\tAccess Type (3GPP /N3GPP).', '', 'NOTE\xa01:\tLocation methods may differ depending on the Access Type, e.g. in the case of WLAN Access Location determination may just correspond to retrieval of IP addressing information from the N3IWF/TNGF; As another example, for Wireline access, Location determination may just correspond to retrieval of geo coordinates corresponding to a GLI as defined in clause\xa04.7.8 of TS\xa023.316\xa0[21] or a HFC Node ID.', '', '-\tRAT type (e.g. 5G NR, eLTE, or any of the RAT Types specified for NR satellite access) and/or the serving AN node (i.e. gNB or NG-eNB) of the target UE.', '', '-\tRAN configuration information.', '', '-\tLMF capabilities, including:', '', '-\tthe support of Uu based positioning as defined in clause\xa04.3.8;', '', '-\tRanging/Sidelink positioning as defined in clause\xa04.3.8 of TS\xa023.586\xa0[40];', '', '-\tLMF user plane positioning capabilities (the capability to support LCS-UPP).', '', '-\tLMF load.', '', '-\tLMF location.', '', '-\tIndication of either a single event report or multiple event reports.', '', '-\tDuration of event reporting.', '', '-\tNetwork slicing information, e.g. S-NSSAI and/or NSI ID.', '', '-\tLMF Service Area consisting of one or more TA(s).', '', '-\tSupported GAD shapes.', '', '-\tSupport LCS when MBSR is involved.', '', '-\tRequested UE has maintained user plane connection with certain LMFs.', '', 'When receiving a NAS message from UE, including an LMF ID together with a LPP message (refer to step\xa025 in clause\xa06.3.1 for event reporting for a deferred 5GC-MT-LR), AMF sends the LPP message to the LMF, as indicated by the LMF ID.', '', 'NOTE\xa02:\tDescription on how UE encapsulates the LMF ID in the NAS message is documented in TS\xa024.571\xa0[36].', '', 'UDM may store the LMF ID in UE subscription data. During the location procedure, GMLC received the LMF ID from the UDM and provides it to AMF.', '', 'GMLC may be configured with the following parameters:', '', '-\tLMF ID and/or', '', '-\tper group ID and its correlating LMF ID.', '', 'The AMF may use locally provisioned configuration to determine LMF based on UE identify or its group information.', '', 'NOTE\xa03:\tIt is AMF implementation specific for the priority of different selection criteria from GMLC, AMF and LMF.', '', 'When the GMLC receives a MT location request from LCS client/AF, GMLC determines the LMF ID based on the configured parameters for an LCS Client/AF. In case a group ID is provided or derived from the location request, GMLC determines the correlating LMF ID based on the provisioned group ID.', '', 'GMLC may have configuration with one or several dedicated LMF ID(s), irrelevant to any LCS client/AF. When the GMLC receives a MT location request from LCS client/AF, GMLC only determines the LMF ID within the configuration for all LCS client/AF.', '', "NOTE\xa04:\tWhen AMF can't access the LMF instance of the LMF ID, by default, AMF replies to corresponding error to GMLC. GMLC could retry or fail the request accordingly; with explicit configuration to serve as backup selection in this, AMF can also select different configured LMF instance.", '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;7.2.5.1	General&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>23247.docx</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.1296044588088989</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>['', 'MBS Session activation procedure is for multicast only. MBS Session activation procedure is triggered by MB-SMF, when it receives the notification from MB-UPF for the downlink MBS DL data, or when it receives the request directly from AF or via NEF. The MBS Session activation procedure is used for activating the resources for MBS data at NG-RAN node. The multicast session state transits from Inactive to Active after MBS Session activation procedure, see clause\xa04.3.', '', 'MBS Session deactivation procedure is for multicast only. MBS Session deactivation procedure is triggered by MB-SMF, when it receives the notification from MB-UPF in the case that there is no downlink data to be transmitted for some duration, or when it receives the request directly from AF or via NEF. The MBS Session deactivation procedure is used for deactivating the resources for MBS data at NG-RAN node. The multicast session state transits from Active to Inactive after MBS Session deactivation procedure, see clause\xa04.3.', '', "NOTE:\tFor services (e.g. Mission Critical service) that require low latency and zero packet loss even for the first downlink packet(s), periodic keep-alive packets during interruptions of media transmission (e.g. Floor Idle as specified in TS\xa023.379\xa0[27], referenced by TS\xa023.289\xa0[21]), which are sent over user plane of an MBS session, can be used in order to prevent a deactivation of the MBS session based on MB-UPF notifications and to keep UEs within the MBS session in a state where they can receive the MBS session data without being paged. It is up to implementation that the periodicity of the keep-alive packets configured in the AF needs to consider NG-RAN's configuration.", '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;3.14.10	Maximum-Latency&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>23008.docx</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.09529358148574829</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>['', 'Maximum Latency is defined in 3GPP\xa0TS\xa029.336\xa0[103].', '', 'Maximum Latency contains the maximum acceptable delay time for downlink data transfer.', '', 'Maximum Latency is permanent data conditionaly stored in the SCEFand HSS.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;8.5.2.2	Request-response model&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>23558.docx</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.1638450026512146</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>['', 'Pre-conditions:', '', '1.\tThe EEC has received information (e.g. URI, IP address) related to the EES;', '', '2.\tThe EEC has received appropriate security credentials authorizing it to communicate with the EES as specified in clause\xa08.11; and', '', "3.\tThe EES is configured with ECSP's policy for EAS discovery.", '', "NOTE 1:\tDetails of ECSP's policy are out of scope.", '', '----media/image31.emf----', '', 'Figure\xa08.5.2.2-1: EAS Discovery procedure', '', "1.\tThe EEC sends an EAS discovery request to the EES. The EAS discovery request includes the requestor identifier [EECID] along with the security credentials and may include EAS discovery filters, EEC service continuity support, and may also include UE location to retrieve information about particular EAS(s) or a category of EASs, e.g. gaming applications, or Edge Applications Server(s) available in certain service areas, e.g. available on a UE's predicted or expected route. The request may include an EAS selection request indicator.", '', "2.\tUpon receiving the request from the EEC, the EES checks if the EEC is authorized to discover the requested EAS(s). The authorization check may apply to an individual EAS, a category of EASs or to the EDN, i.e. to all the EASs. If UE's location information is not already available, the EES obtains the UE location by utilizing the capabilities of the 3GPP core network as specified in clause\xa08.10.3. If EAS discovery filters are provided by the EEC, but it does not contain Application group profile, the EES identifies the EAS(s) based on the provided EAS discovery filters and the UE location. ", '', 'When the bundle EAS information is provided, then;', '', '-\tIf bundle EAS information includes EAS bundle identifier, the EES identifies all or part of the EAS(s) associated with the same EAS bundle identifier.', '', '-\tIf bundle EAS information includes a list of EASIDs, the EES identifies the EASs which are all or part of the EAS bundle.', '', "If the EEC indicates that service continuity support is required, when identifying the EAS, the EES shall take the indication which ACR scenarios are supported by the AC, the EEC, the EES and the EAS and which of these are preferred by the AC into consideration. The EES may select one EAS and determine whether to perform application traffic influence for this AC based on AC's service KPI or EAS’s service KPI in desired response time, when the EAS does not perform traffic influence in advance.", '', 'If the Prediction expiration time is provided then the EES may determine whether to identify the instantiable but not instantiated EAS as T-EAS based on Prediction expiration time and the predicted EAS deployment time information obtained from ADAES.', '', "Editor's Note: Whether and how the EES can obtain the EAS deployment time (e.g., from ADAES) is FFS", '', '\tWhen EAS discovery filters are not provided, then:', '', '-\tif available, the EES identifies the EAS(s) based on the UE-specific service information at the EES and the UE location;', '', '-\tEES identifies the EAS(s) by applying the ECSP policy (e.g. based only on the UE location);', '', 'When EAS discovery filters contain Application group profile, the EES checks whether information about common EAS and related Application Group ID is available or not. If the common EAS information related to the Application Group ID is:', '', '-\tnot available, then based on the policy if EES needs to select the common EAS, the EES identifies an EAS for the Application Group ID based on the provided EAS discovery filters such as KPIs, UE-specific service information or the ECSP policy. Furthermore, the EES stores the common EAS information and related Application Group ID. ', '', '-\tavailable at the EES, then the EES provides information of that EAS as result for EAS discovery. ', '', 'NOTE 2:\tThe EES may have previously determined and stored the common EAS for Application group ID, or the EES may have received the common EAS selection information for Application group ID during the common EAS announcement procedure. ', '', 'When the ECS-ER is not available and the EES selects the common EAS, the selected common EAS shall be announced to other EES(s) as per procedure specified in clause 8.19.', '', 'When the ECS-ER is available and common EAS information corresponding to the Application Group ID is not available, then the EES identifies one EAS for the group and interacts with the ECS-ER to store the common EAS information as described in clause 8.20.2.3. If common EAS information is already available corresponding to the Application Group ID in the repository, then the ECS-ER returns the common EAS information to the EES as described in clause 8.20.2.3.', '', 'NOTE 3:\tDetails of the UE-specific service information and how it is available at the EES is out of scope.', '', 'NOTE 4:\tBoth steps are evaluated prior to sending a response.', '', 'Upon receiving the request from the EEC, the EES may also collect edge load analytics from ADAES (as specified in clause 8.8.2 of TS\xa023.436\xa0[28]) or performance data from OAM to find whether the EAS(s) satisfies the Expected AC service KPIs or the Minimum required AC Service KPIs.', '', 'Upon receiving the request from the EEC, if the EEC does not indicate EAS Instantiation Triggering Suppress in the EAS Discovery request, the EES may trigger the ECSP management system to instantiate the EAS that matches with EAS discovery filter IEs (e.g. ACID) as in clause\xa08.12.', '', 'Otherwise, upon receiving the request from the EEC, if the EEC indicates EAS Instantiation Triggering Suppress in the EAS Discovery request and the EES supports such capability, the EES determines not triggering the ECSP management system to instantiate the EAS and may determine Instantiable EAS Information for EAS(s) that are instantiable but not yet instantiated and match the EAS discovery filter IEs. Instantiable EAS Information is provided in the EAS Discovery response and includes the EASID(s) and, for each EASID, the status indicating whether the EAS is instantiated or instantiable but not yet instantiated.', '', 'If the EEC provides in the EAS discovery request the EAS selection request indicator, the EES selects EAS satisfying the EAS discovery filter or based on other information (e.g. ECSP policy) as described above (if no EAS discovery filter received), and then provides the selected EAS information to the EEC in the discovered EAS list of EAS discovery response.', '', 'NOTE\xa05:\tWithout EAS selection request indication, the EES handling is as per R17 procedure.', '', '3.\tIf the processing of the request was successful, the EES sends an EAS discovery response to the EEC, which includes information about the discovered EASs and Instantiable EAS Information. For discovered EASs, this includes endpoint information. Depending on the EAS discovery filters received in the EAS discovery request, the response may include additional information regarding matched capabilities, e.g. service permissions levels, KPIs, AC locations(s) that the EASs can support, ACR scenarios supported by the EAS, etc. The EAS discovery response may contain a list of EASs and Instantiable EAS Information. This list may be based on EAS discovery filters containing a Geographical or Topological Service Area, e.g. a route, included in the EAS discovery request by the EEC. When the discovered EAS is for a certain application group, then the Application Group ID is also included in the response message. If the discovered EAS is registered to another EES, then the EES endpoint of the EES where the discovered EAS is registered is also included in the response message.', '', 'When the EES determines to trigger the EAS instantiation, then the response may indicate that the EAS instantiation is in progress so that the detailed EAS profile information will be available later. When EEC receives the EAS instantiation in progress indication, the EEC may send EAS discovery subscription request message or send EAS discovery request message later to the EES for obtaining updated EAS information.', '', 'If the EES is unable to determine the EAS information using the inputs in the EAS discovery request, UE-specific service information at the EES or the ECSP policy, the EES shall reject the EAS discovery request and respond with an appropriate failure cause.', '', 'If the EEC is not registered with the EES, and ECSP policy requires the EEC to perform EEC registration prior to EAS discovery, the EES shall include an appropriate failure cause in the EAS discovery response indicating that EEC registration is required.', '', 'If the UE location and predicted/expected UE locations, provided in the EAS discovery request, are outside the Geographical or Topological Service Area of an EAS, then the EES shall not include that EAS in the discovery response. The discovery response may include EAS(s) that cannot serve the UE at its current location if a predicted/expected UE location was provided in the EAS discovery request. ', '', 'Upon receiving the EAS discovery response, if the EEC selects an EAS which is instantiated (i.e., an EAS profile was provided), the EEC uses the endpoint information for routing of the outgoing application data traffic to EAS(s), as needed, and may provide necessary notifications to the AC(s). The EEC may use the border or overlap between EAS Geographical Service Areas for service continuity purposes. The EEC may cache the EAS information (e.g. EAS endpoint) for subsequent use and avoid the need to repeat step 1. If the Lifetime IE is included in the response, the EEC may cache the EAS information only for the duration specified by the Lifetime IE.', '', 'Upon receiving the EAS discovery response, if the EEC selects an EAS which is instantiable but not yet instantiated (i.e. an EAS profile is not provided), the EEC sends the EAS information provisioning request indicating the selected EASID as in clause 8.15.', '', 'NOTE\xa06:\tWithin the duration specified by the Lifetime IE, the cached EAS Profile can be updated (e.g. according to notifications from the EES for changes of EAS information due to EAS status change) or the cached EAS Profile can be invalidated due to new EAS information discovery (e.g. due to UE mobility). The EEC can update or invalidate the cached EAS information (e.g. on PDU Session Release or Modification Command).', '', 'NOTE\xa07:\tThe AC can cache the EAS information (e.g. EAS endpoint) for subsequent use. In the case of the cached information needing to be updated or invalidated, the mechanisms for the EEC to notify the AC is up to implementation and is not specified in the current release of the present document.', '', 'NOTE\xa08:\tThe EEC can use the EAS information provided by the discovery procedure to perform service continuity planning, for example when ultra-low latency ACR is required.', '', 'If the EAS discovery request fails, the EEC may resend the EAS discovery request, taking into account the received failure cause. If the failure cause indicated that EEC registration is required, the EEC shall perform an EEC registration before resending the EAS discovery request.', '', 'NOTE\xa09:\tAs long as a proper EAS (e.g. considering expected AC service KPIs included in EAS discovery request) is discovered and selected by the EES, EEC of a constraint UE can stop sending EAS discovery to rest candidate EES(s), and provide the selected EAS information to AC.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.45.1	General&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.1186462640762329</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>['', 'QoS monitoring comprises of measurements of QoS monitoring parameters and reports of the measurement result for a QoS Flow and can be enabled based on 3rd party application requests and/or operator policies configured in the PCF. Event Reporting from PCF is specified in clause\xa06.1.3.18 of TS\xa023.503\xa0[45] and User Plane QoS Flow related QoS monitoring and reporting in clause\xa05.8.2.18.', '', 'The AF may request measurements for one or more of the following QoS monitoring parameters, which may trigger QoS monitoring for service data flow(s):', '', '-\tUL packet delay, DL packet delay, round trip packet delay for a service data flow, see clause\xa05.45.2.', '', '-\tCongestion, see clause\xa05.45.3.', '', '-\tData Rate, see clause\xa05.45.4.', '', '-\tPacket Delay Variation, see clause\xa05.37.7.', '', '-\tRound trip packet delay considering UL on a service data flow and DL of another service data flow, see clause\xa05.37.4.', '', 'The following AF requested QoS requirements may trigger QoS monitoring for service data flow(s):', '', '-\tRound-trip latency requirement, see clause\xa05.37.6.', '', 'The PCF may generate the authorized QoS Monitoring policy for a service data flow based on the QoS Monitoring request received from the AF (as described in clause\xa06.1.3.21 of TS\xa023.503\xa0[45]) or based on PCF local policy or configuration reasons, such as PCF awareness of dynamic satellite backhaul connection. The PCF includes the authorized QoS Monitoring policy in the PCC rule and provides it to the SMF.', '', 'The QoS monitoring parameter(s) that can be measured by means of QoS monitoring are listed below. The QoS monitoring policy in PCC rule (described in clause\xa06.3.1 of TS\xa023.503\xa0[45]) may include the following:', '', '-\tUL packet delay, DL packet delay, round trip packet delay, see clause\xa05.45.2.', '', '-\tCongestion, see clause\xa05.45.3.', '', '-\tData Rate, see clause\xa05.45.4.', '', 'The SMF configures the UPF to perform QoS monitoring for the QoS Flow and to report the monitoring results as described in clause\xa05.8.2.18 with parameters determined by the SMF based on the authorized QoS Monitoring policy received from the PCF or local configuration or both.', '', 'The SMF may also configure RAN to measure the QoS monitoring parameters by sending QoS monitoring request based on the authorized QoS Monitoring policy received from the PCF and/or local configuration. The QoS monitoring request to the NG RAN for different parameters is as defined in clause\xa05.45.2 and 5.45.3.', '', 'The following clauses describe the QoS monitoring parameters which can be measured and any specific actions or constraints for their measurement.', '', 'NOTE:\tThe QoS monitoring parameter which can be measured are parameters which describe the QoS experienced in the 5GS by the application, i.e. they are not restricted to the 5G QoS Parameters defined in clause\xa05.7.2.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.3.3.2	SMF Provisioning of available UPF(s)&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.1575095057487488</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>['', 'SMF may be locally configured with the information about the available UPFs, e.g. by OA&amp;amp;M system when UPF is instantiated or removed.', '', 'NOTE\xa01:\tUPF information can be updated e.g. by OA&amp;amp;M system any time after the initial provisioning, or UPF itself updates its information to the SMF any time after the node level interaction is established.', '', 'The UPF selection functionality in the SMF may optionally utilize the NRF to discover UPF instance(s). In this case, the SMF issues a request to the NRF that may include following parameters: DNN, S-NSSAI, SMF Area Identity, the requested functionalities and capabilities (e.g. ATSSS steering capabilities, functionality associated with high data rate low latency service etc.). In its answer, the NRF provides the NF profile(s) that include(s) the IP address(es) or the FQDN of the N4 interface of corresponding UPF instance(s) to the SMF.', '', 'UPFs may be associated with an SMF Area Identity in the NRF. This allows limiting the SMF provisioning of UPF(s) using NRF to those UPF(s) associated with a certain SMF Area Identity. This can e.g. be used in the case that an SMF is only allowed to control UPF(s) configured in NRF as belonging to a certain SMF Area Identity.', '', 'The NRF may be configured by OAM with information on the available UPF(s) or the UPF instance(s) may register its/their NF profile(s) in the NRF. This is further defined in clause\xa04.17 of TS\xa023.502\xa0[3].', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.31.16	Service Gap Control&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.1043110489845276</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>['', 'Service Gap Control is an optional feature intended for CIoT UEs to control the frequency at which these UEs can access the network. That is, to ensure a minimum time gap between consecutive Mobile Originated data communications initiated by the UE. This helps reducing peak load situations when there are a large number of these UEs in an operator network. Service Gap Control is intended to be used for "small data allowance plans" for MTC/CIoT UEs where the applications are tolerant to service latency.', '', 'NOTE\xa01:\tTime critical applications, such as regulatory prioritized services like Emergency services can suffer from the latency caused by the Service Gap Control feature. Therefore Service Gap Control feature is not recommended for subscriptions with such applications and services.', '', 'Service Gap Time is a subscription parameter used to set the Service Gap timer and is enforced in the UE and in the AMF on a per UE level (i.e. the same Service Gap Timer applies for all PDU Sessions that the UE has). The UE indicates its capability of support for Service Gap Control in the Registration Request message to the AMF. The AMF passes the Service Gap Time to the UE in the Registration Accept message for a UE that has indicated its support of the Service Gap Control. The Service Gap Control shall be applied in a UE when a Service Gap Time is stored in the UE context and applied in the AMF when the Service Gap Time is stored in the UE Context in the AMF.', '', 'Service Gap Control requires the UE to stay in CM-IDLE mode for at least the whole duration of the Service Gap timer before triggering Mobile Originated user data transmission, except for procedures that are exempted (see TS\xa024.501\xa0[47]). The Service Gap timer shall be started each time a UE moves from CM-CONNECTED to CM-IDLE, unless the connection request was initiated by the paging of a Mobile Terminated event, or after a Mobility or Periodic Registration procedure without Follow-on Request indication and without Uplink data status, which shall not trigger a new or extended Service Gap interval. When a Service Gap timer expires, the UE is allowed to send a connection request again. If the UE does so, the Service Gap timer will be restarted at the next CM-CONNECTED to CM-IDLE transition.', '', 'The Service Gap control is applied in CM-IDLE state only and does not impact UE Mobile Originated user data transmission or Mobile Originated signalling in CM-CONNECTED state. The Service Gap timer is not stopped upon CM-IDLE state to CM-CONNECTED state transition. The UE shall not initiate connection requests for MO user plane data, MO control plane data, or MO SMS when a Service Gap timer is running. The UE shall not initiate PDU Session Establishment Requests when a Service Gap timer is running, unless it is for Emergency services which are allowed. CM-CONNECTED with RRC_INACTIVE is not used for UEs that have a Service Gap Time configured.', '', 'NOTE\xa02:\tAs a consequence of allowing Initial Registration Request procedure, the UE with a running Service Gap timer does not initiate further MO signalling, except for Mobility Registration procedure, until the UE receives MT signalling or after the UE has moved to CM-IDLE state and the Service Gap Timer is not running.', '', 'NOTE\xa03:\tImplementations need to make sure that latest and up-to-date data are always sent when a Service Gap timer expires.', '', 'The AMF may enforce the Service Gap timer by rejecting connection requests for MO user plane data, MO control plane data, or MO SMS when a Service Gap timer is running. The AMF may enforce the Service Gap timer by not allowing MO signalling after Initial Registration requests when a Service Gap timer is running except for Mobility Registration procedure, Periodic Registration procedure or access to the network for regulatory prioritized services like Emergency services, which are allowed. When rejecting the connection requests and the SM signalling after Initial Registration Requests while the Service Gap timer is running, the AMF may include a Mobility Management back-off timer corresponding to the time left of the current Service Gap timer. For UEs that do not support Service Gap Control (e.g. pre-release-16 UEs), Service Gap Control may be enforced using "General NAS level congestion control" as defined in clause\xa05.19.7.2.', '', 'NOTE\xa04:\tAfter MT signalling in CM-CONNECTED state the AMF does not further restrict MO signalling when a Service Gap timer is running as this case is considered equal to a connectivity request in response to paging.', '', 'When the AMF starts the Service Gap timer, the AMF should invoke the Service Gap timer with a value that is slightly shorter than the Service Gap Time value provided to the UE based on the subscription information received from the UDM.', '', 'NOTE\xa05:\tThis ensures that the AMF does not reject any UE requests just before the Service Gap timer expires e.g. because of slightly unsynchronized timers between UE and AMF.', '', 'A UE which transitions from a MICO mode or eDRX power saving state shall apply Service Gap Control when it wakes up if the Service Gap timer is still running.', '', 'Additional aspects of Service Gap Control:', '', '-\tService Gap Control applies in all PLMNs.', '', '-\tWhen the Service Gap timer is running and the UE receives paging, the UE shall respond as normal.', '', '-\tService Gap Control does not apply to exception reporting for NB-IoT.', '', '-\tAccess to the network for regulatory prioritized services like Emergency services are allowed when a Service Gap timer is running.', '', '-\tService Gap Control shall be effective also for UEs performing de-registration and re-registration unless access to the network for regulatory prioritized services like Emergency services is required.', '', '-\tIf the Service Gap timer is running, the Service Gap is applied at PLMN selection as follows:', '', 'a)\tRe-registration to the registered PLMN: The remaining Service Gap timer value survives.', '', 'b)\tRegistration to a different PLMN: The remaining Service Gap timer value survives.', '', 'c)\tUSIM swap: The Service Gap timer is no longer running and the Service Gap feature does not apply, unless re-instantiated by the serving PLMN.', '', '-\tMultiple uplink packets and downlink packets are allowed during one RRC connection for UE operating within its Rate Control limits.', '', 'The following procedures are impacted by Service Gap Control:', '', '-\tRegistration Procedure, see clause\xa04.2.2.2 of TS\xa023.502\xa0[3];', '', '-\tUE Triggered Service Request, see clause\xa04.2.3.2 of TS\xa023.502\xa0[3];', '', 'NOTE\xa06:\tSince UE triggered Service Request is prevented by Service Gap timer, this implicitly prevents the UE from initiating UPF anchored Mobile Originated Data Transport in Control Plane CIoT 5GS Optimisation (see clause\xa04.24.1 of TS\xa023.502\xa0[3]), NEF Anchored Mobile Originated Data Transport (see clause\xa04.25.4 of TS\xa023.502\xa0[3]) and MO SMS over NAS in CM-IDLE (see clause\xa04.13.3.3 of TS\xa023.502\xa0[3]).', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.4.1	General&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>23548.docx</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.1018509268760681</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>['', 'Some real time network information, e.g. user path latency, are useful for application layer. In this release, in order to expose network information timely to local AF, the L-PSA UPF may expose i.e. QoS monitoring results as defined in clause\xa05.33.3 of TS\xa023.501\xa0[2], to the local AF.', '', 'NOTE\xa01:\tLocal PSA UPF can expose the QoS monitoring results to local AF via N6. How to deliver the information on N6 is out of the scope of the present document.', '', 'NOTE\xa02:\tSending QoS monitoring information that has not been properly integrated over time, i.e. with over-high frequency, can increase risk that the application may over-react to instantaneous radio events/conditions e.g. leading to service instability.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.7.4	Standardized 5QI to QoS characteristics mapping&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.1210347414016724</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>['', 'Standardized 5QI values are specified for services that are assumed to be frequently used and thus benefit from optimized signalling by using standardized QoS characteristics. Dynamically assigned 5QI values (which require a signalling of QoS characteristics as part of the QoS profile) can be used for services for which standardized 5QI values are not defined. The one-to-one mapping of standardized 5QI values to 5G QoS characteristics is specified in table\xa05.7.4-1.', '', 'Table 5.7.4-1: Standardized 5QI to QoS characteristics mapping', '', '5QI', '', 'Value', '', 'Resource Type', '', 'Default Priority Level', '', 'Packet Delay Budget', '', '(NOTE\xa03)', '', 'Packet Error', '', 'Rate ', '', 'Default Maximum Data Burst Volume', '', '(NOTE\xa02)', '', 'Default', '', 'Averaging Window', '', 'Example Services', '', '1', '', '', '', 'GBR', '', '20', '', '100\xa0ms', '', '(NOTE\xa011,', '', 'NOTE\xa013)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-2&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Conversational Voice', '', '2', '', '', '(NOTE\xa01)', '', '40', '', '150\xa0ms', '', '(NOTE\xa011,', '', 'NOTE\xa013)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-3&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Conversational Video (Live Streaming)', '', '3', '', '', '', '30', '', '50\xa0ms', '', '(NOTE\xa011,', '', 'NOTE\xa013)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-3&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Real Time Gaming, V2X messages (see TS\xa023.287\xa0[121]).', '', 'Electricity distribution – medium voltage, Process automation monitoring', '', '4', '', '', '', '', '50', '', '300\xa0ms', '', '(NOTE\xa011,', '', 'NOTE\xa013)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Non-Conversational Video (Buffered Streaming)', '', '65', '', '(NOTE\xa09,', '', 'NOTE\xa012)', '', '', '', '7', '', '75\xa0ms', '', '(NOTE\xa07, NOTE\xa08)', '', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-2&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Mission Critical user plane Push To Talk voice (e.g. MCPTT)', '', '66', '', '(NOTE\xa012)', '', '', '', '', '', '20', '', '100\xa0ms', '', '(NOTE\xa010,', '', 'NOTE\xa013)', '', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-2&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Non-Mission-Critical user plane Push To Talk voice', '', '67', '', '(NOTE\xa012)', '', '', '', '', '15', '', '100\xa0ms', '', '(NOTE 10,', '', 'NOTE\xa013)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-3&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Mission Critical Video user plane', '', '75', '', '(NOTE\xa014)', '', '', '', '25', '', '50 ms', '', '(NOTE\xa013)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-2&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'V2X messages (see TS\xa023.287\xa0[121]).', '', 'A2X messages (see TS\xa023.256\xa0[136])', '', '71', '', '', '', '56', '', '150 ms (NOTE\xa011, NOTE\xa013, NOTE\xa015)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', '"Live" Uplink Streaming (e.g. TS\xa026.238\xa0[76])', '', '72', '', '', '', '56', '', '300 ms (NOTE\xa011, NOTE\xa013, NOTE\xa015)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-4&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', '"Live" Uplink Streaming (e.g. TS\xa026.238\xa0[76])', '', '73', '', '', '', '56', '', '300 ms (NOTE\xa011, NOTE\xa013, NOTE\xa015)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-8&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', '"Live" Uplink Streaming (e.g. TS\xa026.238\xa0[76])', '', '74', '', '', '', '56', '', '500 ms (NOTE\xa011, NOTE\xa015)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-8&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', '"Live" Uplink Streaming (e.g. TS\xa026.238\xa0[76])', '', '76', '', '', '', '56', '', '500 ms (NOTE\xa011, NOTE\xa013, NOTE\xa015)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-4&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', '"Live" Uplink Streaming (e.g. TS\xa026.238\xa0[76])', '', '5', '', 'Non-GBR', '', '10', '', '100\xa0ms', '', '(NOTE 10,', '', 'NOTE\xa013)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'IMS Signalling', '', '6', '', '(NOTE\xa01)', '', '', '60', '', '', '300\xa0ms', '', '(NOTE\xa010,', '', 'NOTE\xa013)', '', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Video (Buffered Streaming)', '', 'TCP-based (e.g. www, e-mail, chat, ftp, p2p file sharing, progressive video, etc.), AI/ML model download for image recognition (e.g. for model topology) (see TS\xa022.261\xa0[2])', '', '7', '', '', '', '', '70', '', '', '100\xa0ms', '', '(NOTE\xa010,', '', 'NOTE\xa013)', '', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-3&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Voice,', '', 'Video (Live Streaming)', '', 'Interactive Gaming, AI/ML model download for image recognition (e.g. for model weight factors) (see TS\xa022.261\xa0[2])', '', '8', '', '', '', '', '80', '', '', '', '', '300\xa0ms', '', '(NOTE\xa010, NOTE\xa013)', '', '', '', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', '', '', '', 'N/A', '', '', '', '', 'N/A', '', '', 'Video (Buffered Streaming)', '', 'TCP-based (e.g. www, e-mail, chat, ftp, p2p file sharing, progressive', '', '9', '', '', '', '90', '', '', '', '', '', '', '', '', '', 'video, etc.)', '', '10', '', '', '', '90', '', '1100ms', '', '(NOTE\xa010,NOTE\xa013, NOTE\xa017)', '', '', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Video (Buffered Streaming)', '', 'TCP-based (e.g. www, e-mail, chat, ftp, p2p file sharing, progressive video, etc.) and any service that can be used over satellite access type with these characteristics', '', '69', '', '(NOTE\xa09, NOTE\xa012)', '', '', '', '5', '', '60\xa0ms', '', '(NOTE\xa07, NOTE\xa08)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Mission Critical delay sensitive signalling (e.g. MC-PTT signalling)', '', '70', '', '(NOTE\xa012)', '', '', '', '', '55', '', '200\xa0ms', '', '(NOTE\xa07,', '', 'NOTE\xa010)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Mission Critical Data (e.g. example services are the same as 5QI 6/8/9)', '', '79', '', '', '', '65', '', '50\xa0ms', '', '(NOTE\xa010,', '', 'NOTE\xa013)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-2&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'V2X messages (see TS\xa023.287\xa0[121])', '', '80', '', '', '', '68', '', '10\xa0ms', '', '(NOTE\xa05,', '', 'NOTE\xa010)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Low Latency eMBB applications Augmented Reality', '', '82', '', 'Delay-critical GBR', '', '19', '', '10\xa0ms', '(NOTE\xa04)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-4&lt;/sup&gt;&lt;/span&gt;', '', '255 bytes', '', '2000 ms', '', 'Discrete Automation (see TS\xa022.261\xa0[2])', '', '83', '', '', '', '22', '', '10\xa0ms', '(NOTE\xa04)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-4&lt;/sup&gt;&lt;/span&gt;', '', '1354 bytes', '', '(NOTE\xa03)', '', '2000 ms', '', 'Discrete Automation (see TS\xa022.261\xa0[2]);', '', 'V2X messages (UE - RSU Platooning, Advanced Driving: Cooperative Lane Change with low LoA. See TS\xa022.186\xa0[111], TS\xa023.287\xa0[121])', '', '84', '', '', '', '24', '', '30\xa0ms', '', '(NOTE 6)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-5&lt;/sup&gt;&lt;/span&gt;', '', '1354 bytes', '', '(NOTE\xa03)', '', '2000 ms', '', 'Intelligent transport systems (see TS\xa022.261\xa0[2])', '', '85', '', '', '', '21', '', '5\xa0ms', '', '(NOTE 5)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-5&lt;/sup&gt;&lt;/span&gt;', '', '255 bytes', '', '2000 ms', '', 'Electricity Distribution- high voltage (see TS\xa022.261\xa0[2]).', '', 'V2X messages (Remote Driving. See TS\xa022.186\xa0[111], NOTE\xa016, see TS\xa023.287\xa0[121]).', '', 'Split AI/ML inference - DL Split AI/ML image recognition, (see TS\xa022.261\xa0[2])', '', '86', '', '', '', '18', '', '5\xa0ms', '', '(NOTE 5)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-4&lt;/sup&gt;&lt;/span&gt;', '', '1354 bytes', '', '2000 ms', '', 'V2X messages (Advanced Driving: Collision Avoidance, Platooning with high LoA. See TS\xa022.186\xa0[111], TS\xa023.287\xa0[121])', '', '87', '', '', '', '25', '', '5\xa0ms (NOTE 4)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-3&lt;/sup&gt;&lt;/span&gt;', '', '500 bytes', '', '2000 ms', '', 'Interactive Service - Motion tracking data, (see TS\xa022.261\xa0[2])', '', '88', '', '', '', '25', '', '10\xa0ms (NOTE 4)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-3&lt;/sup&gt;&lt;/span&gt;', '', '1125 bytes', '', '2000 ms', '', 'Interactive Service - Motion tracking data, (see TS\xa022.261\xa0[2]), split AI/ML inference - UL Split AI/ML image recognition, (see TS\xa022.261\xa0[2])', '', '89', '', '', '', '25', '', '15\xa0ms (NOTE 4)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-4&lt;/sup&gt;&lt;/span&gt;', '', '17000 bytes', '', '2000 ms', '', 'Visual content for cloud/edge/split rendering (see TS\xa022.261\xa0[2])', '', '90', '', '', '', '25', '', '20\xa0ms (NOTE 4)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-4&lt;/sup&gt;&lt;/span&gt;', '', '63000 bytes', '', '2000 ms', '', 'Visual content for cloud/edge/split rendering (see TS\xa022.261\xa0[2])', '', 'NOTE\xa01:\tA packet which is delayed more than PDB is not counted as lost, thus not included in the PER.', '', 'NOTE\xa02:\tIt is required that default MDBV is supported by a PLMN supporting the related 5QIs.', '', 'NOTE\xa03:\tThe Maximum Transfer Unit (MTU) size considerations in clause\xa09.3 and Annex\xa0J are also applicable. IP fragmentation may have impacts to CN PDB, and details are provided in clause\xa05.6.10.', '', 'NOTE\xa04:\tA static value for the CN PDB of 1\xa0ms for the delay between a UPF terminating N6 and a 5G-AN should be subtracted from a given PDB to derive the packet delay budget that applies to the radio interface. When a dynamic CN PDB is used, see clause\xa05.7.3.4.', '', 'NOTE\xa05:\tA static value for the CN PDB of 2 ms for the delay between a UPF terminating N6 and a 5G-AN should be subtracted from a given PDB to derive the packet delay budget that applies to the radio interface. When a dynamic CN PDB is used, see clause\xa05.7.3.4.', '', 'NOTE\xa06:\tA static value for the CN PDB of 5 ms for the delay between a UPF terminating N6 and a 5G-AN should be subtracted from a given PDB to derive the packet delay budget that applies to the radio interface. When a dynamic CN PDB is used, see clause\xa05.7.3.4.', '', 'NOTE\xa07:\tFor Mission Critical services, it may be assumed that the UPF terminating N6 is located "close" to the 5G_AN (roughly 10 ms) and is not normally used in a long distance, home routed roaming situation. Hence a static value for the CN PDB of 10 ms for the delay between a UPF terminating N6 and a 5G_AN should be subtracted from this PDB to derive the packet delay budget that applies to the radio interface.', '', 'NOTE\xa08:\tIn RRC_IDLE, RRC_INACTIVE and RRC_CONNECTED mode, the PDB requirement for these 5QIs can be relaxed (but not to a value greater than 320\xa0ms) for the first packet(s) in a downlink data or signalling burst in order to permit reasonable battery saving (DRX) techniques.', '', 'NOTE\xa09:\tIt is expected that 5QI-65 and 5QI-69 are used together to provide Mission Critical Push to Talk service (e.g. 5QI-5 is not used for signalling). It is expected that the amount of traffic per UE will be similar or less compared to the IMS signalling.', '', 'NOTE\xa010:\tIn RRC_IDLE, RRC_INACTIVE and RRC_CONNECTED mode, the PDB requirement for these 5QIs can be relaxed for the first packet(s) in a downlink data or signalling burst in order to permit battery saving (DRX) techniques.', '', 'NOTE\xa011:\tIn RRC_IDLE and RRC_INACTIVE mode, the PDB requirement for these 5QIs can be relaxed for the first packet(s) in a downlink data or signalling burst in order to permit battery saving (DRX) techniques.', '', 'NOTE\xa012:\tThis 5QI value can only be assigned upon request from the network side. The UE and any application running on the UE is not allowed to request this 5QI value.', '', 'NOTE\xa013:\tA static value for the CN PDB of 20\xa0ms for the delay between a UPF terminating N6 and a 5G-AN should be subtracted from a given PDB to derive the packet delay budget that applies to the radio interface.', '', 'NOTE\xa014:\tThis 5QI is only used for transmission of V2X messages as defined in TS\xa023.287\xa0[121] and transmission of A2X messages as defined in TS\xa023.256\xa0[136].', '', 'NOTE\xa015:\tFor "live" uplink streaming (see TS\xa026.238\xa0[76]), guidelines for PDB values of the different 5QIs correspond to the latency configurations defined in TR\xa026.939\xa0[77]. In order to support higher latency reliable streaming services (above 500ms PDB), if different PDB and PER combinations are needed these configurations will have to use non-standardised 5QIs.', '', 'NOTE 16:\tThese services are expected to need much larger MDBV values to be signalled to the RAN. Support for such larger MDBV values with low latency and high reliability is likely to require a suitable RAN configuration, for which, the simulation scenarios in TR\xa038.824\xa0[112] may contain some guidance.', '', 'NOTE\xa017:\tThe worst case one way propagation delay for GEO satellite is expected to be ~270ms,~21 ms for LEO at 1200km, and 13 ms for LEO at 600km. The UL scheduling delay that needs to be added is also typically two way propagation delay e.g. ~540ms for GEO, ~42ms for LEO at 1200km, and ~26 ms for LEO at 600km. Based on that, the 5G-AN Packet delay budget is not applicable for 5QIs that require 5G-AN PDB lower than the sum of these values when the specific types of satellite access are used (see TS\xa038.300\xa0[27]). 5QI-10 can accommodate the worst case PDB for GEO satellite type.', '', '', '', 'NOTE:\tIt is preferred that a value less than 64 is allocated for any new standardised 5QI of Non-GBR resource type. This is to allow for option 1 to be used as described in clause\xa05.7.1.3 (as the QFI is limited to less than 64).', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.15.2.2	Standardised SST values&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.1257381439208984</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>['', 'Standardized SST values provide a way for establishing global interoperability for slicing so that PLMNs can support the roaming use case more efficiently for the most commonly used Slice/Service Types.', '', 'The SSTs which are standardised are in the following Table\xa05.15.2.2-1.', '', 'Table 5.15.2.2-1: Standardised SST values', '', 'Slice/Service type', '', 'SST value', '', 'Characteristics', '', 'eMBB', '', '', '', '1', '', 'Slice suitable for the handling of 5G enhanced Mobile Broadband.', '', 'URLLC', '', '2', '', 'Slice suitable for the handling of ultra- reliable low latency communications.', '', 'MIoT', '', '3', '', 'Slice suitable for the handling of massive IoT.', '', 'V2X', '', '4', '', 'Slice suitable for the handling of V2X services.', '', 'HMTC', '', '5', '', 'Slice suitable for the handling of High-Performance Machine-Type Communications.', '', 'HDLLC', '', '6', '', 'Slice suitable for the handling of High Data rate and Low Latency Communications.', '', '', '', 'NOTE\xa01:\tThe support of all standardised SST values is not required in a PLMN. Services indicated in this table for each SST value can also be supported by means of other SSTs.', '', 'NOTE\xa02:\tA mapping of GSMA defined Network Slice Types (NEST) to standard SST values is defined in GSMA\xa0NG.116\xa0[137].', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;5.9	Architecture Enhancements for Service Exposure storage (AESE)&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>23008.docx</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.1779850721359253</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>['', 'Table 5.9-1: Overview of data used for AESE', '', 'PARAMETER', '', 'Clause', '', 'HSS', '', 'MME', '', 'SGSN', '', 'SCEF', '', 'TYPE', '', 'International MS ISDN number ', '', '2.1.2', '', 'C', '', 'C', '', 'C', '', 'C', '', 'P', '', 'External Identifier Set', '', '2.1.10', '', 'C', '', '-', '', '-', '', 'C', '', 'P', '', 'SCEF-Reference-ID', '', '3.14.2', '', 'C', '', 'C', '', 'C', '', 'C', '', 'T', '', 'SCEF-ID', '', '3.14.3', '', 'C', '', 'C', '', 'C', '', 'C', '', 'P', '', 'Monitoring-Type', '', '3.14.4', '', 'C', '', 'C', '', 'C', '', 'C', '', 'P', '', 'Maximum-Number-of-Reports', '', '3.14.5', '', 'C', '', 'C', '', 'C', '', 'C', '', 'P', '', 'UE-Reachability-Configuration', '', '3.14.6', '', 'C', '', 'C', '', 'C', '', 'C', '', 'P', '', 'Monitoring-Duration', '', '3.14.7', '', 'C', '', 'C', '', 'C', '', 'C', '', 'P', '', 'Maximum-Detection-Time', '', '3.14.8', '', 'C', '', '-', '', '-', '', 'C', '', 'P', '', 'Reachability-Type', '', '3.14.9', '', 'C', '', '-', '', '-', '', 'C', '', 'P', '', 'Maximum Latency', '', '3.14.10', '', 'C', '', '-', '', '-', '', 'C', '', 'P', '', 'Maximum Response Time', '', '3.14.11', '', 'C', '', 'C', '', 'C', '', 'C', '', 'P', '', 'MONTE-Location-Type', '', '3.14.12', '', 'C', '', 'C', '', 'C', '', 'C', '', 'P', '', 'Accuracy', '', '3.14.13', '', 'C', '', 'C', '', 'C', '', 'C', '', 'P', '', 'Association-Type', '', '3.14.14', '', 'C', '', '-', '', '-', '', 'C', '', 'P', '', 'Charged-Party', '', '3.14.15', '', 'C', '', 'C', '', 'C', '', 'C', '', 'P', '', 'Remaining number of reports', '', '3.14.16', '', 'C', '', 'C', '', 'C', '', 'C', '', 'T', '', 'Periodic-Communication-Indicator', '', '3.14.17.1', '', 'C', '', 'C', '', '-', '', 'C', '', 'P', '', 'Communication-Duration-Time', '', '3.14.17.2', '', 'C', '', 'C', '', '-', '', 'C', '', 'P', '', 'Periodic-Time', '', '3.14.17.3', '', 'C', '', 'C', '', '-', '', 'C', '', 'P', '', 'Scheduled-Communication-Time', '', '3.14.17.4', '', 'C', '', 'C', '', '-', '', 'C', '', 'P', '', 'Stationary-Indication', '', '3.14.17.5', '', 'C', '', 'C', '', '-', '', 'C', '', 'P', '', 'Validity-Time', '', '3.14.17.6', '', 'C', '', 'C', '', '-', '', 'C', '', 'P', '', 'AESE-Subscription-Data', '', '3.14.18', '', 'C', '', '-', '', '-', '', '-', '', 'P', '', 'SCEF-Realm', '', '3.14.19', '', 'C', '', 'C', '', 'C', '', 'C', '', 'P', '', 'External-Identifier for Monitoring Event Configuration', '', '3.14.20', '', 'C', '', 'C', '', 'C', '', 'C', '', 'P', '', 'External Group Identifier', '', '3.14.21', '', 'C', '', '-', '', '-', '', 'C', '', 'P', '', '', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;8.4.3.4	UE-to-UE analytics request&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>23436.docx</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.1704560518264771</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>['', 'Table 8.4.3.4-1 describes information elements for the UE-to-UE Analytics request from the ADAE server to the ADAE client.', '', 'Table 8.4.3.4-1: UE-to-UE analytics request', '', 'Information element', '', 'Status', '', 'Description', '', 'ADAE server ID', '', 'M', '', 'The identifier of the ADAE server.', '', 'Analytics ID', '', 'O ', '', 'The identifier of the analytics event (Analytics ID=’UE to UE session analytics’).', '', 'List of VAL UE IDs and addresses', '', 'M ', '', 'The VAL UE(s) identifiers and IP address(es) for which the data/analytics apply.', '', 'Application QoS attributes', '', 'M', '', 'The QoS attributes (latency, bitrate, jitter, application layer PER) to be analyzed at the ADAE client.', '', 'Reporting configuration', '', 'O', '', 'The configuration for analytics reporting. This requirement may include e.g. the frequency of reporting (periodic), the reporting periodicity in case of periodic, and reporting thresholds, whether data abstraction is needed or not.', '', 'Data collection requirements', '', 'O', '', 'The requirements for data collection, including the format of data, frequency of reporting, level of abstraction of data, level of accuracy of data.', '', 'Area of Interest', '', 'O', '', 'The geographical or service area for which the subscription request applies.', '', 'Time validity', '', 'O', '', 'The time validity of the subscription request.', '', '', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.12.3.2	Slice related communication service creation &lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>23435.docx</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.1446352601051331</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>['', 'Table 9.12.3.2-1 and Table 9.12.3.2-2 describe information elements for slice related communication service creation request and response between the VAL server and the NSCE server.', '', 'Table 9.12.3.2-1: Slice related communication service creation request', '', 'Information element', '', 'Status', '', 'Description', '', 'VAL server ID', '', 'M', '', 'The identifier of the VAL server', '', 'VAL service name', '', 'M', '', 'The name of the application service to be supported by the created slice related communication service, the value can be as followings:', '', 'V2X service;', '', 'Video streaming service;', '', 'Remote control service;', '', '…', '', '', '', 'VAL service ID', '', 'M', '', 'Identifier of the application service ', '', 'Area of interest', '', 'M', '', 'The service area for which the application service profile applies, which can be expressed as a geographical area (e.g. geographical coordinates), or a topological area (e.g. a list of TA).', '', 'Application service profile', '', 'M', '', 'The list of the requirements of the corresponding application service', '', '&amp;gt; ReqInfo', '', 'M', '', 'The element containing the reqName and reqValue', '', '&amp;gt;&amp;gt;ReqName', '', 'M', '', 'The name of the application service requirement, the value of this IE can be as followings:', '', 'the resolution of a video service,', '', 'the end user numbers,', '', 'the latency,', '', '…', '', '&amp;gt;&amp;gt;ReqValue', '', 'M', '', 'The corresponding value of the application service requirement', '', '', '', 'Table 9.12.3.2-2: Slice related communication service creation response', '', 'Information element', '', 'Status', '', 'Description', '', 'VAL server ID', '', 'M', '', 'The identifier of the VAL server', '', 'VAL service ID', '', 'M', '', 'Identifier of the application service to be supported by the created slice related communication service.', '', 'Result', '', 'M', '', 'Indicates the success or failure of the slice related communication service creation', '', 'Network slice info List', '', 'O', '', '(see\xa0NOTE\xa01)', '', 'The list of the network slice info determined by NSCE', '', '&amp;gt; Network slice info', '', 'O', '', '(see\xa0NOTE\xa01)', '', 'The network slice info which includes the attributes and the corresponding values of network slice', '', '&amp;gt;&amp;gt;S-NSSAI', '', 'O', '', '(see\xa0NOTE\xa01)', '', 'The identifier of network slice', '', '&amp;gt;&amp;gt;attributes of network slice', '', 'O', '', '(see\xa0NOTE\xa01)', '', 'The list of attributes of the serviceProfile e.g, &lt;i&gt;dLtThptPerSlice or &lt;/i&gt;latencies of network slice as defined in &lt;i&gt;serviceProfile&lt;/i&gt; TS 28.541[10]', '', '&amp;gt;&amp;gt;AttributeValues', '', 'O', '', '(see\xa0NOTE\xa01)', '', 'The corresponding values of the attributes of the service profiles that determined by the NSCE server ', '', 'Cause', '', 'O', '', '(see\xa0NOTE\xa02)', '', 'Indicates the cause of creation failure', '', 'NOTE\xa01: \tShall be present if the result is success and shall not be present otherwise', '', 'NOTE\xa02: \tShall be present if the result is failure and shall not be present otherwise', '', '', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.12.3.3	Slice related communication service reconfiguration&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>23435.docx</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.1467186808586121</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>['', 'Table 9.12.3.3-1 and Table 9.12.3.3-2 describe information elements for slice related communication service reconfiguration request and response between the VAL server and the NSCE server.', '', 'Table 9.12.3.3-1: Slice related communication service reconfiguration request', '', 'Information element', '', 'Status', '', 'Description', '', 'VAL server ID', '', 'M', '', 'The identifier of the VAL server', '', 'VAL service name ', '', 'M', '', 'The name of the application service to be upgrade/downgrade which requires the reconfiguration of the slice related communication service, the value can be as followings:', '', 'V2X service;', '', 'Video streaming service;', '', 'Remote control service;', '', '…', '', '', '', 'VAL service ID', '', 'M', '', 'Identifier of the application service', '', 'Area of interest', '', 'M', '', 'The service area for which the application profile applies, which can be expressed as a geographical area (e.g. geographical coordinates), or a topological area (e.g. a list of TA).', '', 'Application service profile', '', 'M', '', 'The list of the requirements of the corresponding application service to be changed', '', '&amp;gt; ReqInfo', '', 'M', '', 'The element containing the reqName and reqValue', '', '&amp;gt;&amp;gt;ReqName', '', 'M', '', 'The name of the application service requirement, the value of this IE can be as followings:', '', 'the resolution of a video service,', '', 'the end user numbers,', '', 'the latency,', '', '…', '', '&amp;gt;&amp;gt;ReqValue', '', 'M', '', 'The corresponding updated value of the application service requirement', '', '', '', 'Table 9.12.3.3-2: Slice related communication service reconfiguration response', '', 'Information element', '', 'Status', '', 'Description', '', 'VAL server ID', '', 'M', '', 'The identifier of the VAL server', '', 'VAL service ID', '', 'M', '', 'Identifier of the application service', '', 'Result', '', 'M', '', 'Indicates the success or failure of the slice related communication service reconfiguration', '', 'Network slice info List', '', 'O (see\xa0NOTE\xa01)', '', 'The list of the network slice info updated by NSCE', '', '&amp;gt; Network slice info', '', 'O (see\xa0NOTE\xa01)', '', 'The network slice info which includes the attributes and the corresponding values of network slice', '', '&amp;gt;&amp;gt;S-NSSAI', '', 'O (see\xa0NOTE\xa01)', '', 'The identifier of network slice', '', '&amp;gt;&amp;gt;Attributes of network slice', '', 'O (see\xa0NOTE\xa01)', '', 'The list of attributes of the serviceProfile e.g., &lt;i&gt;dLtThptPerSlice or &lt;/i&gt;latencies of network slice as defined in &lt;i&gt;serviceProfile&lt;/i&gt; TS 28.541[10]', '', '&amp;gt;&amp;gt;AttributeValues', '', 'O (see\xa0NOTE\xa01)', '', 'The corresponding values of the attributes of the service profiles that updated by the NSCE server', '', 'Cause', '', 'O', '', '(see\xa0NOTE\xa02)', '', 'Indicates the cause of reconfiguration failure', '', 'NOTE\xa01:\tShall be present if the result is success and shall not be present otherwise', '', 'NOTE\xa02:\tShall be present if the result is failure and shall not be present otherwise', '', ' ', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.4.3.5	QoE metrics subscribe&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>23435.docx</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.1570789217948914</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>['', 'Table 9.4.3.5-1 describes information elements for the QoE metrics subscribe from the NSCE server to the VAL server. ', '', 'Table 9.4.3.5-1: QoE metrics Subscribe', '', 'Information element', '', 'Status', '', 'Description', '', 'Requestor Identifier', '', 'M', '', 'Unique identifier of the requestor (i.e. NSCE server ID).', '', 'Security credentials', '', 'M', '', 'Security credentials resulting from a successful authorization.', '', 'Notification Target Address', '', 'O', '', 'The Notification Target Address (e.g. URL) where the notifications destined for the requestor should be sent to.', '', 'Subscription ID', '', 'M ', '', 'Identifier of the subscription.', '', 'Event Filter', '', 'M', '', 'The associated filter on a network slice to be notified', '', '&amp;gt; Network slice related Identifier(s)', '', 'M', '', 'Identifier of the interested network slice', '', '&amp;gt; VAL service ID', '', '', '', 'O', '', 'Indicator of the interested application (i.e. App ID)', '', '&amp;gt;QoE type indicator', '', 'M', '', 'QoE metric type including latency, throughput, jitter, etc.  ', '', 'Event Reporting information', '', 'M', '', 'Information indicates how the notification is supposed to be sent, threshold based or the notification is periodical or the Immediate reporting is requested', '', '&amp;gt;Threshold', '', 'O', '', 'Threshold of QoE metrics', '', '&amp;gt;Reporting period ', '', 'O', '', 'Indicating the metrics reporting period', '', '&amp;gt;Immediate reporting flag', '', 'O', '', 'Indicating the request needs immediate reporting or not', '', 'Proposed expiration time', '', 'O', '', 'Proposed expiration time for the subscribe', '', '', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.7.3.1	SEALDD enabled data transmission quality measurement subscription request&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>23433.docx</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.1526502966880798</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>['', 'Table 9.7.3.1-1 describes the information flow from the VAL server to the SEALDD server for subscribing to the data transmission measurement service.', '', 'Table\xa09.7.3.1-1: SEALDD transmission quality measurement subscription request', '', 'Information element', '', 'Status', '', 'Description', '', 'Application traffic identifiers', '', 'M', '', 'Identify of the application traffic (e.g. VAL server ID, VAL service ID)', '', 'Identity', '', 'O', '', '(See NOTE)', '', 'Identifier of the VAL UE or VAL user for which measurements need to be provided.', '', 'VAL UE/user group ID', '', 'O', '', '(See NOTE)', '', 'Identifier of a specific VAL UE/user group, as defined in clause 7.5 of 3GPP TS 23.434 [4]. ', '', 'Identity list', '', 'O', '', '(See NOTE)', '', 'Identifies a list of VAL UEs, e.g. the list of UE ID, or a list of VAL users.', '', 'All VAL UEs or VAL users Indication', '', 'O', '', '(See NOTE)', '', 'Indicates all VAL UEs or VAL users of the application identified by application traffic identifiers.', '', 'Measurement conditions', '', 'O', '', 'Indicates the temporal and/or spatial conditions.', '', 'Transmission quality measurement requirements list', '', 'M', '', 'The measurement requirement information ', '', '&amp;gt; Measurement ID ', '', 'M', '', 'Measurement identifiers, e.g. latency, bitrate, packet loss rate, jitter', '', '&amp;gt; Reporting frequency', '', 'O', '', 'The reporting frequency of measurement results (e.g. periodic reporting). If not present, it implies periodic reporting.', '', '&amp;gt; Reporting periodicity', '', 'O', '', 'If the reporting frequency is periodic, the reporting periodicity shall be provided. For multiple UEs/users, it is recommended to give sufficient time to allow report aggregation.', '', '&amp;gt; Reporting granularity', '', 'O', '', 'The reporting granularity indicates whether the measurement report is for individual VAL UE/user or for VAL UE/user group or for all VAL UEs/users, if VAL UE/user group or all VAL UEs/users is the measurement target.', '', '&amp;gt; Measurement period window', '', 'O', '', 'Indicates the measurement period window for transmission quality measurements', '', '&amp;gt; Measurement expiration time', '', 'O', '', 'Indicates the measurement expiration time', '', '&amp;gt; Reporting criteria', '', 'O', '', 'Indicates the criteria for reporting measurement results, e.g. if the latency or bitrate reaches below or above a certain value. It also includes a unique identifier for each criteria of more than one criteria is specified.', '', 'NOTE:\tOne of them shall be present as the measurement target UE.', '', '', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.7.3.3	SEALDD enabled data transmission quality measurement notification&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>23433.docx</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.1601558327674866</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>['', 'Table 9.7.3.3-1 describes the information flow from the SEALDD server to the VAL server for notifying the transmission quality measurement reports.', '', 'Table\xa09.7.3.3-1: SEALDD transmission quality measurement notification', '', 'Information element', '', 'Status', '', 'Description', '', 'Subscription ID', '', 'M', '', 'Subscription identifier corresponding to the subscription.', '', 'Transmission quality measurement reports list ', '', 'M', '', 'The generated transmission quality results in SEALDD server, as specified in Table 9.7.3.3-2.', '', '', '', 'Table 9.7.3.3-2 describes the information elements for the transmission quality measurement reports list, provided by the SEALDD server after performing transmission quality measurement.', '', 'Table\xa09.7.3.3-2: SEALDD transmission quality measurement reports list', '', 'Information element', '', 'Status', '', 'Description', '', '&lt;b&gt;&amp;gt; Measurement ID&lt;/b&gt;', '', '&lt;b&gt;M&lt;/b&gt;', '', '&lt;b&gt;Measurement identifiers, e.g. latency, bitrate, packet loss rate, jitter&lt;/b&gt;', '', '&lt;b&gt;&amp;gt; VAL UE/user ID(s)&lt;/b&gt;', '', '&lt;b&gt;O&lt;/b&gt;', '', '&lt;b&gt;It indicates the VAL UE(s) or VAL user(s) under SEALDD measurement. For a single VAL UE/user, it can be omitted and the associated measurement values are for the single VAL UE/user. For multiple VAL UEs/users with reporting granularity set to individual UE/user, the associated measurement values are for individual VAL UE/user as indicated in this IE. For multiple VAL UEs/users with reporting granularity set to VAL UE/user group/list or all VAL UEs/users, the associated measurement values are aggregation for all VAL UEs/users or the VAL UE/user group/list and this IE includes the measured VAL UEs/users.&lt;/b&gt;', '', '&lt;b&gt;&amp;gt; Average measurement value&lt;/b&gt;', '', '&lt;b&gt;O&lt;/b&gt;', '', '&lt;b&gt;The average measurement value of measurement results&lt;/b&gt;', '', '&lt;b&gt;&amp;gt; Minimum measurement value &lt;/b&gt;', '', '&lt;b&gt;O&lt;/b&gt;', '', '&lt;b&gt;The minimum measurement value of measurement results &lt;/b&gt;', '', '&lt;b&gt;&amp;gt; maximum measurement value&lt;/b&gt;', '', '&lt;b&gt;O&lt;/b&gt;', '', '&lt;b&gt;The maximum measurement value of measurement results&lt;/b&gt;', '', '&lt;b&gt;&amp;gt; Standard deviation measurement value&lt;/b&gt;', '', '&lt;b&gt;O&lt;/b&gt;', '', '&lt;b&gt;Standard deviation measurement value of measurement results&lt;/b&gt;', '', '&lt;b&gt;&amp;gt; kPercentile measurement value&lt;/b&gt;', '', '&lt;b&gt;O&lt;/b&gt;', '', '&lt;b&gt;Indicates the kpercentile measurement value of measurement results&lt;/b&gt;', '', '&lt;b&gt;&amp;gt; Measurement period&lt;/b&gt;', '', '&lt;b&gt;O&lt;/b&gt;', '', '&lt;b&gt;Indicates the measurement period &lt;/b&gt;', '', '&lt;b&gt;&amp;gt; Timestamp&lt;/b&gt;', '', '&lt;b&gt;O&lt;/b&gt;', '', '&lt;b&gt;Indicates the timestamp of measurement results&lt;/b&gt;', '', '', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.7.3.6	Transmission quality measurement subscription request&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>23433.docx</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.1610327363014221</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>['', 'Table 9.7.3.6-1 describes the information flow from the SEALDD server to the SEALDD client for data transmission measurement subscription.', '', 'Table\xa09.7.3.6-1: Transmission quality measurement subscription request', '', 'Information element', '', 'Status', '', 'Description', '', 'SEALDD flow ID', '', 'M', '', 'Identifier of the SEALDD flow.', '', 'Measurement conditions', '', 'O', '', 'Indicates the temporal and/or spatial conditions.', '', 'Transmission quality measurement requirements list', '', 'M', '', 'The measurement requirement information ', '', '&amp;gt; Measurement ID ', '', 'M', '', 'Measurement identifiers, e.g. latency, bitrate, jitter', '', '&amp;gt; Reporting frequency', '', 'O', '', 'The reporting frequency of measurement results (e.g. periodic reporting). If not present, it implies periodic reporting.', '', '&amp;gt; Reporting periodicity', '', 'O', '', 'If the reporting frequency is periodic, the reporting periodicity shall be provided.', '', '&amp;gt; Measurement period window', '', 'O', '', 'Indicates the measurement period window for transmission quality measurements', '', '&amp;gt; Measurement expiration time', '', 'O', '', 'Indicates the measurement expiration time', '', '&amp;gt; Reporting criteria', '', 'O', '', 'Indicates the criteria for reporting measurement results, e.g. if the latency or bitrate reaches below or above a certain value. It also includes a unique identifier for each criteria of more than one criteria is specified.', '', '&amp;gt; SEALDD policy', '', 'O', '', 'Specifies quality guarantee policies associated with the SEALDD connection', '', '&amp;gt;&amp;gt; Quality guarantee policy', '', 'M', '', 'Indicates the event (e.g. measurement threshold) to be measured for, the quality guarantee.', '', '', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.7.3.8	Transmission quality measurement notification&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>23433.docx</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.1492491960525513</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>['', 'Table 9.7.3.8-1 describes the information flow from the SEALDD client to the SEALDD server for notifying the transmission quality measurement reports.', '', 'Table\xa09.7.3.8-1: Transmission quality measurement notification', '', 'Information element', '', 'Status', '', 'Description', '', 'Transmission quality measurement reports list ', '', 'M', '', 'The generated transmission quality results in SEALDD server', '', '&amp;gt; Measurement ID', '', 'M', '', 'Measurement identifiers, e.g. latency, bitrate, jitter', '', '&amp;gt; Average measurement value', '', 'O', '', 'The average measurement value of measurement results', '', '&amp;gt; Minimum measurement value ', '', 'O', '', 'The minimum measurement value of measurement results ', '', '&amp;gt; maximum measurement value', '', 'O', '', 'The maximum measurement value of measurement results', '', '&amp;gt; Standard deviation measurement value', '', 'O', '', 'Standard deviation measurement value of measurement results', '', '&amp;gt; kPercentile measurement value', '', 'O', '', 'Indicates the kpercentile measurement value of measurement results', '', '&amp;gt; Measurement period', '', 'O', '', 'Indicates the measurement period ', '', '&amp;gt; Timestamp', '', 'O', '', 'Indicates the timestamp of measurement results', '', '', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.8.3.2	Information collection from NSCE server(s) subscribe request&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>23435.docx</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.1626465320587158</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>['', 'Table 9.8.3.2-1 describes information elements for the Information collection from NSCE server(s) subscribe request from the consumer NSCE server to the producer NSCE server(s).', '', 'Table 9.8.3.2-1: Information collection from NSCE server(s) subscribe request ', '', 'Information element', '', 'Status', '', 'Description', '', 'Requester Identifier', '', 'M', '', 'Unique identifier of the requester (i.e. NSCE server ID).', '', 'Security credentials', '', 'M', '', 'Security credentials resulting from a successful authorization for the NSCE service.', '', 'Notification Target Address', '', 'O', '', 'The Notification Target Address (e.g. URL) where the notifications destined for the requester should be sent to.', '', 'List of S-NSSAI(s)', '', 'M', '', 'Identifier of the interested network slice', '', '&amp;gt;QoS type indicator', '', 'O', '', 'QoS metric type including latency, throughput, jitter, etc.  ', '', '&amp;gt;Threshold', '', 'O', '', 'Threshold of QoS metrics', '', '&amp;gt;Reporting period ', '', 'O', '', 'Indicating the metrics reporting period', '', '&amp;gt;Immediate reporting flag', '', 'O', '', 'Indicating the request needs immediate reporting or not', '', 'Proposed expiration time', '', 'O', '', 'Proposed expiration time for the subscription', '', '', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;14.3.2.13	end-to-end QoS management request &lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>23434.docx</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.1544597148895264</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>['', 'Table\xa014.3.2.13-1 describes the information flow end-to-end QoS management request from the NRM client to the NRM server.', '', 'Table\xa014.3.2.13-1: end-to-end QoS management request', '', 'Information element', '', 'Status', '', 'Description', '', 'List of VAL UEs or VAL Group ID', '', 'M ', '', 'List of VAL UEs or the group of VAL UEs for whom the end-to-end QoS management occurs', '', '', '', '&amp;gt;VAL UE/user ID', '', 'M', '', 'Identity of the VAL UE', '', '', '', '&amp;gt; IP address', '', 'O', '', 'IP address of the VAL UE', '', '', '', 'VAL service ID', '', 'O', '', 'The VAL service identity for whom the end-to-end QoS management occurs. ', '', 'End-to-end QoS requirements', '', 'O', '', 'The application QoS requirements / KPIs (latency, error rate, ..) for the end-to-end session.', '', '', '', 'This may optionally include information which will support the NRM server to identify the per session QoS requirements (e.g. a flag indicating the use of HD video for assisting the end-to-end session, a video resolution/encoding required for the HD video). ', '', 'Service area', '', 'O', '', 'The area where the QoS management request applies. This can be geographical area, or topological area.', '', 'Time validity', '', 'O', '', ' The time of validity of the requirement.', '', '', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;14.3.2.15	QoS downgrade indication&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>23434.docx</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.1344723701477051</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>['', 'Table\xa014.3.2.15-1 describes the information flow QoS downgrade indication from the NRM client to the NRM server.', '', 'Table\xa014.3.2.15-1: QoS downgrade indication', '', 'Information element', '', 'Status', '', 'Description', '', 'VAL UE ID', '', 'M', '', 'The identifier of the VAL UE which indicates the QoS downgrade.', '', 'QoS downgrade report ', '', 'M', '', 'The report including the expected or actual QoS / QoE parameters which were downgraded (i.e. latency, throughput, reliability, jitter). This report may be configured by the end-to-end QoS management response message.', '', '', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;14.3.2.24	TSC stream availability discovery response&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>23434.docx</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.1449422240257263</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>['', 'Table\xa014.3.2.24-1 describes the information flow TSC stream availability discovery response from the NRM server to the VAL server.', '', 'Table\xa014.3.2.24-1: TSC stream availability discovery response', '', 'Information element', '', 'Status', '', 'Description', '', 'Result', '', 'M', '', 'Result includes success or failure of the TSC stream availability discovery with the underlying network.', '', 'Stream specification', '', 'M', '', 'Stream specification includes MAC addresses of the source and destination DS-TT ports (e.g. as defined in IEEE\xa0802.1CB\xa0[37]).', '', 'List of traffic specifications', '', 'M', '', 'The traffic classes supported by the DS-TTs and available end-to-end MaxLatency value per traffic class. The VAL server should not request lower latency than the available end-to-end latency.', '', '', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;14.3.2.25	TSC stream creation request&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>23434.docx</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.1553634405136108</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>['', 'Table\xa014.3.2.25-1 describes the information flow TSC stream creation request from the VAL server to the NRM server.', '', 'Table\xa014.3.2.25-1: TSC stream creation request', '', 'Information element', '', 'Status', '', 'Description', '', 'Requester Identity ', '', 'M', '', 'The identity of the VAL server performing the request.', '', 'VAL Stream ID', '', 'M', '', 'It identifies the VAL stream.', '', 'Stream specification', '', 'M', '', 'Stream specification includes MAC addresses of the source and destination DS-TT ports (e.g. as defined in IEEE\xa0802.1CB\xa0[37]).', '', 'Traffic specification', '', 'M', '', 'It includes MaxLatency, MaxFrameInterval, MaxFrameSize, MaxIntervalFrames as described in IEEE 802.1Qcc [35] in clause 46.2.', '', '', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;14.3.2.35	Application connectivity request&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>23434.docx</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.1616874933242798</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>['', 'Table\xa014.3.2.35-1 describes the information flow for application connectivity request from a NRM client to the NRM server.', '', 'Table\xa014.3.2.35-1: Application connectivity request', '', 'Information element', '', 'Status', '', 'Description', '', 'Source VAL UE ID', '', 'M', '', 'Identifier of the requestor VAL UE ', '', 'Source IP address ', '', 'M', '', 'IP address of the requestor VAL UE ', '', 'VAL service ID', '', 'M', '', 'Identifier of the VAL service', '', 'List of destination VAL UE IDs', '', 'M', '', 'Identifiers of the destination VAL UEs', '', 'Application service requirements', '', 'M', '', 'Details of service requirements', '', '&amp;gt;Packet size (see\xa0NOTE)', '', 'O', '', 'Size of the packet to be transmitted.', '', '&amp;gt;Packet transmission interval (see\xa0NOTE)', '', 'O', '', 'Intervals at which the packet is to be transmitted', '', '&amp;gt;Packet E2E latency (see\xa0NOTE)', '', 'O', '', 'E2E Latency for packet transmission', '', '&amp;gt;Packet error KPI (see\xa0NOTE)', '', 'O', '', 'The KPIs related to packet error (e.g. allowed packet loss rate, packet loss amount, packet error rate)', '', '&amp;gt;Bitrate (see\xa0NOTE)', '', 'O', '', 'The bitrate required', '', 'Application connectivity context', '', 'O', '', 'Application connectivity context of the requester, used for determining the destination and/or resource parameters. If this IE is included, at least one of the information elements in Table 14.3.2.35-2 shall be provided.', '', 'NOTE:\tAt least one of information elements of the application service requirements shall be included.', '', '', '', 'Table\xa014.3.2.35-2: Application connectivity context ', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Information element&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Status&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Description&lt;/b&gt;&lt;/span&gt;', '', 'Location', '', 'O', '', 'Location information of the client. The element may also indicate whether network-determined location is to be used instead.', '', 'Speed', '', 'O', '', 'Speed information for the client.', '', 'Direction', '', 'O', '', 'Direction information for the client.', '', '', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;4.1	General concepts&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.149145245552063</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>['', 'The 5G System architecture is defined to support data connectivity and services enabling deployments to use techniques such as e.g. Network Function Virtualization and Software Defined Networking. The 5G System architecture shall leverage service-based interactions between Control Plane (CP) Network Functions where identified. Some key principles and concept are to:', '', '-\tSeparate the User Plane (UP) functions from the Control Plane (CP) functions, allowing independent scalability, evolution and flexible deployments e.g. centralized location or distributed (remote) location.', '', '-\tModularize the function design, e.g. to enable flexible and efficient network slicing.', '', '-\tWherever applicable, define procedures (i.e. the set of interactions between network functions) as services, so that their re-use is possible.', '', '-\tEnable each Network Function and its Network Function Services to interact with other NF and its Network Function Services directly or indirectly via a Service Communication Proxy if required. The architecture does not preclude the use of another intermediate function to help route Control Plane messages (e.g. like a DRA).', '', '-\tMinimize dependencies between the Access Network (AN) and the Core Network (CN). The architecture is defined with a converged core network with a common AN - CN interface which integrates different Access Types e.g. 3GPP access and non-3GPP access.', '', '-\tSupport a unified authentication framework.', '', '-\tSupport "stateless" NFs, where the "compute" resource is decoupled from the "storage" resource.', '', '-\tSupport capability exposure.', '', '-\tSupport concurrent access to local and centralized services. To support low latency services and local access to data networks, UP functions can be deployed close to the Access Network.', '', '-\tSupport roaming with both Home routed traffic as well as Local breakout traffic in the visited PLMN.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;6.1.3.27.2	UL/DL policy control based on round-trip latency requirement&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>23503.docx</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.09790319204330444</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>['', 'The AF may provide a round-trip (RT) latency indication together with a single direction delay requirement between the UE and the PSA UPF expressed as the QoS Reference or the individual QoS parameters (as described in clause\xa06.1.3.22). The RT latency indication indicates the need to meet the RT latency requirement of the service data flow, i.e. doubling of the single direction delay requirement between the UE and the PSA UPF.', '', 'Based on the RT latency requirement received from the AF or locally configured in the PCF, the PCF authorizes the AF request and can split the RT latency requirement into two PDBs of two PCC rules, used for the UL QoS Flow and DL QoS Flow to carry the UL and DL traffics of the service respectively. The two PDBs can be unequal, but their sum shall not exceed the RT latency requirement.', '', 'Based on the RT latency requirements, the PCF shall generate UL and DL QoS monitoring policies in the PCC rules associated to the two correlated QoS Flows respectively to enable RT latency tracking. The uplink and downlink delay for the two QoS Flows shall be tracked by PCF independently.', '', 'When the QoS monitoring results are reported to PCF, the PCF can derive and track the RT latency by combining the QoS monitoring reports for the UL and the DL packet delay. Based on the QoS monitoring results, the PCF may adjust the PDBs of one or both PCC rules under the consideration of the RT latency requirement using SM Policy Association Modification procedure described in clause\xa04.16.5.2 of TS\xa023.502\xa0[3] to better fit the new situation.', '', 'NOTE:\tHow the PCF derives the round-trip latency and takes policy decisions is up to implementation.', '', 'If the UL and DL traffic of the service have different QoS requirements (e.g. different one-way delay), the AF may provide the QoS requirements with RT latency indication in the AF Session with required QoS request for UL and DL Flow Descriptions. The PCF then identifies the UL and DL service data flows with RT latency indicator for RT latency control. In this case, the RT latency requirement of the service is described by the sum of the UL and DL delay requirements.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.1.3.22	AF session with required QoS&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>23503.docx</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.1268854737281799</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>['', 'The AF may request that a data session to a UE is set up with a specific QoS (e.g. low latency or PDV) and priority handling. The AF can request the network to provide QoS for the AF session based on the service requirements with the help of a QoS Reference parameter that refers to pre-defined QoS information. Instead of the QoS Reference, the AF may provide individual QoS parameters associated to the Flow Description.', '', 'a)\tWhen the AF provides only a QoS Reference to determine the QoS parameters but no individual QoS parameters:', '', '-\tWhen the PCF authorizes the service information from the AF, it derives the QoS parameters of the PCC rule based on the service information and the indicated QoS Reference.', '', 'NOTE\xa01:\tA SLA has to be in place between the operator and the ASP defining the possible QoS levels and their charging rates. For each of the possible pre-defined QoS information sets, the PCF needs to be configured with the corresponding QoS parameters and their values as well as the appropriate Charging key (or receive this information from the UDR).', '', '-\tThe AF may change the QoS by providing a different QoS Reference while the AF session is ongoing. If this happens, the PCF shall update the related QoS parameter sets in the PCC rule accordingly.', '', 'b)\tWhen the AF provides individual QoS parameters instead of a QoS Reference:', '', '-\tThe AF provides one or more of the following individual QoS parameters, i.e. Requested Priority, Maximum Burst Size, Requested 5GS Delay, Requested Maximum Bitrate, Requested Guaranteed Bitrate and Requested Packet Error Rate.', '', 'NOTE\xa02:\tDifferent combinations of individual QoS parameters with specific parameter names exist and they are described in TS\xa023.501\xa0[2] (for Time Sensitive Communication), in clause\xa06.1.3.23 (for integration with Time Sensitive Networking) and in TS\xa029.514\xa0[36].', '', '-\tIf the AF request for QoS is sent via the TSCTSF and the request contains a Requested 5GS Delay, the TSCTSF determines a Requested PDB considering the UE-DS-TT Residence Time (either provided by the PCF or pre-configured).', '', '-\tWhen the PCF authorizes the service information from the AF, it derives the QoS parameters of the PCC rule based on the service information and the individual QoS parameters received from the AF and TSCTSF. The PCF should select a standardized, pre-configured or existing dynamically assigned 5QI that matches the individual QoS parameters. If no 5QI exists that matches the individual QoS parameters, the PCF generates a new dynamically assigned 5QI based on the individual QoS parameters.', '', '-\tThe AF may change the QoS by providing different values for the individual QoS parameters while the AF session is ongoing. If this happens, the PCF shall update the related QoS parameter sets in the PCC rule accordingly.', '', '-\tThe PCF may reject the individual QoS parameters received from the AF based on operator policy or impossibility to support the requested values of the individual QoS parameters. If this happens, the PCF may provide in the response to the AF one or more combinations of individual QoS parameters that can be supported.', '', '\tIn addition to the QoS Reference or the individual QoS parameters described above, the AF may provide further parameters associated with the Flow Description, e.g. parameters that describe traffic characteristics as described in clause\xa06.1.3.23 or 6.1.3.23a and Indication of ECN marking for L4S.', '', '\tThe AF may also provide the PCF with QoS duration and QoS inactivity interval. The requested QoS is applied to each QoS duration interval. Once the PCF receives the request from the AF, the PCF provides a PCC Rule with the QoS parameters to SMF to allocate resources. The PCF may allocate resources at the beginning of each QoS duration interval and release the resources at the end of the corresponding QoS duration interval. This process is repeated until the AF session is revoked. If the AF has subscribed to the PCF and resource allocation for any of the QoS duration interval fails, the PCF informs the AF of the resource allocation failure.', '', 'NOTE\xa03:\tWhen leveraging the QoS duration and the QoS inactivity interval, both are expected to be in the order of minutes to avoid too frequent signalling between RAN, AF and 5GC/PCF.', '', 'If the AF provides an explicit indication (i.e. Indication of ECN marking for L4S) that the UL and/or DL of the service data flow supports ECN marking for L4S or the PCF decides, based on local configuration, that the service data flow supports ECN marking for L4S, then the PCF may explicitly, or implicitly (based on PCF/SMF local configuration), indicate to the SMF to enable for ECN marking for L4S. The PCF decision may be taken, based on local configuration in PCF and SMF and L4S traffic detection result. If L4S support is detected on the UL and/or DL traffic of the service data flow, the QoS flow is enabled with ECN marking for L4S, see clause\xa05.37.3 of TS\xa023.501\xa0[2].', '', 'The PCF generates a PCC Rule with service data flow filter (including IP Packet Filter set as in clause\xa05.7.6.2 of TS\xa023.501\xa0[2]) or Ethernet Packet Filter set as in clause\xa05.7.6.3 of TS\xa023.501\xa0[2]) derived from the Flow Descriptions provided by the AF, the derived PCC rule QoS parameters such a 5QI, ARP, GBR and MBR (see clause\xa06.3.1 for all possible PCC rule QoS parameters) and the associated TSC Assistance Container as received from the TSN AF or TSCTSF.', '', 'For TSC QoS, the PCF derives the 5QI value as defined in clause\xa05.27.3 of TS\xa023.501\xa0[2], the PCF derives the MBR using the Requested Maximum Bitrate provided by the AF and sets the GBR equal to the MBR unless the AF provides a Requested Guaranteed Bitrate, in which case the MBR and GBR are set separately.', '', 'If the PCF gets informed about Policy Control Request Triggers relevant for the AF session, the PCF shall inform the AF about it as defined in clause\xa06.1.3.18.', '', 'If an AF session can adjust to different QoS parameter combinations, the AF may provide Alternative Service Requirements in a prioritized order (indicating the preference of the QoS requirements with which the service can operate) in addition to the QoS Reference or individual QoS parameters. Alternative Service Requirements contain:', '', '-\tWhen the AF requests the network to provide QoS with a QoS Reference, one or more QoS Reference parameters in a prioritized order.', '', '-\tWhen the AF requests the network to provide QoS with individual QoS parameters, one or more Requested Alternative QoS Parameter Set(s) in a prioritized order. Each Requested Alternative QoS Parameter Set is comprised of the following individual parameters: Requested 5GS Delay, Requested Guaranteed Flow Bitrate and Requested Packet Error Rate. Each requested Alternative QoS Parameter Set may also include a Maximum Burst Size parameter.', '', '\tIf the AF request is sent via the TSCTSF, the TSCTSF determines a Requested PDB considering the Requested 5GS Delay and the UE-DS-TT Residence Time.', '', 'An AF that provides Alternative Service Requirements shall also subscribe to receive notifications from the PCF for successful resource allocation and when the QoS targets can no longer (or can again) be fulfilled as described in clause\xa06.1.3.18.', '', 'When the PCF authorizes the service information from the AF and generates a PCC rule, it shall also derive Alternative QoS Parameter Sets for this PCC rule based on the QoS Reference parameters or the Requested Alternative QoS Parameter Sets in the Alternative Service Requirements. If the AF provided Requested Alternative QoS Parameter Sets in the request, the PCF may reject any of the Requested Alternative QoS Parameter Sets it has received based on operator policy or impossibility to support the requested values of the individual parameters. If this happens, the PCF may provide in the response to the AF one or more Requested Alternative QoS Parameters Sets that can be supported.', '', 'The PCF shall enable QoS Notification Control and include the derived Alternative QoS parameter sets (in the same prioritized order indicated by the AF) in the PCC rule sent to the SMF. When the PCF notifies the AF that QoS targets can no longer be fulfilled, the PCF shall include the QoS Reference parameter or the set of Requested Alternative QoS Parameters corresponding to the Alternative QoS parameter set referenced by the SMF, or an indication that the lowest priority QoS Reference or the lowest priority set of Requested Alternative QoS Parameters of the Alternative Service Requirements cannot be fulfilled (as described in clause\xa06.1.3.18).', '', 'The PCF may generate policies to request to monitor the Traffic Parameter (i.e. N6 jitter range associated with DL Periodicity) and include it into a PCC rule based local policy. Based on the received PCC rule or local configuration, the SMF indicates UPF to monitor and report the requested traffic characteristics as described in clause\xa05.37.8.2 in TS\xa023.501\xa0[2].', '', 'NOTE\xa04:\tThe AF behaviour is out of the scope of this TS\xa0but can include adaptation to the change of QoS (e.g. rate adaptation) as well as application layer signalling with the UE.', '', 'The AF may change the Alternative Service Requirements while the AF session is ongoing. If this happens, the PCF shall update the Alternative QoS parameter sets in the PCC rule accordingly.', '', 'The AF may indicate to the PCF that the UE does not need to be informed about changes related to Alternative QoS Profiles. With this indication received from the AF, the PCF decides whether to disable the notifications to the UE when changes related to the Alternative QoS Profiles occur and sets the Disable UE notifications at changes related to Alternative QoS Profiles parameter in the PCC rule accordingly.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.1.3.28	AF requested QoS for a UE or group of UEs not identified by a UE address&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>23503.docx</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.1167317032814026</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>['', 'The AF may request that the data session(s) for a UE (identified by a GPSI) or a group of UEs (identified by an External Group ID) for a specific DNN and S-NSSAI are set up with a specific QoS (e.g. low latency or PDV) and priority handling. The request from the AF may also include parameters for QoS monitoring and parameters that describe the traffic characteristics.', '', 'According to the QoS parameters for AF session with QoS as described in clause\xa06.1.3.22, the parameters that describe the traffic characteristics for AF session with QoS as described in clause\xa06.1.3.23a, and the parameters to subscribe to be notified of the QoS Monitoring reports as described in clause\xa06.1.3.21, the AF request information may include:', '', '-\tDNN and S-NSSAI;', '', '-\tInformation about target UEs: External Group Identifier or GPSI;', '', '-\tFlow Descriptions as described in clause\xa06.1.3.6;', '', 'NOTE\xa01:\tAt the time of providing Flow Description from AF, the AF can only provide the server side information as Flow Description, e.g. 3-tuple(s) including protocol, server side IP address and port number. At the time of applying the Flow Description for generation of PCC rules, the PCF can supplement the UE side information, e.g. UE IP address and port.', '', '-\tTraffic characteristics as described in clause\xa06.1.3.23 or clause\xa06.1.3.23a;', '', '-\tQoS parameters (e.g. QoS Reference or individual QoS parameters or Alternative QoS Parameter Set) as defined in clause\xa06.1.3.22;', '', '-\tQoS parameters for monitoring as defined in clause\xa06.1.3.21;', '', 'NOTE\xa02:\tThe AF can support monitoring of specific performance characteristic by requesting the Notification control with Alternative QoS Profiles as defined in clause\xa05.7.2.4.1b of TS\xa023.501\xa0[2] and deriving the specific degraded QoS characteristic (e.g. GFBR, PDB or PER) and the way it is degraded with the "GFBR can no longer be guaranteed" notifications and indications to Alternative QoS Profile.', '', '-\tTemporal invalidity condition (start-time, end-time), indicate the time period when there will be no user payload for the DNN/S-NSSAI and Flow Descriptions provided with the request (e.g. at night or on weekends);', '', '-\tSubscription to events as defined in clause\xa06.1.3.18.', '', 'The NEF determines whether or not to invoke the TSCTSF in the same way as for AF session with required QoS procedure, as described in step\xa02 of clause\xa04.15.6.6 in TS\xa023.502\xa0[3].', '', 'In case the TSCTSF is not used, the NEF stores the AF request on UDR. The PCF receives the AF requested QoS information from the UDR as described in clause\xa04.15.6.14 of TS\xa023.502\xa0[3]. If the AF requested QoS information contains temporal invalidity condition, the PCF activates, modifies, or removes PCC rules corresponding to the QoS information as needed based on the invalidity conditions.', '', 'In the case that the TSCTSF is used, the TSCTSF receives the AF requested QoS information from the NEF. The TSCTSF applies the AF requested QoS information as described in clause\xa05.20c of TS\xa023.501\xa0[2] and clause\xa04.15.6.14 of TS\xa023.502\xa0[3].', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.3.5	AMF discovery and selection&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.1398650407791138</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>['', 'The AMF discovery and selection functionality is applicable to both 3GPP access and non-3GPP access.', '', 'The AMF selection functionality can be supported by the 5G-AN (e.g. RAN, N3IWF) and is used to select an AMF instance for a given UE. An AMF supports the AMF selection functionality to select an AMF for relocation or because the initially selected AMF was not an appropriate AMF to serve the UE (e.g. due to change of Allowed NSSAI). Other CP NF(s), e.g. SMF, supports the AMF selection functionality to select an AMF from the AMF set when the original AMF serving a UE is unavailable.', '', 'The TSCTSF shall use the AMF discovery functionality to determine the AMFs serving the TAs in the spatial validity condition provided by the AF.', '', '5G-AN selects an AMF Set and an AMF from the AMF Set under the following circumstances:', '', '1)\tWhen the UE provides no 5G-S-TMSI nor the GUAMI to the 5G-AN.', '', '2)\tWhen the UE provides 5G-S-TMSI or GUAMI but the routing information (i.e. AMF identified based on AMF Set ID, AMF pointer) present in the 5G-S-TMSI or GUAMI is not sufficient and/or not usable (e.g. UE provides GUAMI with an AMF region ID from a different region).', '', '3)\tAMF has instructed AN that the AMF (identified by GUAMI(s)) is unavailable and no target AMF is identified and/or AN has detected that the AMF has failed.', '', '4)\tWhen the UE attempts to establish a signalling connection, and the following conditions are met:', '', '-\tthe 5G-AN knows in what country the UE is located; and', '', '-\tthe 5G-AN is connected to AMFs serving different PLMNs of different countries; and', '', '-\tthe UE provides a 5G-S-TMSI or GUAMI, which indicates an AMF serving a different country to where the UE is currently located; and', '', '-\tthe 5G-AN is configured to enforce selection of the AMF based on the country the UE is currently located.', '', "\tThen the 5G-AN shall select an AMF serving a PLMN corresponding to the UE's current location. How 5G-AN selects the AMF in this case is defined in TS\xa038.410\xa0[125].", '', 'NOTE:\tAMF selection case 4) does not apply if 5G-AN nodes serves one country only.', '', 'In the case of NF Service Consumer based discovery and selection, the CP NF selects an AMF from the AMF Set under the following circumstances:', '', '-\tWhen the AMF has instructed CP NF that a certain AMF identified by GUAMI(s) is unavailable and the CP NF was not notified of target AMF; and/or', '', '-\tCP NF has detected that the AMF has failed; and/or', '', "-\tWhen the selected AMF does not support the UE's Preferred Network Behaviour; and/or", '', '-\tWhen the selected AMF does not support the High Latency communication for NR RedCap UE.', '', 'In the case of delegated discovery and associated selection, the SCP selects an AMF from the corresponding AMF Set under the following circumstances:', '', '-\tThe SCP gets an indication "select new AMF within SET" from the CP NF; and/or', '', '-\tSCP has detected that the AMF has failed.', '', 'The AMF selection functionality in the 5G-AN may consider the following factors for selecting the AMF Set:', '', '-\tAMF Region ID and AMF Set ID derived from GUAMI;', '', '-\tRequested NSSAI;', '', '-\tLocal operator policies;', '', '-\t5G CIoT features indicated in RRC signalling by the UE;', '', '-\tIAB-indication;', '', '-\tNB-IoT RAT Type;', '', '-\tCategory M Indication;', '', '-\tNR RedCap Indication;', '', '-\tSNPN Onboarding indication as indicated in 5G-AN signalling by the UE;', '', '-\tMobile IAB-indication.', '', 'AMF selection functionality in the 5G-AN or CP NFs or SCP considers the following factors for selecting an AMF from AMF Set:', '', '-\tAvailability of candidate AMF(s).', '', '-\tLoad balancing across candidate AMF(s) (e.g. considering weight factors of candidate AMFs in the AMF Set).', '', '-\tIn 5G-AN, 5G CIoT features indicated in RRC signalling by the UE.', '', '-\tIn 5G-AN, SNPN Onboarding indication as indicated in 5G-AN signalling by the UE.', '', 'When the UE accesses the 5G-AN with a 5G-S-TMSI or GUAMI that identifies more than one AMF (as configured during N2 setup procedure), the 5G-AN selects the AMF considering the weight factors.', '', 'When 5G-S-TMSI or GUAMI provided by the UE to the 5G-AN contains an AMF Set ID that is usable, and the AMF identified by AMF pointer that is not usable (e.g. AN detects that the AMF has failed) or the corresponding AMF indicates it is unavailable (e.g. out of operation) then the 5G-AN uses the AMF Set ID for selecting another AMF from the AMF set considering the factors above.', '', 'The discovery and selection of AMF in the CP NFs or SCP follows the principle in clause\xa06.3.1', '', 'In the case of NF Service Consumer based discovery and selection, the AMF or other CP NFs shall utilize the NRF to discover the AMF instance(s) unless AMF information is available by other means, e.g. locally configured on AMF or other CP NFs. The NRF provides the NF profile(s) of AMF instance(s) to the AMF or other CP NFs. The AMF selection function in the AMF or other CP NFs selects an AMF instance as described below:', '', 'When NF Service Consumer performs discovery and selection the following applies:', '', '-\tIn the case of AMF discovery and selection functionality in AMF or other CP NFs use GUAMI (in the SNPN case, along with NID of the SNPN that owns the AMF instances to be discovered and selected) or TAI to discover the AMF instance(s), the NRF provides the NF profile of the associated AMF instance(s). If an associated AMF is unavailable due to AMF planned removal, the NF profile of the backup AMF used for planned removal is provided by the NRF. If an associated AMF is unavailable due to AMF failure, the NF profile of the backup AMF used for failure is provided by the NRF. If AMF pointer value in the GUAMI is associated with more than one AMF, the NRF provides all the AMFs associated with this AMF pointer value. If no AMF instances related to the indicated GUAMI can be found, the NRF may provide a list of NF profiles of candidate AMF instances in the same AMF Set. The other CP NF or AMF may select any AMF instance from the list of candidate AMF instances. If no NF profiles of AMF is returned in the discovery result, the other CP NF or AMF may discover an AMF using the AMF Set as below.', '', '-\tIn the case of AMF discovery and selection functionality in AMF use AMF Set to discover AMF instance(s), the NRF provides a list of NF profiles of AMF instances in the same AMF Set.', '', '-\tAt intra-PLMN mobility, the AMF discovery and selection functionality in AMF may use AMF Set ID, AMF Region ID, the target location information, S-NSSAI(s) of Allowed NSSAI to discover target AMF instance(s). The NRF provides the target NF profiles matching the discovery.', '', '-\tAt intra-SNPN mobility, the AMF discovery and selection functionality in AMF may use AMF Set ID, AMF Region ID (along with NID of the SNPN that owns the AMF instances to be discovered and selected), the target location information, S-NSSAI(s) of Allowed NSSAI, AMF support of SNPN Onboarding (if the UE is registered for SNPN Onboarding) to discover target AMF instance(s). The NRF provides the target NF profiles matching the discovery.', '', '-\tAt inter PLMN mobility, the source AMF selects an AMF instance(s) in the target PLMN by querying target PLMN level NRF via the source PLMN level NRF with target PLMN ID. The target PLMN level NRF returns an AMF instance address based on the target operator configuration. After the Handover procedure the AMF may select a different AMF instance as specified in clause\xa04.2.2.2.3 of TS\xa023.502\xa0[3].', '', 'In the context of Network Slicing, the AMF selection is described in clause\xa05.15.5.2.1.', '', 'When delegated discovery and associated selection is used, the following applies:', '', '-\tIf the CP NF includes GUAMI or TAI in the request, the SCP selects an AMF instance associated with the GUAMI or TAI and sends the request to a selected AMF service instance if it is available. The following also applies:', '', '-\tIf none of the associated AMF service instances are available due to AMF planned removal, an AMF service instance from the backup AMF used for planned removal is selected by the SCP;', '', '-\tIf none of the associated AMF service instances are available due to AMF failure, an AMF service instance from the backup AMF used for failure is selected by the SCP;', '', '-\tIf no AMF service instances related to the indicated GUAMI (in the SNPN case, along with NID of the SNPN that owns the AMF instances to be discovered and selected) can be found the SCP selects an AMF instance from the AMF Set; or', '', '-\tAMF Pointer value used by more than one AMF, SCP selects one of the AMF instances associated with the AMF Pointer.', '', '-\tIf the CP NF includes AMF Set ID in the request, the SCP selects AMF/AMF service instances in the provided AMF Set.', '', '-\tAt intra-PLMN mobility, if a target AMF instance needs to be selected, the AMF may provide AMF Set ID, AMF Region ID, and the target location information, S-NSSAI(s) of Allowed NSSAI in the request, optionally NRF to use. The SCP will select a target AMF instance matching the discovery.', '', '-\tAt intra-SNPN mobility, if a target AMF instance needs to be selected, the AMF may provide AMF Set ID, AMF Region ID along with NID of the SNPN that owns the AMF instances to be discovered and selected, and the target location information, S-NSSAI(s) of Allowed NSSAI, AMF support of SNPN Onboarding in the request (if the UE is registered for SNPN Onboarding), optionally NRF to use. The SCP will select a target AMF instance matching the discovery.', '', '-\tAt inter PLMN mobility, the source AMF selects indicates "roaming" to the SCP. The SCP interacts with the NRF in source PLMN so that the NRF in source PLMN can discover an AMF in the target PLMN via target PLMN NRF.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;8.12.1	General&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>23558.docx</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.1668053865432739</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>['', 'The EES may trigger the EAS instantiation dynamically due to e.g., EAS discovery request, EAS discovery subscription request, UE mobility, upon receiving EEC Registration request containing AC profile or upon receiving an EAS information provisioning request.', '', 'Upon receiving the EAS discovery request with EAS discovery filter from the EEC or the S-EES during the procedures for EAS discovery or ACR, the EES may fail to discover and select the EAS that matches the UE location and the requesting application characteristics specified in table\xa08.5.3.2-2 due to no EAS is available or instantiated. The EES may trigger the ECSP management system (which is specified in TS 28.538 [22]) to instantiate the EAS serving the AC in the EDN corresponding to the EAS that can be instantiable before returning the EAS information to the EEC or S-EES, based on the information about instantiable EASs which can be dynamically instantiated at the associated EDN. If EAS selection is performed by the EES, the selected EAS is dynamically instantiated if applicable.', '', 'Based on the information about instantiable EASs, the EES may maintain the EAS instantiation status transition (e.g., among instantiated, instantiable but not instantiated yet, or instantiation in progress) via the EAS (de-)registration procedure or the dynamic EAS instantiation triggering procedure. The EAS instantiation status can be provided to the EEC using the Instantiable EAS Information IE of EAS discovery response and EAS discovery notification for the use of EAS selection by the EEC. If the EEC indicates EAS Instantiation Triggering Suppress in EAS discovery request and EAS discovery subscription request, then the EES does not trigger EAS instantiation.', '', 'Upon receiving EEC Registration request with bundle EAS information the EES may determine that only a subset of the EAS(s) in the bundle are registered and instantiated. If only a subset of bundle EASs is determined, the EES may trigger the ECSP management system to instantiate the subset of remaining EASs corresponding to the bundle that can be instantiable before responding to the registration request. ', '', 'Upon receiving one or more EAS discovery subscription request(s) for the availability of an EAS, EES may determine if there is a need for EAS instantiation based on the information about instantiable EASs. If such a need for EAS instantiation determined, EES may send a report for a need of the EAS instantiation to the ECSP management system to consider instantiating the requested EAS by invoking an MnS API of the ECSP management system. When the requested EAS has been instantiated, the EES may obtain the EAS profile during the EAS registration procedure and notify the availability change event of the requested EAS with the EAS profile to the corresponding EECs via the EAS discovery notification procedure as specified in the clause 8.5.2.3.', '', 'Upon receiving the EAS information provisioning request, the EES may trigger the ECSP management system to instantiate the EAS in the EDN before returning the EAS information to the EEC.', '', 'NOTE\xa01:\tThe ECSP management system is responsible for the authorization of the dynamic EAS instantiation.', '', 'NOTE\xa02:\tThe ECSP management system can provide the information about instantiable EASs to the EES. Such a mechanism is out of scope of this release of the present document.', '', 'NOTE\xa03:\tWhen determining a need for EAS instantiation, EES can further consider the requested service characteristics (e.g. location, latency) by EEC or service load/capacity (e.g. number of service sessions) of EAS, which is upon implementation and out the scope of this specification.', '', "Editor's note:\tThe MnS APIs for EAS instantiation request/notification should be provided by the ECSP management system, which is the scope of SA5.", '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.15.3.1	Monitoring Events&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>23502.docx</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.1289146542549133</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>['', 'The Monitoring Events feature is intended for monitoring of specific events in 3GPP system and making such monitoring events information reported via the NEF. It is comprised of means that allow NFs in 5GS for configuring the specific events, the event detection and the event reporting to the requested party.', '', 'To support monitoring features in roaming scenarios, a roaming agreement needs to be made between the HPLMN and the VPLMN. If the AMF/SMF in the VPLMN determine that normalisation of an event report is required, the AMF/SMF normalises the event report before sending it to the NEF.', '', 'The set of capabilities required for monitoring shall be accessible via NEF to NFs in 5GS. Monitoring Events via the UDM, the AMF, the SMF, the NSACF and the GMLC enables NEF to configure a given Monitor Event at UDM, AMF, SMF, NSACF or GMLC and reporting of the event via UDM and/or AMF, SMF, NSACF or GMLC. Depending on the specific monitoring event or information, it is the AMF, GMLC, NSACF or the UDM that is aware of the monitoring event or information and makes it reported via the NEF.', '', 'The following table enumerates the monitoring events and their detection criteria:', '', 'Table 4.15.3.1-1: List of events for monitoring capability', '', 'Event', '', 'Detection criteria', '', 'Which NF detects the event', '', 'Loss of Connectivity', '', 'Network detects that the UE is no longer reachable for either signalling or user plane communication (see NOTE\xa04).', '', 'The AF may provide a Maximum Detection Time, which indicates the maximum period of time without any communication with the UE after which the AF is to be informed that the UE is considered to be unreachable (see NOTE\xa07).', '', 'If Unavailability Period Duration has been provided by the UE, the AMF uses the remaining value of it to determine the foreseen Loss of Connectivity time as described in clause\xa05.4.1.4 of TS\xa023.501\xa0[2].', '', 'AMF', '', 'UE reachability', '', 'Detected when the UE transitions to CM-CONNECTED state or when the UE will become reachable for paging, e.g. Periodic Registration Update timer. It indicates when the UE becomes reachable for sending downlink data to the UE.', '', 'The AF may provide the following parameters:', '', '1)\tMaximum Latency;', '', '2)\tMaximum Response Time;', '', '3)\tSuggested number of downlink packets. (see NOTE\xa05 and NOTE\xa07).', '', 'This event requires the Reachability Filter set to UE reachable for DL traffic" (see clause\xa05.2.2.3.1-1). For the usage of this event, see clauses 4.2.5.2 and 4.2.5.3.', '', 'When requesting UE reachability monitoring, the AF may in addition request Idle Status Indication to be included in the UE reachability event reporting.', '', 'AMF, UDM', '', 'Location Reporting', '', 'This event is detected based on the Event Reporting Information Parameters that were received in the Monitoring Request (one-time reporting, maximum number of reports, maximum duration of reporting, periodicity, etc. as specified in clause\xa04.15.1).', '', 'It reports either the Current Location or the Last Known Location of a UE.', '', 'When AMF is the detecting NF:', '', 'One-time and Continuous Location Reporting are supported. For Continuous Location Reporting the serving node(s) sends a notification every time it becomes aware of a location change, with the granularity depending on the accepted accuracy of location (see NOTE 1).', '', 'For One-time Reporting with immediate reporting flag set, AMF reports the Last Known Location immediately.', '', 'When AMF is the detecting NF:', '', 'If the immediate reporting flag is not set, the AMF reports the UE Current Location (In case the AMF does not have the UE current location in the granularity as requested by the location report, the AMF retrieves the information via NG-RAN Location reporting procedure as defined in clause\xa04.10).', '', 'When GMLC is the detecting NF:', '', 'Immediate and Deferred Location Reporting is supported. For Deferred Location Reporting the event types UE availability, Area, Periodic Location and Motion are supported.', '', 'AMF, GMLC', '', 'Change of SUPI-PEI association', '', 'This event is detected when the association between PEI and subscription (SUPI) changes (USIM change).', '', 'UDM', '', 'Roaming status', '', "This event is detected based on the UE's current roaming status (the serving PLMN and/or whether the UE is in its HPLMN) and notification is sent when that status changes. (see NOTE 2).", '', 'If the UE is registered via both 3GPP and N3GPP Access Type, then both instances of Roaming status are included.', '', 'UDM', '', 'Communication failure', '', 'This event is detected when RAN or NAS level failure is detected based on connection release and it identifies RAN/NAS release code.', '', 'AMF', '', 'Availability after Downlink Data Notification failure', '', 'This event is detected when the UE becomes reachable again after downlink data delivery failure.', '', 'When requesting Availability after Downlink Data Notification failure monitoring, the AF may in addition request Idle Status Indication to be included in the UE reachability event reporting.', '', 'AMF', '', 'PDU Session Status', '', 'This event is detected when PDU session is established or released. (see NOTE\xa06)', '', 'SMF', '', 'Number of UEs present in a geographical area', '', 'This event is detected based on the Event Reporting Information Parameters that were received in the Monitoring Request (Level of aggregation, Sampling ratio, see clause\xa04.15.1).', '', 'It indicates the number of UEs that are in the geographical area described by the AF. The AF may ask for the UEs that the system knows by its normal operation to be within the area (Last Known Location) or the AF may request the system to also actively look for the UEs within the area (Current Location).', '', 'AMF', '', 'CN Type change', '', 'The event is detected when the UE moves between EPC and 5GC. It indicates the current CN type for a UE or a group of UEs when detecting that the UE switches between being served by a MME and an AMF or when accepting the event subscription. (see NOTE\xa03)', '', 'UDM', '', 'Downlink data delivery status', '', 'It indicates the downlink data delivery status in the core network. Events are reported at the first occurrence of packets being buffered, transmitted or discarded, including:', '', '-\tDownlink data in extended buffering, including:', '', '-\tFirst data packet buffered event', '', '-\tEstimated buffering time, as per clause\xa04.2.3.3', '', '-\tFirst downlink data transmitted event', '', '-\tFirst downlink data discarded event', '', 'SMF', '', 'UE reachability for SMS delivery', '', 'For SMS over NAS, this event is detected when an SMSF is registered for a UE and the UE is reachable as determined by the AMF and the UDM.', '', 'For SMS over IP, the event is detected when the UE is reachable as determined by the AMF and the UDM regardless of an SMSF being registered.', '', 'This enables the UE to receive an SMS. See clauses 4.2.5.2 and 4.2.5.3 (see NOTE\xa08).', '', 'UDM', '', 'UE memory available for SMS', '', 'This event is detected when the UDM receives UE memory available for SMS indication from the SMSF as part of Alert procedure as specified in clause\xa05.1.8 of TS\xa023.540\xa0[84]', '', 'UDM', '', 'Number of registered UEs or established PDU Sessions', '', 'It indicates the current number of registered UEs or established PDU Sessions for a network slice that is subject to NSAC.', '', 'For One-time Reporting with Immediate Reporting Flag set, NSACF reports the number of registered UEs or established PDU Sessions immediately.', '', 'NSACF', '', 'Area Of Interest', '', 'It indicates change of the UE presence in the Area Of Interest.', '', 'AMF, GMLC', '', 'Group Member List Change', '', 'It indicates the changes on the members of the group.', '', 'This event apply to a group of UEs (identified by an External Group ID), such as 5G VN group (see NOTE\xa09) or other groups.', '', 'UDM', '', 'Session inactivity time', '', 'This event is detected by the SMF when the PDU Session has no data transfer for a period specified by the Inactivity Timer. via the User plane status information event, see clause\xa05.2.8.3.1.', '', 'SMF', '', 'Traffic volume', '', 'This event measures the traffic volume (UL and DL) aggregated for the PDU Session (NOTE\xa010).', '', 'UPF', '', 'UL/DL data rate', '', 'This event measures the data rate (UL and DL) aggregated for the PDU Session (NOTE\xa010).', '', 'UPF', '', 'Application Detection', '', 'Detection of application start or stop', '', '(See NOTE\xa011), as described in clause\xa06.1.3.18 of TS\xa023.503\xa0[20].', '', 'PCF', '', 'NOTE\xa01:\tLocation granularity for event request, or event report, or both could be at cell level (Cell ID) or TA level. The granularity can also be expressed by other formats such as geodetic uncertainty shapes (e.g. polygons, circles, etc.) or civic addresses (e.g. streets, districts, etc.) which can be mapped by NEF to AMF specific granularity levels.', '', 'NOTE\xa02:\tRoaming status means whether the UE is in HPLMN or VPLMN based on the most recently received registration state in the UDM.', '', 'NOTE\xa03:\tCN type of CN Type change event is defined in clause\xa05.17.5.1 of TS\xa023.501\xa0[2].', '', 'NOTE\xa04:\tIn the case of UDM service operation information flow, the UDM should set the subscribed periodic registration timer to a smaller value than the value of Maximum Detection Time, since the value of the mobile reachable timer is larger than the value of the periodic registration timer.', '', 'NOTE\xa05:\tMaximum Latency, Maximum Response Time and Suggested number of downlink packets are defined in clause\xa04.15.6.3a.', '', 'NOTE\xa06:\tThe NEF makes a mapping between the 5GS internal event "PDU Session Status" and the T8 API event "PDN Connectivity Status".', '', 'NOTE\xa07:\tThe preferred method for provisioning Network Configuration Parameters is External Parameter Provisioning specified in clause\xa04.15.6.3a. Provisioning event specific parameters as part of Monitoring Request is expected to be used only by the AF that does not support Parameter Provisioning procedure specified in clause\xa04.15.6.3a.', '', 'NOTE\xa08:\tThe NEF maps between the T8 API event "UE reachability" with reachability type SMS and the 5GS internal event "UE reachability for SMS delivery" for SMS over NAS.', '', '\tThe event "UE reachability for SMS delivery" for SMS over IP is used by HSS as described in clause\xa05.5.6.3 of TS\xa023.632\xa0[68].', '', 'NOTE\xa09:\t5G VN group management is defined in the clause\xa05.29.2 of TS\xa023.501\xa0[2].', '', 'NOTE\xa010:\tNEF subscribes to the UPF event applicable for a PDU session via SMF and the result is exposed to NEF by UPF directly. The corresponding procedure for NEF to trigger the UPF event can be found in clause\xa04.15.3.2.3.', '', 'NOTE 11:\tThis event uses bulk subscription/notification, which may impact the PCF/SMF/UPF performance.', '', '', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.13.2	Input Data&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>23288.docx</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.1249511241912842</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>['', 'The NWDAF supporting data analytics on Redundant Transmission Experience shall be able to collect UE mobility information from OAM, MDAS/MDAF, 5GC and AFs and service data from AF, as described in clause\xa06.7.2.2. In addition, NWDAF shall be able to collect the information for PDU session which is established with redundant transmission from the SMF. UE mobility information is specified in Table 6.7.2.2-1 and service data from AF related to UE mobility in Table 6.7.2.2-2. In addition, the NWDAF shall be able to collect performance measurements on user data congestion as specified in Table 6.8.2-1 for user data congestion analytics.', '', 'Additionally, the NWDAF collects the following input (see Table 6.13.2-1 and Table 6.13.2-2) according to existing measurements defined in clause\xa05.33.3 QoS Monitoring to Assist URLLC Service of TS\xa023.501\xa0[2]. The NWDAF also collects the input from MDAS/MDAF of the end to end latency analysis in Table 6.13.2-3, as defined in clause\xa08.4.2.4.3 of TS\xa028.104\xa0[45].', '', 'Table 6.13.2-1: Packet drop and/or packet delay measurement per QFI or GTP level', '', 'Information', '', 'Source', '', 'Description', '', 'UL/DL packet drop rate GTP-U', '', 'OAM (see NOTE\xa02)', '', 'UL/DL packet drop rate measurement on GTP path on N3.', '', 'UL/DL packet delay GTP', '', 'OAM (see NOTE\xa02)', '', 'UL/DL packet delay measurement round trip on GTP path on N3.', '', 'E2E UL/DL packet delay', '', 'UPF (see NOTE\xa03)', '', 'End-to-End (between UE and UPF) packet delay measurement between the UE and the UPF.', '', 'UL/DL packet drop/loss rate of RAN part', '', 'OAM (see NOTE\xa02)', '', 'UL/DL packet drop/loss rate measurement of RAN part.', '', 'NOTE\xa01:\tThe information in this table is provided both as the base to compare with the redundant transmission performance as well as when redundant transmission is enabled.', '', 'NOTE\xa02:\tRefer to clause\xa05.1 of TS\xa028.552\xa0[8] for the performance measurement in NG-RAN and clause\xa05.4 of TS\xa028.552\xa0[8] for the performance measurement in UPF. In addition, Annex A of TS\xa028.552\xa0[8] describes various performance measurements.', '', 'NOTE\xa03:\tRefer to clause\xa05.33.3 of TS\xa023.501\xa0[2] for the packet delay measurement in the UPF.', '', '', '', 'Table 6.13.2-2: The information related to PDU Session established', '', 'Information', '', 'Source', '', 'Description', '', 'DNN', '', 'SMF', '', 'Data Network Name associated for URLLC service.', '', 'UP with redundant transmission', '', 'SMF', '', 'Redundant transmission is setup or terminated.', '', '', '', 'Table 6.13.2-3: Data collection from MDAS/MDAF of end-to-end latency analysis', '', 'Information', '', 'Source', '', 'Description', '', 'E2ELatencyIssueType', '', 'MDAF', '', 'Indication the type of the E2E latency issue.', '', 'The allowed value is one of the enumerated values: RAN latency issue, CN latency issue.', '', 'AffectedObjects', '', 'MDAF', '', 'The managed object instances of subnetwork, managed elements or network slices where the latency issue happens.', '', '', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.15.6.3a	Network Configuration parameters&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>23502.docx</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0.1128861308097839</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>['', 'The Network Configuration parameters are the parameters sent from an AF by invoking the Nnef_ParameterProvision Service as described in clause\xa04.15.6.2.', '', 'The Network Configuration parameters are described in Table 4.15.6.3a-1.', '', 'Table 4.15.6.3a-1: Description of Network Configuration parameters', '', 'Network Configuration parameter', '', 'Description', '', 'Maximum Response Time', '', 'Identifies the time for which the UE stays reachable to allow the AF to reliably deliver the required downlink data.', '', '[optional]', '', 'Maximum Latency', '', 'Identifies maximum delay acceptable for downlink data transfers.', '', 'Example: in order of 1 minute to multiple hours.', '', '[optional]', '', 'Suggested Number of Downlink Packets', '', 'Identifies the number of packets that the core network is suggested to buffer if the UE is not reachable.', '', 'Example: 5 packets.', '', '[optional]', '', '', '', 'The parameters Maximum Response Time and Maximum Latency are stored in the UDM and the Maximum Response Time is sent to the AMF for event monitoring as specified in 4.15.3.2.3b.', '', 'The AMF may use the Maximum Response Time parameter as guide to configure:', '', '-\tExtended Connected time for MICO mode;', '', '-\twhen to send reachability notifications to AF relative to expected reachability events (e.g. paging occasions).', '', 'If the UDM received multiple Network Configuration requests, the UDM shall accept the request as long as the Maximum Latency (if received) and/or the Maximum Response Time (if received) are within the range defined by operator policies. The UDM shall use the minimum value of Maximum Latency(s) to derive the subscribed periodic registration timer and use the maximum value of Maximum Response Time(s) to derive the subscribed Active Time as specified in step\xa02 of clause\xa04.15.3.2.3b. If the newly derived value is changed comparing to the one last time sent to the AMF, the UDM notify the AMF of the updated value via Nudm_SDM_Notification message. If there is a deletion of Network Configuration request, the UDM re-calculates the values (see step\xa02 in clause\xa04.15.3.2.3b) and notify the AMF if needed.', '', 'The Suggested Number of Downlink Packets is classified as SMF associated subscription data. If the NEF is providing DNN and S-NSSAI as specified in clause\xa04.15.3.2.3, then the UDM is able to associate the parameters with subscribed DNN and S-NSSAI and provides the Suggested Number of Downlink Packets consolidated as specified in 4.15.3.2.3b to the SMF for the PDU Session associated with the specific DNN and S-NSSAI as specified in clause\xa04.15.6.2. The SMF may use the Suggested Number of Downlink Packets parameter to configure the number of packets to buffer in the SMF/UPF (in the case of UPF anchored PDU sessions) or in the NEF (in the case of NEF anchored PDU session) when the UE is not reachable and extended buffering of downlink data is activated.', '', 'A Validity Time may be associated with any of the Network Configuration parameters. When the validity time expires, the related NFs delete their local copy of the associated Network Configuration parameter(s). If the deletion results in subscribed value change, the UDM shall notify the AMF or SMF of the changed value.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.3.1	General&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>23503.docx</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0.1736207008361816</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>['', 'The Policy and charging control rule (PCC rule) comprises the information that is required to enable the user plane detection of, the policy control and proper charging for a service data flow. The packets detected by applying the service data flow template of a PCC rule form a service data flow.', '', 'Two different types of PCC rules exist: Dynamic rules and predefined rules. The dynamic PCC rules are provisioned by the PCF to the SMF, while the predefined PCC rules are configured into the SMF, as described in TS\xa023.501\xa0[2], and only referenced by the PCF.', '', 'NOTE\xa01:\tThe procedure for provisioning predefined PCC rules is out of scope for this specification.', '', 'The operator defines the PCC rules.', '', 'Table 6.3.1 lists the information contained in a PCC rule, including the information name, the description and whether the PCF may modify this information in a dynamic PCC rule which is active in the SMF. The Category field indicates if a certain piece of information is mandatory or not for the construction of a PCC rule, i.e. if it is possible to construct a PCC rule without it.', '', 'The differences with table 6.3 in TS\xa023.203\xa0[4] are shown, either "none" means that the IE applies in 5GS or "removed" meaning that the IE does not apply in 5GS, this is due to the lack of support in the 5GS for this feature or "modified" meaning that the IE applies with some modifications defined in the IE.', '', 'Table 6.3.1: The PCC rule information in 5GC', '', 'Information name', '', 'Description', '', 'Category', '', 'PCF permitted to modify for a dynamic PCC rule in the SMF', '', 'Differences compared with table 6.3. in TS\xa023.203\xa0[4]', '', 'Rule identifier', '', 'Uniquely identifies the PCC rule, within a PDU Session.', '', 'It is used between PCF and SMF for referencing PCC rules.', '', 'Mandatory', '', 'No', '', 'None', '', '&lt;b&gt;Service data flow detection&lt;/b&gt;', '', '&lt;i&gt;This part defines the method for detecting packets belonging to a service data flow.&lt;/i&gt;', '', '', '', '', '', '', '', 'Precedence', '', 'Determines the order, in which the service data flow templates are applied at service data flow detection, enforcement and charging. (NOTE 1).', '', 'Conditional (NOTE 2)', '', 'Yes', '', 'None', '', 'Service data flow template', '', 'For IP PDU traffic: Either a list of service data flow filters or an application identifier that references the corresponding application detection filter for the detection of the service data flow.', '', 'For Ethernet PDU traffic: Combination of traffic patterns of the Ethernet PDU traffic.', '', 'It is defined in clause\xa05.7.6.3 of TS\xa023.501\xa0[2].', '', 'Mandatory (NOTE 3)', '', 'Conditional', '', '(NOTE 4)', '', 'Modified', '', '(packet filters for Ethernet PDU traffic added)', '', 'Mute for notification', '', "Defines whether application's start or stop notification is to be muted.", '', 'Conditional (NOTE 5)', '', 'No', '', 'None', '', '&lt;b&gt;Charging&lt;/b&gt;', '', '&lt;i&gt;This part defines identities and instructions for charging and accounting that is required for an access point where flow based charging is configured&lt;/i&gt;', '', '', '', '', '', '', '', 'Charging key', '', '(NOTE\xa022)', '', 'The charging system (CHF) uses the charging key to determine the tariff to apply to the service data flow.', '', '', '', 'Yes', '', 'None', '', 'Service identifier', '', 'The identity of the service or service component the service data flow in a rule relates to.', '', '', '', 'Yes', '', 'None', '', 'Sponsor Identifier', '', 'An identifier, provided from the AF which identifies the Sponsor, used for sponsored flows to correlate measurements from different users for accounting purposes.', '', 'Conditional', '', '(NOTE\xa06)', '', 'Yes', '', 'None', '', 'Application Service Provider Identifier', '', 'An identifier, provided from the AF which identifies the Application Service Provider, used for sponsored flows to correlate measurements from different users for accounting purposes.', '', 'Conditional', '', '(NOTE\xa06)', '', 'Yes', '', 'None', '', 'Charging method', '', 'Indicates the required charging method for the PCC rule.', '', 'Values: online or offline or neither.', '', 'Conditional', '(NOTE\xa07)', '', '', '', 'No', '', 'None', '', 'Service Data flow handling while requesting credit', '', 'Indicates whether the service data flow is allowed to start while the SMF is waiting for the response to the credit request.', '', 'Only applicable for charging method online.', '', 'Values: blocking or non-blocking', '', '', '', 'No', '', 'New', '', 'Measurement method', '', 'Indicates whether the service data flow data volume, duration, combined volume/duration or event shall be measured.', '', 'This is applicable to reporting, if the charging method is online or offline.', '', 'Note: Event based charging is only applicable to predefined PCC rules and PCC rules used for application detection filter (i.e. with an application identifier).', '', '', '', 'Yes', '', 'None', '', 'Application Function Record Information', '', 'An identifier, provided from the AF, correlating the measurement for the Charging key/Service identifier values in this PCC rule with application level reports.', '', '', '', 'No', '', 'None', '', 'Service Identifier Level Reporting', '', 'Indicates that separate usage reports shall be generated for this Service Identifier.', '', 'Values: mandated or not required', '', '', '', 'Yes', '', 'None', '', '&lt;b&gt;Policy control&lt;/b&gt;', '', '&lt;i&gt;This part defines how to apply policy control for the service data flow.&lt;/i&gt;', '', '', '', '', '', '', '', 'Gate status', '', 'The gate status indicates whether the service data flow, detected by the service data flow template, may pass (Gate is open) or shall be discarded (Gate is closed).', '', '', '', 'Yes', '', 'None', '', '5G QoS Identifier (5QI)', '', 'The 5QI authorized for the service data flow.', '', 'Conditional', '(NOTE\xa010)', '', '', '', 'Yes', '', '\tModified', '', '(corresponds to QCI in TS\xa023.203\xa0[4])', '', 'QoS Notification Control (QNC)', '', 'Indicates whether notifications are requested from 3GPP RAN when the GFBR can no longer (or can again) be guaranteed for a QoS Flow during the lifetime of the QoS Flow. ', '', 'Conditional', '(NOTE\xa015)', '', '', '', 'Yes', '', 'Added', '', 'Reflective QoS Control ', '', 'Indicates to apply reflective QoS for the SDF.', '', '', '', 'Yes', '', 'Added', '', 'UL-maximum bitrate', '', 'The uplink maximum bitrate authorized for the service data flow', '', '', '', 'Yes', '', 'None', '', 'DL-maximum bitrate', '', 'The downlink maximum bitrate authorized for the service data flow', '', '', '', 'Yes', '', 'None', '', 'UL-guaranteed bitrate', '', 'The uplink guaranteed bitrate authorized for the service data flow', '', '', '', 'Yes', '', 'None', '', 'DL-guaranteed bitrate', '', 'The downlink guaranteed bitrate authorized for the service data flow', '', '', '', 'Yes', '', 'None', '', 'UL sharing indication', '', 'Indicates resource sharing in uplink direction with service data flows having the same value in their PCC rule', '', '', '', 'No', '', 'None', '', 'DL sharing indication', '', 'Indicates resource sharing in downlink direction with service data flows having the same value in their PCC rule', '', '', '', 'No', '', 'None', '', 'Redirect', '', 'Redirect state of the service data flow (enabled/disabled)', '', 'Conditional (NOTE 8)', '', 'Yes', '', 'None', '', 'Redirect Destination', '', 'Controlled Address to which the service data flow is redirected when redirect is enabled', '', 'Conditional', '', '(NOTE 9)', '', 'Yes', '', 'None', '', 'ARP', '', 'The Allocation and Retention Priority for the service data flow consisting of the priority level, the pre-emption capability and the pre-emption vulnerability', '', 'Conditional', '(NOTE\xa010)', '', 'Yes', '', 'None', '', 'Bind to QoS Flow associated with the default QoS rule', '', 'Indicates that the dynamic PCC rule shall always have its binding with the QoS Flow associated with the default QoS rule (NOTE\xa011).', '', '', '', 'Yes', '', 'Modified (corresponds to bind to the default bearer in TS\xa023.203\xa0[4]) ', '', 'Bind to QoS Flow associated with the default QoS rule and apply PCC rule parameters', '', 'Indicates that the dynamic PCC rule shall always have its binding with the QoS Flow associated with the default QoS rule.', '', 'It also indicates that the that the QoS related attributes of the PCC rule shall be applied to derive the QoS parameters of the QoS Flow associated with the default QoS rule instead of the PDU Session related parameters Authorized default 5QI/ARP.', '', 'Conditional', '(NOTE\xa017)', '', 'Yes', '', 'Added', '', 'PS to CS session continuity', '', 'Indicates whether the service data flow is a candidate for vSRVCC.', '', '', '', '', '', 'Removed', '', 'Priority Level', '', 'Indicates a priority in scheduling resources among QoS Flows (NOTE\xa014).', '', '', '', 'Yes', '', 'Added', '', 'Averaging Window ', '', 'Represents the duration over which the guaranteed and maximum bitrate shall be calculated (NOTE\xa014). ', '', '', '', 'Yes', '', 'Added', '', 'Maximum Data Burst Volume (MDBV)', '', 'Denotes the largest amount of data that is required to be transferred within a period of 5G-AN PDB (NOTE\xa014). ', '', '', '', 'Yes', '', 'Added', '', 'Disable UE notifications at changes related to Alternative QoS Profiles', '', 'Indicates to disable QoS Flow parameters signalling to the UE when the SMF is notified by the NG-RAN of changes in the fulfilled QoS situation. The fulfilled situation is either the QoS profile or an Alternative QoS Profile.', '', 'Conditional', '', '(NOTE\xa025)', '', 'Yes', '', 'Added', '', 'Precedence for TFT packet filter allocation', '', 'Determines the order of TFT packet filter allocation for PCC rules', '', 'Conditional (NOTE\xa028)', '', 'Yes', '', 'Added', '', 'ECN marking for L4S', '', '(NOTE\xa032)', '', 'The ECN marking for L4S indicates the UL and/or DL of the service data flow, detected by the service data flow template, supports ECN marking for L4S and to enable ECN marking for L4S for the service data flow.', '', 'Conditional', '', 'Yes', '', 'Added', '', '&lt;b&gt;Access Network Information Reporting&lt;/b&gt;', '', '&lt;i&gt;This part describes access network information to be reported for the PCC rule when the corresponding QoS Flow is established, modified or terminated.&lt;/i&gt;', '', '', '', '', '', '', '', 'User Location Report', '', 'The serving cell of the UE is to be reported. When the corresponding QoS Flow is deactivated, and if available, information on when the UE was last known to be in that location is also to be reported.', '', '', '', 'Yes', '', 'None', '', 'UE Timezone Report', '', 'The time zone of the UE is to be reported.', '', '', '', 'Yes', '', 'None', '', '&lt;b&gt;Usage Monitoring Control&lt;/b&gt;', '', '&lt;i&gt;This part describes identities required for Usage Monitoring Control.&lt;/i&gt;', '', '', '', '', '', 'None', '', 'Monitoring key', '', '(NOTE\xa023)', '', 'The PCF uses the monitoring key to group services that share a common allowed usage.', '', '', '', 'Yes', '', 'None', '', 'Indication of exclusion from session level monitoring', '', 'Indicates that the service data flow shall be excluded from PDU Session usage monitoring', '', '', '', 'Yes', '', 'None', '', '&lt;b&gt;N6-LAN Traffic Steering Enforcement Control (NOTE\xa018)&lt;/b&gt;', '', '&lt;i&gt;This part describes information required for N6-LAN Traffic Steering.&lt;/i&gt;', '', '', '', '', '', '', '', 'Traffic steering policy identifier(s)', '', 'Reference to a pre-configured traffic steering policy at the SMF', '', '(NOTE\xa012).', '', '', '', 'Yes', '', 'None', '', 'Metadata', '', 'Data provided by AF and included by UPF when forwarding traffic to N6-LAN.', '', '', '', 'Yes', '', 'Added', '', '&lt;b&gt;Application Function influence on traffic routing Enforcement Control (NOTE\xa018)&lt;/b&gt;', '', '&lt;i&gt;This part describes information required for Application Function influence on traffic routing.&lt;/i&gt;', '', '', '', '', '', '', '', 'Data Network Access Identifier', '', 'Identifier(s) of the target Data Network Access (DNAI). It is defined in clause\xa05.6.7 of TS\xa023.501\xa0[2].', '', '', '', 'Yes', '', 'Added', '', 'Per DNAI: Traffic steering policy identifier', '', 'Reference to a pre-configured traffic steering policy at the SMF', '', '(NOTE\xa019).', '', '', '', 'Yes', '', 'Added', '', 'Per DNAI: N6 traffic routing information', '', 'Describes the information necessary for traffic steering to the DNAI. It is described in clause\xa05.6.7 of TS\xa023.501\xa0[2] (NOTE\xa019).', '', '', '', 'Yes', '', 'Added', '', 'Information on AF subscription to UP change events', '', 'Indicates whether notifications in the case of change of UP path are requested and optionally indicates whether acknowledgment to the notifications shall be expected (as defined in clause\xa05.6.7 of TS\xa023.501\xa0[2]).', '', '', '', 'Yes', '', 'Added', '', 'Indication of UE IP address preservation', '', 'Indicates UE IP address should be preserved. It is defined in clause\xa05.6.7 of TS\xa023.501\xa0[2].', '', '', '', 'Yes', '', 'Added', '', 'Indication of traffic correlation', '', '(NOTE\xa029)', '', 'Indicates that the target PDU Sessions should be correlated via a common DNAI in the user plane. It is described in clause\xa05.6.7 of TS\xa023.501\xa0[2].', '', '', '', 'Yes', '', 'Added', '', 'Information on User Plane Latency requirements', '', 'Indicates the user plane latency requirements. It is defined in clause\xa06.3.6 of TS\xa023.548\xa0[33].', '', '', '', 'Yes', '', 'Added', '', 'Indication for Simultaneous Connectivity at Edge Relocation', '', 'Indicates request for simultaneous connectivity over source and target PSA from the AF (see clause\xa05.6.7 of TS\xa023.501\xa0[2]).', '', '', '', 'Yes', '', 'Added', '', 'Information for EAS IP Replacement in 5GC', '', 'Indicates the Source EAS identifier and Target EAS identifier, (i.e. IP addresses and port numbers of the source and target EAS). (see clause\xa05.6.7 of TS\xa023.501\xa0[2]).', '', '', '', 'Yes', '', 'Added', '', 'EAS Correlation indication', '', 'Indicates selecting a common EAS for the application identified by Service data flow template accessed by the UEs with the same Traffic Correlation ID.', '', '', '', 'Yes', '', 'Added', '', 'Traffic Correlation ID', '', 'Identification of a set of UEs accessing the application identified by the Service data flow template (see clause\xa05.6.7 of TS\xa023.501\xa0[2]).', '', '', '', 'Yes', '', 'Added', '', 'Common EAS IP address', '', 'IP address of the common EAS for the application identified by the Traffic Description for the UEs the AF request aims at (as defined in clause\xa05.6.7 of TS\xa023.501\xa0[2]).', '', '', '', 'Yes', '', 'Added', '', 'Common DNAI', '', 'Common DNAI applicable to the set of UEs identified by a traffic correlation ID.', '', '', '', 'Yes', '', 'Added', '', 'FQDN(s)', '', 'FQDN(s) for the application indicated in the PCC rule (see clause\xa05.6.7 of TS\xa023.501\xa0[2]).', '', '', '', 'Yes', '', 'Added', '', 'NEF information', '', 'Notification Endpoint of NEF subscription to be notified with information related to UE members of the set of UEs identified by traffic correlation ID.', '', '', '', 'Yes', '', 'Added', '', '&lt;b&gt;NBIFOM related control Information&lt;/b&gt;', '', '&lt;i&gt;This part describes PCC rule information related with NBIFOM.&lt;/i&gt;', '', '', '', '', '', '', '', 'Allowed Access Type', '', 'The access to be used for traffic identified by the PCC rule.', '', '', '', '', '', 'Removed', '', '&lt;b&gt;RAN support information&lt;/b&gt;', '', '&lt;i&gt;This part defines information supporting the RAN for e.g. handover threshold decision.&lt;/i&gt;', '', '', '', '', '', '', '', 'UL Maximum Packet Loss Rate', '', 'The maximum rate for lost packets that can be tolerated in the uplink direction for the service data flow. It is defined in clause\xa05.7.2.8 of TS\xa023.501\xa0[2].', '', 'Conditional (NOTE 13)', '', 'Yes', '', 'None', '', 'DL Maximum Packet Loss Rate', '', 'The maximum rate for lost packets that can be tolerated in the downlink direction for the service data flow. It is defined in clause\xa05.7.2.8 of TS\xa023.501\xa0[2].', '', 'Conditional (NOTE 13)', '', 'Yes', '', 'None', '', '&lt;b&gt;MA PDU Session Control&lt;/b&gt;', '', '&lt;b&gt;(NOTE\xa020)&lt;/b&gt;', '', '&lt;i&gt;This part defines information supporting control of MA PDU Sessions&lt;/i&gt;', '', '', '', 'Yes', '', 'New', '', 'Application descriptors', '', 'Identifies the application traffic for which MA PDU Session control is required based on the Steering Functionality, the Steering Mode, Steering Mode Indicator and Threshold Values. It is described in clause\xa05.32.8 of TS\xa023.501\xa0[2].', '', 'Conditional (NOTE\xa027)', '', 'Yes', '', 'New', '', 'Steering Functionality', '', 'Indicates the applicable traffic steering functionality.', '', 'Conditional (NOTE\xa021, NOTE\xa031)', '', 'Yes', '', 'New', '', 'Steering Mode', '', 'Indicates the rule for distributing traffic between accesses together with associated steering parameters (if any).', '', 'Conditional (NOTE\xa021, NOTE\xa031)', '', 'Yes', '', 'New', '', 'Steering Mode Indicator', '', 'Indicates either autonomous load-balance operation or UE-assistance operation, if the Steering Mode is set to "Load Balancing", as defined in TS\xa023.501\xa0[2].', '', '', '', 'Yes', '', 'New', '', 'Threshold Values', '', '(NOTE\xa030)', '', 'A Maximum RTT or a Maximum Packet Loss Rate or both.', '', '', '', 'Yes', '', 'New', '', 'Transport Mode', '', '(NOTE\xa033)', '', 'Indicates the transport mode that should be used for the matching traffic, as defined in TS\xa023.501\xa0[2].', '', '', '', 'Yes', '', 'New', '', 'Charging key for Non-3GPP access', '', '(NOTE\xa022)', '', 'Indicates the Charging key used for charging packets carried via Non-3GPP access for a MA PDU Session.', '', '', '', 'Yes', '', 'New', '', 'Monitoring key for Non-3GPP access', '', '(NOTE\xa023)', '', 'Indicates the Monitoring key used to monitor usage of the packets carried via Non-3GPP access for a MA PDU Session.', '', '', '', 'Yes', '', 'New', '', '&lt;b&gt;QoS Monitoring&lt;/b&gt;', '', '&lt;i&gt;This part describes PCC rule information related with QoS Monitoring.&lt;/i&gt;', '', '', '', '', '', '', '', 'QoS Monitoring parameter(s)', '', 'Indicates the QoS Monitoring parameter(s) for which QoS Monitoring can be enabled as defined in clause\xa05.45 of TS\xa023.501\xa0[2].', '', '', '', 'Yes', '', 'Added', '', 'Reporting frequency', '', 'Defines the frequency for the reporting, such as event triggered, periodic.', '', '', '', 'Yes', '', 'Added', '', 'Target of reporting', '', 'Defines the target of the QoS Monitoring reports, it can be the NEF, the AF or the Local NEF.', '', '', '', 'Yes', '', 'Added', '', 'Indication of direct event notification', '', 'Indicates that the QoS Monitoring event shall be reported by the UPF directly to the NF indicated by the Target of reporting.', '', '', '', 'Yes', '', 'Added', '', '&lt;b&gt;DataCollection_ApplicationIdentifier&lt;/b&gt;', '', 'Identifier used in SMF to decide whether this PCC Rule corresponds to an event exposure subscription (see clause\xa04.15.4.4 of TS\xa023.502\xa0[3]).', '', '', '', 'No', '', 'Added', '', '&lt;b&gt;Alternative QoS Parameter Sets&lt;/b&gt;', '', '&lt;b&gt;(NOTE\xa024)&lt;/b&gt;', '', '&lt;b&gt;(NOTE 26)&lt;/b&gt;', '', '&lt;i&gt;This part defines Alternative QoS Parameter Sets for the service data flow.&lt;/i&gt;', '', '', '', '', '', '', '', 'Packet Delay Budget', '', 'The Packet Delay Budget in this Alternative QoS Parameter Set.', '', '', '', 'Yes', '', 'Added', '', 'Packet Error Rate', '', 'The Packet Error Rate in this Alternative QoS Parameter Set.', '', '', '', 'Yes', '', 'Added', '', 'UL-guaranteed bitrate', '', 'The uplink guaranteed bitrate in this Alternative QoS Parameter Set.', '', '', '', 'Yes', '', 'Added', '', 'DL-guaranteed bitrate', '', 'The downlink guaranteed bitrate in this Alternative QoS Parameter Set.', '', '', '', 'Yes', '', 'Added', '', 'Maximum Data Burst Volume (MDBV)', '', 'The Maximum Data Burst Volume (MDBV) in this Alternative QoS Parameter Set.', '', '', '', 'Yes', '', 'Added', '', '&lt;b&gt;TSC Assistance Container&lt;/b&gt;', '', '&lt;i&gt;This part defines parameters provided by TSN AF or TSCTSF. The parameters are defined in clause\xa05.27.2 of TS\xa023.501\xa0[2].&lt;/i&gt;', '', '', '', 'No', '', 'Added', '', '&lt;b&gt;Traffic Parameter Information&lt;/b&gt;', '', '&lt;i&gt;This part describes PCC rule information related with Traffic Parameter Information&lt;/i&gt; &lt;i&gt;for power saving as specified in clause\xa05.37.8 of TS\xa023.501\xa0[2].&lt;/i&gt;', '', '', '', '', '', '', '', 'Periodicity', '', 'Indicates the time period between start of two data bursts in UL and/or DL direction.', '', '', '', 'Yes', '', 'Added', '', '&lt;b&gt;Traffic Parameter Measurement&lt;/b&gt;', '', '&lt;i&gt;This part describes PCC rule information related with Traffic Parameter Measurement for power saving as specified in clause\xa05.37.8 of TS\xa023.501\xa0[2].&lt;/i&gt;', '', '', '', '', '', '', '', 'Traffic Parameter to be measured', '', 'Indicates to measure the N6 jitter range associated with DL Periodicity and optionally, the UL/DL periodicity.', '', '', '', 'Yes', '', 'Added', '', 'Reporting condition', '', 'Defines the condition for the reporting, such as event triggered or periodic, frequency.', '', '', '', 'Yes', '', 'Added', '', '&lt;b&gt;Downlink Data Notification Control&lt;/b&gt;', '', '&lt;i&gt;This part describes information required for controlling the sending of Downlink data delivery status event and DDN Failure event notifications as specified in clause\xa04.15.3 of TS\xa023.502\xa0[3].&lt;/i&gt;', '', '', '', '', '', '', '', 'Notification control for DDD status', '', 'Indicates that notifications of downlink data delivery status are required and the requested type of such notifications.', '', '', '', 'Yes', '', 'Added', '', 'Notification Control for DDN Failure', '', 'Indicates that notifications of DDN Failure are required.', '', '', '', 'Yes', '', 'Added', '', '&lt;b&gt;PDU Set Control Information&lt;/b&gt;', '', 'Information needed to support the delivery of PDU Sets of a service data flow.', '', '', '', '', '', '', '', 'PDU Set QoS Parameters (UL/DL)', '', 'See clause\xa05.7.7 of TS\xa023.501\xa0[2].', '', '', '', 'Yes', '', 'Added', '', '&lt;b&gt;Data Burst Handling Information&lt;/b&gt;', '', '&lt;i&gt;This part describes Data Burst Handling Information&lt;/i&gt;', '', '', '', '', '', '', '', 'End of Data Burst Marking Indication', '', 'Indicates to detect last PDU of the data burst and to mark End of Data Burst Indication (See clause\xa05.37.8 of TS\xa023.501\xa0[2]) on the last PDU.', '', '', '', 'Yes', '', 'Added', '', '&lt;b&gt;Protocol Description Information&lt;/b&gt;', '', 'Information needed to support identifying PDU Set Information for packets and/or last packet of a Data Burst.', '', '', '', '', '', '', '', 'Protocol Description (UL/DL)', '', 'Indicates the protocol, e.g. which is used to detect PDU Set Information of packets and/or last packet of the Data Burst.', '', '(See TS\xa023.501\xa0[2] clause\xa05.37.5, clause\xa05.37.8 and TS\xa026.522\xa0[40]).', '', '', '', 'No', '', 'Added', '', 'NOTE\xa01:\tFor PCC rules based on an application detection filter, the precedence is only relevant for the enforcement, i.e. when multiple PCC rules overlap, only the enforcement, reporting of application starts and stops, monitoring, and charging actions of the PCC rule with the highest precedence shall be applied.', '', 'NOTE\xa02:\tThe Precedence is mandatory for PCC rules with SDF template containing SDF filter(s). For dynamic PCC rules with SDF template containing an application identifier, the precedence is either preconfigured in SMF or provided in the PCC rule from PCF.', '', 'NOTE\xa03:\tEither service data flow filter(s) or application identifier shall be defined per each rule.', '', 'NOTE\xa04:\tYES, if the service data flow template consists of a set of service data flow filters. NO if the service data flow template consists of an application identifier', '', 'NOTE\xa05:\tOptional and applicable only if application identifier exists within the rule.', '', 'NOTE\xa06:\tApplicable to sponsored data connectivity.', '', 'NOTE 7:\tMandatory if there is no default charging method for the PDU Session.', '', 'NOTE\xa08:\tOptional and applicable only if application identifier exists within the rule.', '', 'NOTE\xa09:\tIf Redirect is enabled.', '', 'NOTE\xa010:\tMandatory when Bind to QoS Flow associated with the default QoS rule is not present.', '', 'NOTE\xa011:\tThe presence of this attribute causes the 5QI/ARP/QNC/Priority Level/Averaging Window/Maximum Data Burst Volume of the rule to be ignored for the QoS Flow binding.', '', 'NOTE\xa012:\tThe Traffic steering policy identifier can be different for uplink and downlink direction. If two Traffic steering policy identifiers are provided, then one is for uplink direction, while the other one is for downlink direction.', '', 'NOTE\xa013:\tOptional and applicable only for voice service data flow in this release.', '', 'NOTE\xa014:\tOptional and applicable only when a value different from the standardized value for this 5QI in Table\xa05.7.4-1 TS\xa023.501\xa0[2] is required.', '', 'NOTE\xa015:\tOptional and applicable only for GBR service data flow.', '', 'NOTE\xa016:\tUsage of the charging information in described in TS\xa032.255\xa0[21].', '', 'NOTE 17:\tOnly one PCC rule can contain this attribute and this PCC rule shall not contain the attribute Bind to QoS Flow associated with the default QoS rule.', '', 'NOTE\xa018:\tNone, one of the two or both may be present in a PCC rule.', '', 'NOTE\xa019:\tPer DNAI, a Traffic steering policy identifier and/or N6 traffic routing information can be provided. If the pre-configured traffic steering policy (that is referenced by the Traffic steering policy identifier) contains information that is overlapping with the N6 traffic routing information, the N6 traffic routing information shall take precedence.', '', 'NOTE\xa020:\tOnly applicable to a PCC Rules provided to a MA PDU Session.', '', 'NOTE\xa021:\tMandatory when MA PDU Session Control information is provided.', '', 'NOTE\xa022:\tWhen a Charging key for Non-3GPP access is provided, the parameters in the Charging Section (other than the Charging key) apply to both accesses and the Charging key (in the Charging Section) shall be used for charging packets carried via the 3GPP access.', '', 'NOTE\xa023:\tWhen a Monitoring key for Non-3GPP access is provided, the Monitoring key (in the Usage Monitoring Control Section) shall be used to monitor usage of the packets carried via the 3GPP access.', '', 'NOTE\xa024:\tOptional and applicable only for GBR service data flow with QoS Notification Control enabled.', '', 'NOTE\xa025:\tOptional and applicable only for GBR service data flow for which Alternative QoS Parameter Set(s) are provided.', '', 'NOTE\xa026:\tOne or more Alternative QoS Parameter Sets can be provided in a prioritized order starting with the Alternative QoS Parameter Set that has the highest priority.', '', 'NOTE\xa027:\tMandatory in MA PDU Session Control information only when there is application identifier in the service data flow template.', '', 'NOTE\xa028:\tIf this parameter is used, it has to be present in every PCC rule of the PDU Session.', '', 'NOTE\xa029:\tThe use of traffic correlation is defined in TS\xa023.501\xa0[2], clauses 5.6.7.1 and 5.29.', '', 'NOTE\xa030:\tIf Steering Mode is set to "Redundant", either a Maximum RTT or a Maximum Packet Loss Rate may be provided, but not both.', '', 'NOTE\xa031:\tThe Steering functionality "ATSSS-LL" shall not be provided together with Steering Mode "Redundant".', '', 'NOTE\xa032:\tThis parameter is only provided when the PCF is configured to provide an explicit indicator to the SMF to enable ECN marking for L4S for the traffic identified by the SDF template.', '', 'NOTE 33:\tThe Transport Mode may be included when the Steering Functionality is the MPQUIC functionality.', '', '', '', 'The Rule identifier shall be unique for a PCC rule within a PDU Session. A dynamically provided PCC rule that has the same Rule identifier value as a predefined PCC rule shall replace the predefined rule within the same PDU Session.', '', 'The Precedence defines in what order the activated PCC rules within the same PDU Session shall be applied at the UPF for service data flow detection. When a dynamic PCC rule and a predefined PCC rule have the same precedence, the dynamic PCC rule takes precedence.', '', 'NOTE\xa02:\tThe operator shall ensure that overlap between the predefined PCC rules can be resolved based on precedence of each predefined PCC rule in the SMF. The PCF shall ensure that overlap between the dynamically allocated PCC rules can be resolved based on precedence of each dynamically allocated PCC rule.', '', 'For downlink packets all the service data flow templates, activated for the PDU Session shall be applied for service data flow detection and for the mapping to the correct QoS Flow. For uplink packets the service data flow templates activated on their QoS Flow shall be applied for service data flow detection (further details are provided in clause\xa06.2.2.2).', '', 'The &lt;i&gt;Service data flow template&lt;/i&gt; may comprise any number of &lt;i&gt;Service data flow filters&lt;/i&gt; or an &lt;i&gt;application identifier &lt;/i&gt;as is defined in table 6.3.1.', '', 'NOTE\xa03:\tPredefined PCC rules may include service data flow templates, which support extended capabilities, including enhanced capabilities to identify events associated with application protocols.', '', 'A Service data flow filter contains information for matching user plane packets for IP PDU traffic or Ethernet PDU traffic. All Service data flow filters of a Service data flow template shall be of the same type, i.e. either Packet Filters for IP or Ethernet PDU traffic (defined in clause\xa05.7.6 of TS\xa023.501\xa0[2]). The Service data flow template information within an activated PCC rule is applied by the SMF to instruct the UPF to identify the packets belonging to a particular service data flow.', '', 'For the IP PDU Session type only, the Service data flow template may consist of an application identifier that references an application detection filter that is used for matching user plane packets. The application identifier is also identifying the application, for which the rule applies. The same application identifier value can occur in a dynamic PCC rule and one or multiple predefined PCC rules. If so, the PCF shall ensure that there is at most one PCC rule active per application identifier value at any time.', '', "The &lt;i&gt;Mute for notification&lt;/i&gt; defines whether notification to the PCF of application's starts or stops shall be muted. Absence of this parameter means that start/stop notifications shall be sent.", '', 'The &lt;i&gt;Charging key&lt;/i&gt; is the reference to the tariff for the service data flow. Any number of PCC Rules may share the same charging key value. The Charging key values for each service shall be operator configurable.', '', 'NOTE\xa04:\tAssigning the same Charging key for several service data flows implies that the charging does not require the credit management to be handled separately.', '', 'The &lt;i&gt;Service identifier&lt;/i&gt; identifies the service. PCC Rules may share the same service identifier value. The service identifier provides the most detailed identification, specified for flow-based charging, of a service data flow.', '', 'NOTE\xa05:\tThe PCC rule service identifier need not have any relationship to service identifiers used on the AF level, i.e. is an operator policy option.', '', "The &lt;i&gt;Sponsor Identifier&lt;/i&gt; indicates the (3rd) party organization willing to pay for the operator's charge for connectivity required to deliver a service to the end user.", '', 'The &lt;i&gt;Application Service Provider Identifier&lt;/i&gt; indicates the (3rd) party organization delivering a service to the end user.', '', 'The &lt;i&gt;Charging method&lt;/i&gt; indicates whether online charging or offline charging is required, or the service data flow is not subject to any end user charging. If the charging method identifies that the service data flow is not subject to any end user charging, a Charging key shall not be included in the PCC rule for that service data flow, along with other charging related parameters. If the charging method is omitted the SMF shall apply the default charging method provided within the PDU Session related policy information (see clause\xa06.4). The Charging method is mandatory if there is no default charging method for the PDU Session.', '', 'NOTE\xa06:\tWith converged charging architecture for 5GC, online charging method also includes usage reporting from the SMF to the CHF. Hence, setting the charging method to online will also result in usage reports and thus allow for offline charging being</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.1.3.21	QoS Monitoring control&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>23503.docx</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0.09397536516189575</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>['', 'The QoS Monitoring control refers to the enabling of real-time measurements of QoS Monitoring parameters for a service data flow.', '', 'An AF may request measurements for one or more of the QoS Monitoring parameters defined in clause\xa05.45 of TS\xa023.501\xa0[2].', '', 'NOTE\xa01:\tThe QoS Monitoring parameters which can be measured are parameters which describe the QoS experienced in the 5GS by the application, i.e. they are not restricted to the 5G QoS Parameters.', '', 'The AF may also request measurements for the following QoS Monitoring parameters (see clause\xa06.1.3.18)that are derived by PCF:', '', '-\tPacket Delay Variation, as described in clause\xa06.1.3.26.', '', '-\tRound-trip delay for two service data flows, as described in clause\xa05.37.4 of TS\xa023.501\xa0[2].', '', 'In addition, the following AF requested QoS requirements may trigger QoS monitoring for service data flow(s):', '', '-\tRound-trip latency requirement, see clause\xa05.37.6 of TS\xa023.501\xa0[2].', '', 'The PCF generates the authorized QoS Monitoring policy for the service data flow based on local policy and AF request, including the QoS Monitoring request if received from the AF (as specified in clause\xa06.1.3.22 and in TS\xa023.502\xa0[3]) and AF subscription requests for other QoS Monitoring parameter measurements as listed above.', '', 'The QoS Monitoring policy includes the following:', '', '-\tQoS Monitoring parameters as defined in clause\xa05.45 of TS\xa023.501\xa0[2];', '', '-\tReporting frequency (event triggered, periodic):', '', '-\tif the reporting frequency is event triggered:', '', '-\tthe corresponding reporting threshold to each QoS Monitoring parameter;', '', '-\tminimum waiting time between subsequent reports;', '', '-\tthe reporting period;', '', '-\toptionally, Target of reporting (i.e. the NEF, the AF or the Local NEF, indicated as Notification Target Address + Notification Correlation ID);', '', '-\toptionally, an indication of direct event notification (to request the UPF to directly send QoS Monitoring reports to the Local NEF or the AF as described in clause\xa05.8.2.18 of TS\xa023.501\xa0[2]).', '', 'When multiple QoS Monitoring parameters are required to be measured for a given service data flow, multiple QoS Monitoring policies may be included within one PCC rule. At a given time, the PCC Rule only has one authorized QoS Monitoring policy enabling the measurement of each QoS Monitoring parameter.', '', 'NOTE\xa02:\tWithin a PCC rule, each QoS Monitoring parameter can only be requested in one QoS Monitoring Policy. As an example, if a new QoS Monitoring Policy is provided for a QoS Monitoring parameter, the existing QoS Monitoring Policy for same QoS Monitoring parameter (if any) will be replaced.', '', 'NOTE\xa03:\tThe AF requested QoS Monitoring parameters and the PCF requested QoS Monitoring parameters based on the AF request can be different, e.g. Packet Delay Variation and packet delay, as described in clause\xa06.1.3.26.', '', 'If the AF did not provide an indication of direct event notification in the request and the PCF may decide that it does not want to receive the QoS Monitoring reports. If so, the PCF forwards the Target of reporting parameter in the QoS Monitoring policy and the SMF shall then send the QoS Monitoring reports directly to the NF indicated by the Target of reporting parameter. If the PCF decides that it wants to receive the QoS Monitoring reports, e.g. when the AF request includes measurements that are derived by PCF, the PCF shall not forward the Target of reporting parameter in the QoS Monitoring policy and instead subscribe to receive QoS Monitoring reports from SMF by setting the QoS Monitoring Policy Control Request Trigger.', '', 'If the AF provided an indication of direct event notification in the request and PCF determines that the QoS Monitoring reports can be notified directly (i.e. the AF request does not include QoS Monitoring parameter measurements that are derived by PCF), the PCF forwards the Target of reporting parameter in the QoS Monitoring policy and sets the indication of direct event notification to indicate that QoS Monitoring reports have to be sent by the UPF directly to the NF indicated by the Target of reporting. The PCF may also subscribe to receive QoS Monitoring reports, by setting the QoS Monitoring Policy Control Request Trigger. In that case, the UPF is asked to duplicate the reports and the QoS Monitoring reports will be sent by the UPF to both, the NF indicated by the Target of reporting and to the SMF (which then forwards the report to the PCF).', '', 'If the AF provided an indication of direct event notification and PCF determines that the QoS Monitoring reports can not be notified directly (i.e. the AF request includes QoS Monitoring parameter measurements that are derived by PCF), the PCF generates a successful response to AF and indicates that direct event notification is not possible. The PCF shall neither forward the Target of reporting parameter nor the indication of direct event notification in the QoS Monitoring policy and instead subscribe to receive QoS Monitoring reports from SMF by setting the QoS Monitoring Policy Control Request Trigger.', '', 'NOTE\xa04:\tIf there are multiple QoS rules containing a QoS monitoring policy, the PCF will receive the QoS Monitoring reports for all of them when the QoS Monitoring Policy Control Request Trigger is set.', '', 'The PCF includes the authorized QoS Monitoring policy in the PCC rule and provides it to the SMF. The SMF determines the configuration for the measurement of the QoS Monitoring parameters (e.g. the QoS Monitoring parameter(s) requested) from the QoS Monitoring policy in the PCC rule and requests the RAN (if necessary) and the UPF to perform the measurement of the QoS Monitoring parameters defined in clause\xa05.45 of TS\xa023.501\xa0[2] as needed and as defined in clause\xa05.8.2.18 of TS\xa023.501\xa0[2] and in clause\xa04.3.3.2 of TS\xa023.502\xa0[3].', '', 'The PCF can be configured to include in the QoS monitoring policy of the PCC rule a DataCollection_ApplicationIdentifier determined based on the AF request or local configuration. The DataCollection_ApplicationIdentifier is provided to assist the SMF when it needs to decide whether this PCC Rule corresponds to an event exposure subscription (see clause\xa04.15.4.4 of TS\xa023.502\xa0[3]).', '', 'NOTE\xa05:\tThe SMF selects the PCC Rules whose DataCollection_ApplicationIdentifier matches the Application Identifier received in the event exposure subscription, e.g. a subscription for QoS Monitoring event for data collection that includes an Application Identifier.', '', 'NOTE\xa06:\tThe PCF can also include the DataCollection_ApplicationIdentifier when the SDF template of the PCC rule contains a list of service data flow filters.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;14.3.7.2	TSC stream availability discovery procedure&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>23434.docx</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0.1108087301254272</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>['', 'The TSC stream availability discovery procedure is used by the VAL server to discover the availability of resources for TSC communication for the given stream specification (i.e., between the target UEs) prior to creating the stream. ', '', 'Pre-conditions: ', '', '1.\tEach UE has an established Ethernet PDU session and DS-TTs are connected to the 5GS TSC bridge. The traffic classes are configured on each DS-TT.', '', '2.\tThe NRM server has collected the 5GS TSC bridge management and port management information. The latter is related to the Ethernet ports located in the DS-TTs including bridge delay per DS-TT Ethernet port pair per traffic class.', '', '3.\tNRM server has calculated the bridge delay for each port pair, i.e. composed of (ingress DS-TT Ethernet port, egress DS-TT Ethernet port) including the UE-DS-TT residence time, packet delay budget (PDB) and propagation delay for both UL from sender UE and DL to receiver UE. ', '', ' ', '', '----media/image148.emf----', '', 'Figure\xa014.3.7.2-1: TSC stream availability discovery procedure', '', '1.\tThe NRM server receives a request from a VAL server on NRM-S reference point to discover the connectivity and available QoS characteristics between DS-TTs identified by the stream specification. ', '', '2.\tThe NRM server validates the connectivity between the DS-TTs connected in the same 5GS TSC bridge based on the collected 5GS TSC bridge management and port management information, identifies the traffic classes supported by the DS-TTs and determines the end-to-end latency (including the UE-DS-TT residence times, PDBs and propagation delay). ', '', '3.\tNRM server responds to the VAL server with the stream specification and a list of traffic specifications with the available end-to-end latency and the traffic classes supported by the DS-TTs. ', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;5.31.7.2.1	Overview&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0.1118124723434448</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>['', 'The UE and the network may negotiate over non-access stratum signalling the use of extended idle mode DRX for reducing its power consumption, while being available for mobile terminating data and/or network originated procedures within a certain delay dependent on the DRX cycle value. Extended DRX in CM-IDLE is supported for E-UTRA and NR connected to 5GC. Extended DRX in CM-CONNECTED with RRC_INACTIVE mode is supported for WB-E-UTRA, LTE-M and NR connected to 5GC. RRC_INACTIVE is not supported by NB-IoT connected to 5GC.', '', 'The negotiation of the eDRX parameters for NR, WB-E-UTRA and LTE-M is supported over any RAT.', '', 'Applications that want to use extended idle mode DRX need to consider specific handling of mobile terminating services or data transfers, and in particular they need to consider the delay tolerance of mobile terminated data. A network side application may send mobile terminated data, an SMS, or a device trigger, and needs to be aware that extended idle mode DRX may be in place. A UE should request for extended idle mode DRX only when all expected mobile terminating communication is tolerant to delay.', '', 'NOTE\xa01:\tThe extended idle mode DRX cycle length requested by UE takes into account requirements of applications running on the UE. Subscription based determination of eDRX cycle length can be used in those rare scenarios when applications on UE cannot be modified to request appropriate extended idle mode DRX cycle length. The network accepting extended DRX while providing an extended idle mode DRX cycle length value longer than the one requested by the UE, can adversely impact reachability requirements of applications running on the UE.', '', 'UE and NW negotiate the use of extended idle mode DRX as follows:', '', '\tIf the UE decides to request for extended idle mode DRX, the UE includes an extended idle mode DRX parameters information element in the Registration Request message. The UE may also include the UE specific DRX parameters information element for regular idle mode DRX according to clause\xa05.4.5. The extended DRX parameters information element includes the extended idle mode DRX cycle length.', '', "\tThe AMF decides whether to accept or reject the UE request for enabling extended idle mode DRX. If the AMF accepts the extended idle mode DRX, the AMF based on operator policies and, if available, the extended idle mode DRX cycle length value in the subscription data from the UDM, may also provide different values of the extended idle mode DRX parameters than what was requested by the UE. The AMF taking into account the RAT specific Subscribed Paging Time Window, the UE's current RAT and local policy also assigns a Paging Time Window length to be used, and provides this value to the UE during Registration Update procedures together with the extended idle mode DRX cycle length in the extended DRX parameter information element. If the AMF accepts the use of extended idle mode DRX, the UE shall apply extended idle mode DRX based on the received extended idle mode DRX length, the UE's current RAT (NR, NB-IoT, WB-E-UTRA or LTE-M) and RAT specific Paging Time Window length. If the UE does not receive the extended DRX parameters information element in the relevant accept message because the AMF rejected its request or because the request was received by AMF not supporting extended idle mode DRX, the UE shall apply its regular discontinuous reception as defined in clause\xa05.4.5. For NR, Paging Time Window applies for extended DRX lengths greater than 10.24s as defined in TS\xa038.304\xa0[50]. For WB-E-UTRA, Paging Time Window applies for extended DRX lengths of 10.24s and greater as defined in TS\xa036.304\xa0[52].", '', '\tWhen the UE is accessing NR, if the AMF provides an extended idle mode DRX cycle length value of 10.24s, and the registration area of the UE contains only NR cells, the AMF does not include a Paging Time Window. If the AMF provides an extended idle mode DRX cycle length value of 10.24s, and the registration area of the UE contains E-UTRA cells and NR cells if the UE supports both E-UTRA and NR, the AMF includes a Paging Time Window.', '', '\tFor WB-E-UTRA and LTE-M the eNB broadcasts an indicator for support of extended idle mode DRX in 5GC in addition to the existing indicator for support of extended idle mode DRX in EPC as defined in TS\xa036.331\xa0[51]. For NR the gNB broadcasts an indicator for support of extended idle mode DRX as defined in TS\xa038.331\xa0[28]. This indicator is used by the UE in CM-IDLE state.', '', 'NOTE\xa02:\tA broadcast indicator for support of extended idle mode DRX is not needed for NB-IoT as it is always supported in NB-IoT.', '', 'The specific negotiation procedure handling is described in TS\xa023.502\xa0[3].', '', 'NOTE\xa03:\tIf the Periodic Registration Update timer assigned to the UE is not longer than the extended idle mode DRX cycle the power savings are not maximised.', '', 'For RAT types that support extended DRX for CM-CONNECTED with RRC_INACTIVE state, the AMF passes the UE\'s accepted idle mode eDRX values to NG-RAN. If the UE supports eDRX in RRC_INACTIVE, based on its UE radio capabilities, NG-RAN configures the UE with an eDRX cycle in RRC_INACTIVE as specified in TS\xa038.300\xa0[27] up to the value for the UE\'s idle mode eDRX cycle as provided by the AMF in "RRC Inactive Assistance Information" as defined in clause\xa05.3.3.2.5.', '', 'If an eDRX cycle is applied in RRC_INACTIVE, the RAN can buffer DL packets up to the duration of the eDRX cycle chosen by NG-RAN if the eDRX cycle does not last more than 10.24 seconds. If the CN based MT communication handling support indication is received in RRC Inactive Assistance Information, the NG-RAN may select an eDRX cycle that lasts more than 10.24s. In this case, based on implementation the NG-RAN may send an indication in N2 message that the UE is transitioning to RRC_INACTIVE state and the NG-RAN determined eDRX values (i.e. the eDRX cycle length and the Paging Time Window length) for RRC_INACTIVE to the AMF. The CN takes the indication in the N2 message into account, then handles mobile terminated (MT) communication as specified in clause\xa05.31.7.2.4 and it can apply high latency communication as specified in clause\xa05.31.8. The AMF replies to NG-RAN that the indication in the N2 message has been taken into account and the MT signalling or data may be buffered by the Core Network based on high latency communication. If and when the NG-RAN chooses to send the indication is up to NG-RAN implementation. If the NG-RAN delays sending the indication and it receives a DL NAS message for the UE, the NG-RAN proceeds as described in clause\xa04.8.1.1a of TS\xa023.502\xa0[3].', '', 'NOTE\xa04:\tIf the indication that the UE is transitioning to RRC_INACTIVE state is not sent (or sent after UE has entered RRC_INACTIVE state) by the NG-RAN then until CN receives it the CN cannot apply the high latency communication functionality, other NFs will not be aware of the UE reachability, certain high latency communication related services provided to the AF via NEF would not be available, NAS message delivery might fail and downlink data in RAN might be lost.', '', 'NOTE\xa05:\tThe CN based MT communication handling support indication in RRC Inactive Assistance Information is provided when all entities (e.g. AMF, SMF and UPF) involved in the CN support corresponding functionalities (including the support providing buffered downlink data size) based on deployment and configuration.', '', 'When the UE has PDU Session associated with emergency services, the UE and AMF follow regular discontinuous reception as defined in clause\xa05.4.5 and shall not use the extended idle mode DRX. Extended idle mode DRX parameters may be negotiated while the UE has PDU Session associated with emergency services. When the PDU Session associated with emergency services is released, the UE and AMF shall reuse the negotiated extended idle mode DRX parameters in the last Registration Update procedure.', '', 'The UE shall include the extended DRX parameters information element in each Registration Request message if it still wants to use extended idle mode DRX. At AMF to AMF, AMF to MME and MME to AMF mobility, the extended idle mode DRX parameters are not sent from the old CN node to the new CN node as part of the MM context information.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.43.3.1	General&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0.1331039071083069</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>['', 'The UE to UE traffic may be locally routed by UPF(s) deployed on satellite (i.e. through local switch) to the target UE without traversing back to the satellite gateway on the ground.', '', 'Local switching via UPF(s) deployed on satellite in this clause\xa0only applies on GEO satellite backhaul case and considers only DNNs and slices for 5G VN.', '', 'N19 tunnel may be established between two UPFs deployed on different satellites for traffic between UEs. Also, N6 may be used for carrying traffic between UPFs deployed on different satellites.', '', 'Only a single SMF is supported for local switching and N19 forwarding, i.e. both UEs are served by the same SMF.', '', 'NOTE:\tThe latency optimisation that can be gained by inter-satellite link between UPFs on different GEO satellites depends on the distance between the satellites that can be substantial, depending on the number of deployed satellites.', '', 'Clause\xa05.43.3.2 describes the case of PSA UPF deployed on satellite, clause\xa05.43.3.3 describes the case of UL CL/BP and local PSA deployed on satellite (PSA UPF is on the ground). Selection of PSA UPF or UL CL/BP/local PSA on satellite is described in clause\xa06.3.3 and determination of DNAI to select the UPF deployed on the corresponding GEO satellite reuses the mechanism described in clause\xa05.43.2.', '', 'A combination of DNN/S-NSSAI is assigned by the operator for the communications between UEs where backhaul with UPF is deployed on GEO satellite, the URSP is described in TS\xa023.503\xa0[45] and its configuration to enable the selection PSA UPF on the GEO satellite reuses the mechanism described in clause\xa05.43.2.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
           <t>&lt;h4&gt;6.4.2.1	Usage of Nupf_EventExposure to Report QoS Monitoring results&lt;/h4&gt;</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>23548-i20.docx</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1315695532325003</v>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>23548.docx</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.1315694451332092</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>['', 'The UPF may be instructed to report information about a PDU Session directly i.e. bypassing the SMF and the PCF. This reporting may target an Edge Application Server (EAS) or a local AF that itself interfaces the EAS.', '', 'Local NEF deployed at the edge may be used to support network exposure with low latency to local AF. The local NEF may support one or more of the functionalities described in clause\xa06.2.5.0 of TS\xa023.501\xa0[2]. and may support a subset of the APIs specified for capability exposure based on local policy. In order to support the network exposure locally, the local NEF shall support Nnef_AFSessionWithQoS service operation for the local AF. The local NEF selection by AF is described in clauses 6.2.5.0 and 6.3.14 of TS\xa023.501\xa0[2].', '', 'The local AF subscribes the direct notification of QoS Monitoring results from the PCF via a local NEF or NEF. If the NEF detects that it is not the most suitable NEF instance to serve the local AF request, it may redirect the AF to a local NEF instance.', '', 'NOTE\xa01:\tIf the notifications need to go via the local NEF, then the local NEF needs to be involved in order to be able to map these notifications to the URI where the AF expects to receive them.', '', 'The local AF may also use the Npcf_PolicyAuthorization_Create or Update service of the PCF directly. In this case, reporting is done directly from the UPF to the local AF.', '', "Based on the indication of direct event notification and operator's policy, the PCF includes Direct event notification method and the Target of reporting (including target local NEF address or target AF address) within the PCC rule that it provides to the SMF as described in clause\xa06.1.3.21 of TS\xa023.503\xa0[4].", '', 'The SMF sends the QoS monitoring request to the RAN and N4 rules to the L-PSA UPF. If the L-PSA UPF supports such reporting, N4 rules indicate that the QoS flow needs direct notification of QoS Monitoring. When QoS monitoring of GTP-U Path(s) is used, it is also activated if needed. This is as defined in clause\xa05.33.3 of TS\xa023.501\xa0[2]. When N4 rules indicate that the QoS flow needs direct notification of QoS Monitoring results, upon the detection of the QoS monitoring event (e.g. when threshold for the packet delay of the QoS flow is reached as defined in clause\xa05.33.3 of TS\xa023.501\xa0[2]), the L-PSA UPF notifies the QoS Monitoring event information to the AF (directly or via Local NEF). If the L-PSA UPF supports the Nupf_EventExposure_Notify service operation, as defined in clause\xa05.2.26 of TS\xa023.502\xa0[3], the L-PSA UPF sends the Nupf_EventExposure_Notify to the Notification Target Address indicated by the Session Reporting Rule received from the SMF. The Notification Target Address may correspond to the AF or to a local NEF. When the Notification Target Address corresponds to a Local NEF, the local NEF reports the QoS Monitoring result to the AF.', '', 'During UE mobility, the SMF may trigger the L-PSA UPF relocation/reselection and then send the N4 rules to the new L-PSA UPF to indicate the QoS flow needs direct notification of QoS Monitoring. The UE mobility may also trigger AF relocation or local NEF reselection, then the local AF should update the subscription for local exposure with QoS monitoring results possibly via local NEF, towards the PCF. This updated /new subscription is then propagated via SMF (via PCC rule updates) and then to the L-PSA UPF via N4 rules.', '', 'NOTE\xa02:\tThe new local AF can subscribe direct notification of QoS Monitoring if Edge Relocation Involving AF Change happens as described in clause\xa06.3.2.', '', '----media/image25.emf----', '', 'Figure 6.4.2.1-1: Network exposure to Edge Application Server', '', '0.\tThe UE establishes a PDU Session as defined in clause\xa04.3.2.2.1 of TS\xa023.502\xa0[3] A L-PSA UPF is assigned for this PDU Session.', '', '1.\tThe AF initiates setting up an AF session with required QoS procedure as defined in clause\xa04.15.6.6 of TS\xa023.502\xa0[3].', '', '\tIn the request, the AF may subscribe to direct notification of QoS monitoring results for the service data flow to PCF possibly via Local NEF or NEF. If so, the AF shall include the corresponding QoS monitoring parameters as defined in clause\xa06.1.3.21 of TS\xa023.503\xa0[4] and in TS\xa023.502\xa0[3].', '', '\tThe AF may also first initiate an AF Session with PCF and later subscribe to direct notification of QoS monitoring to PCF by invoking Npcf_PolicyAuthorization_Update service operation.', '', '\tThe local AF or NEF may discover a local NEF as specified in clause\xa06.2.5.0 of TS\xa023.501\xa0[2] and using parameters as specified in clause\xa06.3.14. Alternatively, if the NEF detects that it is not the most suitable NEF instance to serve the local AF request, the NEF may redirect the AF to a (more) local NEF. The NEF may use information on the L-PSA UPF for this determination.', '', '2.\tThe PCF makes the policy decision and initiates the PDU Session modification procedure as defined in clause\xa04.3.3.2 of TS\xa023.502\xa0[3], steps 1b, 3b, 4-8b.', '', '\tIf the direct notification of QoS monitoring results is subscribed, the PCF includes the Direct event notification method and the Target of reporting (including target local NEF or local AF address) in the PCC rule of the service data flow as described in clause\xa06.1.3.21 of TS\xa023.503\xa0[4].', '', '\tIf the SMF receives the Direct event notification form the PCF and the SMF determines that the L-PSA UPF supports such reporting, the SMF determines the QoS monitoring parameters based on the information received from the PCF and/or local configuration and provides them to the L-PSA UPF via N4 rules as described in clause\xa05.33.3.1 of TS\xa023.501\xa0[2]. Otherwise the SMF activates N4 reporting for the QoS monitoring results. The PCF may determine that the duplicated notification is required, i.e. both, direct notification to the AF (i.e. sent from UPF) and notification sent to the PCF/SMF is required and indicate it to the SMF using the Direct event notification method in the PCC rule as described in clause\xa06.1.3.21 of TS\xa023.503\xa0[4]. In this case, the SMF shall activate the N4 reporting together with the direct reporting to the local NEF/AF.', '', 'NOTE\xa02:\tThe details of the parameters for the control of the QoS monitoring as well as the PCF and SMF behaviour are described in clause\xa06.1.3.21 of TS\xa023.503\xa0[4] and in clause\xa05.33.3.1 of TS\xa023.501\xa0[2], respectively.', '', '3.\tThe L-PSA UPF obtains QoS monitoring information as defined in clause\xa05.33.3 of TS\xa023.501\xa0[2].', '', '4.\tThe L-PSA UPF sends the notification related with QoS monitoring information over Nupf_EventExposure_Notify service operation. The notification is sent to Notification Target Address that may correspond (4a) to the local AF or (4b) to the local NEF.', '', '5.\tIf Local NEF is used, it reports the real-time network information to local AF by invoking Nnef_EventExposure_Notify service operation.', '', '6.\tDue to e.g. UE mobility, the PSA relocation and/or EAS relocation may happen as described in clause\xa06.3. During the PSA and/or EAS relocation (if the event was subscribed e.g. as in step\xa01), the SMF notifies the (local) NEF or the AF with the PSA and/or EAS relocation, and the AF may trigger a new L-NEF discovery as in step\xa01. During this step, the application mechanisms may involve a new AF for this session.', '', '7.\tThe new AF may initiate a new AF session to (re-)subscribe the direct notification of QoS monitoring as described in steps 1-4.', '', '8.\tThe old AF revokes the AF session.', '', 'NOTE\xa03:\tStep\xa08 can take place before step\xa07.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.2.3	UPF&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0.1397063136100769</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>['', 'The User plane function (UPF) includes the following functionality. Some or all of the UPF functionalities may be supported in a single instance of a UPF:', '', '-\tAnchor point for Intra-/Inter-RAT mobility (when applicable).', '', '-\tAllocation of UE IP address/prefix (if supported) in response to SMF request.', '', '-\tExternal PDU Session point of interconnect to Data Network.', '', '-\tPacket routing &amp;amp; forwarding (e.g. support of Uplink classifier to route traffic flows to an instance of a data network, support of Branching point to support multi-homed PDU Session, support of traffic forwarding within a 5G VN group (UPF local switching, via N6, via N19)).', '', '-\tPacket inspection (e.g. Application detection based on service data flow template and the optional PFDs received from the SMF in addition).', '', '-\tUser Plane part of policy rule enforcement, e.g. Gating, Redirection, Traffic steering).', '', '-\tLawful intercept (UP collection).', '', '-\tTraffic usage reporting.', '', '-\tQoS handling for user plane, e.g. UL/DL rate enforcement, Reflective QoS marking in DL.', '', '-\tUplink Traffic verification (SDF to QoS Flow mapping).', '', '-\tTransport level packet marking in the uplink and downlink.', '', '-\tDownlink packet buffering and downlink data notification triggering.', '', '-\tSending and forwarding of one or more "end marker" to the source NG-RAN node.', '', '-\tFunctionality to respond to Address Resolution Protocol (ARP) requests and / or IPv6 Neighbour Solicitation requests based on local cache information for the Ethernet PDUs. The UPF responds to the ARP and / or the IPv6 Neighbour Solicitation Request by providing the MAC address corresponding to the IP address sent in the request.', '', '-\tPacket duplication in downlink direction and elimination in uplink direction in GTP-U layer.', '', '-\tNW-TT functionality.', '', '-\tHigh latency communication, see clause\xa05.31.8.', '', '-\tATSSS Steering functionality to steer the MA PDU Session traffic, refer to clause\xa05.32.6.', '', 'NOTE:\tNot all of the UPF functionalities are required to be supported in an instance of user plane function of a Network Slice.', '', '-\tInter PLMN UP Security (IPUPS) functionality, specified in clause\xa05.8.2.14.', '', '-\tEvent exposure, including exposure of network information, i.e. the QoS monitoring information, as specified in clause\xa05.8.2.18, events as specified in clause\xa05.2.26.2 of TS\xa023.502\xa0[3], exposure of data collected for analytics, as specified in clause\xa05.2.26.2 of TS\xa023.502\xa0[3] and exposure of the TSC management information as specified in clause\xa05.8.5.14.', '', '-\tExposure of the UE information, e.g. UE IP address translation information as specified in clause\xa05.2.26.3 of TS\xa023.502\xa0[3] and clause\xa04.15.10 of TS\xa023.502\xa0[3] if Network address translation (i.e. NAT) functionality of the UE IP address is deployed within UPF.', '', '-\tSupport PDU Set Handling as defined in clause\xa05.37.5.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.6.7.1	General&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0.1459619402885437</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>['', 'The content of this clause applies to non-roaming and to LBO deployments i.e. to cases where the involved entities (AF, PCF, SMF, UPF) belong to the Serving PLMN or AF belongs to a third party with which the Serving PLMN has an SLA agreement.', '', 'AF influence on traffic routing may apply in the case of Home Routed deployments with Session Breakout (HR SBO) as defined in TS\xa023.548\xa0[130]. In that case when an AF belonging to the V-PLMN (or with an offloading SLA with the V PLMN) desires to provide Traffic Influence policies it may invoke at the V-NEF the API defined in this clause\xa0and provide the information listed in Table 5.6.7-1 below but the corresponding Traffic Influence information is provided directly from V-NEF to V-SMF bypassing the PCF. This is further defined in TS\xa023.548\xa0[130] clause\xa06.7.2. and the rest of the clause\xa05.6.7.1 does not address how information related with AF influence on traffic routing may be provided to the SMF in the case of HR SBO.', '', 'PCF shall not apply AF requests to influence traffic routing to PDU Sessions established in Home Routed mode.', '', 'The AF may determine the common EAS/DNAI for the UE set in order to indicate a common EAS or common local part of DN, and provide the common EAS/DNAI to the 5GS.', '', 'An AF may send requests to influence SMF routing decisions for traffic of PDU Session. The AF requests may influence UPF (re)selection and (I-)SMF (re)selection and allow routing user traffic to a local access to a Data Network (identified by a DNAI).', '', 'The AF may issue requests on behalf of applications not owned by the PLMN serving the UE.', '', 'If the operator does not allow an AF to access the network directly, the AF shall use the NEF to interact with the 5GC, as described in clause\xa06.2.10.', '', 'The AF may be in charge of the (re)selection or relocation of the applications within the local part of the DN (as defined in TS\xa023.548\xa0[130]). Such functionality is not defined. For this purpose, the AF may request to get notified about events related with PDU Sessions.', '', 'In the case of AF instance change, the AF may send request of AF relocation information.', '', 'The AF requests are sent to the PCF via N5 (in the case of requests targeting specific on-going PDU Sessions of individual UE(s), for an AF allowed to interact directly with the 5GC NFs) or via the NEF. The AF requests that target existing or future PDU Sessions of multiple UE(s) or of any UE are sent via the NEF and may target multiple PCF(s), as described in clause\xa06.3.7.2. The PCF(s) transform(s) the AF requests into policies that apply to PDU Sessions. When the AF has subscribed to UP path management event notifications from SMF(s) (including notifications on how to reach a GPSI over N6), such notifications are sent either directly to the AF or via an NEF (without involving the PCF). For AF interacting with PCF directly or via NEF, the AF requests may contain the information as described in the Table 5.6.7-1:', '', 'Table 5.6.7-1: Information element contained in AF request', '', 'Information Name', '', 'Applicable for PCF or NEF (NOTE 1)', '', 'Applicable for NEF only', '', 'Category', '', 'Traffic Description', '', 'Defines the target traffic to be influenced, represented by the combination of DNN and optionally S-NSSAI and optionally PLMN ID of the PLMN that the DNN/S-NSSAI belongs to and application identifier or traffic filtering information. (NOTE\xa07) (NOTE\xa08)', '', 'The target traffic can be represented by AF-Service-Identifier, instead of combination of DNN and optionally S-NSSAI. ', '', 'Mandatory', '', 'Potential Locations of Applications', '', 'Indicates potential locations of applications, represented by a list of DNAI(s) and optionally PLMN ID of the PLMN that the list of DNAI(s) belongs to. (NOTE\xa08)', '', 'The potential locations of applications can be represented by AF-Service-Identifier.', '', 'Conditional', '', '(NOTE\xa02)', '', 'Target UE Identifier(s)', '', 'Indicates the UE(s) that the request is targeting, i.e. one or a list of individual UE(s), a group of UE represented by Internal Group Identifier(s) (NOTE\xa03), or any UE accessing the combination of DNN, S-NSSAI and DNAI(s).', '', 'GPSI can be applied to identify the individual UE, or External Group Identifier(s) can be applied to identify a group of UE (NOTE\xa03). External Subscriber Category(s) (NOTE\xa05).', '', 'Mandatory', '', 'Spatial Validity Condition', '', 'Indicates that the request applies only to the traffic of UE(s) located in the specified location, represented by areas of validity.', '', 'The specified location can be represented by geographical area.', '', 'Optional', '', 'AF transaction identifier', '', 'The AF transaction identifier refers to the AF request.', '', 'N/A', '', 'Mandatory', '', 'N6 Traffic Routing requirements', '', 'Routing profile ID and/or N6 traffic routing information corresponding to each DNAI and an optional indication of traffic correlation (NOTE\xa04).', '', 'N/A', '', 'Optional', '', '(NOTE 2)', '', 'Application Relocation Possibility', '', 'Indicates whether an application can be relocated once a location of the application is selected by the 5GC.', '', 'N/A', '', 'Optional', '', 'UE IP address preservation indication', '', 'Indicates UE IP address should be preserved.', '', 'N/A', '', 'Optional', '', 'Temporal Validity Condition', '', 'Time interval(s) or duration(s).', '', 'N/A', '', 'Optional', '', 'Information on AF subscription to corresponding SMF events', '', 'Indicates whether the AF subscribes to change of UP path of the PDU Session and the parameters of this subscription.', '', 'N/A', '', 'Optional', '', 'Information for EAS IP Replacement in 5GC', '', 'Indicates the Source EAS identifier and Target EAS identifier, (i.e. IP addresses and port numbers of the source and target EAS).', '', 'N/A', '', 'Optional', '', 'User Plane Latency Requirement', '', 'Indicates the user plane latency requirements', '', 'N/A', '', 'Optional', '', 'Information on AF change', '', 'N/A', '', 'Indicates the AF instance relocation and relocation information.', '', 'Optional', '', 'Indication for EAS Relocation', '', 'Indicates the EAS relocation of the application(s)', '', 'N/A', '', 'Optional', '', 'Indication for Simultaneous Connectivity over the source and target PSA at Edge Relocation', '', 'Indicates that simultaneous connectivity over the source and target PSA should be maintained at edge relocation and provides guidance to determine when the connectivity over the source PSA can be removed.', '', 'N/A', '', 'Optional', '', 'EAS Correlation indication', '', 'Indicates selecting a common EAS for the application identified by the Traffic Description for the set of UEs.', '', '', '', 'Optional', '', 'Common EAS IP address', '', 'the common EAS for the application identified by the Traffic Description for a set of UEs the AF request aims at.', '', '', '', 'Optional', '', 'Traffic Correlation ID', '', 'Identification of a set of UEs targeted at by the AF request, and accessing the application identified by the Traffic Description.', '', '', '', 'Optional', '', 'FQDN(s)', '', 'FQDN(s) used for influencing EASDF-based DNS query procedure as defined in TS\xa023.548\xa0[130] (NOTE\xa06).', '', '', '', 'Optional', '', 'NOTE\xa01:\tWhen the AF request targets existing or future PDU Sessions of multiple UE(s) or of any UE and is sent via the NEF, as described in clause\xa06.3.7.2, the information is stored in the UDR by the NEF and notified to the PCF by the UDR.', '', 'NOTE\xa02:\tThe potential locations of applications and N6 traffic routing requirements may be absent only if the request is for subscription to notifications about UP path management events or the request is for indication of selecting Common EAS for a set of UEs.', '', 'NOTE\xa03:\tInternal Group ID can only be used by an AF controlled by the operator and only towards PCF. If a list of Internal/External Group IDs is provided by the AF, the AF request applies to the UEs that belong to every one of these groups, i.e. a single UE needs to be a member of every group in the list of Internal/External Group IDs.', '', 'NOTE\xa04:\tThe indication of traffic correlation can be used for 5G VN groups as described in clause\xa05.29.', '', 'NOTE\xa05:\tExternal Subscriber category(s) can be combined with External Group ID(s) or any UE. If a list of External Subscriber categories is provided by the AF, the AF request applies to the UEs that belong to every one of these Subscriber categories, i.e. the UE has all these Subscriber categories in its subscription data.', '', 'NOTE\xa06:\tFQDN(s) is used for influencing EASDF-based DNS query procedure as defined in clause\xa06.2.3.2.2 of TS\xa023.548\xa0[130].', '', 'NOTE\xa07:\tIf the FQDN is included in the AF request, the EASDF-based EAS discovery procedure will be followed as defined in TS\xa023.548\xa0[130] using this FQDN for the purpose of setting traffic route and finding DNAI, and Traffic Description will be ignored.', '', 'NOTE\xa08:\tPLMN ID is used for HR-SBO case as defined in clause\xa04.3.6.1 of TS\xa023.502\xa0[3]. In this case, DNN and S-NSSAI are the ones of the HPLMN.', '', '', '', 'For each information element mentioned above in the AF request, the detailed description is as follows:', '', '1)\tInformation to identify the traffic. The traffic can be identified in the AF request by', '', '-\tEither a DNN and possibly slicing information (S-NSSAI) or an AF-Service-Identifier', '', '-\tWhen the AF provides an AF-Service-Identifier i.e. an identifier of the service on behalf of which the AF is issuing the request, the 5G Core maps this identifier into a target DNN and slicing information (S-NSSAI)', '', '-\tWhen the NEF processes the AF request the AF-Service-Identifier may be used to authorize the AF request.', '', '-\tAn application identifier or traffic filtering information (e.g. IP 5 Tuple). The application identifier refers to an application handling UP traffic and is used by the UPF to detect the traffic of the application.', '', '\tWhen the AF request is for influencing SMF routing decisions, the information is to identify the traffic to be routed.', '', '\tWhen the AF request is for subscription to notifications about UP path management events, the information is to identify the traffic that the events relate to. The AF request may include a PLMN ID of the PLMN that the DNN and S-NSSAI belong to, as described in clause\xa04.3.6.1 of TS\xa023.502\xa0[3].', '', '2)\tInformation about the N6 traffic routing requirements for traffic identified as defined in 1). This includes:', '', '-\tInformation about the N6 traffic routing requirements that is provided per DNAI: for each DNAI, the N6 traffic routing requirements may contain a routing profile ID and/or N6 traffic routing information.', '', '-\tAn optional indication of traffic correlation, when the information in 4) identifies a group of UEs. This implies the targeted PDU Sessions should be correlated by a common DNAI in the user plane for the traffic identified in 1). If this indication is provided by the AF, the 5GC should select a common DNAI for the target PDU Sessions from the list of DNAI(s) specified in 3).', '', 'NOTE\xa01:\tThe N6 traffic routing requirements are related to the mechanism enabling traffic steering in the local access to the DN. The routing profile ID refers to a pre-agreed policy between the AF and the 5GC. This policy may refer to different steering policy ID(s) sent to SMF and e.g. based on time of the day etc.', '', 'NOTE\xa02:\tThe mechanisms enabling traffic steering in the local access to the DN are not defined.', '', '3)\tPotential locations of applications towards which the traffic routing should apply. The potential location of application is expressed as a list of DNAI(s). If the AF interacts with the PCF via the NEF, the NEF may map the AF-Service-Identifier information to a list of DNAI(s). The DNAI(s) may be used for UPF (re)selection and (I)SMF (re)selection. When only one DNAI is included, and the Indication of traffic correlation is available, the DNAI is used as common DNAI for UEs identified by AF request. The AF request may include a PLMN ID of the PLMN that the list of DNAI(s) belongs to, as described in clause\xa04.3.6.1 of TS\xa023.502\xa0[3].', '', '4)\tInformation on the set of target UE(s). This may correspond to:', '', '-\tIndividual UEs (i.e. one or a list of UEs) identified using GPSI, or an IP address/Prefix or a MAC address.', '', '-\tGroup(s) of UEs identified by External Group Identifier(s) as defined in TS\xa023.682\xa0[36] when the AF interacts via the NEF, or Internal-Group Identifier (see clause\xa05.9.7) when the AF interacts directly with the PCF.', '', '-\tAny UE accessing the combination of DNN, S-NSSAI and DNAI(s).', '', '-\tExternal Group ID(s) or any UE can both be complemented with External Subscriber Category(s) for a more granular selection of UEs. NEF may map this to Internal Group ID(s) or a combination of Internal Group ID(s) and Subscriber Category(s), defined in TS\xa023.503\xa0[45].', '', 'NOTE\xa03:\tOnly NEF is aware of the External Subscriber Category. As a user can be associated with multiple Subscriber Category(s), some values of Subscriber Category(s) can correspond to an SLA between an application provider represented by an AF and the 5GC operator. In the NEF API, the combination of application identifier and External Subscriber Category can also be used to refer to this SLA.', '', '\tWhen the PDU Session type is IPv4 or IPv6 or IPv4v6, and the AF provides an IP address and/or an IP Prefix, or when the PDU Session type is Ethernet and the AF provides a MAC address, this allows the PCF to identify the PDU Session for which this request applies and the AF request applies only to that specific PDU Session of the UE. In this case, additional information such as the UE identity may also be provided to help the PCF to identify the correct PDU Session.', '', '\tOtherwise, the request targets multiple UE(s) and shall apply to any existing or future PDU Sessions that match the parameters in the AF request.', '', '\tWhen the AF request targets an individual or a list of UE(s) and GPSI is provided within the AF request, the GPSI is mapped to SUPI according to the subscription information received from UDM.', '', '\tWhen the AF request targets any UE or a group of UE, the AF request is likely to influence multiple PDU Sessions possibly served by multiple SMFs and PCFs.', '', '\tWhen the AF request targets a group of UE it provides one or several group identifiers in its request. The group identifiers provided by the AF are mapped to Internal-Group identifiers. Members of the group have Group Identifier(s) in their subscription. The Internal-Group Identifier(s) is(are) stored in UDM, retrieved by SMF from UDM and passed by SMF to PCF at PDU Session set-up. The PCF can then map the AF request with user subscription and determine whether an AF request targeting a Group of users applies to a PDU Session. When External Subscriber Category(s) is provided, the NEF maps External Subscriber Category(s) into Subscriber Category(s), the PCF can map the AF request with user subscription and then creates PCC rules for UEs that have the Subscriber Category(s) in their subscription.', '', '\tWhen the AF request is for influencing SMF routing decisions, the information is to identify UE(s) whose traffic is to be routed.', '', '\tWhen the AF request is for subscription to notifications about UP path management events, the information is to identify UE(s) whose traffic the events relate to.', '', '\tWhen the AF request is for traffic forwarding in a PDU Session serving for TSC, the MAC address used by the PDU Session is determined by the AF to identify UE whose traffic is to be routed according to the previously stored binding relationship of the 5GS Bridge and the port number of the traffic forwarding information received from TSN network.', '', '5)\tIndication of application relocation possibility. This indicates whether an application can be relocated once a location of the application is selected by the 5GC. If application relocation is not possible, the 5GC shall ensure that for the traffic related with an application, no DNAI change takes place once selected for this application.', '', '6)\tTemporal validity condition. This is provided in the form of time interval(s) or duration(s) during which the AF request is to be applied.', '', '\tWhen the AF request is for influencing SMF routing decisions, the temporal validity condition indicates when the traffic routing is to apply.', '', '\tWhen the AF request is for subscription to notifications about UP path management events, the temporal validity condition indicates when the notifications are to be generated.', '', '7)\tSpatial validity condition on the UE(s) location. This is provided in the form of validity area(s). If the AF interacts with the PCF via the NEF, it may provide geographical area (e.g. a civic address or shapes) and the NEF maps the information to areas of validity based on pre-configuration. The PCF in turn determines area(s) of interest based on validity area(s).', '', '\tWhen the AF request is for influencing SMF routing decisions, the spatial validity condition indicates that the request applies only to the traffic of UE(s) located in the specified location.', '', '\tWhen the AF request is for subscription to notifications about UP path management events, the spatial validity condition indicates that the subscription applies only to the traffic of UE(s) located in the specified location.', '', '8)\tInformation on AF subscription to corresponding SMF events.', '', '\tThe AF may request to be subscribed to change of UP path associated with traffic identified in the bullet 1) above. The AF request contains:', '', '-\tA type of subscription (subscription for Early and/or Late notifications).', '', '\tThe AF subscription can be for Early notifications and/or Late notifications. In the case of a subscription for Early notifications, the SMF sends the notifications before the (new) UP path is configured. In the case of a subscription for Late notifications, the SMF sends the notification after the (new) UP path has been configured.', '', '-\tNotification target address for receiving event notification.', '', '-\tOptionally, an indication of "AF acknowledgment to be expected".', '', '\tThe indication implies that the AF will provide a response to the notifications of UP path management events to the 5GC. The SMF may, according to this indication, determine to wait for a response from the AF before the SMF configures in the case of early notification, or activates in the case of late notification, the new UP path as described in clause\xa05.6.7.2.', '', '-\tOptionally, an immediate reporting flag.', '', '\tThe immediate reporting flag is included when AF subscribe for candidate DNAI(s) of UE for common EAS/DNAI selection. With this flag, SMF should immediately response AF with the candidate DNAI(s) using Notification of user plane management event as described in clause\xa04.3.6.3 in TS\xa023.502\xa0[3].', '', '\tThe AF subscription can also request to receive information associating the GPSI of the UE with the IP address(es) of the UE and/or with actual N6 traffic routing to be used to reach the UE on the PDU Session; in this case the corresponding information is sent by the SMF regardless of whether a DNAI applies to the PDU Session.', '', '9)\tAn AF transaction identifier referring to the AF request. This allows the AF to update or remove the AF request and to identify corresponding UP path management event notifications. The AF transaction identifier is generated by the AF.', '', '\tWhen the AF interacts with the PCF via the NEF, the NEF maps the AF transaction identifier to an AF transaction internal identifier, which is generated by the NEF and used within the 5GC to identify the information associated to the AF request. The NEF maintains the mapping between the AF transaction identifier and the AF transaction internal identifier. The relation between the two identifiers is implementation specific.', '', '\tWhen the AF interacts with the PCF directly, the AF transaction identifier provided by the AF is used as AF transaction internal identifier within the 5GC.', '', '10)\tIndication of UE IP address preservation. This indicates UE IP address related to the traffic identified in bullet 1) should be preserved. If this indication is provided by the AF, the 5GC should preserve the UE IP address by preventing reselection of PSA UPF for the identified traffic once the PSA UPF is selected.', '', '11)\tInformation for EAS IP Replacement in 5GC. This indicates the Source EAS identifier and Target EAS identifier (i.e. IP addresses and port numbers of the source and target EAS) for a service subject to Edge Computing.', '', '12)\tUser Plane Latency Requirement. This includes AF requirements for User Plane latency. (see clause\xa06.3.6 of TS\xa023.548\xa0[130]).', '', '13)\tInformation on AF change. The AF relocation information includes:', '', '-\tAF Identifier: the identifier of the target AF instance.', '', 'NOTE\xa04:\tThe AF relocation information is applicable for interaction with NEF only and it is not stored in UDR or transferred to PCF, even for the case AF directly interacts with PCF.', '', '14)\tIndication for EAS relocation. This indicates the application(s) are to be relocated.', '', '15)\tIndication for Simultaneous Connectivity over source and target PSA at Edge Relocation (see clause\xa06.3.4 of TS\xa023.548\xa0[130]). Indicates that source and target PSA should coexist for some time at PSA relocation, and may influence the establishment of a temporary N9 forwarding tunnel between the source UL CL and target UL CL. It may also provide guidance for the time interval after the described traffic ceases when the connectivity over the source PSA may be removed.', '', '16)\tTraffic Correlation ID. Identification of a set of UEs subjecting to the AF request and accessing the application identified by the Traffic Description. UEs associated with the same Traffic Correlation ID and accessing the application identified by the Traffic Description should connect to a common EAS or EAS(es) corresponding to a common DNAI.', '', '\tThe following attributes may be provided with the Traffic Correlation ID:', '', '-\tEAS Correlation indication. Indicates selecting a common EAS for a set of UEs identified by Traffic Correlation ID and accessing the application identified by the Traffic Description.', '', '-\tCommon EAS IP address. IP address of the common EAS to be accessed by the UEs in the set of UEs subject to AF request, for the application identified by the Traffic Description.', '', 'NOTE\xa05:\tIn the case of common EAS selection, if Traffic Correlation ID is provided, either EAS Correlation indication or Common EAS will be included in AF request.', '', '-\tFQDN(s). FQDN(s) corresponding to the application to be accessed by a set of UEs. When FQDN(s) is included, it is used for influencing EAS discovery procedure as defined in TS\xa023.548\xa0[130].', '', '-\tIndication of traffic correlation as described in 2).', '', 'NOTE\xa06:\tIf both EAS Correlation indication and Indication of traffic correlation are included, the set of UEs access the common EAS via the common DNAI.', '', 'An AF may send requests to influence SMF routing decisions, for event subscription or for both.', '', 'The AF may request to be subscribed to notifications about UP path management events, i.e. a UP path change occurs for the PDU Session. The corresponding notification about a UP path change sent by the SMF to the AF may indicate the DNAI and /or the N6 traffic routing information and/or common EAS that has changed as described in clause\xa04.3.6.3 of TS\xa023.502\xa0[3]. It may include the AF transaction internal identifier, the type of notification (i.e. early notification or late notification), the Identity of the source and/or target DNAI, the IP address/prefix of the UE or the MAC address used by the UE, the GPSI and the N6 traffic routing information related to the 5GC UP. The AF may subscribe for notifications of candidate DNAI(s) for UE if AF selection of common EAS/DNAI for a set of UEs is used.', '', 'NOTE\xa07:\tThe change from the UP path status where no DNAI applies to a status where a DNAI applies indicates the activation of this AF request; the change from the UP path status where a DNAI applies to a status where no DNAI applies indicates the de-activation of this AF request.', '', '\tIn the case of IP PDU Session Type, the IP address/prefix of the UE together with N6 traffic routing information indicates to the AF how to reach over the User Plane the UE identified by its GPSI. N6 traffic routing information indicates any tunnelling that may be used over N6. The nature of this information depends on the deployment.', '', 'NOTE\xa08:\tN6 traffic routing information can e.g. correspond to the identifier of a VPN or to explicit tunnelling information such as a tunnelling protocol identifier together with a Tunnel identifier.', '', 'NOTE\xa09:\tIn the case of Unstructured PDU Session type the nature of the N6 traffic routing information related to the 5GC UP is described in clause\xa05.6.10.3.', '', '\tIn the case of Ethernet PDU Session Type, the MAC address of the UE together with N6 traffic routing information indicates to the AF how to reach over the User Plane the UE identified by its GPSI. The UE MAC address (es) is reported by the UPF as described in clause\xa05.8.2.12. The N6 traffic routing information can be, e.g. a VLAN ID or the identifier of a VPN or a tunnel identifier at the UPF.', '', 'When notifications about UP path management events are sent to the AF via the NEF, if required, the NEF maps the UE identify information, e.g. SUPI, to the GPSI and the AF transaction internal identifier to the AF transaction identifier before sending the notifications to the AF.', '', "The PCF, based on information received from the AF, operator's policy, optionally service experience analytics per UP path received from NWDAF, etc. authorizes the request received from the AF and determines for each DNAI, a traffic steering policy ID (derived from the routing profile ID provided by the AF) and/or the N6 traffic routing information (as provided by the AF) to be sent to the SMF as part of the PCC rules. The traffic steering policy IDs are configured in the SMF or in the UPF. The traffic steering policy IDs are related to the mechanism enabling traffic steering to the DN.", '', 'The DNAIs are related to the information considered by the SMF for UPF selection and (I)SMF (re)selection, e.g. for diverting (locally) some traffic matching traffic filters provided by the PCF.', '', 'The PCF acknowledges a request targeting an individual PDU Session to the AF or to the NEF.', '', 'For PDU Session that corresponds to the AF request, the PCF provides the SMF with a PCC rule that is generated based on the AF request, Local routing indication from the PDU Session policy control subscription information and taking into account UE location presence in area of interest (i.e. Presence Reporting Area). The PCC rule contains the information to identify the traffic, information about the DNAI(s) towards which the traffic routing should apply and optionally, an indication of traffic correlation and/or an indication of application relocation possibility and/or indication of UE IP address preservation. The PCC rule also contains per DNAI a traffic steering policy ID and/or N6 traffic routing information, if the N6 traffic routing information is explicitly provided in the AF request.', '', 'If Traffic Correlation ID is included in the AF request, with EAS Correlation Indication or Common EAS, and FQDN(s) parameters, the Traffic Correlation ID and the EAS Correlation Indication or Common EAS, and FQDN(s) will be included in the PCC rule sent to SMF. The SMF can use the Traffic Correlation ID to determine that the UE belongs to a set of UEs identified by Traffic Correlation ID and a common EAS should be selected for the set of UE for the traffic identified by Traffic Descriptor as described in clause\xa06.2.3.2.5 of TS\xa023.548\xa0[130].', '', 'If Traffic Correlation ID is included in the AF request, NEF updates the AF influence data in the UDR with the NEF Notification Endpoint to indicate it as responsible of the set of UEs associated with the Traffic correlation ID and to be notified with 5GC determined information as described in clause\xa06.2.3.2.7 of TS\xa023.548\xa0[130].', '', 'The PCF provides in the PCC rule with information including the NEF Notification Endpoint for the SMF to notify to the NEF with 5GC determined information related to the UE members of the set of UEs identified by traffic correlation ID.', '', 'If Traffic Correlation ID, and traffic correlation indication and FQDN(s) is included in the AF request, the Traffic Correlation ID and the traffic correlation indication will be included in the PCC rule sent to SMF. The SMF can use the Traffic Correlation ID to determine that the UE belongs to a set of UEs identified by Traffic Correlation ID and the UE needs to connect to EAS(s) corresponding to a common DNAI selected for the set of UE for the traffic identified by Traffic Descriptor, as described in clause\xa06.2.3.2.6 of TS\xa023.548\xa0[130].', '', "The PCF may also provide in the PCC rule information to subscribe the AF (or the NEF) to SMF events (UP path changes) corresponding to the AF request in which case it provides the information on AF subscription to corresponding SMF events received in the AF request. This is done by providing policies at PDU Session set-up or by initiating a PDU Session Modification procedure. When initiating a PDU Session set-up or PDU Session Modification procedure, the PCF considers the latest known UE location to determine the PCC rules provided to the SMF. The PCF evaluates the temporal validity condition of the AF request and informs the SMF to activate or deactivate the corresponding PCC rules according to the evaluation result. When policies specific to the PDU Session and policies general to multiple PDU Sessions exist, the PCF gives precedence to the PDU Session specific policies over the general policies. The PCF authorizes the AF request of User Plane Latency Requirements. If the PCF determines that the requirements can't be authorized, the PCF rejects the AF request.", '', 'The spatial validity condition is resolved at the PCF. In order to do that, the PCF subscribes to the SMF to receive notifications about change of UE location in an area of interest (i.e. Presence Reporting Area). The subscribed area of interest may be the same as spatial validity condition, or may be a subset of the spatial validity condition (e.g. a list of TAs) based on the latest known UE location. When the SMF detects that UE entered the area of interest subscribed by the PCF, the SMF notifies the PCF and the PCF provides to the SMF the PCC rules described above by triggering a PDU Session Modification. When the SMF becomes aware that the UE left the area subscribed by the PCF, the SMF notifies the PCF and the PCF provides updated PCC rules by triggering a PDU Session Modification. SMF notifications to the PCF about UE location in or out of the subscribed area of interest are triggered by UE location change notifications received from the AMF or by UE location information received during a Service Request or Handover procedure.', '', 'When the PCC rules are activated, the SMF may, based on local policies, take the information in the PCC rules and, optionally, the Service Experience analytics and/or DN Performance analytics per UP path (including UPF and/or DNAI and/or AS instance) as defined in clause\xa06.4.3 and clause\xa06.14.3, respectively, of TS\xa023.288\xa0[86] into account to:', '', '-\t(re)select UP paths (including DNAI(s)) for PDU Sessions. The SMF is responsible for handling the mapping between the UE location (TAI / Cell-Id) and DNAI(s) associated with UPF and applications and the selection of the UPF(s) that serve a PDU Session. This is described in clause\xa06.3.3. If the PDU Session is of IP type and if Indication of UE IP address preservation is included in the PCC rules, the SMF should preserve the UE IP address, by not reselecting the related PSA UPF once the PSA UPF is selected, for the traffic identified in the PCC rule. If the user plane latency requirement is included in the PCC rules, the SMF chooses the PSA UPF that satisfies the user plane latency req</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;6.18.3	Modification of User Plane Connection between UE and LMF&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>23273.docx</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0.1371279954910278</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>['', 'The figure 6.18.3-1 shows how a secure user plane connection between UE and LMF is modified. The flow describes change of LMF but applies also when source and target LMF is the same. The procedure can also be used to terminate the user plane connection to Source LMF not selecting any Target LMF.', '', '----media/image52.emf----', '', 'Figure 6.18.3-1: Connection modification between UE and LMFs', '', '1a.\t[Conditional] The LMF discovers a need to change LMF or re-establish the user plane connection between UE and LMF or terminate the user plane connection. The LMF sends an Nlmf_Location_UPNotify message that includes connection move (termination and establishment) or termination is required and if connection move is requested then message may include target LMF identification. The address of the AMF was provided to LMF as a "Notification Target Address" in latest Nlmf_Location_UPConfig message or Nlmf_Location_UP Subscribe message.', '', 'NOTE:\tThe LMF change procedure is independent from the SSC mode of the PDU Session with dedicated DNN used for positioning. For SSC mode 2/3, PSA UPF connection with the LMF can be relocated with UE movement and LMF can discover the need to change LMF to reduce the user plane path latency.', '', '1b.\t[Conditional] AMF based on target LMF identification received from source LMF for user plane positioning, or AMF may perform LMF reselection if UE moves to a new location (which may be out of serving area of source LMF and in serving area of target LMF) and select the target LMF for the current UE location based on LMF service area, LMF user plane positioning capability information and other information listed in clause\xa05.1. LMF needs to be capable to establish a user plane session for positioning with the UE. Further at AMF relocation the target AMF needs to inform the LMF of the AMF change.', '', '2.\t[Conditional] If AMF reallocation has occurred, this step\xa0is skipped. Otherwise, steps 3-8 of figure 6.18.2-1 are performed between AMF, UE, and Target LMF with addition that UE also terminate connection to Source LMF.', '', '3.\tThe AMF sends an Nlmf_Location_UPConfig Request towards the source LMF. The message may include a request for the Source LMF to terminate a specific user plane connection to the UE and the Target LMF identification. Alternatively, it may include information about AMF reallocation.', '', '4-5.[Conditional] The source LMF may invoke an Nlmf_Location_LocationContextTransfer Request service operation towards the target LMF to provide the current location context of the UE, if there is periodic and triggered UE location events report context. The target LMF informs source LMF of the location context transfer operation results.', '', '6.\t[Conditional] If the user plane connection to source LMF is still active, the source LMF terminates the connection to the UE.', '', '7.\tThe LMF sends Nlmf_Location_UPConfig Response message to AMF to confirm connection termination or acknowledge change of AMF. If this procedure is used for termination, the AMF will release the LCS-UP context after receiving the response message.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.33.1	General&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0.09850704669952393</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>['', 'The following features described in 5.33 may be used to enhance 5GS to support Ultra Reliable Low Latency Communication (URLLC):', '', '-\tRedundant transmission for high reliability communication.', '', 'In this Release, URLLC applies to 3GPP access only.', '', 'When a PDU Session is to serve URLLC QoS Flow, the UE and SMF should establish the PDU Session as always-on PDU Session as described in clause\xa05.6.13.', '', 'NOTE\xa01:\tHow the UE knows whether a PDU Session is to serve a URLLC QoS Flow when triggering PDU Session establishment is up to UE implementation.', '', 'NOTE\xa02:\tNo additional functionality is specified for URLLC in order to support Home Routed roaming scenario in this Release.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>&lt;h1&gt;A.1	Methods to handle NAT on IPv4 between UE and AF&lt;/h1&gt;</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>23288.docx</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0.1396228671073914</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>['', 'The following methods can be used to handle the case when there is a NAT between the UE and AF for data collection:', '', 'NOTE:\tThese methods can be used both when there is a NAT between the UE and the AF, and when there is no NAT between the UE and the AF.', '', '1)\tUse IPv6 instead of IPv4 and then use any of the procedures in clauses 6.2.8.2.4.2 to 6.2.8.2.4.4.', '', '2)\tProvide GPSI via header enrichment as described in TS\xa029.244\xa0[17].', '', '3)\tHave GPSI as part of the authentication information, or via in-band signalling.', '', '4)\tAt the establishment of the user plane connection between the UE Application and AF, the AF can use the procedure in clause\xa04.15.10 of TS\xa023.502\xa0[3] to get the GPSI.', '', '5)\tAt the establishment of the user plane connection between the UE Application and a trusted AF, the AF can use the steps 3 to 8 in clause\xa04.15.10 of TS\xa023.502\xa0[3], where NEF is replaced by the AF, to retrieve the SUPI of the UE.', '', 'In methods 2) to 4), the AF can correlate the UE public IP address and port with the SUPI/GPSI.', '', '', 'Annex B (informative):', 'Change history', '', '&lt;span style="font-size:16pt"&gt;Change history&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Date&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Meeting&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TDoc&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CR&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rev&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Cat&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Subject/Comment&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;New version&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2019-05&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP#84&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-190456&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC Editorial update for presentation to TSG SA#84 for approval&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;1.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2019-06&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP#84&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC editorial update for publication after approval at TSG SA#84&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;16.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0001&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications to Observed Service experience related network data analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0010&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Specification clean-up&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0012&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Miscellaneous corrections to TS 23.288 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0014&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of NF and AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0015&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update the Analytics information provided by NWDAF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0017&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Closing open issue on NEF-AF interaction for data collection from AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0026&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of the correlation information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0027&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications of the pre-check behaviours of the NF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0029&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to slice load level analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0034&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications on Potential QoS Change &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; 0036&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CR to properly separate UE identifiers from Analytics Filter&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; 0037&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CR for update of observed service experience&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0039&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Miscellaneous editorial corrections&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0040&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Optionality of data to be collected by NWDAF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0042&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on Data Collection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0045&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Probability assertion clarification on NWDAF services description&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0046&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections for analytics exposure framework related parameters&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0052&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;BSF and PCF selection for data collection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0054&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to Nnwdaf_AnalyticsSubscription_Subscribe and Nnwdaf_AnalyticsInfo_Request service operations&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0002&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications to NF load data analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0003&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;8&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications to Network Performance related network data analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0004&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications to Abnormal behaviour analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0009&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications to UE mobility and Abnormal behaviour analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0043&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Remove UE related analytics for any UE&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0044&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications to UE communication and mobility analytics output&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0047&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections for observed Service experience related network data analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;01&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Terminology Alignment&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0057&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Editor\'s Notes cleanup&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0062&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to User Data Congestion Analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0063&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction for data collection from OAM&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;7 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to general and framework parts of analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0065&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to data collection from NFs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0066&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Miscellaneous corrections/updates to TS 23.288&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0068&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of the data collection of the OSE&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0071&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update to UE related analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0072&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications on Supporting Modification of Analytics Subscription&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0076&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Removing Editor\'s note on how to find a PCF instance serving a UE&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0078&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;User Data Congestion - Removal of Editor\'s Notes and Description Alignments&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; 0081&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CR to update UE communication&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0084&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to Analytics Filter for slice load level analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0087&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on NWDAF-assisted expected UE behavioural analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0088&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update the correlation information for AMF data and RAN data&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of UE related analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0092&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of QoS requirements parameter used for QoS Sustainability Analytics &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignments on Analytics Filter Information and clarifications on Reporting Thresholds&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0094&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification for UPF related data collection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191120&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0095&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment of User Data Congestion Analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0099&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NEF parameter mapping for outbound analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignments on QoS Sustainability Analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0103&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on definitions and NSI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0104&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NWDAF collect MDT/SON parameters&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0105&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update to Clause 6.1.3 Contents of Analytics Exposure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0108&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CR to update Observed Service Experience&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0109&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections on UE mobility analytics type by NWDAF service&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0110&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections on UE mobility analytics type by NWDAF service&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0112&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correct the filters for UE related analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0113&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A mechanism to avoid the flooding of reporting&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0114&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Reporting information updates&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0115&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; Mega CR on editorial corrections&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; 0117&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Slice service experience data collection corrections&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0119&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Add the definition for Maximum number of results parameter into clause 6.1.3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0123&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of clause 6.7.2 UE mobility analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0124&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of clause 6.7.4 Expected UE behavioural parameters related network data analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0126&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on abnormal behaviour analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0127&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications on data collection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0128&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to Observed Service Experience analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0129&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to User Data Congestion Analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0130&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections related to Analytics Filter Information and others&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0132&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications on Inputs of NWDAF Analytics Subscription&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-siz</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>&lt;h1&gt;P.2	Session management and traffic routing for PIN&lt;/h1&gt;</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0.1358309984207153</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>['', 'The general session management principles as described in clause\xa05.6, the QoS model as defined in clause\xa05.7 and the User Plane management for 5GS as defined in clause\xa05.8 are applicable to PIN-DN communication and PIN indirect communication.', '', 'If a PIN has multiple PEGCs, 5G VN group communication mechanisms can be used for PIN indirect communication. In this case a dedicated SMF set is used for managing the PIN related PDU Sessions from all the PEGCs of that PIN and the PDU session management principles for 5G VN-LAN-type services as specified in clause\xa05.29.3 are applicable. The user plane handling for 5G LAN-type services as specified in 5.29.4 are applicable with following differences:', '', '-\tFor PIN indirect communication N19-based traffic forwarding is not used i.e. the PIN traffic is forwarded using:', '', '-\tN6-based traffic forwarding method, where the UL/DL traffic for the PIN communication is forwarded to/from the DN;', '', '-\tlocal switching as depicted in Figure P.2-1 below, following the principles of local switching of traffic for 5G VN LAN-type service.', '', '----media/image150.emf----', '', 'Figure P.2-1: Local-switch based user plane architecture for PIN', '', 'NOTE:\tFigure P.2-1 does not show traffic from a PEMC.', '', 'The SMF configures the UPF(s) to apply N6-based traffic forwarding to route traffic between PDU Sessions of different PEGCs of a PIN as specified in clause\xa05.8.2.13. The SMF can apply local switching as specified in clause\xa05.8.2.13 in order to enable UPF locally forward uplink stream from one PDU session of one PEGC of a PIN as downlink stream of PDU session of one or more PEGC(s) of the same PIN. For local switching of PIN traffic between PIN related PDU sessions from different PEGCs of a single PIN, based on the (DNN, S-NSSAI) combination that is used for the PDU session related to PIN, the SMF provides a Network Instance to the UPF in FAR and/or PDR via N4 Session Establishment/Modification procedures.', '', '', '', '', 'Annex Q (informative):', 'Satellite coverage availability information', '', 'The protocol and format of satellite coverage availability information to be provisioned to the UE via PDU session or SMS is not defined in this release of the specification, but this annex provides some examples on the information that constitutes input to the source of satellite coverage availability information e.g. external server and the output it provides to the UE. Satellite coverage availability information can be indicated to the UE by indications corresponding to whether or not coverage is available for a specific satellite RAT Type for a particular location and time, where:', '', '-\tThese indications can be Boolean "True" (e.g. coverage available) and "False" (coverage not available);', '', '-\tlocations can correspond to grid points in a fixed array (e.g. rectangular, hexagonal);', '', '-\tCoverage availability times may occur at fixed periodic intervals; and', '', '-\tCoverage availability information is per RAT Type. The information provisioned to the UE can include coverage information on only one PLMN or multiple PLMNs.', '', 'If Satellite coverage availability information indicates coverage is available then additional information on whether PLMN is allowed to operate in that location can be provided to the UE.', '', 'In order for the source of satellite coverage availability information to provide accurate information to the UE, a UE might indicate for example the following information to a source of satellite coverage availability information (e.g. an external server):', '', '-\tServing PLMN ID (if not already known or implied).', '', '-\tOne or more satellite RAT Types (where satellite coverage availability information is then expected for these one or more RAT Types).', '', '-\tList of supported satellite frequency bands (if not implied by the particular RAT Types).', '', '-\tPresent UE location (e.g. latitude and longitude) for a reference grid point (e.g. the most Southerly and then most Westerly grid point).', '', '-\tType of Array (e.g. rectangular or hexagonal).', '', '-\tMinimum elevation angle.', '', 'Based on the above information provided by the UE, satellite coverage availability information could be delivered to the UE as a sequence of time durations for each grid point where each time duration includes an indication of coverage availability or unavailability one example of many alternatives as illustrated below for a particular grid point with N different durations:', '', '\tSatellite coverage availability information at a given grid point = &amp;lt;N&amp;gt; &amp;lt;Binary 0 or 1&amp;gt;&amp;lt;Duration 1&amp;gt; &amp;lt;Binary 0 or 1&amp;gt;&amp;lt;Duration 2&amp;gt; . . . . &amp;lt;Binary 0 or 1&amp;gt;&amp;lt;Duration N&amp;gt;', '', 'The above would be concatenated for all of the grid points to produce the satellite coverage availability information.', '', 'When SMS is used to deliver the satellite coverage availability information, the UE input and satellite coverage availability information output can be delivered in a series of concatenated SMS messages using possibly the same format.', '', '', 'Annex R (informative):', 'Change history', '', 'Change history', '', '&lt;span style="font-size:16pt"&gt;Date&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Meeting&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TDoc&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CR&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rev&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Cat&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Subject/Comment&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;New version&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;06-2017&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP#76&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-170384&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC Editorial Update for presentation to TSG\xa0SA#76 for Information&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;1.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;12-2017&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP#78&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC Editorial Update&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;12-2017&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP#78&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-170931&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;Correction of Annex A figure numbers for presentation to TSG\xa0SA#78 for Approval&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2.0.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;12-2017&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#78&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;MCC Editorial Update after TSG\xa0SA#78 Approval&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180090&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0002&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Using NRF for UPF discovery&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0003&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Configuration information the UE may exchange with the SMF during the lifetime of a PDU Session&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0004&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Handling of MM back-off timer for N3GPP Access&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0005&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of the definitions of Allowed NSSAI and Configured NSSAI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0006&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Allowed NSSAI and Access Type&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0007&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to rejected S-NSSAI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0008&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to Emergency Services&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180096&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0009&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of SUCI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180096&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0010&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Miscellaneous editorial corrections (capitalization, messages, procedures etc.)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0011&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to RQoS logic when receiving DL packet with RQI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0013&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Paging Policy Differentiation correction&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0014&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on UE specific DRX parameter from old AMF to new AMF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0015&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on PCF selection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0016&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Adding the new clause\xa0about SMSF selection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180090&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0017&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Use of identifiers for mobility between GERAN/UTRAN and 5GS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180090&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Remaining IP address/prefix lifetime with SSC mode 3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0020&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to handling of S-NSSAI mapping information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180090&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0021&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Wildcard DNN subscription&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0022&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification in LADN clause\xa05.6.5 - TS\xa023.501&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0023&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clean up on the interworking without 26 indication&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0024&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TS 23.501 mobility from EPC to 5GC&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-18009&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0025&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;AMF Load Re-Balancing For CONNECTED mode UE&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0026&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update on Traffic Detection Information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0027&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Proposal of Specifying Packet Detection Rule&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Relation between the SSC mode 3 and the PDU type&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0031&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE-specific DRX parameter negotiation between UE and AMF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0033&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Control of the Messages triggering Paging at AMF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0034&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment with TS\xa023.502 on Service Request procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0035&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections and clarifications for the usage of Packet Filter Set&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0036&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update Paging Policy Differentiation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0037&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to AF influence on traffic routing&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0038&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications to AF influence on traffic routing&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0039&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarify NSSF discovery&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180090&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0040&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Change subscribed S-NSSAI in UE to configured NSSAI of HPLMN&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0041&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UDM discovery clarifications&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0044&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to UPF selection and resolution of related Editor\'s Note&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0045&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Updates to the Security Edge Protection Proxy description&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0046&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Homogeneous support for IMS voice over PS Session supported indication&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0047&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Slice selection cleanup&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0048&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Resource reservation for services sharing priority&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0049&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Replace PUI with GPSI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0050&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Idle and connected state terminology cleanup&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0051&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NAS congestion control update&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0052&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Complete of IMS Emergency support in 5G including slice and local numbers&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0053&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Traffic mapping information that disallows UL packets&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0054&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clean-up of Characteristics signalling&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;EPS Fallback for voice&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Network sharing prioritised PLMN handling&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0057&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to Combined N3IWF/ePDG Selection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0058&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Moving Network Analytics functionality into 23.501&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0061&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on UDR&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0062&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;QFI in N9&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0063&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NF Service Discovery Corrections&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE mobility event notification&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180092&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0066&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Architectural solution for User Plane (UP) Security policy and User Plane Integrity Protection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0068&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CN assistance information enhancement&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Inter-PLMN mobility when N26 is not used&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0071&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Interworking without N26 corrections&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.1.2.1	M5S Application Server originating message send request&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>23554.docx</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0.1252933740615845</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>['', 'The information flows from the Application Server to the MSGin5G Server for message delivery includes the IEs in table 8.3.2-1. Additionally, the following information in table 9.1.2.1-2 elements needs to be included:', '', 'Table\xa09.1.2.1-2: M5S Northbound Message Delivery Send request', '', 'Information element', '', 'Status', '', 'Description', '', 'Latency ', '', 'O', '', 'The latency requirement for the message.', '', 'Authorization Information', '', 'O', '', 'The authorization information used to determine whether the Application Server is allowed to send the message', '', '', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.2.1.2	Input for PCC decisions&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>23503.docx</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0.1626065373420715</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>['', 'The listed information below is not intended to be complete and describes only examples of the information that can be provided by the respective NF.', '', 'The PCF shall accept input for PCC decision-making from the SMF, the AMF, the CHF, the NWDAF if present, the UDR and if the AF is involved, from the AF, as well as the PCF may use its own predefined information. These different NFs should provide as much information as possible to the PCF. Depending on the particular scenario all the information may not be available or is already provided to the PCF.', '', 'The AMF may provide information related to the UE as defined in clauses 5.2.5.2 and 5.2.5.6 of TS\xa023.502\xa0[3], for example:', '', '-\tSUPI;', '', '-\tPEI of the UE;', '', '-\tLocation of the subscriber;', '', '-\tService Area Restrictions;', '', '-\tRFSP Index;', '', '-\tRAT Type;', '', '-\tGPSI;', '', '-\tAccess Type;', '', '-\tServing Network identifier (PLMN ID or PLMN ID and NID, see clause\xa05.34 of TS\xa023.501\xa0[2]);', '', '-\tAllowed NSSAI;', '', '-\tUE time zone;', '', '-\tSubscribed UE-AMBR;', '', '-\tConfigured NSSAI for the serving PLMN;', '', '-\tMapping Of Allowed NSSAI;', '', '-\tS-NSSAI for the PDU Session;', '', '-\tSatellite backhaul category;', '', '-\tRequested DNN.', '', 'NOTE\xa01:\tThe Access Type and RAT Type parameters should allow extension to include new types of accesses.', '', 'The UE may provide information such as:', '', '-\tOSId;', '', '-\tList of PSIs;', '', '-\tIndication of UE support for ANDSP.', '', '-\tIndication of URSP Provisioning Support in EPS.', '', '-\tIndication of UE capability of reporting URSP rule enforcement to network (see clause\xa06.6.2.4).', '', 'The SMF may provide information related to the PDU Session as defined in clause\xa05.2.5.4 of TS\xa023.502\xa0[3], for example:', '', '-\tSUPI;', '', '-\tPEI of the UE;', '', '-\tIPv4 address of the UE;', '', '-\tIPv6 network prefix assigned to the UE;', '', '-\tDefault 5QI and default ARP;', '', '-\tRequest type (initial, modification, etc.);', '', '-\tType of PDU Session (IPv4, IPv6, IPv4v6, Ethernet, Unstructured);', '', '-\tAccess Type;', '', '-\tRAT Type;', '', '-\tGPSI;', '', '-\tInternal-Group Identifier;', '', '-\tLocation of the subscriber;', '', '-\tS-NSSAI;', '', '-\tDNN;', '', '-\tServing Network identifier (PLMN ID or PLMN ID and NID, see clause\xa05.34 of TS\xa023.501\xa0[2]);', '', '-\tApplication Identifier;', '', '-\tAllocated application instance identifier;', '', '-\tDetected service data flow descriptions;', '', '-\tUE support of reflective QoS (as defined in clause\xa05.7.5.1 of TS\xa023.501\xa0[2]);', '', '-\tNumber of supported packet filters for signalled QoS rules for the PDU Session (indicated by the UE as defined in clause\xa05.7.1.4 of TS\xa023.501\xa0[2]);', '', '-\t3GPP PS Data Off status;', '', '-\tDN Authorization Profile Index (see clause\xa05.6.6 of TS\xa023.501\xa0[2]);', '', '-\tDN authorized Session AMBR (see clause\xa05.6.6 of TS\xa023.501\xa0[2]);', '', '-\tSatellite backhaul category;', '', '-\tProvisioning Server address(es) (see clause\xa05.30 of TS\xa023.501\xa0[2]);', '', '-\tUE report of URSP rule enforcement from URSP rule associated with the PDU session (see clause\xa06.6.2.4).', '', '-\tHR-SBO support indication for requesting VPLMN Specific Offloading Policy (see clause\xa06.2.1.12 and clause\xa06.7 of TS\xa023.548\xa0[33]).', '', 'The UDR may provide the information for a subscriber connecting to a specific DNN and S-NSSAI, as described in the clause 6.2.1.3.', '', 'The UDR may provide policy information related to an ASP as defined in clause\xa05.2.12.2 of TS\xa023.502\xa0[3], for example:', '', '-\tThe ASP identifier;', '', '-\tA transfer policy together with a Background Data Transfer Reference ID, the volume of data to be transferred per UE, the expected amount of UEs;', '', '-\tAn PDTQ policy together with an PDTQ Reference ID, the requested QoS for each of the AF session for each of the UEs involved and the expected amount of UEs.', '', 'NOTE\xa02:\tThe information related with AF influence on traffic routing may be provided by UDR when the UDR serving the NEF is deployed and stores the application request.', '', 'The UDR may provide the service specific information as defined in clause\xa04.15.6.7 of TS\xa023.502\xa0[3].', '', 'The AF, if involved, may provide application session related information as defined in clause\xa05.2.5.3 of TS\xa023.502\xa0[3] directly or via NEF, e.g. based on SIP and SDP, for example:', '', '-\tSubscriber Identifier(s);', '', '-\tIP address of the UE;', '', '-\tMedia Type;', '', '-\tMedia Format, e.g. media format sub-field of the media announcement and all other parameter information (a= lines) associated with the media format;', '', '-\tBandwidth;', '', '-\tSponsored data connectivity information;', '', '-\tFlow description information, e.g. source and destination IP address and port numbers and the protocol and optionally, ToS (IPv4) or TC (IPv6) value (as described in clause\xa06.1.3.6);', '', '-\tIndication of ECN marking for L4S;', '', '-\tAF application identifier, i.e. an identifier that refers to the application the AF session belongs to, containing either an AF identifier, an external application identifier (if the NEF is involved and performs the mapping to the application identifier) or an application identifier (if the AF is configured accordingly);', '', 'NOTE\xa03:\tEither Flow description or (external) application identifier for application detection control can be provided.', '', '-\tDNN and possibly S-NSSAI;', '', '-\tAF Communication Service Identifier (e.g. IMS Communication Service Identifier), UE provided via AF;', '', '-\tAF Application Event Identifier;', '', '-\tAF Record Information;', '', '-\tFlow status (for gating decision);', '', '-\tPriority indicator, which may be used by the PCF to guarantee service for an application session of a higher relative priority;', '', 'NOTE\xa04:\tThe AF Priority information represents session/application priority and is separate from the MPS 5GS Priority indicator.', '', '-\tEmergency indicator;', '', '-\tApplication service provider;', '', '-\tDNAI;', '', '-\tInformation about the N6 traffic routing requirements;', '', '-\tGPSI;', '', '-\tInternal-Group Identifier;', '', '-\tTemporal validity condition;', '', '-\tSpatial validity condition;', '', '-\tAF subscription for early and/or late notifications about UP management events;', '', '-\tAF transaction identifier;', '', '-\tTSC individual QoS information as described in clause\xa06.1.3.22;', '', '-\tQoS information to be monitored;', '', 'NOTE\xa05:\tThe information related with QoS monitoring may be provided by UDR when the UDR serving the NEF is deployed and stores the application request.', '', '-\tService area coverage;', '', '-\tIndication that high throughput is desired;', '', '-\tReporting frequency;', '', '-\tUser Plane Latency Requirement.', '', 'The AF may provide BDT related information as defined in clause\xa05.2.5.5 of TS\xa023.502\xa0[3] via NEF, for example:', '', '-\tBackground Data Transfer Reference ID;', '', '-\tBDT Policy;', '', '-\tVolume per UE;', '', '-\tNumber of UEs;', '', '-\tDesired time window;', '', '-\tNetwork Area Information.', '', 'The CHF, if involved, may provide the following information for a subscriber as defined in clause\xa05.2.5.17 of TS\xa023.502\xa0[3], for example:', '', '-\tPolicy counter status for each relevant policy counter.', '', 'The NWDAF, if involved, may provide analytics information as described in clause\xa06.1.1.3.', '', 'In addition, the predefined information in the PCF may contain additional rules based on charging policies in the network, whether the subscriber is in its home network or roaming, depending on the QoS Flow attributes.', '', 'The 5QIs (see clause\xa05.7.4 of TS\xa023.501\xa0[2]) in the PCC rule is derived by the PCF from AF or UDR interaction if available. The input can be SDP information or other available application information, in line with operator policy.', '', 'The Allocation and Retention Priority in the PCC Rule is derived by the PCF from AF or UDR interaction if available, in line with operator policy.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.2.2.2	V2X message reception via MBS&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>23287.docx</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0.1301151514053345</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>['', 'The mechanisms defined in TS\xa023.247\xa0[28] can be used to establish the suitable MBS sessions, and V2X messages are routed from the V2X Application Server towards UEs via broadcast MBS sessions or multicast MBS sessions. As defined in TS\xa023.247\xa0[28] multicast/broadcast service for roaming is not supported in this release.', '', 'For MBS reception of V2X messages, announcement for V2X services is required for the UE. To provide the UE with the announcement, the following ways may be used:', '', '-\tExisting announcement mechanisms specified in TS\xa023.247\xa0[28], TS\xa026.502\xa0[29] and TS\xa026.517\xa0[30].', '', '-\tMBS session announcement provisioned as described in clauses 5.1.1 and 5.1.3.1.', '', 'The V2X Application Server providing the V2X service identified by V2X service type sends the V2X message via UDP/IP transport using information provided in the announcement.', '', 'V2X message transfer via MBS may be achieved by locating the MBS CN NFs (e.g. MB-UPF) closer to the gNB to meet the latency requirement as defined for 5QI 75 specified in TS\xa023.501\xa0[6].', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;14.3.9.2.1	Procedure triggered by correlated source and destination requests&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>23434.docx</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0.1487672328948975</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>['', 'The procedure for establishing Uu-based application-level direct communications between two UEs, with application service requirements is as illustrated in figure 14.3.9.2.11. In this procedure the source and destination VAL clients correlate their triggering of the procedure establishment before the NRM Server provides the service.', '', 'Pre-conditions:', '', '-\tNRM client 1 and NRM client 2 are provided configuration information for the VAL clients served e.g. connectivity requirements, which destination UEs to connect to over Uu, etc.', '', '-\tThe NRM client 1 and NRM client 2 are configured with the information of the NRM server and have connectivity enabled to communicate with the NRM server. The information is provided via pre-configuration.', '', '-\tThe NRM server is configured with policies and information of the UEs to determine authorization of the UEs requesting connectivity via Uu.', '', '-\tThe VAL clients associated with NRM client 1 and NRM client 2 have triggered the establishment of connectivity.', '', '----media/image153.emf----', '', 'Figure\xa014.3.9.2.1-1: Establishing communication with application service requirements', '', '1a.\tThe NRM client 1 sends the application connectivity request (source identity and IP address, destination identities, service requirements) to the NRM Server. The service requirement from the source includes packet size, packet transmission interval, packet E2E latency, allowed packet loss rate/packet loss amount/packet error rate, etc. The destination may be multiple UEs (devices). The identity of source and destination may be the application user identity or the MAC address.', '', '1b.\tThe NRM server determines whether the UE of NRM client 1 is authorized to connect to the destination UEs for direct service communications via Uu. If UE of NRM client 1 is authorized to connect to the destination UEs, then a response is provided to the NRM client 1 indicating acceptance of the request.', '', '2a.\tThe NRM client 2 sends the application connectivity request (destination identity and IP address, source identity, service requirements) to the NRM server. The service requirements from the destination includes the service requirements as described in step 1a.', '', '2b.\tThe NRM server determines whether the UE of NRM client 2 is authorized to connect to the destination UEs for direct service communications via Uu. If UE of NRM client 2 is authorized to connect to the destination UEs, then a response is provided to the NRM client 2 indicating acceptance of the request.', '', '3.\tBased on the service requirements received in step 1 and step 2, the NRM server determines the parameters and patterns for direct service connectivity between the UEs via Uu and also the transport requirements, i.e., QoS requirements for the 3GPP system (e.g. 5GS). This step may also include retrieving the direct link status of the UEs (e.g. PDU Session Status, UE reachability). If the NRM server determines that direct service connectivity via Uu is not authorized or not possible with the given connectivity requirements, it skips step 4 and proceeds to steps 5 and 6, informing each NRM client accordingly.', '', '\tNRM server will process E2E connectivity establishment between NRM client 1 and NRM client 2 only after it receives the request from NRM client 2. There can be several NRM clients (destinations) which will perform step 2 and NRM server will process their E2E connectivity with NRM client 1 (source) as and when the requests are received by the NRM server.', '', '4.\tThe NRM server triggers 3GPP system to establish Uu connectivity between the UE of NRM client 1 and UE of NRM client 2 with required QoS as specified in 3GPP\xa0TS\xa023.501\xa0[10].', '', '5.\tThe NRM server sends the application connectivity notification (connectivity/session information) to NRM client 1 indicating successful establishment of the connectivity. The connectivity/session information may contain the accepted destination identities.', '', '6.\tThe NRM server sends the application connectivity notification (connectivity/session information) to NRM client 2 indicating successful establishment of the connectivity.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;8.15.1	General&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>23222.docx</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0.1526873111724854</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>['', 'The procedure in this subclause corresponds to the architectural requirements for authentication of the API invoker by the AEF upon the service API invocation.', '', 'To reduce latency during API invocation, the API invoker associated authentication information can be made available at the AEF after authentication between the API invoker and the CAPIF core function.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;8.14.1	General&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>23222.docx</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0.1525471806526184</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>['', 'The procedure in this subclause corresponds to the architectural requirements for authentication of the API invoker by the AEF.', '', 'To reduce latency during API invocation, the API invoker associated authentication information can be made available at the AEF after authentication between the API invoker and the CAPIF core function.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;8.16.1	General&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>23222.docx</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0.1509182453155518</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>['', 'The procedure in this subclause corresponds to the architectural requirements to validate authorization of API invokers upon the service API invocation.', '', 'To reduce latency during API invocation, the API invoker associated authorization information can be made available at the AEF after authentication between the API invoker and the CAPIF core function.', '', 'NOTE:\tThe security aspects of service API invocation are specified in TS 33.122 [12] clause 6.4 (CAPIF-2) and 6.5 (CAPIF-2e).', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;4.15.3.2.3b	Specific NEF service operations information flow for loss of connectivity and UE reachability&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>23502.docx</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0.1107882261276245</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>['', 'The procedure is used by the AF to subscribe to notifications and to explicitly cancel a previous subscription for loss of connectivity and UE reachability.', '', '----media/image135.emf----', '', 'Figure 4.15.3.2.3b-1: Nnef_EventExposure_Subscribe, Unsubscribe and Notify operations or loss of connectivity and UE reachability', '', '1.\tStep 1 to step\xa03b of Figure 4.15.3.2.3-1 are performed with the following differences:', '', '-\tFor Loss of Connectivity, the subscription request may include Maximum Detection Time (see Table 4.15.3.1-1).', '', '-\tFor UE reachability, the subscription request may include Maximum Latency, Maximum Response Time and/or Suggested number of downlink packets (see Table 4.15.3.1-1). In step\xa03a of Figure 4.15.3.2.3-1, the UDM may include Maximum Response Time in the subscription request to the AMF.', '', 'NOTE\xa01:\tIt is expected that Maximum Latency, Maximum Response Time and/or Suggested number of downlink packets included in the subscription request is only used by the AF that does not support Parameter Provisioning procedure specified in clause\xa04.15.6.3a.', '', '-\tFor UE reachability, the AF may include Idle Status Indication request. If Idle Status Indication request is included, the NEF includes it in Nudm_EventExposure_Subscribe message. If the UDM receives Idle Status Indication request, it includes it in Namf_EventExposure_Subscribe message. If the NEF does not support the requested Idle Status Indication, then depending on operator policies, the NEF rejects the request.', '', '2.\t[Conditional] If the subscribed periodic registration timer has not been set according to any subscription request, or a Network Configuration as defined in clause\xa04.15.6.3a the UDM shall set the subscribed periodic registration timer using the Maximum Detection Time or Maximum Latency; otherwise if the subscribed periodic registration timer was previously set by a different subscription identified by a different Notification Target Address (+ Notification Correlation ID), or set by a different Network Configuration identified by a different NEF reference ID for the same UE and if the newly received Maximum Detection Time or Maximum Latency is lower than the provided subscribed periodic registration timer, the UDM shall set the subscribed periodic registration timer using the newly received Maximum Detection Time or Maximum Latency.', '', '\tIf Nudm_EventExposure_Unsubscribe request is performed in step\xa01, the UDM shall recalculate the subscribed periodic registration timer based on the remaining event subscriptions and/or Network Configurations.', '', '\tIn addition for UE reachability subscription, if the newly received Maximum Response Time is longer than the provided subscribed Active Time (i.e. previously provided Maximum Response Time), the UDM shall set the subscribed Active Time using the newly received Maximum Response Time. If the suggested number of downlink packets is newly received, the UDM shall add the newly received suggested number of downlink packets to the currently used value of suggested number of downlink packets if the aggregated value is within the operator defined range.', '', '\tIf Nudm_EventExposure_Unsubscribe request is performed in step\xa01, the UDM shall recalculate the subscribed Active Time and/or Suggested Number of Downlink Packets based on the remaining event subscriptions and/or Network Configurations.', '', '\tIf the subscribed periodic registration timer or the subscribed Active Time are set or modified, the UDM sends the Nudm_SDM_Notification request to related serving AMF(s). If the AMF receives a subscribed periodic registration timer value from the UDM, it allocates the received value to the UE as the periodic registration timer at subsequent Registration procedure. The AMF starts monitoring of the expiration of the mobile reachable timer for Loss of Connectivity (if required) and starts monitoring of the UE entering connected mode for UE reachability (if required).', '', '\tIf the suggested number of downlink packets are set or modified, the UDM sends the Nudm_SDM_Notification request to related serving SMF(s). The SMF configures the data buffer at the SMF/UPF according the suggested number of downlink packets.', '', '\tIf the provided value is updated by the UDM, the UDM may notify the NEF (which then notifies the AF) of the actual value that is being applied in the 3GPP network.', '', '3.\tStep 4 to step\xa05 of Figure 4.15.3.2.3-1 are performed.', '', '4.\tStep 6c to step\xa06d of Figure 4.15.3.2.3-1 are performed with the following differences:', '', '-\tFor Loss of Connectivity, the event is detected when the mobile reachability timer expires or when the UE has provided Unavailability Period Duration during the Registration procedure without including Start of Unavailability Period or when unavailability period starts based on Start of Unavailability Period stored in UE context at AMF or Deregistration procedure as described in clause\xa05.4.1.4 of TS\xa023.501\xa0[2].', '', '-\tFor UE reachability, the event is detected when the UE changes to connected mode or when the UE will become reachable for paging.', '', '-\tFor UE reachability, if Idle Status Indication request was included in step\xa01 and the AMF supports Idle Status Indication, the AMF includes also the Idle Status Indication.', '', '5.\tStep\xa08 of Figure 4.15.3.2.3-1 is performed.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;4.15.3.2.8	Information flow for downlink data delivery status with UPF buffering&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>23502.docx</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0.1123102903366089</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>['', 'The procedure is used if the SMF requests the UPF to buffer packets. The procedure describes a mechanism for the Application Function to subscribe to notifications about downlink data delivery status. The downlink data delivery status notifications relates to high latency communication, see also clauses 4.24.2 and 4.2.3.3.', '', 'Cancelling is done by sending Nnef_EventExposure_Unsubscribe request identifying the subscription to cancel with Subscription Correlation ID. Steps 2 to 5 are not applicable in the cancellation case.', '', '----media/image139.emf----', '', 'Figure 4.15.3.2.8-1: Information flow for downlink data delivery status with UPF buffering', '', '1.\tAF interacts with NEF to subscribe DDD status event in SMF as described in steps 0-6 of clause\xa04.15.3.2.5.', '', '\tIn the case of subscription cancelling and SMF having interacted with the PCF during event subscription, the SMF reports to the PCF the unsubscribe of the DDD status event. The PCF updates or removes the PCC rule and this triggers the SMF to update or remove the corresponding PDR in the UPF. In case of home-routed PDU Session, the SMF unsubscribes the DDD status event from the V-SMF which in turn updates the N4 information (deactivating the notifications) in the V-UPF. In case of PDU Session with I-SMF, the SMF provides updated N4 information (deactivating the notifications) to the I-SMF which in turn updates the I-UPF.', '', '2.\tIf the UPF is configured to apply extended buffering, step\xa02 is executed immediately after step\xa01. Otherwise, step\xa02 is executed when the SMF is informed that the UE is unreachable via a Namf_Communication_N1N2MessageTransfer service operation as described in clause\xa04.2.3 and the SMF then also updates the PDR(s) for flows requiring extended buffering to requests the UPF to buffer downlink packets. If the DDD status event with traffic descriptor has been received in the SMF in step\xa01, if extended DL Data buffering in the UPF applies, the SMF checks whether an installed PDR for the Traffic Descriptor exists and if so, requests the UPF to provide the requested type(s) of notifications. If PCC is not used and there is no installed PDR with the exact same traffic descriptor, the SMF copies the installed PDR that would have previously matched the incoming traffic described by the traffic descriptor, but provides that traffic descriptor, a higher priority and the requested type(s) of notifications. If PCC is used and if the "DDD Status event subscription with Traffic Descriptor" PCRT is set as defined in clause\xa06.1.3.5 of TS\xa023.503\xa0[20], the SMF interacts with the PCF and forwards the traffic descriptor before contacting the UPF; the PCF then updates an existing PCC rule or provides a new PCC rule taking into consideration the traffic descriptor for the subscribed DDD status event.', '', 'NOTE:\tIf a new PCC rule is provided by the PCF for the DDD status event detection, the PCF populates the PCC rules as defined in clause\xa06.1.3.5 of TS\xa023.503\xa0[20].', '', '\tIn the case of home-routed PDU Session, the V-SMF generates the N4 information (activating the notifications) for the V-UPF based on local configuration.', '', '\tIn the case of PDU Session with I-SMF, the SMF provides N4 information (activating the notifications) to the I-SMF based on local policy or the "DDD Status event subscription with Traffic Descriptor" PCRT from PCF. The I-SMF updates the I-UPF with this N4 information.', '', '\tFor home-routed PDU Session or PDU Session with I-SMF, steps 3-4 below are performed by V-SMF/V-UPF or I-SMF/I-UPF.', '', '3.\tThe UPF reports when there is buffered or discarded traffic matching the received PDR to the SMF. The SMF detects that previously buffered packets can be transmitted by the fact that the related PDU session becomes ACTIVE.', '', '4.\tThe SMF sends the Nsmf_EventExposure_Notify with Downlink Delivery Status event message to NEF.', '', '5.\tThe NEF sends Nnef_EventExposure_Notify with Downlink Delivery Status event message to AF.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;4.15.3.2.5	Information flow for downlink data delivery status with SMF buffering&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>23502.docx</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0.1066012978553772</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>['', 'The procedure is used if the SMF requests the UPF to forward downlink data packets that are subject of extended buffering in the SMF. The procedure describes a mechanism for the Application Function to subscribe downlink data delivery status notifications. The downlink data delivery status notifications relates to high latency communication, see also clauses 4.24.2 and 4.2.3.3.', '', 'Cancelling the subscription is done by sending Nnef_EventExposure_Unsubscribe request identifying the subscription to cancel with Subscription Correlation ID in the same order as indicated in figure 4.15.3.2.5-1 for the corresponding subscribe requests. Step\xa00 and the notification steps 7 to 9 are not applicable in cancellation case.', '', '----media/image137.emf----', '', 'Figure 4.15.3.2.5-1: Information flow for downlink data delivery status with SMF buffering', '', '0.\tThe SMF (in the non-roaming case the SMF, in the roaming case the V-SMF, in the case of PDU session with I-SMF the I-SMF) configures the relevant UPF to forward downlink data packets towards the SMF as described in clause\xa05.8.3 in 23.501\xa0[2]. The SMF decides to apply this behaviour based on the "expected UE behaviour". Alternatively, step\xa00 is triggered by step\xa03,', '', '1.\tThe AF sends Nnef_EventExposure_Subscribe Request to NEF requesting notification for event "Downlink data delivery status" with traffic descriptor (e.g. the source of the downlink IP or Ethernet traffic) for a UE or group of UEs. If the reporting event subscription is authorized by the NEF, the NEF records the association of the event trigger and the requester identity. The Downlink data delivery status events include:', '', '-\tFirst downlink Packet in extended buffering event:', '', '-\tThis event is triggered when the first new downlink data packet is buffered with extended buffering matching the traffic descriptor.', '', '-\tin notifications about this Downlink data delivery status, the SMF provides the Extended Buffering time as determined in clause\xa04.2.3.3.', '', '-\tFirst downlink Packet discarded:', '', '-\tThis event occurs when the first packet matching the traffic descriptor is discarded because the Extended Buffering time, as determined by the SMF, expires or the amount of downlink data to be buffered is exceeded.', '', '-\tFirst Downlink Packet transmitted:', '', '-\tThis event occurs when the first packet matching the traffic descriptor is transmitted after previous buffering or discarding of corresponding packet(s) because the UE of the PDU Session becomes ACTIVE and buffered data can be delivered to UE according to clause\xa04.2.3.3.', '', '2.\tThe NEF sends the Nudm_EventExposure_Subscribe Request to UDM. Identifier of the UE or group of UEs, the traffic descriptor, monitoring event received from AF in step\xa01 and notification endpoint of the NEF are included in the message. If the reporting event subscription is authorized by the UDM, the UDM records the association of the event trigger and the requester identity. Otherwise, the UDM continues in step\xa05 indicating failure.', '', '3.\tThe UDM sends the Nsmf_EventExposure_Subscribe Request message to each SMF where at least one UE identified in step\xa02 has a PDU session established. If the UDM is able to derive the applicable DNN and S-NSSAI from the traffic descriptor via configured information, the UDM may send Nsmf_EventExposure_Subscribe Request messages only to SMFs with PDU sessions with that DNN and S-NSSAI for such UEs and includes the Identifier of the UE or Internal-Group-Id, traffic descriptor, monitoring event and the notification endpoint of NEF received in step\xa02 are included in the message. If the UDM becomes aware that such a UE has a PDU session established with the DNN and S-NSSAI corresponding to the traffic descriptor at a later time than when receiving step\xa02, the UDM then executes step\xa03.', '', '\tIn the case of home-routed PDU session or PDU session with I-SMF, the UDM sends the Nsmf_EventExposure_Subscribe Request message to each H-SMF or SMF and the H-SMF or SMF further sends Nsmf_EventExposure_Subscribe Request message to each related V-SMF or I-SMF. Steps 7-8 are performed by V-SMF or I-SMF.', '', '4.\tThe SMF sends the Nsmf_EventExposure_Subscribe Response message to the UDM.', '', '5.\tThe UDM send sends the Nsmf_EventExposure_Subscribe response message to the NEF.', '', '6.\tThe NEF sends the Nsmf_EventExposure_Subscribe response to the AF.', '', '7.\tThe SMF detects a change in Downlink Data Delivery Status event as described in clause\xa04.2.3. The SMF becomes aware that Downlink Packet(s) require extended buffering via a Namf_Communication_N1N2MessageTransfer service operation with the AMF. If the SMF decides to discard packets, the "Downlink Packet(s) discarded event" is detected. The SMF detects that previously buffered packets can be transmitted by the fact that the related PDU session becomes ACTIVE.', '', '8.\tThe SMF sends the Nsmf_EventExposure_Notify with Downlink Delivery Status event message to NEF.', '', '9.\tThe NEF sends Nnef_EventExposure_Notify with Downlink Delivery Status event message to AF.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;4.15.3.2.7	Information flow for Availability after DDN Failure with SMF buffering&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>23502.docx</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0.1148067116737366</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>['', 'The procedure is used if the SMF requests the UPF to forward packets that are subject of buffering in the SMF. The procedure describes a mechanism for the Application Function to subscribe to notifications about availability after downlink data notification failure. The Availability after Downlink Data Notification failure event is related to high latency communication, see also clauses 4.24.2 and 4.2.3.3.', '', 'Cancelling the subscription is done by sending EventExposure_Unsubscribe requests identifying the subscription to cancel with the Subscription Correlation ID in the same order as indicated in figure 4.15.3.2.7-1 for the corresponding subscribe requests (the AMF unsubscribes the DDN Failure status notification by sending the Nsmf_PDUSession_UpdateSMContext Request message to each SMF in step\xa05). Step\xa00 and the notification steps 9 to 13 are not applicable in the cancellation case.', '', '----media/image138.emf----', '', 'Figure 4.15.3.2.7-1: Information flow for availability after DDN Failure with SMF buffering', '', '0.\tThe SMF (in the no-roaming case the H-SMF. in the roaming case the V-SMF, in the case of PDU session with I-SMF the I-SMF) configures the relevant UPF to forward packets to the SMF as described in clause\xa05.8.3 in 23.501\xa0[2]. The SMF decides to apply this behaviour based on the "expected UE behaviour". Alternatively, step\xa00 is triggered by step\xa05.', '', '1.\tThe AF sends Nnef_EventExposure_Subscribe Request to the NEF requesting notifications for "Availability after DDN Failure" for a UE or group of UEs and providing a traffic descriptor identifying the source of the downlink IP or Ethernet traffic. If the reporting event subscription is authorized by the NEF, the NEF records the association of the event trigger and the requester identity.', '', '\tThe AF may include Idle Status Indication request in the Nnef_EventExposure_Subscribe Request. If Idle Status Indication request is included, the NEF includes it in Nudm_EventExposure_Subscribe message. If the NEF does not support the requested Idle Status Indication, then depending on operator policies, the NEF rejects the request.', '', '2.\tThe NEF sends the Nudm_EventExposure_Subscribe Request to UDM. Identifier of the UE or group of UEs, the traffic descriptor, monitoring event received from AF at step\xa01 and notification endpoint of the NEF are included in the message. If the reporting event subscription is authorized by the UDM, the UDM records the association of the event trigger and the requester identity. Otherwise, the UDM continues in step\xa07 indicating failure.', '', '\tIf the UDM receives Idle Status Indication request, it includes it in Namf_EventExposure_Subscribe message.', '', '3.\tThe UDM sends Namf_EventExposure_Subscribe messages to the AMF(s) which serve the UE(s) identified in step2 to subscribe to "Availability after DDN Failure". The UDM includes the DNN and S-NSSAI as well as the Traffic Descriptor if available A separate subscription is used for each UE. The NEF notification endpoint received in step\xa02 is included in the message. If the UDM becomes aware that such a UE is registered at a later time than when receiving step\xa02, the UDM then executes step\xa03.', '', '4.\tThe AMF acknowledges the execution of Namf_EventExposure_Subscribe.', '', '5.\tIf PDU Session exists for the DNN and S-NSSAI, the AMF subscribes to DDN Failure status notification by sending the Nsmf_PDUSession_UpdateSMContext Request message to each SMF, requesting the SMF to notify DDN Failure. The AMF also includes in Nsmf_PDUSession_UpdateSMContext the Traffic Descriptor and NEF correlation ID if received from the UDM. For new PDU Session establishment towards a DNN and S-NSSAI, the AMF subscribes to DDN Failure status notification in Nsmf_PDUSession_CreateSMContext Request message if the UDM has subscribed to Availability after DDN Failure event.', '', '\tIn the case of home-routed PDU session or PDU session with I-SMF, the AMF sends Nsmf_PDUSession_UpdateSMContext Request message(s) to the related V-SMF(s) or I SMF(s). Steps 9-10 are performed by those V-SMF(s) or I-SMF(s).', '', '6.\tThe (I/V-)SMF sends the Nsmf_PDUSession_UpdateSMContext response message to the AMF.', '', 'NOTE:\tStep 7 can happen any time after step\xa04.', '', '7.\tThe UDM sends the Nudm_EventExposure_Subscribe response to the NEF.', '', '8.\tThe NEF sends the Nsmf_EventExposure_Subscribe response to the AF.', '', '9-10.\tThe SMF is informed that the UE is unreachable via a Namf_Communication_N1N2MessageTransfer service operation. The SMF then decides to discard downlink packets received from the UPF. By comparing those discarded downlink packets received from the UPF with the Traffic Descriptor(s) received in the event subscription(s), the SMF determines whether DDN Failure due to any traffic from an AF is to be notified to the AMF and if so, the SMF sends the DDN Failure status, by means of Nsmf_PDUSession_SMContextStatusNotify message including NEF Correlation ID, to the AMF. If the UE is not reachable after the AMF received the DDN Failure notification from the SMF, the AMF shall set a Notify-on-available-after-DDN-failure flag corresponding to the NEF Correlation ID.', '', '11-12.\t[Conditional] The AMF detects the UE is reachable and sends the event report(s) based on the Notify-on-available-after-DDN-failure flag, by means of Namf_EventExposure_Notify message(s), only to the NEF(s) indicated as notification endpoint(s) identified via the corresponding subscription in step\xa03. In this way, only the AF(s) for which DL traffic transmission failed are notified.', '', '\tIf the AMF received Idle Status Indication request in step\xa03 and the AMF supports Idle Status Indication, the AMF includes also the Idle Status Indication.', '', '13.\tThe NEF sends Nnef_EventExposure_Notify message with the "Availability after DDN Failure" event to AF.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.1.1.2	Service requirement&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>23435.docx</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0.1424643993377686</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>['', 'The service requirement indicates the VAL application requirements pertaining to the slice(s). ', '', 'Table 9.1.1.2-1: Service requirement', '', 'Information element', '', 'Status', '', 'Description', '', 'VAL service ID', '', 'M', '', 'The identification of the application ID related with the service requirement.', '', 'VAL service KPIs', '', 'O', '', 'KPIs including application QoS requirements (latency, error rates, throughput, jitter,..)', '', 'Network slice related identifier(s)', '', 'M', '', 'Identifier of network slice for which the request applies', '', 'Application layer Service Profile', '', 'O', '', 'The properties of network slice related requirement. If Service Profile is known by the VAL server, it can be provided to the NSCE server. The GST defined by GSMA (see clause 2.2 in [5]) and the performance requirements defined in clause 7 TS 22.261 [6] are all considered as input for it.', '', 'Area of interest', '', 'O', '', 'The service area for which the requirement applies, which can be expressed as a geographical area (e.g. geographical coordinates), or a topological area (e.g. a list of TA).', '', '', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>&lt;h1&gt;D.2	Reporting for sponsored data connectivity&lt;/h1&gt;</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>23503.docx</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0.1494819521903992</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>['', 'There are two deployment scenarios for usage reporting for sponsored data connectivity. The Sponsor Identifier and Application Service Provider Identifier are provided for sponsored services to the PCF from the AF over the Rx/N5 interface.', '', 'In the first scenario the PCF assigns a service specific Charging Key for a sponsored IP flow. The Charging key is used by the SMF to generate separate accounting records for offline charging and and/or usage data records for online charging for the sponsored flows. Correlation of accounting records and usage data records from multiple users per sponsor and/or application service provider is then performed using the charging key.', '', 'In a second scenario the Sponsor Identifier and Application Service Provider Identity is included in PCC rules from the PCF to the SMF as defined in clause\xa06.3.1. For this scenario the same Charging Key may be used both for IP flows that are sponsored and for flows that are not sponsored. Accounting records generated by the SMF for offline charging include the Sponsor Identity and the Application Service Provider Identity. Correlation of accounting records from multiple users per sponsor and/or application service provider can then be based on Sponsor Identity and Application Service Provider Identity instead of the Charging Key. Usage reporting for online charging including Sponsor Identity and Application Service Provider Identity has not been specified in this release of the specification. PCC rules that include a Sponsor Identity and an Application Service Provider Identity should include a Charging Method that indicates offline charging.', '', '', 'Annex E (informative):', 'Change history', '', '&lt;b&gt;Change history&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;Date&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Meeting&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TDoc&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CR&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rev&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Cat&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Subject/Comment&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;New version&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2017-12&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-78&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-170933&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC Editorial update for presentation to TSG SA#78 for approval&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;1.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2017-12&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-78&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC Editorial update after TSG SA#78 Approval&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0001&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on PCF interaction&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180092&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0002&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Remove EN related with Session binding&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0003&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction for background data transfer for TS\xa023.503&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0004&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction on Notification control for GBR QoS flow&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0005&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Addition of Reflective QoS Timer in PDU session related policy information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0006&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Removal of editor\'s notes and addition of references to empty sections&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0007&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Influence of additional non-standardized QoS parameters on QoS Flow Binding&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0008&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Description of components in URSP&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0010&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;QoS rule generation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0011&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE policies granularity and UE assistance for policy evaluation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0012&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Resource reservation for services sharing priority&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0013&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Add Nchf service in service base representation architecture&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0014&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Traffic mapping information that disallows UL packets&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0016&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Moving NWDAF to 23.501&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0017&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Default URSP Rule&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE selects a PDU Session based on URSP&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0020&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on the handling of event triggers&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0021&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update of UDR policy related subscription&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0022&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Remove EN related with EPC IWK&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0023&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Remove some ENs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0024&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;AF subscription to AMF and SMF events and events reporting&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0025&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to description of session management related policy enforcement&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180095&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Supporting 3GPP PS Data Off in 5GS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0031&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Session Binding Mechanism for non-IP PDU Session&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0032&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on enforcement of Application Detection Control&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180092&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0033&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Resolve the Editor\'s Note on Presence Reporting Area&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0034&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update of event trigger section&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0035&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on AF using legacy Rx binding with relevant PCF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180125&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0036&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Addition of PDU Session type IPv4v6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180478&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0019&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;7&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Additional PDU Session Type in Route Selection Descriptor&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180483&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0037&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to URSP and UE preferences for NSSP and SSCMSP&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180481&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0043&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;7&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on using PSI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180481&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0044&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;7&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on UE policy configuration&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180483&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0046&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction on Policy Control Request Triggers&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180480&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0049&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on match all URSP rule&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180480&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0050&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on policy provision in roaming case&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180478&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0051&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment with the definition of PCF-AMF and PCF-SMF interfaces&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180482&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0053&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Cleanups on the support of session binding for Ethernet PDU session Type&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180486&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0054&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NEF and UDR in LBO architecture for AF influence on traffic routing&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180486&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Network slicing information for binding the AF request to the relevant PCF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180489&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0058&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Support use of DNN for URSP traffic descriptor &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180490&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; 0060&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TS23.503 Clarification on Access and mobility related policy&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180490&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; 0061&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TS23.503 Clarification on BSF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180490&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; 0062&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TS23.503 ePDG/N3IWF selection information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180483&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0063&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to the UE Policy Section 6.1.2.2.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180489&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;The interaction between PCF and AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180484&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0067&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to PFD management descriptions&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180487&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0068&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Protocol criteria for domain name matching&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180484&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0071&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Delivery of UE policies&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180485&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0073&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;How to differentiate the PSIs in different PLMNs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180477&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrected the name of a PCF service operation in clause 6.1.2.2.2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180485&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0081&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Handling of Configured NSSAIs in Roaming Scenarios - 23.503&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180478&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0082&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; Alignment for policy control application specific information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180490&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0084&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; Update for usage monitoring support&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180490&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0085&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; Update for sponsored data connectivity support&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180487&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0087&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Provisioning of ANDSP via signalling&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180483&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0088&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Provisioning of ANDSP via signalling&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180487&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0089&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;QoS flow binding for URLLC services&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180487&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Removal of editor\'s notes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-81&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180723&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;PDU Session selection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-81&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180723&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; UE Policy Delivery in case of UE not reachable&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-81&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180724&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0099&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Support of tracing in 5GS signalling: PCF related data &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-81&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180723&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0103&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Number of packet filters supported by UE&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-81&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180723&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Policy Control Request triggers for updating the AM Policy Association &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-81&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180723&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0108&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N28 session termination&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-81&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180723&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0109&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;URSP updates and Application to PDU session association re-evaluation &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-81&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180723&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0111&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on initial UE policy provisioning&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-81&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180723&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0112&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Notification Control applicability&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-81&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180723&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0117&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;s</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.17.6.1	General&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>23502.docx</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0.1655272841453552</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>['', 'This clause describes the provisioning of available UPFs in SMF using the NRF as documented in clause\xa06.3.3 of TS\xa023.501\xa0[2].', '', 'This optional node-level step\xa0takes place prior to selecting the UPF for PDU Sessions and may be followed by N4 Node Level procedures defined in clause\xa04.4.3 where the UPF and the SMF exchange information such as the support of optional functionalities and capabilities.', '', 'As an option, UPF(s) may register in the NRF. This registration phase uses the Nnrf_NFManagement_NFRegister operation and hence does not use N4.', '', 'For the purpose of SMF provisioning of available UPFs, the SMF uses the Nnrf_NFManagement_NFStatusSubscribe, Nnrf_NFManagement_NFStatusNotify and Nnrf_NFDiscovery services to learn about available UPFs.', '', 'NOTE\xa01:\tThe protocol used by UPF to interact with NRF is described in TS\xa029.510\xa0[37]', '', 'UPFs may be associated with UPF Provisioning Information in the NRF. The UPF Provisioning Information consists of:', '', '-\ta list of (S-NSSAI, DNN);', '', '-\tUE IPv4 Address Ranges and/or IPv6 Prefix Range(s) per (S-NSSAI, DNN); and', '', 'NOTE\xa02:\tThe above information can be used by the SMF for UPF selection when static IP address/prefix allocation is required for a UE.', '', '-\ta SMF Area Identity the UPF can serve. The SMF Area Identity allows limiting the SMF provisioning of UPF(s) using NRF to those UPF(s) associated with a certain SMF Area Identity. This can e.g. be used if an SMF is only allowed to control UPF(s) configured in NRF as belonging to a certain SMF Area Identity.', '', '-\tthe supported ATSSS steering functionality, i.e. whether MPTCP functionality or ATSSS-LL functionality or MPQUIC functionality, or any combination of them is supported.', '', '-\tthe supported UPF event exposure service and supported Event IDs, e.g. local notification of QoS Monitoring to AF or e.g. events for data collection to NWDAF by Nupf_EventExposure_Notify.', '', '-\tthe supported functionality associated with high data rate low latency services, eXtended Reality (XR) and interactive media services, specified in clause\xa05.37 (for example, ECN marking for L4S, specified in clause\xa05.37.3, PDU Set Marking, specified in clause\xa05.37.5, UE power saving management, specified in clause\xa05.37.8).', '', 'The SMF Area Identity and UE IPv4 Address Ranges and/or IPv6 Prefix Range(s) are optional in the UPF Provisioning Information.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;5.37.1	General&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0.1177679896354675</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>['', 'This clause\xa0provides an overview of 5GS functionalities for support of XR services (AR/VR applications) and interactive media services that require high data rate and low latency communication, e.g. cloud gaming and tactile/multi-modal communication services according to service requirements documented in TS\xa022.261\xa0[2]. The standardized 5QI characteristics for such interactive services are provided in Table 5.7.4-1 and TSCAI is used to describe the related traffic characteristics as defined in clause\xa05.27.2. Further enhancements for these interactive media services are as follows:', '', '-\tThe 5GS may support QoS policy control for multi-modal traffic, see clause\xa05.37.2.', '', '-\tThe 5GS may support network information exposure which can be based on ECN markings for L4S, see clause\xa05.37.3 or 5GS exposure API, see clause\xa05.37.4.', '', '-\tThe 5GS may support PDU Set based QoS handling including PDU Set identification and marking, see clause\xa05.37.5.', '', '-\tThe 5GS may ensure that the UL and DL packets together meet the requested round trip delay and also update the delay for UL and DL considering QoS monitoring results, see clause\xa05.37.6.', '', '-\tThe 5GS may perform per-flow Packet Delay Variation (PDV) monitoring and policy control according to AF provided requirements, see clause\xa05.37.7.', '', '-\tThe 5GC may provide traffic assistance information to the NG-RAN to enable Connected mode DRX power saving, see clause\xa05.37.8.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;14.3.5.1	General&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>23434.docx</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0.1112815141677856</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>['', 'This feature provides the SEAL NRM support for coordinated QoS/resource management for network assisted UE-to-UE communications. Such capability may be required for guaranteeing end-to-end QoS fulfilment (primarily for meeting end-to-end latency requirements) in network assisted UE to UE communications and may accommodate various vertical-specific application services, e.g.: ', '', '-\tNetwork-assisted Command and Control (C2) communications in UASAPP [TS 23.255], where the UAV controller navigates its UAV over the 5GS;', '', '-\tTeleoperated Driving (ToD) in eV2XAPP [TS 23.286], where the a V2X UE acting as server may remotely control a further V2X UE over the 5GS;', '', '-\tNetwork-assisted Device-to-Device communications in Factory of the Future (FF) use cases, such as control-to-control communications.', '', '-\t5G LAN-Type communication within a 5G VN group as specified in 3GPP\xa0TS 23.501\xa0[10].', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.17.2.1	Network Slice Information delivery request&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>23435.docx</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0.1444246172904968</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>['', 'This subclause depicts the procedure of the Network Slice Information delivery to the VAL server via NSCE server, when the VAL server requests the Network Slice Information after registration. ', '', 'Pre-condition:', '', '1. \tThe NSCE server should have the agreement with MNO (NOP) for retrieval of ServiceProfile, if the NSCE server is the external entity. ', '', '----media/image38.emf----', '', 'Figure 9.17.2.1-1: Network Slice Information delivery request', '', "1.\tThe NSCE server retrieves the Network Slice ServiceProfile from 5GS (e.g., NSMF) when the NSCE server acting as a NSP prepares a Network Slice to be provided. The NSCE server follows the procedure to request/receive the Network Slice Service Profile with 'getMOIAttributes' operation as specified in 3GPP TS 28.532[7].", '', 'NOTE:\tIf NSCE server and NSMF are in same operator, then the NSCE server gets access directly to NSMF. The delivered Network Slice Service Profile contains the values of attributes such as PLMN, S-NSSAI, SST, maximum number of UEs, maximum number of PDU sessions, Slice Coverage Area, Latency, and, Data volume, which specify the Network Slice characteristics, as specified in clause of ServiceProfile in 3GPP TS 28.541 [10].  ', '', "2.\tThe NSCE server, as Network Slice as a Service, creates and stores the Network Slice information. When NSCE server retrieves the Network Slice Information, it is necessary for NSCE server to convert the attributes in Network Slice ServiceProfile to the Network Slice information for readable information and to compose the Network Slice information, according to the NSP's policy. ", '', 'In order to reduce to request often the Network Slice Information Retrieval, the NSCE server stores the Network Slice information.  ', '', '3.\tThe VAL server requests the Network Slice Information to the NSCE server. If the VAL server needs to know the specific attribute value for its service, then the attribute name of Network Slice Information (e.g., S-NSSAI, SST, Slice Coverage Area, etc.) can be added in the Request message. ', '', '4.\tThe NSCE server performs to check whether the requesting VAL server is registered or not. The NSCE server identifies which the Network Slice Customer is authorized to use.', '', '5.\tThe NSCE server sends the Network Slice Information, if the VAL server is registered and authorized. The NSCE server rejects to the request of the Network Slice Information, if not registered.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;4.7.1	General&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>23527.docx</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0.1311421394348145</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>['', 'To reduce signalling latency and achieve a better load balancing among SMFs in a SMF Set when it is deployed, an SMF in a SMF Set and a UPF may support the procedures specified in this clause. These procedures enable an SMF from the same set to request UPF to move PFCP sessions associated with certain FQ-CSIDs (when partial failure handling is supported as specified in clause\xa04.6), Group IDs or SMF IP addresses, to (another) SMF(s) in the set proactively, without causing massing signalling (per PFCP session) towards UPF(s).', '', 'NOTE:\tThe FQ-CSID can only be used in the procedure specified in this clause when the partial failure feature (using FQ-CSID) is deployed and used (not to force the NF to use a Group ID). For a network where the partial failure feature is not deployed, a Group ID or a SMF IP address needs to be used.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.4.12.2	Core Network Assistance for PEIPS&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0.1497880816459656</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>['', 'To support the Paging Early Indication with Paging Subgrouping (PEIPS), Paging Subgrouping Support Indication and the PEIPS Assistance Information is used by the AMF and NG-RAN to help determine whether PEIPS applies to the UE and which paging subgroup used when paging the UE (see TS\xa038.300\xa0[27]).', '', "In the Registration Request message, the Paging Subgrouping Support Indication indicates whether the UE supports PEIPS with AMF PEIPS Assistance Information. If the UE includes Paging Subgrouping Support Indication, the UE may also include the paging probability information to assist the AMF. If the AMF supports PEIPS assistance and if the UE provided Paging Subgrouping Support Indication, the AMF stores the indication in the UE context in AMF. The AMF may use local configuration, the UE's paging probability information if provided, information provided by the RAN (e.g. any of the &lt;i&gt;Information On Recommended Cells And RAN nodes For Paging&lt;/i&gt;), and/or previous statistical information for the UE to determine the AMF PEIPS Assistance Information. The AMF PEIPS Assistance Information includes the Paging Subgroup ID.", '', 'NOTE\xa01:\tTo minimise MT voice call setup latency, the AMF could allocate Paging Subgroup IDs taking into account whether or not the UE is likely to receive IMS voice over PS session calls.', '', "NOTE\xa02:\tTo avoid MT traffic for more mobile UEs causing more stationary UEs to be woken up, the AMF could allocate Paging Subgroup IDs taking into account the UE's mobility pattern.", '', 'If the AMF has determined AMF PEIPS Assistance Information for the UE, the AMF stores it in the UE context in AMF and provides it to the UE in every Registration Accept message.', '', 'If the AMF has determined AMF PEIPS Assistance Information, the AMF shall provide it to NG RAN when paging the UE. In addition, in order to support PEIPS for UEs in RRC_INACTIVE mode, the AMF shall provide the AMF PEIPS Assistance Information to NG-RAN as part of the RRC Inactive Assistance Information.', '', 'The NG-RAN chooses on a per-cell basis whether to use PEIPS and which paging subgrouping mechanism to use. When using AMF allocated subgroups, both the UE and NG-RAN use the AMF PEIPS Assistance Information to determine the paging subgroup to apply as defined in TS\xa038.300\xa0[27].', '', 'The AMF may use the UE Configuration Update procedure (as described in clause\xa04.2.4 of TS\xa023.502\xa0[3]) and N2 UE Context Modification procedure (as described in clause\xa08.3.4 of TS\xa038.413\xa0[34]) to update the AMF PEIPS Assistance Information in the UE and NG-RAN.', '', 'When the UE has an active emergency PDU Session:', '', '-\tThe UE shall not signal Paging Subgrouping Support Indication in the Registration Request message.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.2.3.1	General&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>23287.docx</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0.1345250606536865</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>['', 'V2X communication over PC5 reference point may use different protocols and formats than V2X communication over Uu reference point.', '', 'For a V2X service type that can use PC5 reference points or Uu reference point for the transmission of the same V2X messages, the following additional consideration apply for unicast transport of V2X messages over Uu reference point:', '', '-\tfor transport of non-IP based V2X messages from the application:', '', '-\tIP encapsulation (i.e. IP PDU Session type) or Unstructured PDU Session type is used.', '', '-\tThe UE determines which method between IP encapsulation and Unstructured PDU Session type is used for non-IP based V2X messages based on the UE configuration as described in clause\xa05.1.3.1. If no such configuration is available, UE can use the method based on the UE implementation.', '', '-\twhen IP PDU Session type is used for transport of IP based or non-IP based V2X messages:', '', '-\tV2X messages are transported over UDP or TCP:', '', '-\tfor non-IP based V2X messages from the application, UE may learn from V2X Application Server or UE may be configured explicitly about a transport layer protocol needs to be used or no restriction imposed by configuration.', '', '-\tfor IP based V2X messages from the application, UE uses the transport layer protocol set by the upper layer.', '', '-\tthe UE sends a V2X message to a V2X Application Server address. The destined V2X Application Server address is derived from the V2X service type and the UE configuration as described in clause\xa05.1.3.1, and the V2X Application Server receives the V2X message in a UDP/IP packet or a TCP/IP packet on a V2X Application Server address.', '', '-\twhen Unstructured PDU Session type is used for transport of non-IP based V2X messages:', '', '-\tV2X messages are transported to the V2X Application Server as defined in clause\xa05.6.10.3 of TS\xa023.501\xa0[6].', '', 'Latency reduction for V2X message transfer via unicast may be achieved by using various mechanisms, including via e.g., edge computing defined in clauses5.6.7 and 5.13 of TS\xa023.501\xa0[6], where the V2X Application Server acts as an Application Function.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.8.2.2b	Network Triggered Connection Resume in RRC_INACTIVE with CN based MT communication handling&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>23502.docx</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0.1031609773635864</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>['', 'When the UE is in CM-CONNECTED with RRC_INACTIVE state with CN based mobile terminating (MT) communication handling, high latency communication as described in clause\xa05.31.8 of TS\xa023.501\xa0[2] is applied.', '', 'This procedure may be triggered by MT data, or a N1 procedure from SMF and UPF as shown in Figure 4.8.2.2b-1. When the procedure is triggered by other NFs (e.g. SMSF, LMF, GMLC), the UPF (or SMF) in the following figure should be replaced by the respective NF (the corresponding service operations used by other NFs when they communicate with AMF may also be different from the service operations used by SMF/UPF). For MT-SMS delivery request from SMSF, see also procedures defined in clause\xa04.13.3.6, clause\xa04.13.3.7 and clause\xa04.13.3.8.', '', 'During the procedure, the NG-RAN (i.e. gNB) performs RAN paging towards the UE based on the N2 message from the AMF in order to trigger the UE triggered Connection Resume procedure in clause\xa04.8.2.2.', '', '----media/image71.emf----', '', 'Figure 4.8.2.2b-1: Network Triggered Connection Resume for UE in RRC_INACTIVE with CN based MT communication handling', '', '1a.\tWhen downlink data is received and the SMF/UPF is requested to perform buffering as specified in clause\xa04.8.1.1a, the UPF/SMF checks with AMF for the possibility of data delivery, similar to step\xa02 of clause\xa04.24.2 with the following differences:', '', '-\tThe UPF provides the DL data size information of the QoS Flow when sending Data Notification to SMF if the UPF has received instruction from SMF.', '', 'NOTE\xa01:\tThe DL data size corresponds to the cumulative size of all the buffered packets in the UPF at the time when the UPF triggers the Data Notification. This is typically the size of the first DL packet, unless multiple DL packets arrive in a single burst before the UPF triggers the Data Notification.', '', '-\tIn the Namf_MT_EnableUEReachability the SMF may also send the following parameters the PPI, the ARP and the 5QI, DL data size and/or QFI for the QoS Flow of the PDU Session which triggered the request for paging policy differentiation as defined in clause\xa05.4.3.2 of TS\xa023.501\xa0[2].', '', '-\tThe AMF determines if the UE is reachable based on the stored eDRX values for RRC_INACTIVE state provided by NG-RAN in clause\xa04.8.1.1a. If the UE is unreachable, the AMF stores the information received in the Namf_MT_EnableUEReachability request and provides the Estimated Maximum Wait time in the reject response message based on the eDRX values for RRC_INACTIVE in AMF (steps 2-5 are postponed until the UE becomes reachable). If the UE is considered reachable, step\xa02 is executed immediately.', '', 'NOTE\xa02:\tThis handling is similar to CM-IDLE with eDRX. When the AMF provides the Estimated Maximum Wait time, it can consider the time needed for RRC level procedures (e.g. RRC RNA update procedure) when UE wakes up from the eDRX cycle.', '', 'NOTE\xa03:\tThe other NFs can use the Namf_Communication_N1N2MessageTransfer service operation to deliver the MT signalling.', '', '\tIf the SMF, after the reception of reject response in step\xa01.a.3 and while waiting for UE triggered Connection Resume indication (within the Estimated Maximum Wait time) from the AMF, receives any additional Data Notification message due to additional data packets for another QoS Flow associated with a higher priority (i.e. ARP priority level) than the priority indicated to the AMF in the previous Namf_MT_EnableUEReachability, or the SMF derive a different Paging Policy Indicator according to the additional Data Notification, the SMF invokes a new Namf_MT_EnableUEReachability indicating the higher priority or different Paging Policy Indicator to the AMF. The information contained in the new Namf_MT_EnableUEReachability request overrides the information from the previous Namf_MT_EnableUEReachability request that is stored in the AMF. If the SMF receives any additional Data Notification messages due to additional data packets for another QoS Flow associated with same or lower priority than the priority indicated to the AMF in the previous Namf_MT_EnableUEReachability or if the SMF has sent the second Namf_MT_EnableUEReachability message indicating the higher priority, based on local configuration, the SMF either buffers these Data Notification messages and does not send a new Namf_MT_EnableUEReachability message, or the SMF sends a new Namf_MT_EnableUEReachability message to AMF. If AMF receives DL data sizes for different QoS Flows from SMF, based on local configuration, the AMF may store the DL data size information for each QoS Flows and provides the information per QoS Flow to NG-RAN as in step\xa02 below.', '', "2.\tWhen the AMF determines that the UE is reachable, the AMF sends a RAN Paging Request message to NG-RAN with the request for the UE's RRC connection to be resumed. The AMF may include the following parameters in the RAN Paging Request message to trigger and enable RAN paging:", '', '-\tOn per QoS Flow basis the PPI, the ARP, DL data size, the 5QI and/or QFI for the QoS Flow(s) of the PDU Session; and/or', '', '\tA DL Signalling indication if the AMF receives MT signalling (i.e. via Namf_Communication_N1N2MessageTransfer) in step\xa01a.', '', '3.\tNG-RAN performs RAN paging towards the UE considering the parameters provided by the AMF. Based on the QFI and/or the DL data size for QoS Flow(s), if provided, the NG-RAN determines whether to set the MT-SDT indication as defined in TS\xa038.300\xa0[9]).', '', '4.\tWhen the UE receives RAN paging, it initiates the UE triggered Connection Resume procedure and NG-RAN notifies CN as specified in clause\xa04.8.2.2 including the N2 Notification in step\xa03b. If the Namf_MT_EnableUEReachability response was not sent in step\xa01.a.3 (i.e. the AMF has considered the UE is reachable in step\xa01), then the AMF sends the Namf_MT_EnableUEReachability response to the SMF along with step\xa04 of the UE triggered Connection Resume in RRC_INACTIVE procedure (see clause\xa04.8.2.2).', '', '5.\tThe UPF triggers downlink data delivery if there is any. The AMF sends downlink NAS messages if there is any.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.4.3.3	Priority Level&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>23287.docx</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0.1077563762664795</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>['', '\tThe Priority Level for NR PC5 has the same format and meaning as the Priority value of the ProSe Per-Packet Priority (PPPP) for LTE PC5 defined in TS\xa023.285\xa0[8]. For LTE PC5, the PPPP value also reflects the latency requirement and the PDB derivation is according to TS\xa023.285\xa0[8], i.e. the low PDB is mapped to the high priority PPPP value. On the other hand, for NR PC5, the PDB is derived from the PQI table as defined in clause\xa05.4.4.', '', 'NOTE:\tUsing the same format for Priority Level and PPPP provides better backward compatibility.', '', '\tThe Priority Level shall be used to different treatment of V2X service data across different modes of communication, i.e. broadcast, groupcast, and unicast. In the case when all QoS requirements cannot be fulfilled for all the PC5 service data associated with that PC5 reference point, the Priority Level shall be used to select for which PC5 service data the QoS requirements are prioritized such that a PC5 service data packet with Priority Level value N is prioritized over a PC5 service data packet with higher Priority Level values, i.e. N+1, N+2, etc. (lower number meaning higher priority).', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;5.33	Support for Ultra Reliable Low Latency Communication&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0.2327203750610352</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>['']</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>&lt;h2&gt;5.37	Support for high data rate low latency services, eXtended Reality (XR) and interactive media services&lt;/h2&gt;</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>23501.docx</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0.2327203750610352</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>['']</t>
         </is>
       </c>
     </row>

--- a/temp_sections_for_generation.xlsx
+++ b/temp_sections_for_generation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,140 +458,220 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;4.1	General&lt;/h2&gt;</t>
+          <t>&lt;h4&gt;16.10.5.2	Configuration&lt;/h4&gt;</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23548-i20.docx</t>
+          <t>38300-i20.docx</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1160387207714905</v>
+        <v>0.1347943432211027</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['', "Edge Computing enables operator and 3rd party services to be hosted close to the UE's access point of attachment, so as to achieve an efficient service delivery through the reduced end-to-end latency and load on the transport network.", '', '5GS supports Edge Hosting Environment (EHE) deployed in the DN beyond the PSA UPF. An EHE may be under the control of either the operator or 3rd parties.', '', 'The Edge Computing features defined in this specification are applicable to PLMN(s) and to SNPN(s).', '', 'The Local part of the DN in which EHE is deployed may have user plane connectivity with both a centrally deployed PSA and locally deployed PSA of same DNN. Edge Computing enablers as described in clause\xa05.13 of TS\xa023.501\xa0[2], e.g. local routing and traffic steering, session and service continuity, AF influenced traffic routing, are leveraged in this specification.', '', 'Edge Computing in the serving network (e.g. for Local Break Out roaming scenario in case of PLMN access) is supported, but for AF guidance to PCF determination of URSP rules, the Serving network (e.g. VPLMN or serving SNPN) has no control on URSP, so cannot influence UE in selecting a specific Edge Computing related DNN and S-NSSAI.', '']</t>
+          <t>['', 'A UE can be configured to receive data of MBS multicast session only in RRC_CONNECTED state or RRC_INACTIVE state. To receive the multicast service, the UE needs to perform MBS Session Join procedure as specified in TS 23.247 [45]. It is up to gNB to decide whether the UE receives data of MBS multicast session in RRC_CONNECTED state or RRC_ INACTIVE state. The gNB moves the UE from RRC_CONNECTED state to RRC_INACTIVE state via &lt;i&gt;RRCRelease&lt;/i&gt; message, and moves the UE from RRC_INACTIVE state to RRC_CONNECTED state via group notification or UE-specific paging.', '', 'If the UE which joined a multicast session is in RRC_CONNECTED state and when the multicast session is activated, the gNB may send &lt;i&gt;RRCReconfiguration&lt;/i&gt; message with relevant MBS configuration for the multicast session to the UE.', '', 'If the gNB configures the UE to receive the MBS multicast session in RRC_INACTIVE state, the gNB may provide the PTM configuration via &lt;i&gt;RRCRelease&lt;/i&gt; message for the MBS multicast session as well as information about which multicast service(s) can be continued to be received in RRC_INACTIVE state. The UE does not suspend MRBs of the multicast session indicated to be continued to be received in RRC_INACTIVE state. Multicast MCCH is used in case a cell supports updating PTM configuration or providing PTM configuration to UEs\xa0in\xa0RRC_INACTIVE state moved from other cells. Otherwise, multicast MCCH can be optionally present.', '', 'A notification mechanism is used to announce the change of the multicast MCCH contents due to multicast session modification or session deactivation or due to neighbouring cell information modification. The scheduling information for multicast MCCH reception is provided via &lt;i&gt;SIB24&lt;/i&gt; and optionally via &lt;i&gt;RRCRelease&lt;/i&gt; message.', '', 'When there is temporarily no data to be sent to the UEs for a multicast session that is active, the gNB may move the UE to RRC_INACTIVE state. When an MBS multicast session is deactivated, the gNB may move the UE in RRC_CONNECTED state to RRC_IDLE or RRC_INACTIVE state. For UEs receiving data of MBS multicast session in RRC_INACTIVE state, the gNB notifies the UE to stop monitoring PDCCH addressed by corresponding G-RNTI via &lt;i&gt;RRCRelease message&lt;/i&gt; or multicast MCCH when there is temporarily no data to be sent or when the session is deactivated. gNBs supporting MBS use a group notification mechanism to notify the UEs in RRC_IDLE or RRC_INACTIVE state when a multicast session has been activated by the CN. gNBs supporting MBS use a group notification mechanism to notify the UEs in RRC_INACTIVE state when the session is already activated and the gNB has multicast session data to deliver. If the UE receiving data of MBS multicast session in RRC_INACTIVE state in a cell is notified to stop monitoring PDCCH addressed by G-RNTI for all the joined multicast sessions, the UE does not monitor PDCCH addressed by Multicast MCCH-RNTI until the group notification is received. Upon reception of the group notification that does not indicate multicast reception in RRC_INACTIVE state, the UEs reconnect to the network or resume the connection and transition to RRC_CONNECTED state from either RRC_IDLE state or RRC_INACTIVE state. Upon reception of the group notification that indicates to allow the multicast reception in RRC_INACTIVE state, the UE stays in RRC_INACTIVE state and behaves as specified in TS 38.331 [12]. If the UE is notified by both group notification and the UE-specific paging, the UE follows the UE-specific paging and goes to RRC_CONNECTED state.', '', 'The group notification is addressed with P-RNTI on PDCCH, and the paging channels are monitored by the UE as described in clause 9.2.5. Paging message for group notification contains MBS session ID which is utilized to page all UEs in RRC_IDLE and RRC_INACTIVE states that joined the associated MBS multicast session, i.e., UEs are not paged individually. The UE stops monitoring for group notifications related to a specific multicast session, i.e., stops checking for the MBS session ID in the Paging message, when the UE enters RRC_CONNECTED state. The UE does not monitor for group notifications for these cases, i.e., once this UE leaves this multicast session or the network requests the UE to leave, or the network releases the multicast session.', '', "NOTE:\tThe gNB's decision to keep a UE in RRC_CONNECTED state (e.g., to meet latency requirements for mission critical service) or move the UE to RRC_INACTIVE or RRC_IDLE state (e.g., when there is temporarily no data to be sent to the UE or to address congestion in the cell) may consider 5QI value(s) or other QoS parameters for mission critical and non-mission critical UEs.", '', 'If the UE in RRC_IDLE state that joined an MBS multicast session is camping on the gNB not supporting MBS, the UE may be notified by CN-initiated paging where CN pages each UE individually due to session activation or data availability, as described in clause 9.2.5. If the UE in RRC_INACTIVE state that joined MBS multicast session is camping on the gNB not supporting MBS, the UE may be notified individually by RAN-initiated paging due to session activation or data availability, as described in clause 9.2.5.', '']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>&lt;h1&gt;E.4	Session Breakout&lt;/h1&gt;</t>
+          <t>&lt;h2&gt;3.1	Abbreviations&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23548-i20.docx</t>
+          <t>38300-i20.docx</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1518914118683455</v>
+        <v>0.1339187871048682</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['', 'As traffic offload via UL CL/BP is not supported over EPC, when a PDN connection is initiated in EPS or a PDU Session is handed-over to EPS, the SMF+PGW-C can send to the EASDF DNS message handling rules requesting the EASDF to transparently forward any DNS traffic. The SMF+PGW-C can send to the EASDF new DNS message handling rules (with actual reporting and actions as defined in clause 6.2.3.2.2) when the PDU Session/PDN connection is handed-over (back) to 5GS.', '', 'When a PDN connection is initiated in EPS, the SMF+PGW-C can also select a normal DNS Server (i.e. different from an EASDF) to serve the PDN Connection, and then indicate to the UE to use the EASDF as DNS Server when the PDU Session/PDN connection is moved to 5GS.', '', '', '', '', 'Annex F (Informative):', 'EAS Relocation on Simultaneous Connectivity over Source and Target PSA', '', 'This annex describes how EAS relocation can make use of network capabilities that, at PSA change, provide simultaneous connectivity over the source and the target PSA during a transient period.', '', 'At PSA change, simultaneous connectivity to Application over former and new PSA allows the application to build its own EAS relocation solution and minimize the impact on latency:', '', '-\tIf the decision for when to start using a target EAS is taken by the application, this decision can consider application specific aspects, like for example, the time interval between packets or end of a video frame to minimize impact on latency.', '', '-\tWhen there are multiple applications on a PDU Session, if connectivity over the former PSA is maintained for some time, each application can schedule EAS relocation to suit the application specific needs without interfering with the other applications.', '', 'The procedure is shown in below Figure F-1:', '', '----media/image36.emf----', '', 'Figure F-1: EAS relocation on simultaneous connectivity over source and target PSA', '', 'The user has established a PDU Session. This PDU Session has a local PSA (source L-PSA), which could be the PSA of a PDU Session with Distributed Anchor connectivity or one additional local PSA of a PDU Session with Session Breakout. There has been an EAS Discovery procedure as described in clauses 6.2.2.2 and 6.2.3.2 (the procedure is conditioned to the connectivity model) for one or more applications. Application traffic is served by source EAS over the Local PSA.', '', '1.\tUser mobility triggers SMF to select a new Local PSA (target L-PSA) that is closer to current user location. In this scenario, the re-anchoring procedures that provide Simultaneous Connectivity over Source and Target PSA are described in TS\xa023.502\xa0[3]:', '', '-\tFor Distributed Anchor, in clause\xa04.3.5.2 for Change of SSC mode 3 PDU Session Anchor with multiple PDU Sessions and in clause\xa04.3.5.3 for Change of SSC mode 3 PDU Session Anchor with IPv6 Multi-homed PDU Session.', '', '-\tFor Session Breakout, in clause\xa04.3.5.7 for Simultaneous change of Branching Point or UL CL and additional PSA for a PDU Session.', '', '\tThe SMF may notify an AF for the early and/or late notifications on the UP-path change event as described in clause\xa04.3.6.3 in TS\xa023.502\xa0[3].', '', '2.\tWhen the connectivity is available on target L-PSA, the connectivity via source L-PSA is still available during certain time (that is provisioned and controlled as described in these TS\xa023.502\xa0[3] procedures). The application traffic can continue to run over the established UE-EAS connections.', '', '3.\tThe EAS Rediscovery Procedures described in clauses 6.2.2.3 and 6.2.3.3 allow the UE to discover a new EAS (i.e. target EAS) for the application that is closer to the UE over the new path (there could be multiple triggers as described in those respective clauses). If multiple applications are being served by this PDU Session, each of them performs rediscovery. This discovery procedure may lead to EAS reselection.', '', '4.\tNew L4 connections may now be established between the UE and the target EAS with the following considerations:', '', '-\tFor Distributed anchor or session breakout with MH, the UE uses the IP address /prefix associated with the target PSA (that is referred to as IP#2 in Figure F-1).', '', '-\tFor Session breakout with ULCL, there has not been connection/IP address change. Same IP address is still used by UE (that is referred to as IP#1 in Figure F-1).', '', 'NOTE\xa01:\tIf Session Breakout is used for connectivity and if the application wants to build service continuity on simultaneous connections, source EAS and target EAS cannot share the same IP address (e.g. by using anycast).', '', '\tEAS Relocation may involve EAS context migration in the case of stateful applications. The following examples are part of the application implementation details and fall out of 3GPP specification scope:', '', '-\tIn case that SMF notifies an AF for the early and/or late notification in Step 1, based on the notifications, the AF can interact with the source Application server, which can recreate the context to the target EAS and then provide switching instructions to the Application client.', '', '-\tThe Application server can recreate the service context when first contacted by the client using a Context Id: when suitable, the application client sets up a connection to the target EAS including a Context Id. The target EAS uses this Context Id to retrieve the latest service context available and subsequent updates, if needed.', '', '-\tThe Application server can recreate the context when first contacted by the client using a Context Id: the application client sets up a connection to the target EAS but for some time it sends traffic to both source and target EAS. In this way it triggers the context migration before the actual EAS switch.', '', '-\tThe source Application server is able to provide the client with switching instructions when a new EAS is selected: upon UE request (if UE selected) or as an EAS initiative (if server selected), the source EAS provides the Application client with switching instructions while it continues to serve traffic and drives any context migration towards the selected target EAS.', '', 'NOTE\xa02:\tThis application procedure may be designed to solve EAS relocation in all scenarios, not only when triggered by Edge Relocation, which may simplify the application design.', '', '5.\tAt some points all traffic for all applications in this session are sending traffic to their target EAS only and traffic ceases over the source L- PSA. The source L-PSA is then released. The timers should be set to allow EAS relocation.', '', '6.\tUE only maintains connection(s) to target EAS(s).', '', '', '', '', 'Annex G (Informative):', 'Change history', '', '&lt;b&gt;Change history&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Date&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Meeting&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TDoc&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New version&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SA2#143E&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;S2-2100114&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;Proposed skeleton approved at S2#143E&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;0.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SA#92E&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-210365&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC editorial update for presentation to TSG SA#92E for information&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;1.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SA#93E&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-210942&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC editorial update for presentation to TSG SA#93E for approval&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SA#93E&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC editorial update for publication after SA#93E approval&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;17.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0001&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction related to uniqueness of Update related to a buffered DNS message in EASDF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0003&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction and removal of misleading Note&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0005&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Not all EC scenarios requires EASDF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0014&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarify the local AF subscription for the QoS Monitoring during UE mobility&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0017&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Updates on EAS Discovery Procedure with EASDF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Mega CR for minor fixes to TS 23.548&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0024&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update Neasdf_DNSContext services&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0030&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;EAS rediscovery: Edge DNS Client based EAS (re-)discovery&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0031&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE authorization for 5GC assisted EAS discovery&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0034&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Updating related to EAS Discovery Procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0035&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections on enabling EAS IP Replacement procedure by AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0036&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Improvements and correction to annex C &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0038&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Change of DNS server address during EPC IWK&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0039&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment of EASDF functional description&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0040&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Added the situation of AF relocation to uplink Packet Buffer&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0042&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Local NEF selection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0043&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections on enabling EAS IP Replacement procedure by AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0046&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction related EHE in EC architecture&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0047&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update of EAS discovery procedure and BaselineDNSPattern management in EASDF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0048&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;On NAT between PSA UPF and EASDF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0050&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Removing inconsistency in the definition of ECS Address Configuration Information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0051&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections of EDC functionality description&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#96&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220398&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0052&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction related to EAS IP Address in EDI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#96&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220398&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0053&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections on enabling EAS IP Replacement procedure by AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#96&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220398&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0054&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of EAS Deployment Information Management procedures and services&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#96&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220398&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Parameter supplement of EDI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#96&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220398&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0061&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment of ECS Address Configuration Information to SA6\'s definition&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#97E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220777&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0062&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;EDNS Client Subnet option correction&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#98E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-221069&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0063&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications for local event notification control&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#98E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-221086&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Support of influencing UPF and EAS (re)location for collections of UEs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;18.0.0&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#98E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-221086&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0075&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#4 common EAS enforcement for set of UEs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#98E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-221086&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Procedure for PDU Session supporting HR-SBO in VPLMN&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#98E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-221086&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0082&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Influencing UPF and EAS (re)location for collections of UEs &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0073&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;7&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;EAS Re-discovery Procedure with EASDF in HR roaming scenario&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0083&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Edge Relocation within the same hosting PLMN\'s EHEs &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0084&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;13&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Home Routed-Session Breakout (HR-SBO) support&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0087&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#4: AF traffic influence for common EAS, DNAI selection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0088&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;The EAS discovery procedure with V-EASDF using IP replacement mechanism for supporting HR-SBO&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0089&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Handling AF traffic influence for HR-SBO PDU Sessions&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0092&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;9&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;DNAI mapping based on conclusions in TR 23.700-48&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#4 23.548 common EAS enforcement for set of UEs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0094&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#5 EDI extension for EAS discovery for GSMA OPG scenario&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0095&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Common DNAI relocation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0096&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;ECS Address Configuration Information delivery in roaming&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Information sharing between PLMN to support GSMA OPG&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Select common DNAI/EAS for a set of UEs &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0105&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;EASDF functional description update&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0109&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UL CL/BP insertion for common EAS Discovery&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-04&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;MCC correction to implementation of CR0095R1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230462&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0112&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Home Routed-Session Breakout (HR-SBO) - offload policy structure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230462&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0120&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;7&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#1 EAS Discovery: Resolve ENs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230462&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#1 EACI provisioning from VPLMN&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230462&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0123&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#1 EDI provision for HR-SBO&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230462&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0124&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="fo</t>
+          <t>['', 'For the purposes of the present document, the abbreviations given in TR\xa021.905 [1], in TS 36.300 [2] and the following apply. An abbreviation defined in the present document takes precedence over the definition of the same abbreviation, if any, in TR\xa021.905\xa0[1] and TS 36.300 [2].', '', '5GC\t5G Core Network', '', '5GS\t5G System', '', '5QI\t5G QoS Identifier', '', 'A2X\tAircraft-to-Everything', '', 'A-CSI\tAperiodic CSI', '', 'AGC\tAutomatic Gain Control', '', 'AI\tArtificial Intelligence', '', 'AKA\tAuthentication and Key Agreement', '', 'AMBR\tAggregate Maximum Bit Rate', '', 'AMC\tAdaptive Modulation and Coding', '', 'AMF\tAccess and Mobility Management Function', '', 'AR\tAugmented Reality', '', 'ARP\tAllocation and Retention Priority', '', 'ATG\tAir to Ground', '', 'BA\tBandwidth Adaptation', '', 'BCCH\tBroadcast Control Channel', '', 'BCH\tBroadcast Channel', '', 'BFD\tBeam Failure Detection', '', 'BH\tBackhaul', '', 'BL\tBandwidth reduced Low complexity', '', 'BPSK\tBinary Phase Shift Keying', '', 'BRID\tBroadcast Remote Identification', '', 'C-RNTI\tCell RNTI', '', 'CAG\tClosed Access Group', '', 'CAPC\tChannel Access Priority Class', '', 'CBRA\tContention Based Random Access', '', 'CCE\tControl Channel Element', '', 'CD-SSB\tCell Defining SSB', '', 'cellDTRX-RNTI\tCell Discontinuous Transmission and Reception RNTI', '', 'CFR\tCommon Frequency Resource', '', 'CFRA\tContention Free Random Access', '', 'CG\tConfigured Grant', '', 'CHO\tConditional Handover', '', 'CIoT\tCellular Internet of Things', '', 'CLI\tCross Link interference', '', 'CMAS\tCommercial Mobile Alert Service', '', 'CORESET\tControl Resource Set', '', 'CP\tCyclic Prefix', '', 'CPA\tConditional PSCell Addition', '', 'CPC\tConditional PSCell Change', '', 'DAA\tDetect And Avoid', '', 'DAG\tDirected Acyclic Graph', '', 'DAPS\tDual Active Protocol Stack', '', 'DFT\tDiscrete Fourier Transform', '', 'DCI\tDownlink Control Information', '', 'DCP\tDCI with CRC scrambled by PS-RNTI', '', 'DCR\tDirect Communication Request', '', 'DL-AoD\tDownlink Angle-of-Departure', '', 'DL-SCH\tDownlink Shared Channel', '', 'DL-TDOA\tDownlink Time Difference Of Arrival', '', 'DMRS\tDemodulation Reference Signal', '', 'DRX\tDiscontinuous Reception', '', 'DSR\tDelay Status Report', '', 'DTX\tDiscontinuous Transmission', '', 'E-CID\tEnhanced Cell-ID (positioning method)', '', 'EC\tEnergy Cost', '', 'EHC\tEthernet Header Compression', '', 'ePWS\tenhancements of Public Warning System', '', 'ETWS\tEarthquake and Tsunami Warning System', '', 'FS\tFeature Set', '', 'FSA ID\tFrequency Selection Area Identity', '', 'G-CS-RNTI\tGroup Configured Scheduling RNTI', '', 'G-RNTI\tGroup RNTI', '', 'GFBR\tGuaranteed Flow Bit Rate', '', 'GIN\tGroup ID for Network selection', '', 'GNSS\tGlobal Navigation Satellite System', '', 'GSO\tGeosynchronous Orbit', '', 'H-SFN\tHyper System Frame Number', '', 'HAPS\tHigh Altitude Platform Station', '', 'HRNN\tHuman-Readable Network Name', '', 'IAB\tIntegrated Access and Backhaul', '', 'IFRI\tIntra Frequency Reselection Indication', '', 'I-RNTI\tInactive RNTI', '', 'INT-RNTI\tInterruption RNTI', '', 'KPAS\tKorean Public Alarm System', '', 'L2\tLayer-2', '', 'L3\tLayer-3', '', 'LBT\tListen Before Talk', '', 'LDPC\tLow Density Parity Check', '', 'LEO\tLow Earth Orbit', '', 'LTM\tL1/L2 Triggered Mobility', '', 'MBS\tMulticast/Broadcast Services', '', 'MCE\tMeasurement Collection Entity', '', 'MCCH\tMBS Control Channel', '', 'MDBV\tMaximum Data Burst Volume', '', 'MEO\tMedium Earth Orbit', '', 'MIB\tMaster Information Block', '', 'MICO\tMobile Initiated Connection Only', '', 'MFBR\tMaximum Flow Bit Rate', '', 'ML\tMachine Learning', '', 'MMTEL\tMultimedia telephony', '', 'MNO\tMobile Network Operator', '', 'MO-SDT\tMobile Originated SDT', '', 'MP\tMulti-Path', '', 'MPE\tMaximum Permissible Exposure', '', 'MRB\tMBS Radio Bearer', '', 'MT\tMobile Termination', '', 'MT-SDT\tMobile Terminated SDT', '', 'MTCH\tMBS Traffic Channel', '', 'MTSI\tMultimedia Telephony Service for IMS', '', 'MU-MIMO\tMulti User MIMO', '', 'Multi-RTT\tMulti-Round Trip Time', '', 'MUSIM\tMulti-Universal Subscriber Identity Module', '', 'N3C\tNon-3GPP Connection', '', 'NB-IoT\tNarrow Band Internet of Things', '', 'NCD-SSB\tNon Cell Defining SSB', '', 'NCGI\tNR Cell Global Identifier', '', 'NCL\tNeighbour Cell List', '', 'NCR\tNeighbour Cell Relation', '', 'NCRT\tNeighbour Cell Relation Table', '', 'NES\tNetwork Energy Savings', '', 'NGAP\tNG Application Protocol', '', 'NGSO\tNon-Geosynchronous Orbit', '', 'NID\tNetwork Identifier', '', 'NPN\tNon-Public Network', '', 'NR\tNR Radio Access', '', 'NSAG\tNetwork Slice AS Group', '', 'NTN\tNon-Terrestrial Network', '', 'P-MPR\tPower Management Maximum Power Reduction', '', 'P-RNTI\tPaging RNTI', '', 'PCH\tPaging Channel', '', 'PCI\tPhysical Cell Identifier', '', 'PDB\tPacket Delay Budget', '', 'PDC\tPropagation Delay Compensation', '', 'PDCCH\tPhysical Downlink Control Channel', '', 'PDSCH\tPhysical Downlink Shared Channel', '', 'PEI\tPaging Early Indication', '', 'PER\tPacket Error Rate', '', 'PH\tPaging Hyperframe', '', 'PLMN\tPublic Land Mobile Network', '', 'PNI-NPN\tPublic Network Integrated NPN', '', 'PO\tPaging Occasion', '', 'PQI\tPC5 5QI', '', 'PRACH\tPhysical Random Access Channel', '', 'PRB\tPhysical Resource Block', '', 'PRG\tPrecoding Resource block Group', '', 'PRS\tPositioning Reference Signal', '', 'PS-RNTI\tPower Saving RNTI', '', 'PSDB\tPDU Set Delay Budget', '', 'PSER\tPDU Set Error Rate', '', 'PSI\tPDU Set Importance', '', 'PSIHI\tPDU Set Integrated Handling Information', '', 'PSS\tPrimary Synchronisation Signal', '', 'PTM\tPoint to Multipoint', '', 'PTP\tPoint to Point', '', 'PTW\tPaging Time Window', '', 'PUCCH\tPhysical Uplink Control Channel', '', 'PUSCH\tPhysical Uplink Shared Channel', '', 'PWS\tPublic Warning System', '', 'QAM\tQuadrature Amplitude Modulation', '', 'QFI\tQoS Flow ID', '', 'QMC\tQoE Measurement Collection', '', 'QoE\tQuality of Experience', '', 'QPSK\tQuadrature Phase Shift Keying', '', 'RA\tRandom Access', '', 'RA-RNTI\tRandom Access RNTI', '', 'RACH\tRandom Access Channel', '', 'RANAC\tRAN-based Notification Area Code', '', 'REG\tResource Element Group', '', 'RIM\tRemote Interference Management', '', 'RLM\tRadio Link Monitoring', '', 'RMSI\tRemaining Minimum SI', '', 'RNA\tRAN-based Notification Area', '', 'RNAU\tRAN-based Notification Area Update', '', 'RNTI\tRadio Network Temporary Identifier', '', 'RQA\tReflective QoS Attribute', '', 'RQoS\tReflective Quality of Service', '', 'RS\tReference Signal', '', 'RSRP\tReference Signal Received Power', '', 'RSRQ\tReference Signal Received Quality', '', 'RSSI\tReceived Signal Strength Indicator', '', 'RSTD\tReference Signal Time Difference', '', 'RTT\tRound Trip Time', '', 'RVQoE\tRAN visible QoE', '', 'SCS\tSubCarrier Spacing', '', 'SD\tSlice Differentiator', '', 'SDAP\tService Data Adaptation Protocol', '', 'SDT\tSmall Data Transmission', '', 'SD-RSRP\tSidelink Discovery RSRP', '', 'SFI-RNTI\tSlot Format Indication RNTI', '', 'SHR\tSuccessful Handover Report', '', 'SIB\tSystem Information Block', '', 'SI-RNTI\tSystem Information RNTI', '', 'SLA\tService Level Agreement', '', 'SL-PRS\tSidelink Positioning Reference Signal', '', 'SL-RSRP\tSidelink RSRP', '', 'SMC\tSecurity Mode Command', '', 'SMF\tSession Management Function', '', 'SMTC\tSS/PBCH block Measurement Timing Configuration', '', 'S-NSSAI\tSingle Network Slice Selection Assistance Information', '', 'SNPN\tStand-alone Non-Public Network', '', 'SNPN ID\tStand-alone Non-Public Network Identity', '', 'SPR\tSuccessful PSCell Addition/Change Report', '', 'SPS\tSemi-Persistent Scheduling', '', 'SR\tScheduling Request', '', 'SRAP\tSidelink Relay Adaptation Protocol', '', 'SRS\tSounding Reference Signal', '', 'SRVCC\tSingle Radio Voice Call Continuity', '', 'SS\tSynchronization Signal', '', 'SSB\tSS/PBCH block', '', 'SSS\tSecondary Synchronisation Signal', '', 'SSSG\tSearch Space Set Group', '', 'SST\tSlice/Service Type', '', 'SU-MIMO\tSingle User MIMO', '', 'SUL\tSupplementary Uplink', '', 'TA\tTiming Advance', '', 'TB\tTransport Block', '', 'TCE\tTrace Collection Entity', '', 'TNL\tTransport Network Layer', '', 'TPC\tTransmit Power Control', '', 'TRP\tTransmit/Receive Point', '', 'TRS\tTracking Reference Signal', '', 'TSS\tTiming Synchronization Status', '', 'U2N\tUE-to-Network', '', 'U2U\tUE-to-UE', '', 'UAV\tUncrewed Aerial Vehicle', '', 'UCI\tUplink Control Information', '', 'UDC\tUplink Data Compression', '', 'UDM\tUnified Data Management', '', 'UE-Slice-MBR\tUE Slice Maximum Bit Rate', '', 'UL-AoA\tUplink Angles of Arrival', '', 'UL-RTOA\tUplink Relative Time of Arrival', '', 'UL-SCH\tUplink Shared Channel', '', 'UPF\tUser Plane Function', '', 'URLLC\tUltra-Reliable and Low Latency Communications', '', 'VR\tVirtual Reality', '', 'V2X\tVehicle-to-Everything', '', 'Xn-C\tXn-Control plane', '', 'Xn-U\tXn-User plane', '', 'XnAP\tXn Application Protocol', '', 'XR\teXtended Reality', '']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.3.1	General&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;10.2	Downlink Scheduling&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23548-i20.docx</t>
+          <t>38300-i20.docx</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1475196877267846</v>
+        <v>0.1038044216376425</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['', 'Edge Relocation refers to the procedures supporting EAS changes and/or PSA UPF relocation.', '', 'Edge Relocation may be triggered by an AF request (e.g. due to the load balance between EAS instances in the EHE) or by the network (e.g. due to the UE mobility).', '', 'With Edge Relocation, the user plane path may be re-configured to keep it optimized. This may be done by PDU Session re-establishment using SSC mode 2/3 mechanisms or Local PSA UPF relocation using UL CL and BP mechanisms. The corresponding procedures are defined in TS\xa023.501\xa0[2] and TS\xa023.502\xa0[3].', '', 'Due to Edge Relocation, the UE may need to re-discover a new EAS and establish the connectivity to the new EAS to continue the service. The re-discovery of EAS is specified in clause\xa06.2.', '', 'Edge Relocation may result in AF relocation, for example, as part of initial PDU Session Establishment, a central AF may be involved. However, due to Edge Relocation another AF serving the Edge Applications is selected.', '', 'The trigger of Edge Relocation by the network is specified in clause\xa04.3.6.3 of TS\xa023.502\xa0[3]. Some EAS (re)Discovery procedures in clause\xa06.2 may also trigger Edge Relocation.', '', 'This clause further describes the following procedures:', '', '-\tEdge Relocation involving AF change.', '', '-\tEdge Relocation using EAS IP replacement.', '', '-\tAF request for simultaneous connectivity for source and target PSA.', '', '-\tPacket buffering for low Packet Loss.', '', '-\tEdge Relocation considering User Plane Latency Requirements.', '', '-\tEdge Relocation triggered by AF', '', '-\tEdge Relocation for a set of UEs for common DNAI.', '', 'Annex F describes example procedure for EAS Relocation on Release 16 capabilities.', '', 'For non-roaming PDU Session, the 5GC functions in the following clauses are located in the HPLMN.', '', 'For LBO roaming PDU Session, the 5GC functions in the following clauses are located in the serving VPLMN.', '', 'For HR-SBO PDU Sessions specified in clause\xa06.7, the AF may send to V-NEF an AF request to influence traffic routing as described in clause\xa04.3.6 of TS\xa023.502\xa0[3] for supporting Edge Relocation (e.g. for the purpose of subscription to UP path management events, especially for the change of local PSA UPF in VPLMN). In this case, the steps involving PCF in the following clauses are skipped.', '']</t>
+          <t>['', 'In the downlink, the gNB can dynamically allocate resources to UEs via the C-RNTI on PDCCH(s). A UE always monitors the PDCCH(s) in order to find possible assignments when its downlink reception is enabled (activity governed by DRX and cell DTX when configured). When CA is configured, the same C-RNTI applies to all serving cells.', '', 'The gNB may pre-empt an ongoing PDSCH transmission to one UE with a latency-critical transmission to another UE. The gNB can configure UEs to monitor interrupted transmission indications using INT-RNTI on a PDCCH. If a UE receives the interrupted transmission indication, the UE may assume that no useful information to that UE was carried by the resource elements included in the indication, even if some of those resource elements were already scheduled to this UE.', '', 'In addition, with Semi-Persistent Scheduling (SPS), the gNB can allocate downlink resources for the initial HARQ transmissions to UEs: RRC defines the periodicity of the configured downlink assignments while PDCCH addressed to CS-RNTI can either signal and activate the configured downlink assignment, or deactivate it; i.e. a PDCCH addressed to CS-RNTI indicates that the downlink assignment can be implicitly reused according to the periodicity defined by RRC, until deactivated.', '', 'NOTE:\tWhen required, retransmissions are explicitly scheduled on PDCCH(s).', '', 'The dynamically allocated downlink reception overrides the configured downlink assignment in the same serving cell, if they overlap in time. Otherwise a downlink reception according to the configured downlink assignment is assumed, if activated.', '', 'The UE may be configured with up to 8 active configured downlink assignments for a given BWP of a serving cell. When more than one is configured:', '', '-\tThe network decides which of these configured downlink assignments are active at a time (including all of them); and', '', '-\tEach configured downlink assignment is activated separately using a DCI command and deactivation of configured downlink assignments is done using a DCI command, which can either deactivate a single configured downlink assignment or multiple configured downlink assignments jointly.', '']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.3.6	Edge Relocation Considering User Plane Latency Requirement&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;10.3	Uplink Scheduling&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23548-i20.docx</t>
+          <t>38300-i20.docx</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1053281166970637</v>
+        <v>0.1157215552911321</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['', 'Edge relocation may be performed considering user plane latency requirements provided by the AF.', '', 'In a network deployment where the estimated user plane latency between the UE and the potential PSA-UPF is known to the SMF, the 5GC provides the enhancement of AF influence to consider the user plane latency requirements requested by the AF so that the SMF decides to relocate the PSA-UPF based on AF requested requirements.', '', 'The AF may provide user plane latency requirements to the network via AF traffic influence request as described in clause\xa05.2.6.7 of TS\xa023.502\xa0[3]. The user plane latency requirements may include the following information:', '', '-\tMaximum allowed user plane latency: The value of this information is the target user plane latency. The SMF may use this value to decide whether edge relocation is needed to ensure that the user plane latency does not exceed the value. The SMF may decide whether to relocate the PSA UPF to satisfy the user plane latency.', '', 'The AF request on the user plane latency requirements are authorized by PCF. The PCF checks whether the AF has an authority to make such a request.', '', 'Once the user plane latency requirements requested by AF is authorized by the PCF, the AF request including the requirements is informed to the SMF via AF influenced Traffic Steering Enforcement Control (see clause\xa06.3.1 of TS\xa023.503\xa0[4]) in PCC rules. After receiving the user plane latency requirements from AF via PCF, the SMF may take appropriate actions to meet the requirements e.g. by reconfiguring the user plane of the PDU Session as described in the step\xa06 of Figure 4.3.6.2-1 in TS\xa023.502\xa0[3] with the following considerations:', '', '-\tIn the case that the maximum allowed user plane latency is requested, the SMF decides not to perform PSA UPF relocation if the serving PSA satisfies the maximum allowed user plane latency. Otherwise, the SMF may decide to perform PSA UPF relocation if the target PSA UPF satisfies the maximum user plane latency. The SMF may select the PSA UPF with the shortest user plane latency among the PSA UPFs satisfying the maximum user plane latency requirements.', '']</t>
+          <t>['', 'In the uplink, the gNB can dynamically allocate resources to UEs via the C-RNTI on PDCCH(s). A UE always monitors the PDCCH(s) in order to find possible grants for uplink transmission when its downlink reception is enabled (activity governed by DRX and cell DTX when configured). When CA is configured, the same C-RNTI applies to all serving cells.', '', 'The gNB may cancel a PUSCH transmission, or a repetition of a PUSCH transmission, or an SRS transmission of a UE for another UE with a latency-critical transmission. The gNB can configure UEs to monitor cancelled transmission indications using CI-RNTI on a PDCCH. If a UE receives the cancelled transmission indication, the UE shall cancel the PUSCH transmission from the earliest symbol overlapped with the resource or the SRS transmission overlapped with the resource indicated by cancellation (see clause 11.2A of TS 38.213 [38]).', '', 'In addition, with Configured Grants, the gNB can allocate uplink resources for the initial HARQ transmissions and HARQ retransmissions to UEs. Two types of configured uplink grants are defined:', '', '-\tWith Type 1, RRC directly provides the configured uplink grant (including the periodicity).', '', '-\tWith Type 2, RRC defines the periodicity of the configured uplink grant while PDCCH addressed to CS-RNTI can either signal and activate the configured uplink grant, or deactivate it; i.e. a PDCCH addressed to CS-RNTI indicates that the uplink grant can be implicitly reused according to the periodicity defined by RRC, until deactivated.', '', 'If the UE is not configured with enhanced intra-UE overlapping resources prioritization, the dynamically allocated uplink transmission overrides the configured uplink grant in the same serving cell, if they overlap in time. Otherwise an uplink transmission according to the configured uplink grant is assumed, if activated.', '', 'If the UE is configured with enhanced intra-UE overlapping resources prioritization, in case a configured uplink grant transmission overlaps in time with dynamically allocated uplink transmission or with another configured uplink grant transmission in the same serving cell, the UE prioritizes the transmission based on the comparison between the highest priority of the logical channels that have data to be transmitted and which are multiplexed or can be multiplexed in MAC PDUs associated with the overlapping resources. Similarly, in case a configured uplink grant transmissions or a dynamically allocated uplink transmission overlaps in time with a scheduling request transmission, the UE prioritizes the transmission based on the comparison between the priority of the logical channel which triggered the scheduling request and the highest priority of the logical channels that have data to be transmitted and which are multiplexed or can be multiplexed in MAC PDU associated with the overlapping resource. In case the MAC PDU associated with a deprioritized transmission has already been generated, the UE keeps it stored to allow the gNB to schedule a retransmission. The UE may also be configured by the gNB to transmit the stored MAC PDU as a new transmission using a subsequent resource of the same configured uplink grant configuration when an explicit retransmission grant is not provided by the gNB.', '', 'Retransmissions other than repetitions are explicitly allocated via PDCCH(s) or via configuration of a retransmission timer.', '', 'The UE may be configured with up to 12 active configured uplink grants for a given BWP of a serving cell. When more than one is configured, the network decides which of these configured uplink grants are active at a time (including all of them). Each configured uplink grant can either be of Type 1 or Type 2. For Type 2, activation and deactivation of configured uplink grants are independent among the serving cells. When more than one Type 2 configured grant is configured, each configured grant is activated separately using a DCI command and deactivation of Type 2 configured grants is done using a DCI command, which can either deactivate a single configured grant configuration or multiple configured grant configurations jointly.', '', 'When SUL is configured, the network should ensure that an active configured uplink grant on SUL does not overlap in time with another active configured uplink grant on the other UL configuration.', '', 'For both dynamic grant and configured grant, for a transport block, two or more repetitions can be in one slot, or across slot boundary in consecutive available slots with each repetition in one slot. For both dynamic grant and configured grant Type 2, the number of repetitions can be also dynamically indicated in the L1 signalling. The dynamically indicated number of repetitions shall override the RRC configured number of repetitions, if both are present.', '']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.2.1	General&lt;/h3&gt;</t>
+          <t>&lt;h5&gt;9.2.3.5.1	General&lt;/h5&gt;</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23548-i20.docx</t>
+          <t>38300-i20.docx</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1536793440927784</v>
+        <v>0.09063608522227928</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['', 'In Edge Computing deployment, an application service may be served by multiple Edge Application Servers typically deployed in different sites. These multiple Edge Application Servers that host service may use a single IP address (anycast address) or different IP addresses. To start such a service, the UE needs to know the IP address(es) of the Application Server(s) serving the service. The UE may do a discovery to get the IP address(es) of a suitable Edge Application Server (e.g. the closest one), so that the traffic can be locally routed to the Edge Application Server and service latency, traffic routing path and user service experience can be optimized.', '', 'EAS discovery is the procedure by which a UE discovers the IP address(es) of a suitable Edge Application Server(s) using Domain Name System (DNS). EAS Re-discovery is the EAS Discovery procedure that takes place when the previously discovered Edge Application Server cannot be used or may have become non-optimal (e.g. at edge relocation).', '', 'The DNS server to be used for EAS (re-)discovery may be deployed in different locations in the network as Central DNS (C-DNS) server or as Local DNS (L-DNS) resolver/server.', '', 'NOTE\xa01:\tThe C-DNS servers and/or L-DNS resolvers/servers can use an anycast address.', '', 'NOTE\xa02:\tThe C-DNS servers or L-DNS resolvers/servers can contact any other DNS servers for recursive queries, which is out of scope of this specification.', '', "NOTE\xa03:\tThis specification describes the discovery procedure based on 5GS NFs as to ensure the UE is served by the application service closest to the UE's point of attachment. However, this does not exclude other upper layer solution that can be adopted by operator or service provider, like the EAS Discovery procedure defined in TS\xa023.558\xa0[5], or other alternatives shown in Annex A and Annex B. How those other solutions work, or whether they are able to guarantee the closest application service for the UE, is out of the scope of this specification.", '', 'In order to provide a translation of the FQDN of an EAS into the address of an EAS as topologically close as possible to the UE, the Domain Name System may use following information:', '', '-\tThe source IP address of the incoming DNS Query; and/or,', '', '-\tan EDNS Client Subnet (ECS) option (as defined in RFC 7871\xa0[6]).', '', 'NOTE\xa04:\tUE IP address can be subject to privacy restrictions, which means that it is not to be sent to Authoritative DNS / DNS Resolvers outside the network operator within EDNS Client Subnet option or as Source IP address of the DNS Query. UE source IP address can be protected by using NAT mechanism.', '', 'EAS (re-)discovery procedures described in this specification should use the top level domains (TLDs) in the public namespace by default. ', '', 'If a private namespace is used, an Edge Computing Service Provider (ECSP) can provision DNS information in the EAS Deployment information via AF request with its Application Identifier, or DNN and NSSAI. Since private namespaces do not have a common root server or naming, the DNS information for each ECSP should be stored individually to prevent any overwriting of resolution entries.', '', 'NOTE\xa05:\tThe DNS information provided by ECSP in the EAS Deployment Information can be used to select the DNS settings for a PDU Session mainly if the PDU Session is specific for the ECSP services.', '', 'If the UE applications want to discover/access EAS by using the mechanisms defined in this TS, the UE shall support receiving DNS settings in PCO during PDU Session Establishment and PDU Session Modification, and the DNS Queries generated by the UE for these applications shall be sent to the DNS server/resolver (e.g. EASDF) indicated by the SMF. To ensure this, the application in the UE either requests the EDC functionality to send a DNS Query or, alternatively, uses the EDC functionality to get the configuration of the DNS Server (IP address and, conditionally, DNS security information of the EASDF/DNS resolver; see TS\xa024.501\xa0[11] and TS\xa033.501\xa0[12]) indicated by the SMF (see clauses 5.2.1 and 6.2.4) then resolves the FQDN by its own DNS mechanism.', '', 'NOTE\xa06:\tIt is the decision of the application in the UE whether to use the EDC functionality or not to resolve the FQDN. If it does not use the EDC functionality, the usage of the EAS (re-)discovery procedures defined in clause\xa06.2 cannot be ensured.', '', 'The case of EAS (Re-)discovery over Distributed Anchor connectivity model is described in clause 6.2.2. For Multiple PDU Sessions connectivity model, the description in clause 6.2.2 also applies to the PDU Session(s) with Local PSA. The case of EAS (Re-)discovery over Session Breakout connectivity model is described in clause 6.2.3.', '']</t>
+          <t>['', 'LTM is a procedure in which a gNB receives L1 measurement report(s) from a UE, and on their basis the gNB may change UE serving cell by a cell switch command signalled via a MAC CE. The cell switch command indicates an LTM candidate configuration that the gNB previously prepared and provided to the UE through RRC signalling. Then the UE switches to the target configuration according to the cell switch command. The LTM procedure can be used to reduce the mobility latency as described in Annex G.', '', 'When configured by the network, it is possible to activate TCI states of one or multiple cells that are different from the current serving cell. For instance, the TCI states of the LTM candidate cells can be activated in advance before any of those cells become the serving cell. This allows the UE to be DL synchronized with those cells, thereby facilitating a faster cell switch to one of those cells when cell switch is triggered. All the activated TCI states except those received in the cell switch command are deactivated upon LTM cell switch execution.', '', 'When configured by the network, it is possible to initiate UL TA acquisition (called early TA) procedure of one or multiple cells that are different from the current serving cells. If the cell has the same N&lt;sub&gt;TA&lt;/sub&gt; as the current serving cells or N&lt;sub&gt;TA&lt;/sub&gt;=0, early TA acquisition procedure is not required. The network may request the UE to perform early TA acquisition of a candidate cell before a cell switch. The early TA acquisition procedure is triggered by PDCCH order as specified in clause 9.2.6 or realized through UE-based TA measurement as configured by RRC. In the former case, the gNB/gNB-DU to which the candidate cell belongs calculates the TA value and sends it to the gNB/gNB-DU to which the serving cell belongs via gNB-CU. The serving cell sends the TA value in the LTM cell switch command MAC CE when triggering LTM cell switch. In the latter case, the UE performs TA measurement for the candidate cells after being configured by RRC but the exact time the UE performs TA measurement is up to UE implementation. The UE applies the TA value measured by itself and performs RACH-less LTM upon receiving the cell switch command, if it does not include any valid TA value. The network may also send a TA value in the LTM cell switch command MAC CE without early TA acquisition.', '', 'Depending on the availability of a valid TA value, the UE performs either a RACH-less LTM or RACH-based LTM cell switch. If the valid TA value is provided in the cell switch command, the UE applies the TA value as instructed by the network. In the case where UE-based TA measurement is configured, but no valid TA value is provided in the cell switch command, the UE applies the valid TA value by itself if available. The UE performs RACH-less LTM cell switch upon receiving the cell switch command whenever a valid TA value is available. If no valid TA value is available, the UE performs RACH-based LTM cell switch.', '', 'Regardless of whether the UE is configured for UE-based TA measurement for a certain candidate cell, it will still follow the PDCCH order, which includes performing a random access procedure towards one or more candidate cells. This also applies to the candidate cells for which the UE is capable of deriving TA values by itself. Additionally, regardless of whether the UE has already performed a random access procedure towards the candidate cells, it will still follow the UE-based measurement configuration if configured by the network.', '', 'For RACH-less LTM, the UE accesses the target cell using either a configured grant or a dynamic grant. The configured grant is provided in the LTM candidate configuration, and the UE selects the configured grant occasion associated with the beam indicated in the cell switch command. Upon initiation of LTM cell switch to the target cell, the UE starts to monitor PDCCH on the target cell for dynamic scheduling. Before RACH-less LTM procedure completion, the UE shall not trigger random access procedure if it does not have a valid PUCCH resource for triggered SRs.', '', 'The following principles apply to LTM:', '', '-\tSecurity keys are maintained upon an LTM cell switch;', '', '-\tSubsequent LTM is supported.', '', 'LTM supports both intra-gNB-DU and inter-gNB-DU mobility within the same gNB-CU. LTM supports both intra-frequency and inter-frequency mobility, including mobility to inter-frequency cell that is not a current serving cell. LTM is supported only for licensed spectrum. The following scenarios are supported:', '', '-\tPCell change in non-CA scenario and non-DC scenario;', '', '-\tPCell and SCell(s) change in CA scenario;', '', '-\tDual connectivity scenario: including PCell and MCG SCell(s) change and intra-SN PSCell and SCG SCell(s) change without MN involvement. LTM for simultaneous PCell and PSCell change is not supported.', '', 'While the UE has stored LTM candidate configurations the UE can also execute any L3 handover except for DAPS handover. In the RRC message which the UE applies for any L3 handover (except DAPS), LTM candidate configurations can be added/modified/released by the target cell.', '']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.4.1	General&lt;/h3&gt;</t>
+          <t>&lt;h4&gt;9.2.3.1	Overview&lt;/h4&gt;</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23548-i20.docx</t>
+          <t>38300-i20.docx</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1018510028783159</v>
+        <v>0.1372301104299929</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['', 'Some real time network information, e.g. user path latency, are useful for application layer. In this release, in order to expose network information timely to local AF, the L-PSA UPF may expose i.e. QoS monitoring results as defined in clause\xa05.33.3 of TS\xa023.501\xa0[2], to the local AF.', '', 'NOTE\xa01:\tLocal PSA UPF can expose the QoS monitoring results to local AF via N6. How to deliver the information on N6 is out of the scope of the present document.', '', 'NOTE\xa02:\tSending QoS monitoring information that has not been properly integrated over time, i.e. with over-high frequency, can increase risk that the application may over-react to instantaneous radio events/conditions e.g. leading to service instability.', '']</t>
+          <t>['', 'Network controlled mobility applies to UEs in RRC_CONNECTED and is categorized into two types of mobility: cell level mobility and beam level mobility. Beam level mobility includes intra-cell beam level mobility and inter-cell beam level mobility.', '', '&lt;b&gt;Cell Level Mobility&lt;/b&gt; requires explicit RRC signalling to be triggered, i.e. handover. For inter-gNB handover, the signalling procedures consist of at least the following elemental components illustrated in Figure 9.2.3.1-1:', '', '----media/image45.wmf----', '', 'Figure 9.2.3.1-1: Inter-gNB handover procedures', '', '1.\tThe source gNB initiates handover and issues a HANDOVER REQUEST over the Xn interface.', '', '2.\tThe target gNB performs admission control and provides the new RRC configuration as part of the HANDOVER REQUEST ACKNOWLEDGE.', '', '3.\tThe source gNB provides the RRC configuration to the UE by forwarding the &lt;i&gt;RRCReconfiguration&lt;/i&gt; message received in the HANDOVER REQUEST ACKNOWLEDGE. The &lt;i&gt;RRCReconfiguration&lt;/i&gt; message includes at least cell ID and all information required to access the target cell so that the UE can access the target cell without reading system information. For some cases, the information required for contention-based and contention-free random access can be included in the &lt;i&gt;RRCReconfiguration&lt;/i&gt; message. The access information to the target cell may include beam specific information, if any.', '', '4.\tThe UE moves the RRC connection to the target gNB and replies with the &lt;i&gt;RRCReconfigurationComplete&lt;/i&gt;.', '', 'NOTE 1:\tUser Data can also be sent in step 4 if the grant allows.', '', 'In case of DAPS handover, the UE continues the downlink user data reception from the source gNB until releasing the source cell and continues the uplink user data transmission to the source gNB until successful random access procedure to the target gNB.', '', 'Only source and target PCell are used during DAPS handover. CA, DC, SUL, multi-TRP, EHC, CHO, UDC, LTM, NR sidelink configurations and V2X sidelink configurations are released by the source gNB before the handover command is sent to the UE and are not configured by the target gNB until the DAPS handover has completed (i.e. at earliest in the same message that releases the source PCell).', '', 'The handover mechanism triggered by RRC requires the UE at least to reset the MAC entity and re-establish RLC, except for DAPS handover, where upon reception of the handover command, the UE:', '', '-\tCreates a MAC entity for target;', '', '-\tEstablishes the RLC entity and an associated DTCH logical channel for target for each DRB configured with DAPS;', '', '-\tFor each DRB configured with DAPS, reconfigures the PDCP entity with separate security and ROHC functions for source and target and associates them with the RLC entities configured by source and target respectively;', '', '-\tRetains the rest of the source configurations until release of the source.', '', 'The cell switch mechanism triggered by MAC, (i.e., LTM cell switch) requires the UE at least to reset the MAC entity. RLC and PDCP handling depends on the network configuration.', '', 'NOTE 2:\tVoid.', '', 'NOTE 3:\tVoid.', '', 'RRC managed handovers with and without PDCP entity re-establishment are both supported. For DRBs using RLC AM mode, PDCP can either be re-established together with a security key change or initiate a data recovery procedure without a key change. For DRBs using RLC UM mode, PDCP can either be re-established together with a security key change or remain as it is without a key change. For SRBs, PDCP can either remain as it is, discard its stored PDCP PDUs/SDUs without a key change or be re-established together with a security key change.', '', 'Data forwarding, in-sequence delivery and duplication avoidance at handover can be guaranteed when the target gNB uses the same DRB configuration as the source gNB.', '', 'Timer based handover failure procedure is supported in NR. RRC connection re-establishment procedure is used for recovering from handover failure except in certain CHO, DAPS handover or LTM cell switch scenarios:', '', '-\tWhen DAPS handover fails, the UE falls back to the source cell configuration, resumes the connection with the source cell, and reports DAPS handover failure via the source without triggering RRC connection re-establishment if the source link has not been released.', '', '-\tWhen initial CHO execution attempt fails or HO fails, the UE performs cell selection, and if the selected cell is a CHO candidate and if network configured the UE to try CHO after handover/CHO failure, then the UE attempts CHO execution once, otherwise re-establishment is performed.', '', '-\tWhen LTM execution attempt triggered by LTM cell switch command MAC CE fails, the UE performs cell selection and if the selected cell is an LTM candidate cell and if network configured the UE to try LTM after LTM execution failure, then the UE attempts RACH-based LTM execution once, otherwise re-establishment is performed.', '', 'NOTE:\tPDCP SN gap for SRB may exist upon LTM attempt toward the selected cell after LTM fails. It is up to network implementation to avoid the latency caused by the PDCP SN gap.', '', 'DAPS handover for FR2 to FR2 case is not supported in this release of the specification.', '', 'The handover of the IAB-MT in SA mode follows the same procedure as described for the UE. After the backhaul has been established, the handover of the IAB-MT is part of the intra-CU or inter-CU topology adaptation procedures defined in TS 38.401 [4]. Modifications to the configuration of BAP sublayer and higher protocol layers above the BAP sublayer are described in TS 38.401 [4].', '', 'The handover of the mobile IAB-MT follows the same procedure as described for the UE. After the backhaul has been established, the handover of the mobile IAB-MT is part of the mobile IAB-MT migration procedure defined in TS 38.401 [4].', '', '&lt;b&gt;Beam Level Mobility &lt;/b&gt;does not require explicit RRC signalling to be triggered. Beam level mobility can be within a cell, or between cells, the latter is referred to as inter-cell beam management (ICBM). For ICBM, a UE can receive or transmit UE dedicated channels/signals via a TRP associated with a PCI different from the PCI of a serving cell, while non-UE-dedicated channels/signals can only be received via a TRP associated with a PCI of the serving cell. The gNB provides via RRC signalling the UE with measurement configuration containing configurations of SSB/CSI resources and resource sets, reports and trigger states for triggering channel and interference measurements and reports. In case of ICBM, a measurement configuration includes SSB resources associated with PCIs different from the PCI of a serving cell. Beam Level Mobility is then dealt with at lower layers by means of physical layer and MAC layer control signalling, and RRC is not required to know which beam is being used at a given point in time.', '', 'SSB-based Beam Level Mobility is based on the CD-SSB associated to the initial DL BWP and can be configured for the initial DL BWPs, for DL BWPs containing the CD-SSB associated to the initial DL BWP, and if supported, for DL BWPs not containing the CD-SSB associated to the initial DL BWP. SSB-based Beam Level Mobility can be also performed based on an NCD-SSB, if configured for the active DL BWP. Beam Level Mobility can be also performed based on CSI-RS, if configured for the active DL BWP.', '']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;6.4.2.1	Usage of Nupf_EventExposure to Report QoS Monitoring results&lt;/h4&gt;</t>
+          <t>&lt;h4&gt;4.7.3.3	Uplink Scheduling Latency&lt;/h4&gt;</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>23548-i20.docx</t>
+          <t>38300-i20.docx</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1315695532325003</v>
+        <v>0.119365374019706</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['', 'The UPF may be instructed to report information about a PDU Session directly i.e. bypassing the SMF and the PCF. This reporting may target an Edge Application Server (EAS) or a local AF that itself interfaces the EAS.', '', 'Local NEF deployed at the edge may be used to support network exposure with low latency to local AF. The local NEF may support one or more of the functionalities described in clause\xa06.2.5.0 of TS\xa023.501\xa0[2]. and may support a subset of the APIs specified for capability exposure based on local policy. In order to support the network exposure locally, the local NEF shall support Nnef_AFSessionWithQoS service operation for the local AF. The local NEF selection by AF is described in clauses 6.2.5.0 and 6.3.14 of TS\xa023.501\xa0[2].', '', 'The local AF subscribes the direct notification of QoS Monitoring results from the PCF via a local NEF or NEF. If the NEF detects that it is not the most suitable NEF instance to serve the local AF request, it may redirect the AF to a local NEF instance.', '', 'NOTE\xa01:\tIf the notifications need to go via the local NEF, then the local NEF needs to be involved in order to be able to map these notifications to the URI where the AF expects to receive them.', '', 'The local AF may also use the Npcf_PolicyAuthorization_Create or Update service of the PCF directly. In this case, reporting is done directly from the UPF to the local AF.', '', "Based on the indication of direct event notification and operator's policy, the PCF includes Direct event notification method and the Target of reporting (including target local NEF address or target AF address) within the PCC rule that it provides to the SMF as described in clause\xa06.1.3.21 of TS\xa023.503\xa0[4].", '', 'The SMF sends the QoS monitoring request to the RAN and N4 rules to the L-PSA UPF. If the L-PSA UPF supports such reporting, N4 rules indicate that the QoS flow needs direct notification of QoS Monitoring. When QoS monitoring of GTP-U Path(s) is used, it is also activated if needed. This is as defined in clause\xa05.33.3 of TS\xa023.501\xa0[2]. When N4 rules indicate that the QoS flow needs direct notification of QoS Monitoring results, upon the detection of the QoS monitoring event (e.g. when threshold for the packet delay of the QoS flow is reached as defined in clause\xa05.33.3 of TS\xa023.501\xa0[2]), the L-PSA UPF notifies the QoS Monitoring event information to the AF (directly or via Local NEF). If the L-PSA UPF supports the Nupf_EventExposure_Notify service operation, as defined in clause\xa05.2.26 of TS\xa023.502\xa0[3], the L-PSA UPF sends the Nupf_EventExposure_Notify to the Notification Target Address indicated by the Session Reporting Rule received from the SMF. The Notification Target Address may correspond to the AF or to a local NEF. When the Notification Target Address corresponds to a Local NEF, the local NEF reports the QoS Monitoring result to the AF.', '', 'During UE mobility, the SMF may trigger the L-PSA UPF relocation/reselection and then send the N4 rules to the new L-PSA UPF to indicate the QoS flow needs direct notification of QoS Monitoring. The UE mobility may also trigger AF relocation or local NEF reselection, then the local AF should update the subscription for local exposure with QoS monitoring results possibly via local NEF, towards the PCF. This updated /new subscription is then propagated via SMF (via PCC rule updates) and then to the L-PSA UPF via N4 rules.', '', 'NOTE\xa02:\tThe new local AF can subscribe direct notification of QoS Monitoring if Edge Relocation Involving AF Change happens as described in clause\xa06.3.2.', '', '----media/image25.emf----', '', 'Figure 6.4.2.1-1: Network exposure to Edge Application Server', '', '0.\tThe UE establishes a PDU Session as defined in clause\xa04.3.2.2.1 of TS\xa023.502\xa0[3] A L-PSA UPF is assigned for this PDU Session.', '', '1.\tThe AF initiates setting up an AF session with required QoS procedure as defined in clause\xa04.15.6.6 of TS\xa023.502\xa0[3].', '', '\tIn the request, the AF may subscribe to direct notification of QoS monitoring results for the service data flow to PCF possibly via Local NEF or NEF. If so, the AF shall include the corresponding QoS monitoring parameters as defined in clause\xa06.1.3.21 of TS\xa023.503\xa0[4] and in TS\xa023.502\xa0[3].', '', '\tThe AF may also first initiate an AF Session with PCF and later subscribe to direct notification of QoS monitoring to PCF by invoking Npcf_PolicyAuthorization_Update service operation.', '', '\tThe local AF or NEF may discover a local NEF as specified in clause\xa06.2.5.0 of TS\xa023.501\xa0[2] and using parameters as specified in clause\xa06.3.14. Alternatively, if the NEF detects that it is not the most suitable NEF instance to serve the local AF request, the NEF may redirect the AF to a (more) local NEF. The NEF may use information on the L-PSA UPF for this determination.', '', '2.\tThe PCF makes the policy decision and initiates the PDU Session modification procedure as defined in clause\xa04.3.3.2 of TS\xa023.502\xa0[3], steps 1b, 3b, 4-8b.', '', '\tIf the direct notification of QoS monitoring results is subscribed, the PCF includes the Direct event notification method and the Target of reporting (including target local NEF or local AF address) in the PCC rule of the service data flow as described in clause\xa06.1.3.21 of TS\xa023.503\xa0[4].', '', '\tIf the SMF receives the Direct event notification form the PCF and the SMF determines that the L-PSA UPF supports such reporting, the SMF determines the QoS monitoring parameters based on the information received from the PCF and/or local configuration and provides them to the L-PSA UPF via N4 rules as described in clause\xa05.33.3.1 of TS\xa023.501\xa0[2]. Otherwise the SMF activates N4 reporting for the QoS monitoring results. The PCF may determine that the duplicated notification is required, i.e. both, direct notification to the AF (i.e. sent from UPF) and notification sent to the PCF/SMF is required and indicate it to the SMF using the Direct event notification method in the PCC rule as described in clause\xa06.1.3.21 of TS\xa023.503\xa0[4]. In this case, the SMF shall activate the N4 reporting together with the direct reporting to the local NEF/AF.', '', 'NOTE\xa02:\tThe details of the parameters for the control of the QoS monitoring as well as the PCF and SMF behaviour are described in clause\xa06.1.3.21 of TS\xa023.503\xa0[4] and in clause\xa05.33.3.1 of TS\xa023.501\xa0[2], respectively.', '', '3.\tThe L-PSA UPF obtains QoS monitoring information as defined in clause\xa05.33.3 of TS\xa023.501\xa0[2].', '', '4.\tThe L-PSA UPF sends the notification related with QoS monitoring information over Nupf_EventExposure_Notify service operation. The notification is sent to Notification Target Address that may correspond (4a) to the local AF or (4b) to the local NEF.', '', '5.\tIf Local NEF is used, it reports the real-time network information to local AF by invoking Nnef_EventExposure_Notify service operation.', '', '6.\tDue to e.g. UE mobility, the PSA relocation and/or EAS relocation may happen as described in clause\xa06.3. During the PSA and/or EAS relocation (if the event was subscribed e.g. as in step\xa01), the SMF notifies the (local) NEF or the AF with the PSA and/or EAS relocation, and the AF may trigger a new L-NEF discovery as in step\xa01. During this step, the application mechanisms may involve a new AF for this session.', '', '7.\tThe new AF may initiate a new AF session to (re-)subscribe the direct notification of QoS monitoring as described in steps 1-4.', '', '8.\tThe old AF revokes the AF session.', '', 'NOTE\xa03:\tStep\xa08 can take place before step\xa07.', '']</t>
+          <t>['', 'The IAB-node can reduce UL scheduling latency through signalling of a Pre-emptive BSR to its parent node. The IAB-node can send the Pre-emptive BSR based on UL grants it has provided to child nodes and/or UEs, or based on BSRs it has received from child nodes or UEs (Figure 4.7.3.3-1). The Pre-emptive BSR conveys the data expected rather than the data buffered.', '', '----media/image16.emf----', '', 'Figure 4.7.3.3-1: Scheduling of BSR in IAB:', '', 'a) regular BSR based on buffered data,', 'b) Pre-emptive BSR based on UL grant,', 'c) Pre-emptive BSR based on reception of regular BSR', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>&lt;h1&gt;B.4	Example implementation of Non-Terrestrial Networks&lt;/h1&gt;</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>38300-i20.docx</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1664978538686834</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['', 'The following figure illustrates an example implementation of a Non-Terrestrial Network for transparent NTN payload:', '', '----media/image121.emf----', '', 'Figure B.4-1: NTN based NG-RAN', '', 'The gNB depicted in Figure B.4-1 may be subdivided into non-NTN infrastructure gNB functions and the NTN Service Link provisioning system. The NTN infrastructure may be thought of being subdivided into the NTN Service Link provisioning system and the NTN Control function. The NTN Service Link provisioning system may consist of one or more NTN payloads and NTN Gateways.', '', 'The NTN payload is embarked on a spaceborne (or airborne) vehicle, providing a structure, power, commanding, telemetry, attitude control for the satellite (resp. HAPS) and possibly an appropriate thermal environment, radiation shielding.', '', 'The NTN Service Link provisioning system maps the NR-Uu radio protocol over radio resources of the NTN infrastructure (e.g. beams, channels, Tx power).', '', 'The NTN control function controls the spaceborne (or airborne) vehicles as well as the radio resources of the NTN infrastructure (NTN payload(s) &amp;amp; NTN Gateway(s)). It provides control data, e.g. Ephemeris, to the non-NTN infrastructure gNB functions of the gNB.', '', 'Provision of NTN control data to the gNB is out of 3GPP scope.', '', 'NOTE:\tThe transport of NR-Uu protocol between the NTN Service Link provisioning system and the non-NTN infrastructure gNB functions is out of 3GPP scope.', '', 'At least the following NTN related parameters are expected to be provided by O&amp;amp;M to the gNB for its operation:', '', 'a) Earth-fixed beams: for each beam provided by a given NTN-payload:', '', '-\tThe Cell identifier (NG and Uu) mapped to the beam;', '', "-\tThe Cell's reference location (e.g. cell's center and range).", '', 'b) Quasi-Earth-fixed: for each beam provided by a given NTN payload:', '', '-\tThe Cell identifier (NG and Uu) and time window mapped to a beam;', '', "-\tThe Cell's/beam's reference location (e.g. cell's center and range);", '', '-\tThe time window of the successive switch overs (feeder link, service link);', '', '-\tThe identifier and time window of all serving satellites (resp. HAPS) and NTN Gateways.', '', 'c) Earth moving beams: for each beam provided by a given NTN payload:', '', "-\tThe Uu Cell identifier mapped to a beam and mapping information to fixed geographical areas reported on NG, including information about the beams direction and motion of the beam's foot print on Earth;", '', '-\tIts elevation wrt NTN payload;', '', '-\tSchedule of successive serving NTN Gateways/gNBs;', '', '-\tSchedule of successive switch overs (feeder link, service link).', '', '', 'Annex C (informative):', 'I-RNTI Reference Profiles', '', 'The I-RNTI provides the new NG-RAN node a reference to the UE context in the old NG-RAN node. How the new NG-RAN node is able to resolve the old NG-RAN ID from the I-RNTI is a matter of proper configuration in the old and new NG-RAN node.', '', 'Table C-1 below provides some typical partitioning of a 40bit I-RNTI, assuming the following content:', '', '-\t&lt;b&gt;UE specific reference&lt;/b&gt;: reference to the UE context within a logical NG-RAN node;', '', '-\t&lt;b&gt;NG-RAN node address index&lt;/b&gt;: information to identify the NG-RAN node that has allocated the UE specific part;', '', 'NOTE:\t&lt;b&gt;RAT-specific information&lt;/b&gt; may be introduced in a later release, containing information to identify the RAT of the cell within which the UE was sent to RRC_INACTIVE. This version of the specification only supports intra-RAT mobility of UEs in RRC_INACTIVE.', '', '-\t&lt;b&gt;PLMN-specific information&lt;/b&gt;: information supporting network sharing deployments, providing an index to the PLMN ID part of the Global NG-RAN node identifier.', '', 'Table C-1: I-RNTI reference profiles', '', 'Profile ID', '', 'UE specific reference', '', 'NG-RAN node address index ', '(e.g., gNB ID, eNB ID)', '', 'RAT-specific information', '', 'PLMN-specific information', '', 'Comment', '', '1', '', '20 bits', '', '(~1 million values)', '', '20 bits', '', '(~1 million values)', '', 'N/A', '', 'N/A', '', 'NG-RAN node address index may be very well represented by the LSBs of the gNB ID.', '', 'This profile may be applicable for any NG-RAN RAT.', '', '2', '', '20 bits', '', '(~1 million values)', '', '16 bits', '', '(65.000 nodes)', '', 'N/A', '', '4 bits (Max 16 PLMNs)', '', 'Max number of PLMN IDs broadcast in NR is 12.', '', 'This profile may be applicable for any NG-RAN RAT.', '', '3', '', '24 bits', '', '(16 million values)', '', '16 bits', '', '(65.000 nodes)', '', 'N/A', '', 'N/A', '', 'Reduced node address to maximise addressable UE contexts.', '', 'This profile may be applicable for any NG-RAN RAT.', '', '', '', '', 'Annex D (informative):', 'SPID ranges and mapping of SPID values to cell reselection and inter-RAT/inter frequency handover priorities', '', 'The Subscriber Profile ID for RAT/Frequency Priority (SPID) values are defined in Annex I of TS 36.300 [2].', '', 'From these SPID reference values, the SPID=253 also applies for 5GC.', '', 'In addition, the SPID values defined below applies for 5GC.', '', 'SPID = 252', '', 'Table D-1: gNB local configuration in idle and connected mode for SPID = 252', '', 'Configuration parameter', '', 'Value', '', 'Meaning', '', '2Rx XR device subscriber', '', 'true', '', 'The selection provides information that subscriber is an XR device and is permitted to utilise a minimum of two Rx antenna ports for the NR bands where four Rx antenna ports are baseline as given in TS 38.101-1 [18].', '', '', '', '', 'Annex E (informative):', 'NG-RAN Architecture for Radio Access Network Sharing with multiple cell ID broadcast', '', 'Each NG-RAN node serving a cell identified by a Cell Identity associated with either a subset of PLMNs, or a subset of SNPNs, or a subset of PNI-NPNs is connected to another NG-RAN node via a single Xn-C interface instance.', '', 'Each Xn-C interface instance is setup and removed individually.', '', 'Xn-C interface instances terminating at NG-RAN nodes which share the same physical radio resources may share the same signalling transport resources. If this option is applied:', '', '-\tNon-UE associated signalling is associated to an Xn-C interface instance by including an Interface Instance Indication in the XnAP message;', '', '-\tNode related, non-UE associated Xn-C interface signalling may provide information destined for multiple logical nodes in a single XnAP procedure instance once the Xn-C interface instance is setup;', '', 'NOTE 1:\tIf the Interface Instance Indication corresponds to more than one interface instance, the respective XnAP message carries information destined for multiple logical nodes.', '', '-\tA UE associated signalling connection is associated to an Xn-C interface instance by allocating values for the corresponding NG-RAN node UE XnAP IDs so that they can be mapped to that Xn-C interface instance.', '', 'NOTE 2:\tOne possible implementation is to partition the value ranges of the NG-RAN node UE XnAP IDs and associate each value range with an Xn-C interface instance.', '', '', '', '', 'Annex F (normative):', 'Use and structure of the I-RNTI', '', 'The I-RNTI provides an NG-RAN node with a reference to the UE context and a reference to the NG-RAN node that allocated the UE context.', '', 'To support an NG-RAN node in resolving the Local NG-RAN ID of the NG-RAN node that allocated the UE context, the I-RNTI structure is as follows:', '', '-\tthe first part (starting from the MSB of the I-RNTI) identifies the I-RNTI profile. It is 2 bits long for a Full I-RNTI or 1 bit long for a short I-RNTI, and it indicates the length of a Local NG-RAN Node Identifier of the NG-RAN Node that allocated the I-RNTI;', '', '-\tthe second part, immediately following the first part, is a Local NG-RAN Node Identifier;', '', '-\tthe third part, immediately following the second part, identifies the UE context stored in the NG-RAN node that allocated the I-RNTI.', '', 'In case a NG-RAN node takes an additional Local NG-RAN Node identifier into use or removes a Local NG-RAN Node identifier currently in use it informs its neighbour NG-RAN nodes about this change.', '', 'The I-RNTI profiles for Full I-RNTI are described in table F-1.', '', 'Table F-1: I-RNTI profiles for Full I-RNTI', '', 'I-RNTI Profile Identity', '', 'I-RNTI profile value', '(binary encoding)', '', '0', '', '0b00', '', '1', '', '0b01', '', '2', '', '0b10', '', '3', '', '0b11', '', '', '', 'The I-RNTI profiles for Short I-RNTI are described in table F-2.', '', 'Table F-2: I-RNTI profiles for Short I-RNTI', '', 'I-RNTI Profile Identity', '', 'I-RNTI profile value', '(binary encoding)', '', '', '0', '', '0b0', '', '1', '', '0b1', '', '', '', '', '', '', 'Annex G (informative):', 'Components of Mobility Latency', '', 'Mobility interruption time for L1/L2 Triggered Mobility (LTM) is the time from UE receives the cell switch command to UE performs the first DL/UL reception/transmission on the indicated beam of the target cell.', '', 'The latency of the mobility procedure for LTM is characterized by the terms illustrated in Figure G-1.', '', '----media/image122.emf----', '', 'Figure G-1: Components of Mobility Latency for LTM', '', 'Each component of mobility latency is described in the table below, the values of which are specified in clause 6.3 of TS 38.133 [13]. The value of T&lt;sub&gt;RRC &lt;/sub&gt;is specified in clause 12 of TS 38.331 [12].', '', 'Table G-1: Components of Mobility Latency', '', 'Component', '', 'Meaning', '', 'T&lt;sub&gt;RRC&lt;/sub&gt;', '', 'Processing time for &lt;i&gt;RRCReconfiguration&lt;/i&gt; carrying candidate configurations', '', 'T&lt;sub&gt;cmd&lt;/sub&gt;', '', 'Time for processing L1/L2-command (HARQ and parsing)', '', 'T&lt;sub&gt;LTM-RRC-processing&lt;/sub&gt;', '', 'Early ASN.1 decoding and validity/compliance check', '', 'T&lt;sub&gt;LTM-Processing&lt;/sub&gt;', '', 'UE processing including applying target cell parameters and L1/L2 changes', '', 'T&lt;sub&gt;first-RS&lt;/sub&gt;', '', 'Time for fine tracking and acquiring full timing information', '', 'T&lt;sub&gt;RS-proc&lt;/sub&gt;', '', 'Time for SSB processing', '', 'T&lt;sub&gt;LTM IU&lt;/sub&gt;', '', 'Interruption uncertainty in acquiring the first UL transmission ', '', 'T&lt;sub&gt;RAR&lt;/sub&gt;', '', 'Time for RAR delay', '', 'T&lt;sub&gt;first-data&lt;/sub&gt;', '', 'Time for UE performs the first DL/UL reception/ transmission on the indicated beam of the target cell, after RAR', '', '', '', 'The latency of the RACH-based and RACH-less LTM procedure is characterized by the terms illustrated in Figure G-2 and Figure G-3. In particular, Figure G-2 shows the LTM procedure where UE activates a TCI state of an LTM candidate cell before performing an LTM cell switch which involves a random access procedure. Further, Figure G-3 shows the LTM procedure when the UE performs the UL and DL synchronization before performing an LTM cell switch which does not involve any random access. In both figures, it is highlighted how the overall mobility latency of LTM can be reduced by early synchronization procedure. Further details on the UE processing timer of the delay components are specified in clause 6.3 of TS 38.133[13].', '', '----media/image123.emf----', '', 'Figure G-2: Mobility Latency for RACH-based LTM', '', '----media/image124.emf----', '', 'Figure G-3: Mobility Latency for RACH-less LTM', '', '', '', '', 'Annex H (informative):', 'Change history', '', '', '', '&lt;b&gt;Change history&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Date&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Meeting&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TDoc&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New Version&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017.03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN2 97bis&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;R2-1702627&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;First version.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017.04&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN2 97bis&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;R2-1703825&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Editorial Updates:&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Stage 2 Details of ARQ operation marked as FFS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Placeholder for CU/DU Split overview added&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Outdated editor notes removed&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Protocol Architecture updated&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- NG-RAN terminology aligned&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Header placement in the L2 overview put as FFS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.1.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017.04&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN2 97bis&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;R2-1703952&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Editorial Updates:&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- description of measurements for mobility clarified&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- some cell reselection details put FFS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- outdated references removed&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.1.2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017.04&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN2 98&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;R2-1704296&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Editorial updates:&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- NG interfaces naming aligned to RAN3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- 5GC used consistently&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Statement on lossless delivery removed from 9.3.2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Overview of PDCP function for CP detailed&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.1.3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017.05&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN2 98&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;R2-1704298&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Agreements of RAN2#97bis captured:&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- overview of duplication operation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- RLC modes for DRBs and SRBs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Condition for lossless mobility&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- L2 handling at handover&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- RLF triggers&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Measurement details (filtering, beams, quality…)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- QoS flow handling in DC&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- RACH procedure message usage for on-demand SI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Random Access Procedure triggers&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- DRX baseline&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017.05&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN2 98&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;R2-1704452&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN3 agreements captured (R3-171329)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5G logo and specification title updated&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.2.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017.05&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN2 98&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;R2-1705994&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RLC failure for RLF generalized.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017.06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN2 98&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;R2-1706204&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Agreements of RAN2#98 captured:&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Duplication Control&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- RLC mode for SRB0 and System Info&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Provision of Assistance Info for AMF Selection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- QoS Handling from R2-1706011&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Beam measurements combining&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- MSG1 request details for on-demand SI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- RNA and RLAU terminology introduced for INACTIVE&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Skipping of SPS resources when nothing to transmit&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Duplication detection at RLC only for AM&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Provision of access category by NAS for connection control&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Editorial updates in addition:&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- QFI used consistently&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.3.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017.06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN2 98&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;R2-1706205&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN3 agreements captured (R3-171932) &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017.06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN2 98&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;R2-1706206&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections:&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- provision of AC in INACTIVE is FFS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- agreements on measurement moved from 9.2.1.1 to 9.2.4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.4.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017.06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NR Adhoc 2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;R2-1706540&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Editorial corrections&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Agreement on RLC Segmentation captured&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Duplicated statement in 9.2.1.1. and 7.3 removed&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017.08&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN2 99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;R2-1707748&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Agreements of RAN2 NR June Adhoc captured:&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- TP on Security in R2-1707466&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- TP on Measurement Model in R2-1707480&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- NCR Acronym addition&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Duplication control details&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- UE capabilities and band combinations&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Disabling of PDPC reordering as PDCP function&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- On-Demand SI and RACH details&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Measurement Report Characteristics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Mapping rules update handling&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- UE Capabilities and Band Combination handling&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;In addition:&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- ARQ overview aligned with Stage 3 agreements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- L2 Data Flow aligned with Stage 3 agreements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- References updated&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN3 TP incorporated (R3-172610)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017.08&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN2 99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;R2-1709937&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Agreements of RAN2 99 captured:&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- QoS update in R2-1709830&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Description of the RRC states in R2-1707690&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Correction on RRC_INACTIVE state in R2-1709833&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- LCP description in R2-1709829&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Baseline HO procedure update in R2-1709850 with corrections&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- UE identities in R2-1709868&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Radio Link Failure handling in R2-1709870&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- RAN3 agreements on roaming restrictions in R3-172655&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Integrity protection configurable on a per DRB basis&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Various Acronyms added&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Slicing details&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- PWS basic principles&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- UE capability restrictions&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.7.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017.09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN 77&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RP-171730&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Provided for information to RAN&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017.10&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN2 99bis&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;R2-1710693&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Editorial Updates and Corrections:&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- inter RAT mobility in 9.3.2 restructured&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- SON promoted to top clause level (as it is not a vertical)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Obsolete clauses 14 and 15 removed.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Description of paging in idle aligned with 23.501&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- I-RNTI suggested for INACTIVE&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Missing agreement from RAN2 99 on INACTIVE captured&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1.0.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017.10&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN2 99bis&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;R2-1711936&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clean version&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017.10&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN2 99bis&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;R2-1711972&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections:&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Container for mobility in 9.2.3.2.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- "HO" changed to "handover" for consistency&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Agreements from RAN2 99bis captured:&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- URLLC text in R2-1710253&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Clarification on RRC States in R2-1710074&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Resume ID terminology in R2-1711778&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Slicing clarifications in R2-1712034&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Usage of SRB0 and SRB1 in INACTIVE&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Prioritisation of RACH resources for handover&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- SPS configuration per SCell in CA&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Enabling / Disabling IP on DRB via handover only&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- First agreements on Supplementary Uplink&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Maximum supported data rate calculation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN3 agreements:&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- R3-173639 on Rapporteur updates to RAN3-related clauses&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- R3-174162 on AMF discovery by NG-RAN&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- R3-174187 on RAN paging failure handling in RRC_INACTIVE&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- R3-174188 on Unreachability in RAN Inactive State&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- R3-174225 on Inter System Handover&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- R3-174230 on RRC Inactive Assistant Information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN agreement:&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- RP-172113 on UE categories. &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1.1.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017.11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN2 100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;R2-1712266&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clean version&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017.11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN2 100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;R2-1712355&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Editorial Clean Up:&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Editor\'s Notes &amp;amp; relevant FFS moved to R2-17112357&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Protocol stack figures for NG interface updated&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Dual Connectivity changed to Multi-RAT connectivity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Details about SI handling added to tackle RMSI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Access Control updated and reference to 22.261 added&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- DC specific details removed (37.340 is used instead)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Notes numbered wherever required&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1.2.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017.12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN2 100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;R2-174079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Agreements from RAN2 100 captured:&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- QoS update in R2-1714230&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Updates to stage 2 QoS flow in R2-1712687&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- BWP Description in R2-172360&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Transition from INACTIVE to CONNECTED in R2-173937&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- SUL overview&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- Removal of DC related definitions&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- BWP agreements&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- SPS terminology changed to CS to cover both types&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN3 agreements in R3-175011&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN1 agreements in R1-1721728&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1.2.2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017.12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RAN2 100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;R2-1714252&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clean version&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017.12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RP-78&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RP-172496&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Provided for approval to RAN&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017/12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RP-78&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Upgraded to Rel-15 (MCC)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018/03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RP-180440&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0009&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Miscellaneous Corrections &amp;amp; Additions&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018/06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RP-181214&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0010&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on NR Carrier Aggregation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;RP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RP-181214&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0011&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Miscellaneous Corrections&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;RP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RP-181214&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0012&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Paging Mechanisms&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;RP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RP-181214&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0013&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Security Update&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;RP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;RP-181214&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0014&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE Identities&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;RP-80&lt;/span&gt;', '', '&lt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;16.1.1	Overview&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>38300-i20.docx</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1402119498181043</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['', 'The support of Ultra-Reliable and Low Latency Communications (URLLC) services is facilitated by the introduction of the mechanisms described in the following clauses. Please note however that those mechanisms need not be limited to the provision of URLLC services. Furthermore, RRC can associate logical channels with different SR configurations, for instance, to provide more frequent SR opportunities to URLLC services.', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;16.15.1	General&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>38300-i20.docx</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1282207009300503</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['', 'This clause describes the functionalities for the support of eXtended Reality (XR) services that require high data rate and low latency communications. An overview of XR services is available in TR 38.835 [57], while the service requirements are documented in TS 22.261 [19].', '']</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>&lt;h3&gt;16.1.3	Packet Duplication&lt;/h3&gt;</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>38300-i20.docx</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.149503566459625</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['', 'When duplication is configured for a radio bearer by RRC, at least one secondary RLC entity is added to the radio bearer to handle the duplicated PDCP PDUs as depicted on Figure 16.1.3-1, where the logical channel corresponding to the primary RLC entity is referred to as &lt;i&gt;the primary logical channel&lt;/i&gt;, and the logical channel corresponding to the secondary RLC entity(ies), the &lt;i&gt;secondary logical channel(s)&lt;/i&gt;. All RLC entities have the same RLC mode. Duplication at PDCP therefore consists in submitting the same PDCP PDUs multiple times: once to each activated RLC entity for the radio bearer. With multiple independent transmission paths, packet duplication therefore increases reliability and reduces latency and is especially beneficial for URLLC services.', '', '----media/image66.emf----', '', 'Figure 16.1.3-1: Packet Duplication', '', 'NOTE:\tPDCP control PDUs are not duplicated and always submitted to the primary RLC entity.', '', 'When configuring duplication for a DRB, RRC also sets the state of PDCP duplication (either activated or deactivated) at the time of (re-)configuration. After the configuration, the PDCP duplication state can then be dynamically controlled by means of a MAC control element and in DC, the UE applies the MAC CE commands regardless of their origin (MCG or SCG). When duplication is configured for an SRB the state is always active and cannot be dynamically controlled. When configuring duplication for a DRB with more than one secondary RLC entity, RRC also sets the state of each of them (i.e. either activated or deactivated). Subsequently, a MAC CE can be used to dynamically control whether each of the configured secondary RLC entities for a DRB should be activated or deactivated, i.e. which of the RLC entities shall be used for duplicate transmission. Primary RLC entity cannot be deactivated. When duplication is deactivated for a DRB, all secondary RLC entities associated to this DRB are deactivated. When a secondary RLC entity is deactivated, it is not re-established, the HARQ buffers are not flushed, and the transmitting PDCP entity should indicate to the secondary RLC entity to discard all duplicated PDCP PDUs.', '', 'When activating duplication for a DRB, NG-RAN should ensure that at least one serving cell is activated for each logical channel associated with an activated RLC entity of the DRB; and when the deactivation of SCells leaves no serving cells activated for a logical channel of the DRB, NG-RAN should ensure that duplication is also deactivated for the RLC entity associated with the logical channel.', '', 'When duplication is activated, the original PDCP PDU and the corresponding duplicate(s) shall not be transmitted on the same carrier. The logical channels of a radio bearer configured with duplication can either belong to the same MAC entity (referred to as CA duplication) or to different ones (referred to as DC duplication). CA duplication can also be configured in either or both of the MAC entities together with DC duplication when duplication over more than two RLC entities is configured for the radio bearer. In CA duplication, logical channel mapping restrictions are used in a MAC entity to ensure that the different logical channels of a radio bearer in the MAC entity are not sent on the same carrier. When CA duplication is configured for an SRB, one of the logical channels associated to the SRB is mapped to SpCell.', '', 'When CA duplication is deactivated for a DRB in a MAC entity (i.e. none or only one of RLC entities of the DRB in the MAC entity remains activated), the logical channel mapping restrictions of the logical channels of the DRB are lifted for as long as CA duplication remains deactivated for the DRB in the MAC entity.', '', 'When an RLC entity acknowledges the transmission of a PDCP PDU, the PDCP entity shall indicate to the other RLC entity(ies) to discard it. In addition, in case of CA duplication, when an RLC entity restricted to only SCell(s) reaches the maximum number of retransmissions for a PDCP PDU, the UE informs the gNB but does not trigger RLF.', '']</t>
         </is>
       </c>
     </row>
